--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim Goodall\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewn-private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6F5C2-3C49-4544-AA6D-9BA6245193CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4DDD7-B14C-40DB-8E0E-92C09A9F78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -87,21 +87,10 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5827,34 +5816,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.1580999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9770800000000022E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7787100000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7977579999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.8974700000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0914719999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.086380000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.8698199999999952E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.4224300000000023E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9.462806E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.27079999999999999</c:v>
@@ -8419,7 +8408,6 @@
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Functions"/>
-      <sheetName val="TriLookup"/>
     </sheetNames>
     <definedNames>
       <definedName name="TVLOOKUP"/>
@@ -8427,7 +8415,6 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8733,10 +8720,10 @@
   <dimension ref="A1:BE162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B164" sqref="B164"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32563,7 +32550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
@@ -39517,17 +39504,17 @@
         <f>LOG(L33)</f>
         <v>-8.1923290993010909</v>
       </c>
-      <c r="O33" t="e">
-        <f ca="1">(EXP((P33-0.16374724)/0.0146659))/COS(RADIANS(J33))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P33" t="e">
-        <f ca="1">[1]!TVLOOKUP(K33,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q33" t="e">
-        <f ca="1">LOG(P33)</f>
-        <v>#NAME?</v>
+      <c r="O33">
+        <f>(EXP((P33-0.16374724)/0.0146659))/COS(RADIANS(J33))</f>
+        <v>3.0472004366295285E-5</v>
+      </c>
+      <c r="P33">
+        <f>[1]!TVLOOKUP(K33,$V$38:$W$60,"alt","dens",4)</f>
+        <v>6.1580999999999997E-3</v>
+      </c>
+      <c r="Q33">
+        <f>LOG(P33)</f>
+        <v>-2.2105532629652065</v>
       </c>
     </row>
     <row r="34" spans="7:23" x14ac:dyDescent="0.25">
@@ -39555,17 +39542,17 @@
         <f t="shared" ref="N34:N47" si="7">LOG(L34)</f>
         <v>-8.4802430733833223</v>
       </c>
-      <c r="O34" t="e">
-        <f t="shared" ref="O34:O47" ca="1" si="8">(EXP((P34-0.16374724)/0.0146659))/COS(RADIANS(J34))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P34" t="e">
-        <f ca="1">[1]!TVLOOKUP(K34,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q34" t="e">
-        <f t="shared" ref="Q34:Q47" ca="1" si="9">LOG(P34)</f>
-        <v>#NAME?</v>
+      <c r="O34">
+        <f t="shared" ref="O34:O47" si="8">(EXP((P34-0.16374724)/0.0146659))/COS(RADIANS(J34))</f>
+        <v>2.2913446573949714E-5</v>
+      </c>
+      <c r="P34">
+        <f>[1]!TVLOOKUP(K34,$V$38:$W$60,"alt","dens",4)</f>
+        <v>1.9770800000000022E-3</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q47" si="9">LOG(P34)</f>
+        <v>-2.703975757163001</v>
       </c>
     </row>
     <row r="35" spans="7:23" x14ac:dyDescent="0.25">
@@ -39593,17 +39580,17 @@
         <f t="shared" si="7"/>
         <v>-7.83539771173891</v>
       </c>
-      <c r="O35" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P35" t="e">
-        <f ca="1">[1]!TVLOOKUP(K35,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q35" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>2.4200743914927992E-5</v>
+      </c>
+      <c r="P35">
+        <f>[1]!TVLOOKUP(K35,$V$38:$W$60,"alt","dens",4)</f>
+        <v>2.7787100000000011E-3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>-2.5561567759904102</v>
       </c>
     </row>
     <row r="36" spans="7:23" x14ac:dyDescent="0.25">
@@ -39631,17 +39618,17 @@
         <f t="shared" si="7"/>
         <v>-8.1580790802116709</v>
       </c>
-      <c r="O36" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P36" t="e">
-        <f ca="1">[1]!TVLOOKUP(K36,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q36" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>6.8219069434594662E-5</v>
+      </c>
+      <c r="P36">
+        <f>[1]!TVLOOKUP(K36,$V$38:$W$60,"alt","dens",4)</f>
+        <v>1.7977579999999996E-2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>-1.7452687699654821</v>
       </c>
     </row>
     <row r="37" spans="7:23" x14ac:dyDescent="0.25">
@@ -39669,17 +39656,17 @@
         <f t="shared" si="7"/>
         <v>-8.2977332045105587</v>
       </c>
-      <c r="O37" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P37" t="e">
-        <f ca="1">[1]!TVLOOKUP(K37,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q37" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>2.4397509782396716E-5</v>
+      </c>
+      <c r="P37">
+        <f>[1]!TVLOOKUP(K37,$V$38:$W$60,"alt","dens",4)</f>
+        <v>2.8974700000000005E-3</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>-2.5379810519655419</v>
       </c>
     </row>
     <row r="38" spans="7:23" x14ac:dyDescent="0.25">
@@ -39707,17 +39694,17 @@
         <f t="shared" si="7"/>
         <v>-7.4125524487981629</v>
       </c>
-      <c r="O38" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P38" t="e">
-        <f ca="1">[1]!TVLOOKUP(K38,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q38" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>4.2146022986679156E-5</v>
+      </c>
+      <c r="P38">
+        <f>[1]!TVLOOKUP(K38,$V$38:$W$60,"alt","dens",4)</f>
+        <v>1.0914719999999994E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>-1.9619874009548128</v>
       </c>
       <c r="V38" t="s">
         <v>1518</v>
@@ -39751,17 +39738,17 @@
         <f t="shared" si="7"/>
         <v>-8.1511788185600391</v>
       </c>
-      <c r="O39" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P39" t="e">
-        <f ca="1">[1]!TVLOOKUP(K39,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q39" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>2.1563265697061995E-5</v>
+      </c>
+      <c r="P39">
+        <f>[1]!TVLOOKUP(K39,$V$38:$W$60,"alt","dens",4)</f>
+        <v>1.086380000000002E-3</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>-2.9640182382491305</v>
       </c>
       <c r="V39">
         <v>-1</v>
@@ -39875,17 +39862,17 @@
         <f t="shared" si="7"/>
         <v>-7.9889699194594996</v>
       </c>
-      <c r="O42" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P42" t="e">
-        <f ca="1">[1]!TVLOOKUP(K42,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q42" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>2.9878880422068391E-5</v>
+      </c>
+      <c r="P42">
+        <f>[1]!TVLOOKUP(K42,$V$38:$W$60,"alt","dens",4)</f>
+        <v>5.8698199999999952E-3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="9"/>
+        <v>-2.231375216334214</v>
       </c>
       <c r="V42">
         <v>2</v>
@@ -39959,17 +39946,17 @@
         <f t="shared" si="7"/>
         <v>-8.7647349669095256</v>
       </c>
-      <c r="O44" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P44" t="e">
-        <f ca="1">[1]!TVLOOKUP(K44,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q44" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>2.3619916719793018E-5</v>
+      </c>
+      <c r="P44">
+        <f>[1]!TVLOOKUP(K44,$V$38:$W$60,"alt","dens",4)</f>
+        <v>2.4224300000000023E-3</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="9"/>
+        <v>-2.6157487637314656</v>
       </c>
       <c r="V44">
         <v>4</v>
@@ -40003,17 +39990,17 @@
         <f t="shared" si="7"/>
         <v>-2.3475685827428059</v>
       </c>
-      <c r="O45" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="P45" t="e">
-        <f ca="1">[1]!TVLOOKUP(K45,$V$38:$W$60,"alt","dens",4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q45" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>9.8175870685623841E-3</v>
+      </c>
+      <c r="P45">
+        <f>[1]!TVLOOKUP(K45,$V$38:$W$60,"alt","dens",4)</f>
+        <v>9.462806E-2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>-1.023980063427117</v>
       </c>
       <c r="V45">
         <v>5</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewn-private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4DDD7-B14C-40DB-8E0E-92C09A9F78DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5D348-9356-457E-B784-727EEC07DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="6165" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -8720,10 +8720,10 @@
   <dimension ref="A1:BE162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AU159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="AH160" sqref="AH160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32107,7 +32107,7 @@
         <v>-1.5</v>
       </c>
       <c r="AH160" s="5">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="AI160" s="45">
         <v>0</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5D348-9356-457E-B784-727EEC07DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA4E3D5-DE24-4852-8B88-5E551740D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -8720,10 +8720,10 @@
   <dimension ref="A1:BE162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AU159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AA156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AH160" sqref="AH160"/>
+      <selection pane="bottomRight" activeCell="AG161" sqref="AG161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31161,10 +31161,10 @@
         <v>1339</v>
       </c>
       <c r="O155" s="3">
-        <v>35.652282</v>
+        <v>35.6509815</v>
       </c>
       <c r="P155" s="3">
-        <v>-95.406335999999996</v>
+        <v>-95.404224999999997</v>
       </c>
       <c r="Q155" s="3">
         <v>17789.5</v>
@@ -31209,19 +31209,19 @@
         <v>3</v>
       </c>
       <c r="AD155" s="5">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE155" s="5">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AF155" s="5">
         <v>310</v>
       </c>
       <c r="AG155" s="5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AH155" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AI155" s="45">
         <v>0</v>
@@ -31576,7 +31576,7 @@
         <v>-1.5</v>
       </c>
       <c r="AH157" s="5">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="AI157" s="45">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>-1.5</v>
       </c>
       <c r="AH158" s="5">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="AI158" s="45">
         <v>0</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA4E3D5-DE24-4852-8B88-5E551740D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE0B16-5AB5-46A7-8A2B-D534566B9FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1579">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -4854,9 +4854,6 @@
     <t>2023 CX1 MPC</t>
   </si>
   <si>
-    <t>2023 CX1 Carbonaceous</t>
-  </si>
-  <si>
     <t>Audenhain</t>
   </si>
   <si>
@@ -4870,6 +4867,9 @@
   </si>
   <si>
     <t>Howard City</t>
+  </si>
+  <si>
+    <t>LL</t>
   </si>
 </sst>
 </file>
@@ -8717,13 +8717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BE162"/>
+  <dimension ref="A1:BE161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AA156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="Z147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AG161" sqref="AG161"/>
+      <selection pane="bottomRight" activeCell="AH157" sqref="AH157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31177,7 +31177,7 @@
         <v>5000</v>
       </c>
       <c r="T155" s="3">
-        <f t="shared" ref="T155:T162" si="12">M155</f>
+        <f t="shared" ref="T155:T161" si="12">M155</f>
         <v>59</v>
       </c>
       <c r="U155" s="3">
@@ -31540,13 +31540,13 @@
         <v>21327</v>
       </c>
       <c r="V157" s="3" t="s">
-        <v>83</v>
+        <v>1438</v>
       </c>
       <c r="W157" s="3" t="s">
-        <v>385</v>
+        <v>1578</v>
       </c>
       <c r="X157" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="Y157" s="3">
         <v>60000</v>
@@ -31576,7 +31576,7 @@
         <v>-1.5</v>
       </c>
       <c r="AH157" s="5">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AI157" s="45">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>-1.5</v>
       </c>
       <c r="AH158" s="5">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AI158" s="45">
         <v>0</v>
@@ -32003,75 +32003,74 @@
     </row>
     <row r="160" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>1573</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1560</v>
+        <v>1573</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1561</v>
+        <v>1574</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>634</v>
+        <v>144</v>
       </c>
       <c r="F160" s="17">
-        <v>44970.124502314815</v>
+        <v>44965.966666666667</v>
       </c>
       <c r="G160" s="21">
         <v>1</v>
       </c>
       <c r="H160" s="4">
-        <f t="shared" ref="H160:H162" si="13">F160+G160/24</f>
-        <v>44970.166168981479</v>
+        <f t="shared" ref="H160:H161" si="13">F160+G160/24</f>
+        <v>44966.008333333331</v>
       </c>
       <c r="I160" s="3">
-        <v>1727</v>
+        <v>16</v>
       </c>
       <c r="J160" s="3">
-        <v>14060.9</v>
+        <v>12500</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" ref="K160:K162" si="14">I160*J160^2/2/4.184/10^12</f>
-        <v>4.0803451901872602E-2</v>
+        <f t="shared" ref="K160:K161" si="14">I160*J160^2/2/4.184/10^12</f>
+        <v>2.9875717017208408E-4</v>
       </c>
       <c r="L160" s="3">
-        <v>102.16289999999999</v>
+        <v>95.39</v>
       </c>
       <c r="M160" s="3">
-        <f>90-48.5766</f>
-        <v>41.423400000000001</v>
+        <v>24.6</v>
       </c>
       <c r="N160" s="3" t="s">
         <v>1339</v>
       </c>
       <c r="O160" s="3">
-        <v>49.831260999999998</v>
+        <v>51.498026000000003</v>
       </c>
       <c r="P160" s="3">
-        <v>0.50337500000000002</v>
+        <v>12.788249</v>
       </c>
       <c r="Q160" s="3">
-        <v>44751.68</v>
+        <v>26000</v>
       </c>
       <c r="R160" s="3">
-        <f>Q160</f>
-        <v>44751.68</v>
+        <v>26000</v>
       </c>
       <c r="S160" s="3">
         <v>5000</v>
       </c>
       <c r="T160" s="3">
         <f t="shared" si="12"/>
-        <v>41.423400000000001</v>
+        <v>24.6</v>
       </c>
       <c r="U160" s="3">
-        <v>21327</v>
+        <f>R160</f>
+        <v>26000</v>
       </c>
       <c r="V160" s="3" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="W160" s="3" t="s">
         <v>385</v>
@@ -32086,7 +32085,7 @@
         <v>60000</v>
       </c>
       <c r="AA160" s="5">
-        <v>82.8</v>
+        <v>200</v>
       </c>
       <c r="AB160" s="5">
         <v>0.46010000000000001</v>
@@ -32101,13 +32100,13 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AF160" s="5">
-        <v>45.37</v>
+        <v>200</v>
       </c>
       <c r="AG160" s="5">
         <v>-1.5</v>
       </c>
       <c r="AH160" s="5">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI160" s="45">
         <v>0</v>
@@ -32158,7 +32157,7 @@
         <v>0</v>
       </c>
       <c r="AY160" s="38">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AZ160" s="38">
         <v>0</v>
@@ -32173,7 +32172,7 @@
         <v>4</v>
       </c>
       <c r="BD160" s="40" t="s">
-        <v>1421</v>
+        <v>1576</v>
       </c>
       <c r="BE160" s="40">
         <v>0</v>
@@ -32181,71 +32180,72 @@
     </row>
     <row r="161" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1575</v>
+        <v>5</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="F161" s="17">
-        <v>44965.966666666667</v>
+        <v>44977.076851851853</v>
       </c>
       <c r="G161" s="21">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="H161" s="4">
         <f t="shared" si="13"/>
-        <v>44966.008333333331</v>
+        <v>44976.868518518517</v>
       </c>
       <c r="I161" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J161" s="3">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="K161" s="3">
         <f t="shared" si="14"/>
-        <v>2.9875717017208408E-4</v>
+        <v>1.8672323135755257E-3</v>
       </c>
       <c r="L161" s="3">
-        <v>95.39</v>
+        <v>286.34449999999998</v>
       </c>
       <c r="M161" s="3">
-        <v>24.6</v>
+        <f>90-26.2985</f>
+        <v>63.701499999999996</v>
       </c>
       <c r="N161" s="3" t="s">
         <v>1339</v>
       </c>
       <c r="O161" s="3">
-        <v>51.498026000000003</v>
+        <v>43.427529</v>
       </c>
       <c r="P161" s="3">
-        <v>12.788249</v>
+        <v>-85.524208000000002</v>
       </c>
       <c r="Q161" s="3">
-        <v>26000</v>
+        <v>37595</v>
       </c>
       <c r="R161" s="3">
-        <v>26000</v>
+        <f>Q161</f>
+        <v>37595</v>
       </c>
       <c r="S161" s="3">
         <v>5000</v>
       </c>
       <c r="T161" s="3">
         <f t="shared" si="12"/>
-        <v>24.6</v>
+        <v>63.701499999999996</v>
       </c>
       <c r="U161" s="3">
-        <f>R161</f>
-        <v>26000</v>
+        <v>37595</v>
       </c>
       <c r="V161" s="3" t="s">
         <v>146</v>
@@ -32263,22 +32263,22 @@
         <v>60000</v>
       </c>
       <c r="AA161" s="5">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB161" s="5">
-        <v>0.46010000000000001</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="AC161" s="5">
-        <v>0.19919999999999999</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="AD161" s="5">
         <v>1E-3</v>
       </c>
       <c r="AE161" s="5">
-        <v>6.9999999999999999E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="AF161" s="5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AG161" s="5">
         <v>-1.5</v>
@@ -32335,7 +32335,7 @@
         <v>0</v>
       </c>
       <c r="AY161" s="38">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AZ161" s="38">
         <v>0</v>
@@ -32347,190 +32347,12 @@
         <v>0</v>
       </c>
       <c r="BC161" s="40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD161" s="40" t="s">
-        <v>1577</v>
+        <v>1421</v>
       </c>
       <c r="BE161" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A162" s="6">
-        <v>160</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="17">
-        <v>44977.076851851853</v>
-      </c>
-      <c r="G162" s="21">
-        <v>-5</v>
-      </c>
-      <c r="H162" s="4">
-        <f t="shared" si="13"/>
-        <v>44976.868518518517</v>
-      </c>
-      <c r="I162" s="3">
-        <v>25</v>
-      </c>
-      <c r="J162" s="3">
-        <v>25000</v>
-      </c>
-      <c r="K162" s="3">
-        <f t="shared" si="14"/>
-        <v>1.8672323135755257E-3</v>
-      </c>
-      <c r="L162" s="3">
-        <v>286.34449999999998</v>
-      </c>
-      <c r="M162" s="3">
-        <f>90-26.2985</f>
-        <v>63.701499999999996</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="O162" s="3">
-        <v>43.427529</v>
-      </c>
-      <c r="P162" s="3">
-        <v>-85.524208000000002</v>
-      </c>
-      <c r="Q162" s="3">
-        <v>37595</v>
-      </c>
-      <c r="R162" s="3">
-        <f>Q162</f>
-        <v>37595</v>
-      </c>
-      <c r="S162" s="3">
-        <v>5000</v>
-      </c>
-      <c r="T162" s="3">
-        <f t="shared" si="12"/>
-        <v>63.701499999999996</v>
-      </c>
-      <c r="U162" s="3">
-        <v>37595</v>
-      </c>
-      <c r="V162" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W162" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="X162" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y162" s="3">
-        <v>60000</v>
-      </c>
-      <c r="Z162" s="3">
-        <v>60000</v>
-      </c>
-      <c r="AA162" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AB162" s="5">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="AC162" s="5">
-        <v>0.87580000000000002</v>
-      </c>
-      <c r="AD162" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="AE162" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="AF162" s="5">
-        <v>500</v>
-      </c>
-      <c r="AG162" s="5">
-        <v>-1.5</v>
-      </c>
-      <c r="AH162" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="AI162" s="45">
-        <v>0</v>
-      </c>
-      <c r="AJ162" s="45">
-        <v>0</v>
-      </c>
-      <c r="AK162" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL162" s="23">
-        <v>0</v>
-      </c>
-      <c r="AM162" s="23">
-        <v>0</v>
-      </c>
-      <c r="AN162" s="23">
-        <v>0</v>
-      </c>
-      <c r="AO162" s="23">
-        <v>0</v>
-      </c>
-      <c r="AP162" s="23">
-        <v>0</v>
-      </c>
-      <c r="AQ162" s="23">
-        <v>0</v>
-      </c>
-      <c r="AR162" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS162" s="38">
-        <v>0</v>
-      </c>
-      <c r="AT162" s="38">
-        <v>0</v>
-      </c>
-      <c r="AU162" s="38">
-        <v>0</v>
-      </c>
-      <c r="AV162" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW162" s="38">
-        <v>0</v>
-      </c>
-      <c r="AX162" s="38">
-        <v>0</v>
-      </c>
-      <c r="AY162" s="38">
-        <v>138</v>
-      </c>
-      <c r="AZ162" s="38">
-        <v>0</v>
-      </c>
-      <c r="BA162" s="38">
-        <v>0</v>
-      </c>
-      <c r="BB162" s="38">
-        <v>0</v>
-      </c>
-      <c r="BC162" s="40">
-        <v>1</v>
-      </c>
-      <c r="BD162" s="40" t="s">
-        <v>1421</v>
-      </c>
-      <c r="BE162" s="40">
         <v>0</v>
       </c>
     </row>
@@ -34019,7 +33841,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913A4C7-DA19-45AD-AA22-9B8AA728A3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D35623C-EA92-452E-85C7-AD9F17CB9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -8794,10 +8794,10 @@
   <dimension ref="A1:BI161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AE168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS8" sqref="AS8"/>
+      <selection pane="bottomRight" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D35623C-EA92-452E-85C7-AD9F17CB9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18B516-AEE0-456C-846B-EAD640478A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -4009,12 +4009,6 @@
     <t>error_ZenithAngle_deg</t>
   </si>
   <si>
-    <t>error_Lat</t>
-  </si>
-  <si>
-    <t>error_Long</t>
-  </si>
-  <si>
     <t>weather_MinSigma</t>
   </si>
   <si>
@@ -4801,9 +4795,6 @@
     <t>sim_HeightFrag_m</t>
   </si>
   <si>
-    <t>error_Height_m</t>
-  </si>
-  <si>
     <t>Bearing_deg</t>
   </si>
   <si>
@@ -4910,6 +4901,15 @@
   </si>
   <si>
     <t>g/km^2</t>
+  </si>
+  <si>
+    <t>err_ref_Lat</t>
+  </si>
+  <si>
+    <t>err_ref_Long</t>
+  </si>
+  <si>
+    <t>error_ref_Height_m</t>
   </si>
 </sst>
 </file>
@@ -8794,10 +8794,10 @@
   <dimension ref="A1:BI161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AE168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AI3" sqref="AI3"/>
+      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8938,13 +8938,13 @@
         <v>161</v>
       </c>
       <c r="AI1" s="47" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="AJ1" s="47" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AK1" s="47" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AL1" s="14" t="s">
         <v>122</v>
@@ -8968,16 +8968,16 @@
         <v>136</v>
       </c>
       <c r="AS1" s="54" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="AT1" s="52" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AU1" s="52" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AV1" s="52" t="s">
         <v>1584</v>
-      </c>
-      <c r="AV1" s="52" t="s">
-        <v>1587</v>
       </c>
       <c r="AW1" s="14" t="s">
         <v>254</v>
@@ -9013,10 +9013,10 @@
         <v>1155</v>
       </c>
       <c r="BH1" s="42" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BI1" s="42" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2" spans="1:61" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9201,7 +9201,7 @@
         <v>49</v>
       </c>
       <c r="BI2" s="42" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="3" spans="1:61" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -9308,13 +9308,13 @@
         <v>164</v>
       </c>
       <c r="AI3" s="43" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AJ3" s="43" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AK3" s="43" t="s">
         <v>1321</v>
-      </c>
-      <c r="AJ3" s="43" t="s">
-        <v>1322</v>
-      </c>
-      <c r="AK3" s="43" t="s">
-        <v>1323</v>
       </c>
       <c r="AL3" s="14" t="s">
         <v>134</v>
@@ -9338,16 +9338,16 @@
         <v>137</v>
       </c>
       <c r="AS3" s="54" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="AT3" s="52" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="AU3" s="52" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AV3" s="52" t="s">
         <v>1585</v>
-      </c>
-      <c r="AV3" s="52" t="s">
-        <v>1588</v>
       </c>
       <c r="AW3" s="14" t="s">
         <v>1153</v>
@@ -9383,15 +9383,15 @@
         <v>1154</v>
       </c>
       <c r="BH3" s="42" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BI3" s="42" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="4" spans="1:61" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>1268</v>
@@ -9406,7 +9406,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>1270</v>
@@ -9421,13 +9421,13 @@
         <v>1272</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>1237</v>
@@ -9439,7 +9439,7 @@
         <v>1238</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>1280</v>
@@ -9451,7 +9451,7 @@
         <v>1253</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>1285</v>
@@ -9463,10 +9463,10 @@
         <v>1287</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="AA4" s="12" t="s">
         <v>1288</v>
@@ -9478,100 +9478,100 @@
         <v>1290</v>
       </c>
       <c r="AD4" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AG4" s="12" t="s">
         <v>1291</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AH4" s="12" t="s">
         <v>1292</v>
       </c>
-      <c r="AF4" s="12" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AI4" s="43" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AJ4" s="43" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AK4" s="43" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AN4" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="AH4" s="12" t="s">
-        <v>1294</v>
-      </c>
-      <c r="AI4" s="43" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AJ4" s="43" t="s">
-        <v>1322</v>
-      </c>
-      <c r="AK4" s="43" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AO4" s="14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AP4" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="AM4" s="14" t="s">
-        <v>1296</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>1295</v>
-      </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AQ4" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="AP4" s="14" t="s">
+      <c r="AR4" s="24" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AS4" s="54" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AT4" s="52" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AU4" s="52" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AV4" s="52" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AX4" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="AQ4" s="14" t="s">
+      <c r="AY4" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="AR4" s="24" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AS4" s="54" t="s">
-        <v>1590</v>
-      </c>
-      <c r="AT4" s="52" t="s">
-        <v>1586</v>
-      </c>
-      <c r="AU4" s="52" t="s">
-        <v>1585</v>
-      </c>
-      <c r="AV4" s="52" t="s">
-        <v>1588</v>
-      </c>
-      <c r="AW4" s="14" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AX4" s="14" t="s">
+      <c r="AZ4" s="14" t="s">
         <v>1301</v>
-      </c>
-      <c r="AY4" s="14" t="s">
-        <v>1302</v>
-      </c>
-      <c r="AZ4" s="14" t="s">
-        <v>1303</v>
       </c>
       <c r="BA4" s="14" t="s">
         <v>261</v>
       </c>
       <c r="BB4" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="BC4" s="14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BD4" s="14" t="s">
         <v>1304</v>
       </c>
-      <c r="BC4" s="14" t="s">
+      <c r="BE4" s="14" t="s">
         <v>1305</v>
       </c>
-      <c r="BD4" s="14" t="s">
+      <c r="BF4" s="14" t="s">
         <v>1306</v>
       </c>
-      <c r="BE4" s="14" t="s">
+      <c r="BG4" s="42" t="s">
         <v>1307</v>
       </c>
-      <c r="BF4" s="14" t="s">
-        <v>1308</v>
-      </c>
-      <c r="BG4" s="42" t="s">
-        <v>1309</v>
-      </c>
       <c r="BH4" s="42" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BI4" s="42" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="AI5" s="43"/>
       <c r="AJ5" s="46" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="AK5" s="43"/>
       <c r="AL5" s="14" t="s">
@@ -9692,7 +9692,7 @@
         <v>139</v>
       </c>
       <c r="AS5" s="54" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="AT5" s="52" t="s">
         <v>12</v>
@@ -9701,7 +9701,7 @@
         <v>138</v>
       </c>
       <c r="AV5" s="52" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="AW5" s="2" t="s">
         <v>255</v>
@@ -9753,7 +9753,7 @@
         <v>24.134599999999999</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O6" s="9">
         <v>42.451000000000001</v>
@@ -9816,7 +9816,7 @@
         <v>1</v>
       </c>
       <c r="AI6" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ6" s="44">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>4</v>
       </c>
       <c r="BH6" s="40" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="BI6" s="40">
         <v>0</v>
@@ -9908,7 +9908,7 @@
         <v>70</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O7" s="9">
         <v>41.573880000000003</v>
@@ -9971,7 +9971,7 @@
         <v>1.5</v>
       </c>
       <c r="AI7" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ7" s="44">
         <v>0</v>
@@ -10014,7 +10014,7 @@
         <v>3</v>
       </c>
       <c r="BH7" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI7" s="40">
         <v>0</v>
@@ -10063,7 +10063,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O8" s="3">
         <v>41.46</v>
@@ -10126,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="AI8" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ8" s="44">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>3</v>
       </c>
       <c r="BH8" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI8" s="40">
         <v>0</v>
@@ -10251,7 +10251,7 @@
         <v>52.4</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O9" s="3">
         <v>41.411000000000001</v>
@@ -10314,7 +10314,7 @@
         <v>1.5</v>
       </c>
       <c r="AI9" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ9" s="44">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>3</v>
       </c>
       <c r="BH9" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI9" s="40">
         <v>0</v>
@@ -10469,7 +10469,7 @@
         <v>1.5</v>
       </c>
       <c r="AI10" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ10" s="44">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>3</v>
       </c>
       <c r="BH10" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI10" s="40">
         <v>0</v>
@@ -10624,7 +10624,7 @@
         <v>1.5</v>
       </c>
       <c r="AI11" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ11" s="44">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>2</v>
       </c>
       <c r="BH11" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI11" s="40">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>1.5</v>
       </c>
       <c r="AI12" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ12" s="44">
         <v>0</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="BH12" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI12" s="40">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>1.5</v>
       </c>
       <c r="AI13" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ13" s="44">
         <v>0</v>
@@ -10979,7 +10979,7 @@
         <v>2</v>
       </c>
       <c r="BH13" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI13" s="40">
         <v>0</v>
@@ -11091,7 +11091,7 @@
         <v>1.5</v>
       </c>
       <c r="AI14" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ14" s="44">
         <v>0</v>
@@ -11134,7 +11134,7 @@
         <v>3</v>
       </c>
       <c r="BH14" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI14" s="40">
         <v>0</v>
@@ -11183,7 +11183,7 @@
         <v>49.556575067343871</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O15" s="3">
         <v>39.905811999999997</v>
@@ -11246,7 +11246,7 @@
         <v>1.5</v>
       </c>
       <c r="AI15" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ15" s="44">
         <v>0</v>
@@ -11289,7 +11289,7 @@
         <v>3</v>
       </c>
       <c r="BH15" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI15" s="40">
         <v>0</v>
@@ -11401,7 +11401,7 @@
         <v>1.5</v>
       </c>
       <c r="AI16" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ16" s="44">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>3</v>
       </c>
       <c r="BH16" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI16" s="40">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>1.5</v>
       </c>
       <c r="AI17" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ17" s="44">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>2</v>
       </c>
       <c r="BH17" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI17" s="40">
         <v>0</v>
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ18" s="44">
         <v>0</v>
@@ -11740,7 +11740,7 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="AS18" s="55">
-        <f t="shared" ref="AS6:AS31" si="2">AN18/AL18*1000</f>
+        <f t="shared" ref="AS18:AS31" si="2">AN18/AL18*1000</f>
         <v>18.168498168498168</v>
       </c>
       <c r="AT18" s="53">
@@ -11786,7 +11786,7 @@
         <v>3</v>
       </c>
       <c r="BH18" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI18" s="40">
         <v>0</v>
@@ -11899,7 +11899,7 @@
         <v>1.5</v>
       </c>
       <c r="AI19" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ19" s="44">
         <v>0</v>
@@ -11974,7 +11974,7 @@
         <v>3</v>
       </c>
       <c r="BH19" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI19" s="40">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>1.5</v>
       </c>
       <c r="AI20" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ20" s="44">
         <v>0</v>
@@ -12128,7 +12128,7 @@
         <v>2</v>
       </c>
       <c r="BH20" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI20" s="40">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>70.900000000000006</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O21" s="3">
         <v>41.158000000000001</v>
@@ -12240,7 +12240,7 @@
         <v>1.5</v>
       </c>
       <c r="AI21" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ21" s="44">
         <v>0</v>
@@ -12283,7 +12283,7 @@
         <v>3</v>
       </c>
       <c r="BH21" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI21" s="40">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>48.67</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O22" s="3">
         <v>53.283647999999999</v>
@@ -12395,7 +12395,7 @@
         <v>1.5</v>
       </c>
       <c r="AI22" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ22" s="44">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>2</v>
       </c>
       <c r="BH22" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI22" s="40">
         <v>0</v>
@@ -12550,7 +12550,7 @@
         <v>1.5</v>
       </c>
       <c r="AI23" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ23" s="44">
         <v>0</v>
@@ -12593,7 +12593,7 @@
         <v>2</v>
       </c>
       <c r="BH23" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI23" s="40">
         <v>0</v>
@@ -12705,7 +12705,7 @@
         <v>1.5</v>
       </c>
       <c r="AI24" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ24" s="44">
         <v>0</v>
@@ -12747,7 +12747,7 @@
         <v>3</v>
       </c>
       <c r="BH24" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI24" s="40">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>80.569999999999993</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O25" s="3">
         <v>53.825000000000003</v>
@@ -12859,7 +12859,7 @@
         <v>1.5</v>
       </c>
       <c r="AI25" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ25" s="44">
         <v>0</v>
@@ -12901,7 +12901,7 @@
         <v>2</v>
       </c>
       <c r="BH25" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI25" s="40">
         <v>0</v>
@@ -13014,7 +13014,7 @@
         <v>1.5</v>
       </c>
       <c r="AI26" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ26" s="44">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>2</v>
       </c>
       <c r="BH26" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI26" s="40">
         <v>0</v>
@@ -13168,7 +13168,7 @@
         <v>1.5</v>
       </c>
       <c r="AI27" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ27" s="44">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>3</v>
       </c>
       <c r="BH27" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI27" s="40">
         <v>0</v>
@@ -13260,7 +13260,7 @@
         <v>38</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O28" s="3">
         <v>38.763585999999997</v>
@@ -13323,7 +13323,7 @@
         <v>1.5</v>
       </c>
       <c r="AI28" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ28" s="44">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>3</v>
       </c>
       <c r="BH28" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI28" s="40">
         <v>0</v>
@@ -13407,10 +13407,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>166</v>
@@ -13445,7 +13445,7 @@
         <v>38</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O29" s="3">
         <v>38.769644999999997</v>
@@ -13508,7 +13508,7 @@
         <v>1.5</v>
       </c>
       <c r="AI29" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ29" s="44">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="BH29" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI29" s="40">
         <v>0</v>
@@ -13600,7 +13600,7 @@
         <v>55</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O30" s="3">
         <v>40.910291000000001</v>
@@ -13663,7 +13663,7 @@
         <v>1.5</v>
       </c>
       <c r="AI30" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ30" s="44">
         <v>0</v>
@@ -13706,7 +13706,7 @@
         <v>2</v>
       </c>
       <c r="BH30" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI30" s="40">
         <v>0</v>
@@ -13818,7 +13818,7 @@
         <v>1.5</v>
       </c>
       <c r="AI31" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ31" s="44">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="BH31" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI31" s="40">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>7</v>
       </c>
       <c r="AI32" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ32" s="44">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI32" s="40">
         <v>0</v>
@@ -14001,7 +14001,7 @@
         <v>190</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>921</v>
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ33" s="44">
         <v>0</v>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI33" s="40">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ34" s="44">
         <v>0</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI34" s="40">
         <v>0</v>
@@ -14164,7 +14164,7 @@
         <v>190</v>
       </c>
       <c r="AI35" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ35" s="44">
         <v>0</v>
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI35" s="40">
         <v>0</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ36" s="44">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI36" s="40">
         <v>0</v>
@@ -14295,7 +14295,7 @@
         <v>194</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>1137</v>
@@ -14323,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ37" s="44">
         <v>0</v>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="BH37" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI37" s="40">
         <v>0</v>
@@ -14373,7 +14373,7 @@
         <v>1025</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="F38" s="17">
         <v>15453.708333333334</v>
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="AI38" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ38" s="44">
         <v>0</v>
@@ -14431,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="BH38" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI38" s="40">
         <v>0</v>
@@ -14469,7 +14469,7 @@
         <v>200</v>
       </c>
       <c r="AI39" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ39" s="44">
         <v>0</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="BH39" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI39" s="40">
         <v>0</v>
@@ -14561,7 +14561,7 @@
         <v>40</v>
       </c>
       <c r="AI40" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ40" s="44">
         <v>0</v>
@@ -14615,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="BH40" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI40" s="40">
         <v>0</v>
@@ -14654,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ41" s="44">
         <v>0</v>
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI41" s="40">
         <v>0</v>
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ42" s="44">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI42" s="40">
         <v>0</v>
@@ -14809,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ43" s="44">
         <v>0</v>
@@ -14842,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI43" s="40">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ44" s="44">
         <v>0</v>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI44" s="40">
         <v>0</v>
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ45" s="44">
         <v>0</v>
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI45" s="40">
         <v>0</v>
@@ -15006,7 +15006,7 @@
         <v>2</v>
       </c>
       <c r="AI46" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ46" s="44">
         <v>0</v>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI46" s="40">
         <v>0</v>
@@ -15098,7 +15098,7 @@
         <v>100</v>
       </c>
       <c r="AI47" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ47" s="44">
         <v>0</v>
@@ -15152,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI47" s="40">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>5</v>
       </c>
       <c r="AI48" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ48" s="44">
         <v>0</v>
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="BH48" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI48" s="40">
         <v>0</v>
@@ -15285,7 +15285,7 @@
         <v>50</v>
       </c>
       <c r="AI49" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ49" s="44">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="BH49" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI49" s="40">
         <v>0</v>
@@ -15377,7 +15377,7 @@
         <v>300</v>
       </c>
       <c r="AI50" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ50" s="44">
         <v>0</v>
@@ -15431,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI50" s="40">
         <v>0</v>
@@ -15469,7 +15469,7 @@
         <v>40</v>
       </c>
       <c r="AI51" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ51" s="44">
         <v>0</v>
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="BH51" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI51" s="40">
         <v>0</v>
@@ -15561,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="AI52" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ52" s="44">
         <v>0</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="BH52" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI52" s="40">
         <v>0</v>
@@ -15653,7 +15653,7 @@
         <v>400</v>
       </c>
       <c r="AI53" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ53" s="44">
         <v>0</v>
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="BH53" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI53" s="40">
         <v>0</v>
@@ -15745,7 +15745,7 @@
         <v>250</v>
       </c>
       <c r="AI54" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ54" s="44">
         <v>0</v>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI54" s="40">
         <v>0</v>
@@ -15837,7 +15837,7 @@
         <v>350</v>
       </c>
       <c r="AI55" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ55" s="44">
         <v>0</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="BH55" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI55" s="40">
         <v>0</v>
@@ -15929,7 +15929,7 @@
         <v>11</v>
       </c>
       <c r="AI56" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ56" s="44">
         <v>0</v>
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="BH56" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI56" s="40">
         <v>0</v>
@@ -16021,7 +16021,7 @@
         <v>70</v>
       </c>
       <c r="AI57" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ57" s="44">
         <v>0</v>
@@ -16075,7 +16075,7 @@
         <v>0</v>
       </c>
       <c r="BH57" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI57" s="40">
         <v>0</v>
@@ -16113,7 +16113,7 @@
         <v>120</v>
       </c>
       <c r="AI58" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ58" s="44">
         <v>0</v>
@@ -16167,7 +16167,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI58" s="40">
         <v>0</v>
@@ -16205,7 +16205,7 @@
         <v>500</v>
       </c>
       <c r="AI59" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ59" s="44">
         <v>0</v>
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI59" s="40">
         <v>0</v>
@@ -16308,7 +16308,7 @@
         <v>63.965000000000003</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O60" s="3">
         <v>49.516089999999998</v>
@@ -16371,7 +16371,7 @@
         <v>1.5</v>
       </c>
       <c r="AI60" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ60" s="44">
         <v>0</v>
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="BH60" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI60" s="40">
         <v>0</v>
@@ -16481,7 +16481,7 @@
         <v>100</v>
       </c>
       <c r="AI61" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ61" s="44">
         <v>0</v>
@@ -16535,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI61" s="40">
         <v>0</v>
@@ -16647,7 +16647,7 @@
         <v>1.5</v>
       </c>
       <c r="AI62" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ62" s="44">
         <v>0</v>
@@ -16689,7 +16689,7 @@
         <v>2</v>
       </c>
       <c r="BH62" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI62" s="40">
         <v>0</v>
@@ -16801,7 +16801,7 @@
         <v>1.5</v>
       </c>
       <c r="AI63" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ63" s="44">
         <v>0</v>
@@ -16843,7 +16843,7 @@
         <v>3</v>
       </c>
       <c r="BH63" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI63" s="40">
         <v>0</v>
@@ -16892,7 +16892,7 @@
         <v>72.849999999999994</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O64" s="3">
         <v>51.702399999999997</v>
@@ -16956,7 +16956,7 @@
         <v>1.5</v>
       </c>
       <c r="AI64" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ64" s="44">
         <v>0</v>
@@ -16998,7 +16998,7 @@
         <v>3</v>
       </c>
       <c r="BH64" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI64" s="40">
         <v>0</v>
@@ -17047,7 +17047,7 @@
         <v>72.849999999999994</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O65" s="3">
         <v>51.702399999999997</v>
@@ -17111,7 +17111,7 @@
         <v>1.5</v>
       </c>
       <c r="AI65" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ65" s="44">
         <v>0</v>
@@ -17153,7 +17153,7 @@
         <v>3</v>
       </c>
       <c r="BH65" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI65" s="40">
         <v>0</v>
@@ -17202,7 +17202,7 @@
         <v>17</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O66" s="3">
         <v>10.414586</v>
@@ -17269,7 +17269,7 @@
         <v>1.5</v>
       </c>
       <c r="AI66" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ66" s="44">
         <v>0</v>
@@ -17323,7 +17323,7 @@
         <v>3</v>
       </c>
       <c r="BH66" s="40" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="BI66" s="40">
         <v>0</v>
@@ -17435,7 +17435,7 @@
         <v>1.5</v>
       </c>
       <c r="AI67" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ67" s="44">
         <v>0</v>
@@ -17508,7 +17508,7 @@
         <v>2</v>
       </c>
       <c r="BH67" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI67" s="40">
         <v>0</v>
@@ -17557,7 +17557,7 @@
         <v>31</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O68" s="3">
         <v>37.256760999999997</v>
@@ -17620,7 +17620,7 @@
         <v>1.5</v>
       </c>
       <c r="AI68" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ68" s="44">
         <v>0</v>
@@ -17689,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI68" s="40">
         <v>0</v>
@@ -17801,7 +17801,7 @@
         <v>1.5</v>
       </c>
       <c r="AI69" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ69" s="44">
         <v>0</v>
@@ -17873,7 +17873,7 @@
         <v>0</v>
       </c>
       <c r="BH69" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI69" s="40">
         <v>0</v>
@@ -17922,7 +17922,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O70" s="3">
         <v>33.475124000000001</v>
@@ -17985,7 +17985,7 @@
         <v>1.5</v>
       </c>
       <c r="AI70" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ70" s="44">
         <v>0</v>
@@ -18027,7 +18027,7 @@
         <v>1</v>
       </c>
       <c r="BH70" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI70" s="40">
         <v>0</v>
@@ -18076,7 +18076,7 @@
         <v>69</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O71" s="3">
         <v>34.81814</v>
@@ -18139,7 +18139,7 @@
         <v>1.5</v>
       </c>
       <c r="AI71" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ71" s="44">
         <v>0</v>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="BH71" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI71" s="40">
         <v>0</v>
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O72" s="3">
         <v>34.772824</v>
@@ -18289,7 +18289,7 @@
         <v>1.5</v>
       </c>
       <c r="AI72" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ72" s="44">
         <v>0</v>
@@ -18328,7 +18328,7 @@
         <v>0</v>
       </c>
       <c r="BH72" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI72" s="40">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O73" s="3">
         <v>34.784137999999999</v>
@@ -18438,7 +18438,7 @@
         <v>1.5</v>
       </c>
       <c r="AI73" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ73" s="44">
         <v>0</v>
@@ -18477,7 +18477,7 @@
         <v>0</v>
       </c>
       <c r="BH73" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI73" s="40">
         <v>0</v>
@@ -18526,7 +18526,7 @@
         <v>13.5</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O74" s="3">
         <v>18.423999999999999</v>
@@ -18589,7 +18589,7 @@
         <v>1.5</v>
       </c>
       <c r="AI74" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ74" s="44">
         <v>0</v>
@@ -18628,7 +18628,7 @@
         <v>0</v>
       </c>
       <c r="BH74" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI74" s="40">
         <v>0</v>
@@ -18677,7 +18677,7 @@
         <v>41.86</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O75" s="3">
         <v>45.821150000000003</v>
@@ -18741,7 +18741,7 @@
         <v>1.5</v>
       </c>
       <c r="AI75" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ75" s="44">
         <v>0</v>
@@ -18780,7 +18780,7 @@
         <v>0</v>
       </c>
       <c r="BH75" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI75" s="40">
         <v>0</v>
@@ -18791,7 +18791,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>1267</v>
@@ -18829,7 +18829,7 @@
         <v>41.86</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O76" s="3">
         <v>45.821150000000003</v>
@@ -18893,7 +18893,7 @@
         <v>1.5</v>
       </c>
       <c r="AI76" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ76" s="44">
         <v>0</v>
@@ -18932,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="BH76" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI76" s="40">
         <v>0</v>
@@ -18943,13 +18943,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>1324</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>1326</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>453</v>
@@ -18981,7 +18981,7 @@
         <v>55</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O77" s="3">
         <v>47.548974000000001</v>
@@ -19046,7 +19046,7 @@
         <v>1.5</v>
       </c>
       <c r="AI77" s="44" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ77" s="44">
         <v>0</v>
@@ -19088,7 +19088,7 @@
         <v>3</v>
       </c>
       <c r="BH77" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI77" s="40">
         <v>0</v>
@@ -19099,13 +19099,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>4</v>
@@ -19199,7 +19199,7 @@
         <v>1.5</v>
       </c>
       <c r="AI78" s="45" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="AJ78" s="45">
         <v>15</v>
@@ -19238,7 +19238,7 @@
       <c r="BF78"/>
       <c r="BG78"/>
       <c r="BH78" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI78" s="40">
         <v>0</v>
@@ -19249,13 +19249,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>4</v>
@@ -19285,7 +19285,7 @@
         <v>72</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O79" s="3">
         <v>42.934342999999998</v>
@@ -19348,13 +19348,13 @@
         <v>1</v>
       </c>
       <c r="AI79" s="45" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AJ79" s="45">
         <v>0</v>
       </c>
       <c r="AK79" s="45" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AL79" s="23">
         <v>0</v>
@@ -19423,7 +19423,7 @@
         <v>0</v>
       </c>
       <c r="BH79" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI79" s="40">
         <v>0</v>
@@ -19434,13 +19434,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>1333</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>1335</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>752</v>
@@ -19470,7 +19470,7 @@
         <v>40</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="O80" s="3">
         <v>-0.61</v>
@@ -19608,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="BH80" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI80" s="40">
         <v>0</v>
@@ -19619,13 +19619,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>73</v>
@@ -19657,7 +19657,7 @@
         <v>70</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O81" s="3">
         <v>-18.879745</v>
@@ -19795,7 +19795,7 @@
         <v>3</v>
       </c>
       <c r="BH81" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI81" s="40">
         <v>0</v>
@@ -19806,13 +19806,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>394</v>
@@ -19981,7 +19981,7 @@
         <v>2</v>
       </c>
       <c r="BH82" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI82" s="40">
         <v>0</v>
@@ -19992,13 +19992,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>740</v>
@@ -20030,7 +20030,7 @@
         <v>53.652999999999999</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O83" s="3">
         <v>35.627000000000002</v>
@@ -20169,7 +20169,7 @@
         <v>3</v>
       </c>
       <c r="BH83" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI83" s="40">
         <v>0</v>
@@ -20180,13 +20180,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>73</v>
@@ -20218,7 +20218,7 @@
         <v>50.92</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O84" s="3">
         <v>-8.3266200000000001</v>
@@ -20357,7 +20357,7 @@
         <v>3</v>
       </c>
       <c r="BH84" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI84" s="40">
         <v>0</v>
@@ -20368,13 +20368,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>397</v>
@@ -20406,7 +20406,7 @@
         <v>60.204999999999998</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O85" s="3">
         <v>51.082000000000001</v>
@@ -20544,7 +20544,7 @@
         <v>1</v>
       </c>
       <c r="BH85" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI85" s="40">
         <v>0</v>
@@ -20555,13 +20555,13 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>73</v>
@@ -20593,7 +20593,7 @@
         <v>69.2</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O86" s="3">
         <v>-8.1699000000000002</v>
@@ -20731,7 +20731,7 @@
         <v>4</v>
       </c>
       <c r="BH86" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI86" s="40">
         <v>0</v>
@@ -20742,13 +20742,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>73</v>
@@ -20780,7 +20780,7 @@
         <v>49.92</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O87" s="3">
         <v>-28.529879999999999</v>
@@ -20918,7 +20918,7 @@
         <v>3</v>
       </c>
       <c r="BH87" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI87" s="40">
         <v>0</v>
@@ -20929,13 +20929,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>4</v>
@@ -20967,7 +20967,7 @@
         <v>35.020000000000003</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O88" s="3">
         <v>33.633000000000003</v>
@@ -21105,7 +21105,7 @@
         <v>2</v>
       </c>
       <c r="BH88" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI88" s="40">
         <v>0</v>
@@ -21116,13 +21116,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>4</v>
@@ -21154,7 +21154,7 @@
         <v>62.1</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O89" s="3">
         <v>41.694499999999998</v>
@@ -21292,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="BH89" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI89" s="40">
         <v>0</v>
@@ -21303,13 +21303,13 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>1043</v>
@@ -21341,7 +21341,7 @@
         <v>18.155899999999999</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O90" s="3">
         <v>59.826000000000001</v>
@@ -21365,7 +21365,7 @@
         <v>17000</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="W90" s="3" t="s">
         <v>385</v>
@@ -21404,7 +21404,7 @@
         <v>1.5</v>
       </c>
       <c r="AI90" s="45" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="AJ90" s="45">
         <v>0</v>
@@ -21479,7 +21479,7 @@
         <v>3</v>
       </c>
       <c r="BH90" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI90" s="40">
         <v>0</v>
@@ -21490,13 +21490,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>1043</v>
@@ -21528,7 +21528,7 @@
         <v>17.477</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O91" s="3">
         <v>59.830323999999997</v>
@@ -21552,7 +21552,7 @@
         <v>17000</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>385</v>
@@ -21591,7 +21591,7 @@
         <v>1.5</v>
       </c>
       <c r="AI91" s="45" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="AJ91" s="45">
         <v>0</v>
@@ -21666,7 +21666,7 @@
         <v>2</v>
       </c>
       <c r="BH91" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI91" s="40">
         <v>0</v>
@@ -21677,13 +21677,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>4</v>
@@ -21715,7 +21715,7 @@
         <v>63</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O92" s="3">
         <v>42.945</v>
@@ -21853,7 +21853,7 @@
         <v>2</v>
       </c>
       <c r="BH92" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI92" s="40">
         <v>0</v>
@@ -21864,10 +21864,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>5</v>
@@ -21902,7 +21902,7 @@
         <v>69.266199999999998</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O93" s="3">
         <v>42.618605000000002</v>
@@ -22040,7 +22040,7 @@
         <v>2</v>
       </c>
       <c r="BH93" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI93" s="40">
         <v>0</v>
@@ -22051,13 +22051,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>4</v>
@@ -22089,7 +22089,7 @@
         <v>54</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O94" s="3">
         <v>46.357439999999997</v>
@@ -22227,7 +22227,7 @@
         <v>2</v>
       </c>
       <c r="BH94" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI94" s="40">
         <v>0</v>
@@ -22238,13 +22238,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>65</v>
@@ -22276,7 +22276,7 @@
         <v>85.1</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O95" s="3">
         <v>31.9</v>
@@ -22414,7 +22414,7 @@
         <v>2</v>
       </c>
       <c r="BH95" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI95" s="40">
         <v>0</v>
@@ -22425,13 +22425,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>4</v>
@@ -22463,7 +22463,7 @@
         <v>75</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O96" s="3">
         <v>33.264729000000003</v>
@@ -22601,7 +22601,7 @@
         <v>2</v>
       </c>
       <c r="BH96" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI96" s="40">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>5</v>
@@ -22650,7 +22650,7 @@
         <v>54.19</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O97" s="3">
         <v>42.716000000000001</v>
@@ -22788,7 +22788,7 @@
         <v>2</v>
       </c>
       <c r="BH97" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI97" s="40">
         <v>0</v>
@@ -22799,10 +22799,10 @@
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>5</v>
@@ -22837,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O98" s="3">
         <v>42.817433000000001</v>
@@ -22975,7 +22975,7 @@
         <v>2</v>
       </c>
       <c r="BH98" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI98" s="40">
         <v>0</v>
@@ -22986,13 +22986,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>105</v>
@@ -23024,7 +23024,7 @@
         <v>29.3</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O99" s="3">
         <v>75.8</v>
@@ -23162,7 +23162,7 @@
         <v>2</v>
       </c>
       <c r="BH99" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI99" s="40">
         <v>0</v>
@@ -23173,16 +23173,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F100" s="17">
         <v>44255.91269675926</v>
@@ -23211,7 +23211,7 @@
         <v>60</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O100" s="3">
         <v>51.945</v>
@@ -23349,7 +23349,7 @@
         <v>3</v>
       </c>
       <c r="BH100" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI100" s="40">
         <v>1</v>
@@ -23360,13 +23360,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>436</v>
@@ -23398,7 +23398,7 @@
         <v>25.5</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O101" s="3">
         <v>-81.099999999999994</v>
@@ -23536,7 +23536,7 @@
         <v>2</v>
       </c>
       <c r="BH101" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI101" s="40">
         <v>0</v>
@@ -23547,13 +23547,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>749</v>
@@ -23585,7 +23585,7 @@
         <v>25.8</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O102" s="3">
         <v>48.7</v>
@@ -23723,7 +23723,7 @@
         <v>3</v>
       </c>
       <c r="BH102" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI102" s="40">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>1043</v>
@@ -23772,7 +23772,7 @@
         <v>64.069999999999993</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O103" s="3">
         <v>60.41</v>
@@ -23911,7 +23911,7 @@
         <v>3</v>
       </c>
       <c r="BH103" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI103" s="40">
         <v>0</v>
@@ -23922,13 +23922,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>1386</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>1388</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>734</v>
@@ -23960,7 +23960,7 @@
         <v>6</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O104" s="3">
         <v>41.604999999999997</v>
@@ -24098,7 +24098,7 @@
         <v>3</v>
       </c>
       <c r="BH104" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI104" s="40">
         <v>0</v>
@@ -24109,13 +24109,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>4</v>
@@ -24285,7 +24285,7 @@
         <v>2</v>
       </c>
       <c r="BH105" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI105" s="40">
         <v>1</v>
@@ -24296,13 +24296,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>4</v>
@@ -24334,7 +24334,7 @@
         <v>72.093000000000004</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O106" s="3">
         <v>33.188400000000001</v>
@@ -24472,7 +24472,7 @@
         <v>1</v>
       </c>
       <c r="BH106" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI106" s="40">
         <v>1</v>
@@ -24483,13 +24483,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>102</v>
@@ -24659,7 +24659,7 @@
         <v>2</v>
       </c>
       <c r="BH107" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI107" s="40">
         <v>0</v>
@@ -24670,13 +24670,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>144</v>
@@ -24708,7 +24708,7 @@
         <v>38</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O108" s="3">
         <v>51.65</v>
@@ -24846,7 +24846,7 @@
         <v>1</v>
       </c>
       <c r="BH108" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI108" s="40">
         <v>1</v>
@@ -24857,13 +24857,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>1400</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>1402</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>898</v>
@@ -24895,7 +24895,7 @@
         <v>62.9</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O109" s="3">
         <v>59.908000000000001</v>
@@ -25033,7 +25033,7 @@
         <v>3</v>
       </c>
       <c r="BH109" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI109" s="40">
         <v>0</v>
@@ -25044,13 +25044,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>4</v>
@@ -25082,7 +25082,7 @@
         <v>47.9</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O110" s="3">
         <v>33.261947999999997</v>
@@ -25220,7 +25220,7 @@
         <v>3</v>
       </c>
       <c r="BH110" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI110" s="40">
         <v>0</v>
@@ -25231,13 +25231,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>1405</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>1407</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>65</v>
@@ -25269,7 +25269,7 @@
         <v>14.5</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O111" s="3">
         <v>42.440792000000002</v>
@@ -25407,7 +25407,7 @@
         <v>2</v>
       </c>
       <c r="BH111" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI111" s="40">
         <v>0</v>
@@ -25418,13 +25418,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>73</v>
@@ -25456,7 +25456,7 @@
         <v>24.478400000000001</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O112" s="3">
         <v>-15.03518</v>
@@ -25594,7 +25594,7 @@
         <v>3</v>
       </c>
       <c r="BH112" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI112" s="40">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>4</v>
@@ -25643,7 +25643,7 @@
         <v>53</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O113" s="3">
         <v>35.590299999999999</v>
@@ -25781,7 +25781,7 @@
         <v>3</v>
       </c>
       <c r="BH113" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI113" s="40">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>115</v>
@@ -25830,7 +25830,7 @@
         <v>47.8</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="O114" s="3">
         <v>62.7</v>
@@ -25968,7 +25968,7 @@
         <v>2</v>
       </c>
       <c r="BH114" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI114" s="40">
         <v>0</v>
@@ -25982,10 +25982,10 @@
         <v>1007</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>1007</v>
@@ -26017,7 +26017,7 @@
         <v>66.900000000000006</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O115" s="3">
         <v>48.661099999999998</v>
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="BH115" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI115" s="40">
         <v>0</v>
@@ -26166,13 +26166,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>73</v>
@@ -26204,7 +26204,7 @@
         <v>51.4</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O116" s="3">
         <v>-19.432189999999999</v>
@@ -26342,7 +26342,7 @@
         <v>3</v>
       </c>
       <c r="BH116" s="40" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="BI116" s="40">
         <v>1</v>
@@ -26353,13 +26353,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>1028</v>
@@ -26391,7 +26391,7 @@
         <v>7.8201000000000001</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O117" s="3">
         <v>38.499307999999999</v>
@@ -26529,7 +26529,7 @@
         <v>2</v>
       </c>
       <c r="BH117" s="40" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="BI117" s="40">
         <v>0</v>
@@ -26540,13 +26540,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>4</v>
@@ -26578,7 +26578,7 @@
         <v>51</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O118" s="3">
         <v>42.997999999999998</v>
@@ -26716,7 +26716,7 @@
         <v>1</v>
       </c>
       <c r="BH118" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI118" s="40">
         <v>0</v>
@@ -26727,13 +26727,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>4</v>
@@ -26765,7 +26765,7 @@
         <v>0</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O119" s="3">
         <v>42.9298565</v>
@@ -26903,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="BH119" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI119" s="40">
         <v>0</v>
@@ -26914,13 +26914,13 @@
         <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>4</v>
@@ -26952,7 +26952,7 @@
         <v>0</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O120" s="3">
         <v>42.946178000000003</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="BH120" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI120" s="40">
         <v>0</v>
@@ -27101,10 +27101,10 @@
         <v>118</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>1230</v>
@@ -27139,7 +27139,7 @@
         <v>35</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O121" s="3">
         <v>32.060600000000001</v>
@@ -27277,7 +27277,7 @@
         <v>3</v>
       </c>
       <c r="BH121" s="40" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="BI121" s="40">
         <v>0</v>
@@ -27288,10 +27288,10 @@
         <v>119</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>1230</v>
@@ -27326,7 +27326,7 @@
         <v>45</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O122" s="3">
         <v>33.908769999999997</v>
@@ -27350,10 +27350,10 @@
         <v>33000</v>
       </c>
       <c r="V122" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="W122" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="X122" s="3">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>2</v>
       </c>
       <c r="BH122" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI122" s="40">
         <v>0</v>
@@ -27475,13 +27475,13 @@
         <v>120</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>832</v>
@@ -27513,7 +27513,7 @@
         <v>50</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O123" s="3">
         <v>21.3</v>
@@ -27651,7 +27651,7 @@
         <v>0</v>
       </c>
       <c r="BH123" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI123" s="40">
         <v>0</v>
@@ -27662,10 +27662,10 @@
         <v>121</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>1230</v>
@@ -27700,7 +27700,7 @@
         <v>14</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O124" s="3">
         <v>31.705424000000001</v>
@@ -27724,7 +27724,7 @@
         <v>16401</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="W124" s="3" t="s">
         <v>385</v>
@@ -27838,7 +27838,7 @@
         <v>4</v>
       </c>
       <c r="BH124" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI124" s="40">
         <v>1</v>
@@ -27849,10 +27849,10 @@
         <v>122</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>103</v>
@@ -27887,7 +27887,7 @@
         <v>29.413499999999999</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O125" s="3">
         <v>44.436048999999997</v>
@@ -28025,7 +28025,7 @@
         <v>3</v>
       </c>
       <c r="BH125" s="40" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="BI125" s="40">
         <v>0</v>
@@ -28036,16 +28036,16 @@
         <v>123</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F126" s="17">
         <v>44664.98982638889</v>
@@ -28074,7 +28074,7 @@
         <v>45.871899999999997</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O126" s="3">
         <v>52.665610000000001</v>
@@ -28212,7 +28212,7 @@
         <v>3</v>
       </c>
       <c r="BH126" s="40" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="BI126" s="40">
         <v>0</v>
@@ -28223,13 +28223,13 @@
         <v>124</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>1447</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>1449</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>541</v>
@@ -28261,7 +28261,7 @@
         <v>41</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O127" s="3">
         <v>-55.5</v>
@@ -28399,7 +28399,7 @@
         <v>2</v>
       </c>
       <c r="BH127" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI127" s="40">
         <v>0</v>
@@ -28410,13 +28410,13 @@
         <v>125</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>1040</v>
@@ -28448,7 +28448,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O128" s="3">
         <v>70</v>
@@ -28586,7 +28586,7 @@
         <v>2</v>
       </c>
       <c r="BH128" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI128" s="40">
         <v>0</v>
@@ -28597,13 +28597,13 @@
         <v>126</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>102</v>
@@ -28635,7 +28635,7 @@
         <v>76.7</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O129" s="3">
         <v>-13.3</v>
@@ -28773,7 +28773,7 @@
         <v>2</v>
       </c>
       <c r="BH129" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI129" s="40">
         <v>0</v>
@@ -28784,13 +28784,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>4</v>
@@ -28822,7 +28822,7 @@
         <v>45</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O130" s="3">
         <v>31.604500999999999</v>
@@ -28960,7 +28960,7 @@
         <v>1</v>
       </c>
       <c r="BH130" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI130" s="40">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>886</v>
@@ -29006,16 +29006,16 @@
         <v>129</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F132" s="17">
         <v>44697.864131944443</v>
@@ -29044,7 +29044,7 @@
         <v>68</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O132" s="3">
         <v>50.954185000000003</v>
@@ -29182,7 +29182,7 @@
         <v>3</v>
       </c>
       <c r="BH132" s="40" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="BI132" s="40">
         <v>0</v>
@@ -29193,16 +29193,16 @@
         <v>130</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F133" s="17">
         <v>44692.986111111109</v>
@@ -29231,7 +29231,7 @@
         <v>66.708299999999994</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O133" s="3">
         <v>51.3157</v>
@@ -29369,7 +29369,7 @@
         <v>3</v>
       </c>
       <c r="BH133" s="40" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="BI133" s="40">
         <v>0</v>
@@ -29380,13 +29380,13 @@
         <v>131</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>832</v>
@@ -29418,7 +29418,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O134" s="3">
         <v>31.752700000000001</v>
@@ -29567,7 +29567,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F135" s="17">
         <v>42169.127152777779</v>
@@ -29596,7 +29596,7 @@
         <v>62.146000000000001</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O135" s="3">
         <v>6.3</v>
@@ -29734,7 +29734,7 @@
         <v>2</v>
       </c>
       <c r="BH135" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI135" s="40">
         <v>0</v>
@@ -29745,7 +29745,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>421</v>
@@ -29777,7 +29777,7 @@
         <v>22.3</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O136" s="3">
         <v>36.200000000000003</v>
@@ -29915,7 +29915,7 @@
         <v>2</v>
       </c>
       <c r="BH136" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI136" s="40">
         <v>0</v>
@@ -29926,7 +29926,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>421</v>
@@ -29958,7 +29958,7 @@
         <v>84.69</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O137" s="3">
         <v>32.4</v>
@@ -30096,7 +30096,7 @@
         <v>2</v>
       </c>
       <c r="BH137" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI137" s="40">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>135</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>56</v>
@@ -30145,7 +30145,7 @@
         <v>46</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O138" s="3">
         <v>40.3386</v>
@@ -30283,7 +30283,7 @@
         <v>2</v>
       </c>
       <c r="BH138" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI138" s="40">
         <v>0</v>
@@ -30294,13 +30294,13 @@
         <v>136</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>4</v>
@@ -30332,7 +30332,7 @@
         <v>64</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O139" s="3">
         <v>29.986000000000001</v>
@@ -30470,7 +30470,7 @@
         <v>2</v>
       </c>
       <c r="BH139" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI139" s="40">
         <v>0</v>
@@ -30481,13 +30481,13 @@
         <v>137</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>4</v>
@@ -30519,7 +30519,7 @@
         <v>66.5</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O140" s="3">
         <v>39.601999999999997</v>
@@ -30657,7 +30657,7 @@
         <v>1</v>
       </c>
       <c r="BH140" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI140" s="40">
         <v>0</v>
@@ -30668,13 +30668,13 @@
         <v>138</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>4</v>
@@ -30706,7 +30706,7 @@
         <v>76</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O141" s="3">
         <v>40.700099999999999</v>
@@ -30844,7 +30844,7 @@
         <v>3</v>
       </c>
       <c r="BH141" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI141" s="40">
         <v>0</v>
@@ -30855,13 +30855,13 @@
         <v>139</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>4</v>
@@ -30893,7 +30893,7 @@
         <v>70</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O142" s="3">
         <v>40.709463</v>
@@ -31031,7 +31031,7 @@
         <v>3</v>
       </c>
       <c r="BH142" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI142" s="40">
         <v>0</v>
@@ -31042,10 +31042,10 @@
         <v>140</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>651</v>
@@ -31081,7 +31081,7 @@
         <v>16.840100000000007</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O143" s="3">
         <v>32.603700000000003</v>
@@ -31219,7 +31219,7 @@
         <v>3</v>
       </c>
       <c r="BH143" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI143" s="40">
         <v>0</v>
@@ -31230,16 +31230,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F144" s="17">
         <v>44845.791527777779</v>
@@ -31268,7 +31268,7 @@
         <v>57.847799999999999</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O144" s="3">
         <v>44.761505</v>
@@ -31406,7 +31406,7 @@
         <v>2</v>
       </c>
       <c r="BH144" s="40" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="BI144" s="40">
         <v>0</v>
@@ -31417,13 +31417,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>1028</v>
@@ -31455,7 +31455,7 @@
         <v>21</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O145" s="3">
         <v>36.708799999999997</v>
@@ -31594,7 +31594,7 @@
         <v>2</v>
       </c>
       <c r="BH145" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI145" s="40">
         <v>0</v>
@@ -31605,10 +31605,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>103</v>
@@ -31647,10 +31647,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>1230</v>
@@ -31685,7 +31685,7 @@
         <v>43</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O147" s="3">
         <v>35.895618499999998</v>
@@ -31824,7 +31824,7 @@
         <v>3</v>
       </c>
       <c r="BH147" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI147" s="40">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>1028</v>
@@ -31873,7 +31873,7 @@
         <v>69.81</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O148" s="3">
         <v>38.247650999999998</v>
@@ -32011,7 +32011,7 @@
         <v>3</v>
       </c>
       <c r="BH148" s="40" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="BI148" s="40">
         <v>0</v>
@@ -32022,13 +32022,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>115</v>
@@ -32060,7 +32060,7 @@
         <v>63</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O149" s="3">
         <v>57.39425</v>
@@ -32200,7 +32200,7 @@
         <v>1</v>
       </c>
       <c r="BH149" s="40" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="BI149" s="40">
         <v>0</v>
@@ -32211,16 +32211,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F150" s="17">
         <v>44857.815283090276</v>
@@ -32249,7 +32249,7 @@
         <v>51.124299999999998</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O150" s="3">
         <v>51.758006999999999</v>
@@ -32388,7 +32388,7 @@
         <v>3</v>
       </c>
       <c r="BH150" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI150" s="40">
         <v>0</v>
@@ -32399,10 +32399,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>103</v>
@@ -32437,7 +32437,7 @@
         <v>66.39</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O151" s="3">
         <v>43.331800000000001</v>
@@ -32575,7 +32575,7 @@
         <v>1</v>
       </c>
       <c r="BH151" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI151" s="40">
         <v>0</v>
@@ -32586,10 +32586,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>103</v>
@@ -32622,7 +32622,7 @@
         <v>2</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O152" s="3">
         <v>43.204490500000006</v>
@@ -32760,7 +32760,7 @@
         <v>1</v>
       </c>
       <c r="BH152" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI152" s="40">
         <v>0</v>
@@ -32771,13 +32771,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>65</v>
@@ -32809,7 +32809,7 @@
         <v>1.6</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O153" s="3">
         <v>42.3</v>
@@ -32947,7 +32947,7 @@
         <v>2</v>
       </c>
       <c r="BH153" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI153" s="40">
         <v>0</v>
@@ -32958,13 +32958,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>4</v>
@@ -32996,7 +32996,7 @@
         <v>39</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O154" s="3">
         <v>30.844861000000002</v>
@@ -33134,7 +33134,7 @@
         <v>3</v>
       </c>
       <c r="BH154" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI154" s="40">
         <v>0</v>
@@ -33145,13 +33145,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>4</v>
@@ -33183,7 +33183,7 @@
         <v>59</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O155" s="3">
         <v>35.6509815</v>
@@ -33324,7 +33324,7 @@
         <v>4</v>
       </c>
       <c r="BH155" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI155" s="40">
         <v>0</v>
@@ -33335,13 +33335,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>1096</v>
@@ -33373,7 +33373,7 @@
         <v>56.5</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O156" s="3">
         <v>48.955202999999997</v>
@@ -33513,7 +33513,7 @@
         <v>3</v>
       </c>
       <c r="BH156" s="40" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="BI156" s="40">
         <v>0</v>
@@ -33524,13 +33524,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>634</v>
@@ -33563,7 +33563,7 @@
         <v>41.423400000000001</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O157" s="3">
         <v>49.831260999999998</v>
@@ -33589,10 +33589,10 @@
         <v>21327</v>
       </c>
       <c r="V157" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="W157" s="3" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="X157" s="3">
         <v>3300</v>
@@ -33703,7 +33703,7 @@
         <v>4</v>
       </c>
       <c r="BH157" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI157" s="40">
         <v>0</v>
@@ -33714,13 +33714,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>634</v>
@@ -33752,7 +33752,7 @@
         <v>41.272100000000002</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O158" s="3">
         <v>49.808813999999998</v>
@@ -33892,7 +33892,7 @@
         <v>4</v>
       </c>
       <c r="BH158" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI158" s="40">
         <v>0</v>
@@ -33903,13 +33903,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>4</v>
@@ -33941,7 +33941,7 @@
         <v>53.6</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O159" s="3">
         <v>26.578866000000001</v>
@@ -34080,7 +34080,7 @@
         <v>1</v>
       </c>
       <c r="BH159" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI159" s="40">
         <v>0</v>
@@ -34091,13 +34091,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>144</v>
@@ -34129,7 +34129,7 @@
         <v>24.6</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O160" s="3">
         <v>51.498026000000003</v>
@@ -34269,7 +34269,7 @@
         <v>4</v>
       </c>
       <c r="BH160" s="40" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="BI160" s="40">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>5</v>
@@ -34319,7 +34319,7 @@
         <v>63.701499999999996</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O161" s="3">
         <v>43.427529</v>
@@ -34459,7 +34459,7 @@
         <v>1</v>
       </c>
       <c r="BH161" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="BI161" s="40">
         <v>0</v>
@@ -35919,7 +35919,7 @@
         <v>133</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C130" s="31">
         <v>43922</v>
@@ -35930,7 +35930,7 @@
         <v>134</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -35938,7 +35938,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -35946,7 +35946,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -35954,7 +35954,7 @@
         <v>137</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -36215,25 +36215,25 @@
         <v>1272</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="L4" s="51" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -36457,13 +36457,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>740</v>
@@ -36501,13 +36501,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>1043</v>
@@ -36545,10 +36545,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1230</v>
@@ -36589,13 +36589,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1043</v>
@@ -36633,13 +36633,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>4</v>
@@ -36809,13 +36809,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>634</v>
@@ -36857,13 +36857,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>4</v>
@@ -36945,7 +36945,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>1267</v>
@@ -37121,13 +37121,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>73</v>
@@ -37149,7 +37149,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K25" s="23">
         <v>50</v>
@@ -37165,13 +37165,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>4</v>
@@ -37209,13 +37209,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>4</v>
@@ -37385,13 +37385,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>4</v>
@@ -37473,13 +37473,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>1333</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>1335</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>752</v>
@@ -37605,10 +37605,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>651</v>
@@ -37693,10 +37693,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>1230</v>
@@ -37737,16 +37737,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E39" s="3">
         <v>5</v>
@@ -37781,13 +37781,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>4</v>
@@ -37823,13 +37823,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>4</v>
@@ -38198,24 +38198,24 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G3" t="s">
         <v>1541</v>
       </c>
-      <c r="G3" t="s">
-        <v>1543</v>
-      </c>
       <c r="H3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="I3" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="J3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F4">
         <v>80</v>
@@ -38241,7 +38241,7 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="F5">
         <v>84</v>
@@ -38313,7 +38313,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C14">
         <v>781</v>
@@ -38336,7 +38336,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C15">
         <v>450</v>
@@ -38351,7 +38351,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C16">
         <v>217</v>
@@ -38359,7 +38359,7 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C17">
         <v>110</v>
@@ -38374,7 +38374,7 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C18">
         <v>110</v>
@@ -38387,13 +38387,13 @@
         <v>1434</v>
       </c>
       <c r="K18" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="L18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M18" t="s">
         <v>1476</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1478</v>
       </c>
       <c r="Q18">
         <v>45.68</v>
@@ -38405,7 +38405,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -38434,7 +38434,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C20">
         <v>375</v>
@@ -38459,7 +38459,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -38481,7 +38481,7 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C22">
         <v>385</v>
@@ -38506,7 +38506,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C23">
         <v>33</v>
@@ -38528,7 +38528,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C24">
         <v>55</v>
@@ -38550,7 +38550,7 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C25">
         <v>416</v>
@@ -38571,7 +38571,7 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C26">
         <v>248</v>
@@ -38589,7 +38589,7 @@
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="C27">
         <v>484</v>
@@ -38610,7 +38610,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -38637,7 +38637,7 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="H30">
         <f>H29-H27</f>
@@ -38662,7 +38662,7 @@
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H35">
         <f>H34-H32</f>
@@ -38671,7 +38671,7 @@
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H37">
         <f>AVERAGE(H34,H29)</f>
@@ -38680,7 +38680,7 @@
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="H38">
         <f>SQRT(H35^2+H30^2)/2</f>
@@ -38689,24 +38689,24 @@
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G42" t="s">
         <v>1541</v>
       </c>
-      <c r="G42" t="s">
-        <v>1543</v>
-      </c>
       <c r="H42" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="I42" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="J42" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F43">
         <v>80</v>
@@ -38827,7 +38827,7 @@
         <v>30000</v>
       </c>
       <c r="S22" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="23" spans="10:20" x14ac:dyDescent="0.25">
@@ -38844,18 +38844,18 @@
     </row>
     <row r="25" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="K25" s="15">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="26" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="K26" s="15">
         <v>10</v>
@@ -38866,13 +38866,13 @@
     </row>
     <row r="27" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K27">
         <v>3230</v>
       </c>
       <c r="L27" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="28" spans="10:20" x14ac:dyDescent="0.25">
@@ -38884,21 +38884,21 @@
         <v>3.0959752321981426E-3</v>
       </c>
       <c r="L28" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="R28" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="S28">
         <v>3.32577E-3</v>
       </c>
       <c r="T28" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="29" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="K29">
         <f>(0.75*K28/PI())^(1/3)</f>
@@ -38908,25 +38908,25 @@
         <v>184</v>
       </c>
       <c r="R29" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="S29">
         <v>3230</v>
       </c>
       <c r="T29" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="30" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="K30">
         <f>PI()*K29^2*K25</f>
         <v>2.5681622128273292E-2</v>
       </c>
       <c r="L30" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="N30">
         <f>PI()*((3*K26)/(4*K27*PI()))^(2/3)</f>
@@ -38937,7 +38937,7 @@
         <v>2.5681622128273289E-2</v>
       </c>
       <c r="R30" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="S30">
         <v>27900</v>
@@ -38954,10 +38954,10 @@
         <v>1.2949999999999999</v>
       </c>
       <c r="L31" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="R31" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="S31">
         <v>1.2949999999999999</v>
@@ -38965,14 +38965,14 @@
     </row>
     <row r="32" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J32" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="K32" s="49">
         <f>K31*K30/K26</f>
         <v>3.3257700656113913E-3</v>
       </c>
       <c r="R32" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="S32">
         <f>(S31/S28)^3*((9*PI())/(16*S29^2))</f>
@@ -43062,16 +43062,16 @@
   <sheetData>
     <row r="5" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K5" t="s">
         <v>1382</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="6" spans="7:22" x14ac:dyDescent="0.25">
@@ -43158,13 +43158,13 @@
         <v>0.95819105841935537</v>
       </c>
       <c r="Q9" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="R9" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="U9" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="10" spans="7:22" x14ac:dyDescent="0.25">
@@ -43420,7 +43420,7 @@
     </row>
     <row r="24" spans="6:22" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="S24">
         <v>70</v>
@@ -43428,7 +43428,7 @@
     </row>
     <row r="25" spans="6:22" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="S25">
         <v>38</v>
@@ -43444,7 +43444,7 @@
         <v>0.17122999999999999</v>
       </c>
       <c r="R27" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="S27">
         <f>(10^((S25-S21)/S20))/COS(RADIANS(S24))</f>
@@ -43453,37 +43453,37 @@
     </row>
     <row r="32" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="H32" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="I32" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="J32" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1524</v>
+      </c>
+      <c r="O32" t="s">
         <v>1528</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1522</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1524</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1529</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1526</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1530</v>
       </c>
       <c r="P32" t="s">
         <v>180</v>
       </c>
       <c r="Q32" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="33" spans="7:23" x14ac:dyDescent="0.25">
@@ -43714,10 +43714,10 @@
         <v>-1.9619874009548128</v>
       </c>
       <c r="V38" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="W38" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="39" spans="7:23" x14ac:dyDescent="0.25">
@@ -44280,42 +44280,42 @@
     </row>
     <row r="74" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L74" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="76" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L76" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="77" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L77" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="78" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L78" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="79" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L79" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="80" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L80" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L81" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L82" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
   </sheetData>
@@ -44508,7 +44508,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B7" t="s">
         <v>1257</v>
@@ -44586,7 +44586,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B13" t="s">
         <v>1282</v>
@@ -44703,7 +44703,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B21" t="s">
         <v>1278</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18B516-AEE0-456C-846B-EAD640478A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C5A40-C542-4BC3-8819-EFA0D4BD9F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -8794,10 +8794,10 @@
   <dimension ref="A1:BI161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C5A40-C542-4BC3-8819-EFA0D4BD9F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064A1B2-AB90-4272-890B-06D7266BDBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -8794,10 +8794,10 @@
   <dimension ref="A1:BI161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14241,10 +14241,10 @@
         <f>F36+G36/24</f>
         <v>4584.791666666667</v>
       </c>
+      <c r="O36" s="3">
+        <v>34.9</v>
+      </c>
       <c r="P36" s="3">
-        <v>34.9</v>
-      </c>
-      <c r="Q36" s="3">
         <v>-110.1833</v>
       </c>
       <c r="W36" s="9" t="s">
@@ -14310,10 +14310,10 @@
         <f>F37+G37/24</f>
         <v>29558.322916666668</v>
       </c>
+      <c r="O37" s="3">
+        <v>15</v>
+      </c>
       <c r="P37" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="3">
         <v>48.3</v>
       </c>
       <c r="W37" s="9" t="s">
@@ -39528,8 +39528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F006F-09CB-4518-A6A0-B4628B5EF033}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233:XFD233"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCD35BC-10A9-402F-BC67-2DE4ACB44B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6386739F-967A-4102-B73A-261D9686215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1620">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -4952,6 +4952,45 @@
   </si>
   <si>
     <t>vz</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Beira</t>
+  </si>
+  <si>
+    <t>Sofala</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>https://www.caha.es/meteors-and-fireballs/14651-bright-fireball-above-madrid-and-toledo-provinces-on-the-second-of-april</t>
+  </si>
+  <si>
+    <t>Kryspin Kmieciak</t>
+  </si>
+  <si>
+    <t>Waite</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Elmshorn</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Vincent Haberer</t>
   </si>
 </sst>
 </file>
@@ -4966,7 +5005,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5067,6 +5106,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -5113,7 +5160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5207,6 +5254,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5218,7 +5285,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5362,6 +5429,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8666,13 +8737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI176"/>
+  <dimension ref="A1:BI180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32665,7 +32736,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H176" si="10">F153+G153/24</f>
+        <f t="shared" ref="H153:H180" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -36250,6 +36321,753 @@
       </c>
       <c r="BI176" s="40">
         <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>176</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="F177" s="17">
+        <v>45031.348622685182</v>
+      </c>
+      <c r="G177" s="21">
+        <v>2</v>
+      </c>
+      <c r="H177" s="4">
+        <f t="shared" si="10"/>
+        <v>45031.431956018518</v>
+      </c>
+      <c r="I177" s="3">
+        <v>178054</v>
+      </c>
+      <c r="J177" s="3">
+        <v>17210</v>
+      </c>
+      <c r="K177" s="3">
+        <f t="shared" ref="K177:K180" si="13">I177*J177^2/2/4.184/10^12</f>
+        <v>6.3021945197657745</v>
+      </c>
+      <c r="L177" s="3">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="M177" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="O177" s="3">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="P177" s="3">
+        <v>36</v>
+      </c>
+      <c r="Q177" s="3">
+        <v>41400</v>
+      </c>
+      <c r="R177" s="3">
+        <v>41400</v>
+      </c>
+      <c r="S177" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T177" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="U177" s="3">
+        <v>0</v>
+      </c>
+      <c r="V177" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W177" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X177" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z177" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA177" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC177" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD177" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AE177" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF177" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG177" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="AH177" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AI177" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ177" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK177" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL177" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM177" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN177" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO177" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP177" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ177" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS177" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT177" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU177" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV177" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW177" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX177" s="38">
+        <v>4</v>
+      </c>
+      <c r="AY177" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ177" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA177" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB177" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC177" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD177" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE177" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF177" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG177" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH177" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI177" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>177</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F178" s="17">
+        <v>45018.811666666668</v>
+      </c>
+      <c r="G178" s="21">
+        <v>2</v>
+      </c>
+      <c r="H178" s="4">
+        <f t="shared" si="10"/>
+        <v>45018.895000000004</v>
+      </c>
+      <c r="I178" s="3">
+        <v>50</v>
+      </c>
+      <c r="J178" s="3">
+        <v>13610</v>
+      </c>
+      <c r="K178" s="3">
+        <f t="shared" si="13"/>
+        <v>1.10678836042065E-3</v>
+      </c>
+      <c r="L178" s="3">
+        <v>208.24</v>
+      </c>
+      <c r="M178" s="3">
+        <v>37.25</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O178" s="3">
+        <v>39.803229999999999</v>
+      </c>
+      <c r="P178" s="3">
+        <v>-4.05924</v>
+      </c>
+      <c r="Q178" s="3">
+        <v>24000</v>
+      </c>
+      <c r="R178" s="3">
+        <v>24000</v>
+      </c>
+      <c r="S178" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T178" s="3">
+        <f>M178</f>
+        <v>37.25</v>
+      </c>
+      <c r="U178" s="3">
+        <v>24000</v>
+      </c>
+      <c r="V178" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W178" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X178" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z178" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA178" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB178" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC178" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD178" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="AE178" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="AF178" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG178" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="AH178" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AI178" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ178" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK178" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL178" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM178" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN178" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO178" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP178" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ178" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS178" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT178" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU178" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV178" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW178" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX178" s="38">
+        <v>140</v>
+      </c>
+      <c r="AY178" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ178" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA178" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB178" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC178" s="38">
+        <v>140</v>
+      </c>
+      <c r="BD178" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE178" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF178" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG178" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH178" s="40" t="s">
+        <v>1614</v>
+      </c>
+      <c r="BI178" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>178</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="17">
+        <v>45024.661458333336</v>
+      </c>
+      <c r="G179" s="21">
+        <v>-4</v>
+      </c>
+      <c r="H179" s="4">
+        <f t="shared" si="10"/>
+        <v>45024.494791666672</v>
+      </c>
+      <c r="I179" s="3">
+        <v>400</v>
+      </c>
+      <c r="J179" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K179" s="3">
+        <f t="shared" si="13"/>
+        <v>1.381453154875717E-2</v>
+      </c>
+      <c r="L179" s="3">
+        <v>196</v>
+      </c>
+      <c r="M179" s="3">
+        <v>45</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O179" s="3">
+        <v>45.390799999999999</v>
+      </c>
+      <c r="P179" s="3">
+        <v>-67.544799999999995</v>
+      </c>
+      <c r="Q179" s="3">
+        <v>16000</v>
+      </c>
+      <c r="R179" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S179" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T179" s="3">
+        <f>M179</f>
+        <v>45</v>
+      </c>
+      <c r="U179" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V179" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W179" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X179" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z179" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA179" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AB179" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC179" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD179" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="AE179" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="AF179" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AG179" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="AH179" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AI179" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ179" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK179" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL179" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM179" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN179" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO179" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP179" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ179" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS179" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT179" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU179" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV179" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW179" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX179" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY179" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ179" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA179" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB179" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC179" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD179" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE179" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF179" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG179" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH179" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI179" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>179</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F180" s="17">
+        <v>45041.510416666664</v>
+      </c>
+      <c r="G180" s="21">
+        <v>2</v>
+      </c>
+      <c r="H180" s="4">
+        <f t="shared" si="10"/>
+        <v>45041.59375</v>
+      </c>
+      <c r="I180" s="3">
+        <v>500</v>
+      </c>
+      <c r="J180" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K180" s="3">
+        <f t="shared" si="13"/>
+        <v>1.7268164435946462E-2</v>
+      </c>
+      <c r="L180" s="3">
+        <v>153</v>
+      </c>
+      <c r="M180" s="3">
+        <v>5</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O180" s="3">
+        <v>53.76</v>
+      </c>
+      <c r="P180" s="3">
+        <v>9.64</v>
+      </c>
+      <c r="Q180" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R180" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S180" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T180" s="3">
+        <v>5</v>
+      </c>
+      <c r="U180" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V180" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W180" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X180" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y180" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z180" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA180" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AB180" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC180" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF180" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AG180" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="AH180" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AI180" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ180" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK180" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL180" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM180" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN180" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO180" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP180" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ180" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS180" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT180" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU180" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV180" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW180" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX180" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY180" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ180" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA180" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB180" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC180" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD180" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE180" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF180" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG180" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH180" s="40" t="s">
+        <v>1619</v>
+      </c>
+      <c r="BI180" s="40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -36262,10 +37080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF8CB18-6EA0-4ACF-8EE2-9DD1689EBB8B}">
-  <dimension ref="J15:T34"/>
+  <dimension ref="C2:T111"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="M98" sqref="L98:M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36275,7 +37093,75 @@
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>15830</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>19160</v>
+      </c>
       <c r="J15">
         <v>3</v>
       </c>
@@ -36284,7 +37170,10 @@
         <v>18.43494882292201</v>
       </c>
     </row>
-    <row r="16" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>18614.2</v>
+      </c>
       <c r="J16">
         <v>4</v>
       </c>
@@ -36293,7 +37182,30 @@
         <v>14.036243467926479</v>
       </c>
     </row>
-    <row r="21" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7827</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>17965</v>
+      </c>
       <c r="R21">
         <v>100000</v>
       </c>
@@ -36301,7 +37213,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>59700</v>
+      </c>
       <c r="R22">
         <v>30000</v>
       </c>
@@ -36309,19 +37224,28 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="23" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>14065</v>
+      </c>
       <c r="R23">
         <f>R21*R22</f>
         <v>3000000000</v>
       </c>
     </row>
-    <row r="24" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>15300</v>
+      </c>
       <c r="R24">
         <f>R23/1000000</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>20000</v>
+      </c>
       <c r="J25" t="s">
         <v>1457</v>
       </c>
@@ -36332,7 +37256,10 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="26" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>15800</v>
+      </c>
       <c r="J26" t="s">
         <v>1450</v>
       </c>
@@ -36343,7 +37270,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>13395</v>
+      </c>
       <c r="J27" t="s">
         <v>1451</v>
       </c>
@@ -36354,7 +37284,10 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="28" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>15000</v>
+      </c>
       <c r="J28" t="s">
         <v>180</v>
       </c>
@@ -36375,7 +37308,10 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="29" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>20950</v>
+      </c>
       <c r="J29" t="s">
         <v>1456</v>
       </c>
@@ -36396,7 +37332,10 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="30" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>28300</v>
+      </c>
       <c r="J30" t="s">
         <v>1454</v>
       </c>
@@ -36425,7 +37364,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="10:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>20960</v>
+      </c>
       <c r="J31" t="s">
         <v>556</v>
       </c>
@@ -36442,7 +37384,10 @@
         <v>1.2949999999999999</v>
       </c>
     </row>
-    <row r="32" spans="10:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>20930</v>
+      </c>
       <c r="J32" t="s">
         <v>1460</v>
       </c>
@@ -36458,18 +37403,502 @@
         <v>10.000000591845426</v>
       </c>
     </row>
-    <row r="33" spans="11:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>14235</v>
+      </c>
       <c r="K33">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>14500</v>
+      </c>
       <c r="K34">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>21272</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>14720</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>12760</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>18210</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>21890</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>20860</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>16944</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>31690</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>19080</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>21530</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>14646</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>17970</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>17055</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>28072.8632</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>13710</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>26300</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>13150</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>23260</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>24501</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>26620</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>24020</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>18190</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>13330</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>14010</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>14360</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>12897.75</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>12750</v>
+      </c>
+      <c r="F90" s="56" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G90" s="56" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>17240</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>22810</v>
+      </c>
+      <c r="F92">
+        <v>6015</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>24000</v>
+      </c>
+      <c r="F93">
+        <v>11980</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>21350</v>
+      </c>
+      <c r="F94">
+        <v>17945</v>
+      </c>
+      <c r="G94">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>27900</v>
+      </c>
+      <c r="F95">
+        <v>23910</v>
+      </c>
+      <c r="G95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>15160</v>
+      </c>
+      <c r="F96">
+        <v>29875</v>
+      </c>
+      <c r="G96">
+        <v>13</v>
+      </c>
+      <c r="L96">
+        <v>5.65</v>
+      </c>
+      <c r="M96">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>31858</v>
+      </c>
+      <c r="F97">
+        <v>35840</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>4.53</v>
+      </c>
+      <c r="M97">
+        <v>294.98</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>14202</v>
+      </c>
+      <c r="F98">
+        <v>41805</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f>AVERAGE(L96:L97)</f>
+        <v>5.09</v>
+      </c>
+      <c r="M98">
+        <f>AVERAGE(M96:M97)</f>
+        <v>293.24</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>12248</v>
+      </c>
+      <c r="F99">
+        <v>47770</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>13640</v>
+      </c>
+      <c r="F100">
+        <v>53735</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>16870</v>
+      </c>
+      <c r="F101" s="55" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G101" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>11882</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>23218</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>13851.53</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>16440</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>14060.9</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>14016</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>17210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36478,7 +37907,7 @@
   <dimension ref="A7:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36580,11 +38009,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>85.046742522157942</v>
+        <v>37.251854349444017</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>4.9532574778420582</v>
+        <v>52.748145650555983</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -36592,7 +38021,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="L12">
         <v>6.1</v>
@@ -36601,11 +38030,11 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>150.56227947264878</v>
+        <v>80.403786602373401</v>
       </c>
       <c r="L13">
         <f>J13/L12</f>
-        <v>24.682340897155541</v>
+        <v>13.180948623339903</v>
       </c>
       <c r="Q13" t="s">
         <v>404</v>
@@ -36623,13 +38052,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>4.9532574778420582</v>
+        <v>52.748145650555983</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -36637,7 +38066,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -36659,14 +38088,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>150</v>
+        <v>48.67</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>92.653710444706945</v>
+        <v>10.050473325296675</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -42869,10 +44298,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44365,6 +45794,17 @@
       </c>
       <c r="B136" s="32" t="s">
         <v>1575</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="33">
+        <v>140</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C137" s="31">
+        <v>45039</v>
       </c>
     </row>
   </sheetData>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6386739F-967A-4102-B73A-261D9686215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16765CF4-25CC-4419-823A-65858C2B821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -8740,10 +8740,10 @@
   <dimension ref="A1:BI180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="T174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A181" sqref="A181"/>
+      <selection pane="bottomRight" activeCell="AG180" sqref="AG180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36910,14 +36910,14 @@
         <v>45041.59375</v>
       </c>
       <c r="I180" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J180" s="3">
-        <v>17000</v>
+        <v>20500</v>
       </c>
       <c r="K180" s="3">
         <f t="shared" si="13"/>
-        <v>1.7268164435946462E-2</v>
+        <v>2.0088432122370936E-2</v>
       </c>
       <c r="L180" s="3">
         <v>153</v>
@@ -36929,10 +36929,10 @@
         <v>1334</v>
       </c>
       <c r="O180" s="3">
-        <v>53.76</v>
+        <v>53.772651000000003</v>
       </c>
       <c r="P180" s="3">
-        <v>9.64</v>
+        <v>9.6109229999999997</v>
       </c>
       <c r="Q180" s="3">
         <v>18000</v>
@@ -36965,7 +36965,7 @@
         <v>60000</v>
       </c>
       <c r="AA180" s="5">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="AB180" s="5">
         <v>2</v>
@@ -36974,19 +36974,19 @@
         <v>2</v>
       </c>
       <c r="AD180" s="5">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AE180" s="5">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AF180" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AG180" s="5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AH180" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AI180" s="45">
         <v>0</v>
@@ -37083,7 +37083,7 @@
   <dimension ref="C2:T111"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="M98" sqref="L98:M98"/>
+      <selection activeCell="I85" sqref="H85:I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37663,15 +37663,35 @@
       <c r="C83">
         <v>16000</v>
       </c>
+      <c r="H83">
+        <v>53.784500000000001</v>
+      </c>
+      <c r="I83">
+        <v>9.6201899999999991</v>
+      </c>
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>12138</v>
       </c>
+      <c r="H84">
+        <v>53.769359999999999</v>
+      </c>
+      <c r="I84">
+        <v>9.6132980000000003</v>
+      </c>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>13330</v>
+      </c>
+      <c r="H85">
+        <f>H84-H83</f>
+        <v>-1.5140000000002374E-2</v>
+      </c>
+      <c r="I85">
+        <f>I84-I83</f>
+        <v>-6.891999999998788E-3</v>
       </c>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.25">
@@ -38436,7 +38456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F006F-09CB-4518-A6A0-B4628B5EF033}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16765CF4-25CC-4419-823A-65858C2B821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B9B4A1-2D2B-4131-8403-426EB0A91363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="7065" yWindow="3360" windowWidth="17445" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1625">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -4991,6 +4991,21 @@
   </si>
   <si>
     <t>Vincent Haberer</t>
+  </si>
+  <si>
+    <t>Mazovia</t>
+  </si>
+  <si>
+    <t>Zbigniew Tymiński</t>
+  </si>
+  <si>
+    <t>Zareby Koscielne</t>
+  </si>
+  <si>
+    <t>Hopewell</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -8737,13 +8752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI180"/>
+  <dimension ref="A1:BI182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="T174" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="K175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AG180" sqref="AG180"/>
+      <selection pane="bottomRight" activeCell="P183" sqref="P183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32736,7 +32751,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H180" si="10">F153+G153/24</f>
+        <f t="shared" ref="H153:H182" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -36356,7 +36371,7 @@
         <v>17210</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" ref="K177:K180" si="13">I177*J177^2/2/4.184/10^12</f>
+        <f t="shared" ref="K177:K179" si="13">I177*J177^2/2/4.184/10^12</f>
         <v>6.3021945197657745</v>
       </c>
       <c r="L177" s="3">
@@ -36910,14 +36925,14 @@
         <v>45041.59375</v>
       </c>
       <c r="I180" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J180" s="3">
         <v>20500</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" si="13"/>
-        <v>2.0088432122370936E-2</v>
+        <f>I180*J180^2/2/4.184/10^12</f>
+        <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
         <v>153</v>
@@ -37001,13 +37016,13 @@
         <v>0</v>
       </c>
       <c r="AM180" s="23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN180" s="23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO180" s="23">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="AP180" s="23">
         <v>0</v>
@@ -37061,13 +37076,390 @@
         <v>0</v>
       </c>
       <c r="BG180" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH180" s="40" t="s">
         <v>1619</v>
       </c>
       <c r="BI180" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>180</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F181" s="17">
+        <v>45043.070017939812</v>
+      </c>
+      <c r="G181" s="21">
+        <v>2</v>
+      </c>
+      <c r="H181" s="4">
+        <f t="shared" si="10"/>
+        <v>45043.153351273148</v>
+      </c>
+      <c r="I181" s="3">
+        <v>50</v>
+      </c>
+      <c r="J181" s="3">
+        <v>14321</v>
+      </c>
+      <c r="K181" s="3">
+        <f>I181*J181^2/2/4.184/10^12</f>
+        <v>1.2254483807361376E-3</v>
+      </c>
+      <c r="L181" s="3">
+        <v>126.85</v>
+      </c>
+      <c r="M181" s="3">
+        <v>24.757999999999999</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O181" s="3">
+        <v>52.758159999999997</v>
+      </c>
+      <c r="P181" s="3">
+        <v>22.029309999999999</v>
+      </c>
+      <c r="Q181" s="3">
+        <v>28151</v>
+      </c>
+      <c r="R181" s="3">
+        <f>Q181</f>
+        <v>28151</v>
+      </c>
+      <c r="S181" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T181" s="3">
+        <f>M181</f>
+        <v>24.757999999999999</v>
+      </c>
+      <c r="U181" s="3">
+        <f>Q181</f>
+        <v>28151</v>
+      </c>
+      <c r="V181" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W181" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X181" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z181" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA181" s="5">
+        <v>3948</v>
+      </c>
+      <c r="AB181" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AC181" s="5">
+        <v>3.48</v>
+      </c>
+      <c r="AD181" s="5">
+        <v>3.0300000000000001E-3</v>
+      </c>
+      <c r="AE181" s="5">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="AF181" s="5">
+        <v>919</v>
+      </c>
+      <c r="AG181" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH181" s="5">
         <v>1</v>
+      </c>
+      <c r="AI181" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ181" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK181" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL181" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM181" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN181" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO181" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP181" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ181" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS181" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT181" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU181" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV181" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW181" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX181" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY181" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ181" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA181" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB181" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC181" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD181" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE181" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF181" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG181" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH181" s="40" t="s">
+        <v>1621</v>
+      </c>
+      <c r="BI181" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>181</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="17">
+        <v>45054.682638888888</v>
+      </c>
+      <c r="G182" s="21">
+        <v>-4</v>
+      </c>
+      <c r="H182" s="4">
+        <f t="shared" si="10"/>
+        <v>45054.515972222223</v>
+      </c>
+      <c r="I182" s="3">
+        <v>25</v>
+      </c>
+      <c r="J182" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K182" s="3">
+        <f>I182*J182^2/2/4.184/10^12</f>
+        <v>8.634082217973231E-4</v>
+      </c>
+      <c r="L182" s="3">
+        <v>270</v>
+      </c>
+      <c r="M182" s="3">
+        <v>29</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O182" s="3">
+        <v>40.318809000000002</v>
+      </c>
+      <c r="P182" s="3">
+        <v>-74.801321999999999</v>
+      </c>
+      <c r="Q182" s="3">
+        <v>25000</v>
+      </c>
+      <c r="R182" s="3">
+        <v>25000</v>
+      </c>
+      <c r="S182" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T182" s="3">
+        <v>30</v>
+      </c>
+      <c r="U182" s="3">
+        <v>25000</v>
+      </c>
+      <c r="V182" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W182" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X182" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z182" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA182" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB182" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC182" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD182" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AE182" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AF182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG182" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI182" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ182" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK182" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL182" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM182" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN182" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO182" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP182" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ182" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS182" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT182" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU182" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV182" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW182" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX182" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY182" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ182" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA182" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB182" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC182" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD182" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE182" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF182" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG182" s="40">
+        <v>0</v>
+      </c>
+      <c r="BH182" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI182" s="40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -37927,7 +38319,7 @@
   <dimension ref="A7:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38229,7 +38621,7 @@
         <v>95</v>
       </c>
       <c r="F30" s="3">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="N30" t="s">
         <v>1148</v>
@@ -38243,7 +38635,7 @@
         <v>94</v>
       </c>
       <c r="F31" s="15">
-        <v>15830</v>
+        <v>17000</v>
       </c>
       <c r="N31" t="s">
         <v>1149</v>
@@ -38262,14 +38654,14 @@
       </c>
       <c r="F32" s="16">
         <f>F30*(0.5*F30*F31^2)^-0.075</f>
-        <v>20.05759013336149</v>
+        <v>3.9035761640608024</v>
       </c>
       <c r="G32">
         <v>60</v>
       </c>
       <c r="H32">
         <f>G32/F32</f>
-        <v>2.9913862832505935</v>
+        <v>15.370521152476591</v>
       </c>
       <c r="L32">
         <v>11403</v>
@@ -38287,14 +38679,14 @@
       </c>
       <c r="F33" s="16">
         <f>F30*(0.5*F30*F31^2)^0.075</f>
-        <v>670.86823045699975</v>
+        <v>102.47014101651061</v>
       </c>
       <c r="G33">
         <v>225</v>
       </c>
       <c r="H33">
         <f>F33/G33</f>
-        <v>2.981636579808888</v>
+        <v>0.45542284896226937</v>
       </c>
       <c r="L33">
         <v>9774</v>
@@ -38309,13 +38701,13 @@
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F36">
         <f>F32/100</f>
-        <v>0.20057590133361491</v>
+        <v>3.9035761640608027E-2</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F37">
         <f>F33/100</f>
-        <v>6.7086823045699973</v>
+        <v>1.0247014101651062</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,89 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B9B4A1-2D2B-4131-8403-426EB0A91363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076DAD85-1E4C-48B1-861C-FFDB3E51A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="3360" windowWidth="17445" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId2"/>
-    <sheet name="Calculator" sheetId="2" r:id="rId3"/>
-    <sheet name="Countries" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
-    <sheet name="DataQuality" sheetId="6" r:id="rId6"/>
-    <sheet name="Database" sheetId="7" r:id="rId7"/>
-    <sheet name="Sources" sheetId="4" r:id="rId8"/>
-    <sheet name="Log" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
+    <sheet name="Calculator" sheetId="2" r:id="rId4"/>
+    <sheet name="Countries" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="DataQuality" sheetId="6" r:id="rId7"/>
+    <sheet name="Database" sheetId="7" r:id="rId8"/>
+    <sheet name="Sources" sheetId="4" r:id="rId9"/>
+    <sheet name="Log" sheetId="3" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$176</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Database!$A$1:$H$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sources!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Database!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sources!$A$1:$C$1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">AllEventData!$I$7</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Calculator!$F$18</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Calculator!$F$18</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">AllEventData!$K$7</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Calculator!$H$11</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Calculator!$H$11</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0.15001</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">43.8</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">43.8</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="1641">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -5006,6 +5007,54 @@
   </si>
   <si>
     <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Dr. Shannon Graham, College of New Jersey Physics Department</t>
+  </si>
+  <si>
+    <t>Gyor</t>
+  </si>
+  <si>
+    <t>Gyor-Moson-Sopron</t>
+  </si>
+  <si>
+    <t>Croydon</t>
+  </si>
+  <si>
+    <t>Blackbull</t>
+  </si>
+  <si>
+    <t>Bavaria</t>
+  </si>
+  <si>
+    <t>Schlüsselfeld</t>
+  </si>
+  <si>
+    <t>Schlusselfeld</t>
+  </si>
+  <si>
+    <t>Lesura</t>
+  </si>
+  <si>
+    <t>Mikhaylovgrad</t>
+  </si>
+  <si>
+    <t>Zapote de Fernandez</t>
+  </si>
+  <si>
+    <t>Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>Kingsport</t>
   </si>
 </sst>
 </file>
@@ -8258,6 +8307,121 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>416410</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4217B5D8-465F-02BF-D02B-2FD62C245D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="600075"/>
+          <a:ext cx="11008210" cy="6191250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32097</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269003</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB563966-07D3-E8CC-C694-E3B5625951E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="180555">
+          <a:off x="3080097" y="3359416"/>
+          <a:ext cx="236906" cy="1004746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -8321,7 +8485,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8752,13 +8916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI182"/>
+  <dimension ref="A1:BI188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="K175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P183" sqref="P183"/>
+      <selection pane="bottomRight" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9771,10 +9935,10 @@
         <v>10</v>
       </c>
       <c r="AG6" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="10">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AI6" s="44" t="s">
         <v>1320</v>
@@ -32751,7 +32915,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H182" si="10">F153+G153/24</f>
+        <f t="shared" ref="H153:H188" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -36931,7 +37095,7 @@
         <v>20500</v>
       </c>
       <c r="K180" s="3">
-        <f>I180*J180^2/2/4.184/10^12</f>
+        <f t="shared" ref="K180:K188" si="14">I180*J180^2/2/4.184/10^12</f>
         <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
@@ -37118,7 +37282,7 @@
         <v>14321</v>
       </c>
       <c r="K181" s="3">
-        <f>I181*J181^2/2/4.184/10^12</f>
+        <f t="shared" si="14"/>
         <v>1.2254483807361376E-3</v>
       </c>
       <c r="L181" s="3">
@@ -37308,7 +37472,7 @@
         <v>17000</v>
       </c>
       <c r="K182" s="3">
-        <f>I182*J182^2/2/4.184/10^12</f>
+        <f t="shared" si="14"/>
         <v>8.634082217973231E-4</v>
       </c>
       <c r="L182" s="3">
@@ -37342,13 +37506,13 @@
         <v>25000</v>
       </c>
       <c r="V182" s="3" t="s">
-        <v>144</v>
+        <v>1433</v>
       </c>
       <c r="W182" s="3" t="s">
-        <v>382</v>
+        <v>1579</v>
       </c>
       <c r="X182" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="Y182" s="3">
         <v>60000</v>
@@ -37432,7 +37596,7 @@
         <v>0</v>
       </c>
       <c r="AZ182" s="38">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="BA182" s="38">
         <v>0</v>
@@ -37462,15 +37626,1343 @@
         <v>0</v>
       </c>
     </row>
+    <row r="183" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="F183" s="17">
+        <v>45066.895293414353</v>
+      </c>
+      <c r="G183" s="21">
+        <v>2</v>
+      </c>
+      <c r="H183" s="4">
+        <f t="shared" si="10"/>
+        <v>45066.978626747688</v>
+      </c>
+      <c r="I183" s="3">
+        <v>25</v>
+      </c>
+      <c r="J183" s="3">
+        <v>15985.39</v>
+      </c>
+      <c r="K183" s="3">
+        <f t="shared" si="14"/>
+        <v>7.6342224382200039E-4</v>
+      </c>
+      <c r="L183" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="M183" s="3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O183" s="3">
+        <v>47.584083</v>
+      </c>
+      <c r="P183" s="3">
+        <v>17.505913</v>
+      </c>
+      <c r="Q183" s="3">
+        <v>32419.55</v>
+      </c>
+      <c r="R183" s="3">
+        <f>Q183</f>
+        <v>32419.55</v>
+      </c>
+      <c r="S183" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T183" s="3">
+        <f t="shared" ref="T183:T187" si="15">M183</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="U183" s="3">
+        <f>R183</f>
+        <v>32419.55</v>
+      </c>
+      <c r="V183" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W183" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X183" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z183" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA183" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB183" s="5">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AC183" s="5">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AD183" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE183" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF183" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG183" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH183" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI183" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ183" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK183" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL183" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM183" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN183" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO183" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP183" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ183" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS183" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT183" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU183" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV183" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW183" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX183" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY183" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ183" s="38">
+        <v>141</v>
+      </c>
+      <c r="BA183" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB183" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC183" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD183" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE183" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF183" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG183" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH183" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI183" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>183</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F184" s="17">
+        <v>45066.473877314813</v>
+      </c>
+      <c r="G184" s="21">
+        <v>10</v>
+      </c>
+      <c r="H184" s="4">
+        <f t="shared" si="10"/>
+        <v>45066.890543981477</v>
+      </c>
+      <c r="I184" s="3">
+        <v>77318</v>
+      </c>
+      <c r="J184" s="3">
+        <v>27920</v>
+      </c>
+      <c r="K184" s="3">
+        <f t="shared" si="14"/>
+        <v>7.2026078149139581</v>
+      </c>
+      <c r="L184" s="3">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="M184" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O184" s="3">
+        <v>-17.844999999999999</v>
+      </c>
+      <c r="P184" s="3">
+        <v>141.9</v>
+      </c>
+      <c r="Q184" s="3">
+        <v>29000</v>
+      </c>
+      <c r="R184" s="3">
+        <v>29000</v>
+      </c>
+      <c r="S184" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T184" s="3">
+        <f t="shared" si="15"/>
+        <v>50.3</v>
+      </c>
+      <c r="U184" s="3">
+        <v>28500</v>
+      </c>
+      <c r="V184" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W184" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X184" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z184" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA184" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB184" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC184" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD184" s="5">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="AE184" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF184" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG184" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI184" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ184" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK184" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL184" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM184" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN184" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO184" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP184" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ184" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR184" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS184" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT184" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU184" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV184" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW184" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX184" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY184" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ184" s="38">
+        <v>4</v>
+      </c>
+      <c r="BA184" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB184" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC184" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD184" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE184" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF184" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG184" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH184" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI184" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>184</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F185" s="17">
+        <v>45103.864710648151</v>
+      </c>
+      <c r="G185" s="21">
+        <v>2</v>
+      </c>
+      <c r="H185" s="4">
+        <f t="shared" si="10"/>
+        <v>45103.948043981487</v>
+      </c>
+      <c r="I185" s="3">
+        <v>200</v>
+      </c>
+      <c r="J185" s="3">
+        <v>20920</v>
+      </c>
+      <c r="K185" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0460000000000001E-2</v>
+      </c>
+      <c r="L185" s="3">
+        <v>319.3</v>
+      </c>
+      <c r="M185" s="3">
+        <v>60</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O185" s="3">
+        <v>49.701658000000002</v>
+      </c>
+      <c r="P185" s="3">
+        <v>10.695015</v>
+      </c>
+      <c r="Q185" s="3">
+        <v>34500</v>
+      </c>
+      <c r="R185" s="3">
+        <v>34500</v>
+      </c>
+      <c r="S185" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T185" s="3">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="U185" s="3">
+        <f>R185</f>
+        <v>34500</v>
+      </c>
+      <c r="V185" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W185" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X185" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y185" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z185" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA185" s="5">
+        <v>200</v>
+      </c>
+      <c r="AB185" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC185" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD185" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE185" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="AF185" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG185" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH185" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI185" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ185" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK185" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL185" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM185" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN185" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO185" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP185" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ185" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR185" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS185" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT185" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU185" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV185" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW185" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX185" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY185" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ185" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA185" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB185" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC185" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD185" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE185" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF185" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG185" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH185" s="40" t="s">
+        <v>1543</v>
+      </c>
+      <c r="BI185" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>185</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F186" s="17">
+        <v>45118.784571759257</v>
+      </c>
+      <c r="G186" s="21">
+        <v>2</v>
+      </c>
+      <c r="H186" s="4">
+        <f t="shared" si="10"/>
+        <v>45118.867905092593</v>
+      </c>
+      <c r="I186" s="3">
+        <v>200</v>
+      </c>
+      <c r="J186" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K186" s="3">
+        <f t="shared" si="14"/>
+        <v>8.628107074569789E-3</v>
+      </c>
+      <c r="L186" s="3">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="M186" s="3">
+        <v>32.43</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O186" s="3">
+        <v>43.459882999999998</v>
+      </c>
+      <c r="P186" s="3">
+        <v>23.543707999999999</v>
+      </c>
+      <c r="Q186" s="3">
+        <v>27292.799999999999</v>
+      </c>
+      <c r="R186" s="3">
+        <f>Q186</f>
+        <v>27292.799999999999</v>
+      </c>
+      <c r="S186" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T186" s="3">
+        <f t="shared" si="15"/>
+        <v>32.43</v>
+      </c>
+      <c r="U186" s="3">
+        <v>27292.799999999999</v>
+      </c>
+      <c r="V186" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W186" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X186" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y186" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z186" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA186" s="5">
+        <v>900</v>
+      </c>
+      <c r="AB186" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AC186" s="5">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AD186" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AE186" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AF186" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG186" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH186" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI186" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ186" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK186" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL186" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM186" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN186" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO186" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP186" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ186" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR186" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS186" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT186" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU186" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV186" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW186" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX186" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY186" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ186" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA186" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB186" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC186" s="38">
+        <v>142</v>
+      </c>
+      <c r="BD186" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE186" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF186" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG186" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH186" s="40" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BI186" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>186</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="F187" s="17">
+        <v>45133.154097222221</v>
+      </c>
+      <c r="G187" s="21">
+        <v>-7</v>
+      </c>
+      <c r="H187" s="4">
+        <f t="shared" si="10"/>
+        <v>45132.862430555557</v>
+      </c>
+      <c r="I187" s="3">
+        <v>15170</v>
+      </c>
+      <c r="J187" s="3">
+        <v>15580</v>
+      </c>
+      <c r="K187" s="3">
+        <f t="shared" si="14"/>
+        <v>0.44004674808795408</v>
+      </c>
+      <c r="L187" s="3">
+        <v>292.2</v>
+      </c>
+      <c r="M187" s="3">
+        <v>56.8</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O187" s="3">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P187" s="3">
+        <v>-103.4</v>
+      </c>
+      <c r="Q187" s="3">
+        <v>36100</v>
+      </c>
+      <c r="R187" s="3">
+        <v>36100</v>
+      </c>
+      <c r="S187" s="3">
+        <v>15580</v>
+      </c>
+      <c r="T187" s="3">
+        <f t="shared" si="15"/>
+        <v>56.8</v>
+      </c>
+      <c r="U187" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V187" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W187" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X187" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y187" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z187" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA187" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC187" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD187" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AE187" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF187" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG187" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH187" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI187" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ187" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK187" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL187" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM187" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN187" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO187" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP187" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ187" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR187" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS187" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT187" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU187" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV187" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW187" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX187" s="38">
+        <v>4</v>
+      </c>
+      <c r="AY187" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ187" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA187" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB187" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC187" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD187" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE187" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF187" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG187" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH187" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI187" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>187</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188" s="17">
+        <v>45140.259212962963</v>
+      </c>
+      <c r="G188" s="21">
+        <v>-4</v>
+      </c>
+      <c r="H188" s="4">
+        <f t="shared" si="10"/>
+        <v>45140.092546296299</v>
+      </c>
+      <c r="I188" s="3">
+        <v>35</v>
+      </c>
+      <c r="J188" s="3">
+        <v>22770</v>
+      </c>
+      <c r="K188" s="3">
+        <f t="shared" si="14"/>
+        <v>2.1685649498087954E-3</v>
+      </c>
+      <c r="L188" s="3">
+        <v>149</v>
+      </c>
+      <c r="M188" s="3">
+        <v>74</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O188" s="3">
+        <v>36.668284999999997</v>
+      </c>
+      <c r="P188" s="3">
+        <v>-82.717695000000006</v>
+      </c>
+      <c r="Q188" s="3">
+        <v>26975</v>
+      </c>
+      <c r="R188" s="3">
+        <f>Q188+1000</f>
+        <v>27975</v>
+      </c>
+      <c r="S188" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T188" s="3">
+        <v>68</v>
+      </c>
+      <c r="U188" s="3">
+        <f>Q188</f>
+        <v>26975</v>
+      </c>
+      <c r="V188" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W188" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X188" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z188" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA188" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB188" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC188" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD188" s="5">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="AE188" s="5">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="AF188" s="5">
+        <v>2675</v>
+      </c>
+      <c r="AG188" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH188" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI188" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ188" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK188" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL188" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM188" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN188" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO188" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP188" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ188" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR188" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS188" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT188" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU188" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV188" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW188" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX188" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY188" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ188" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA188" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB188" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC188" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD188" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE188" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF188" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG188" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH188" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI188" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:BI176" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
+  <autoFilter ref="A5:BI185" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A1EA5-6E5D-46A3-AAE6-F062C7845542}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>43791</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>43796</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>43803</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>43805</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>43812</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>43817</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3671A4F0-4F83-47A4-A055-B2C0DAB4F645}">
+  <dimension ref="A2:X26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>180.7037</v>
+      </c>
+      <c r="B4">
+        <v>30.39453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.94</v>
+      </c>
+      <c r="B10">
+        <v>30.393999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.04</v>
+      </c>
+      <c r="B11">
+        <f>A11/A10*B10</f>
+        <v>8.0227817258883256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <f>DEGREES(ATAN(X20/X19))</f>
+        <v>7.8213521043749488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30250</v>
+      </c>
+      <c r="B23">
+        <v>8.0220000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>9.1259999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF8CB18-6EA0-4ACF-8EE2-9DD1689EBB8B}">
   <dimension ref="C2:T111"/>
   <sheetViews>
@@ -38314,12 +39806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF5B9B-0F72-45F1-9ED5-2AE8EF041BE8}">
   <dimension ref="A7:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N11:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38421,11 +39913,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>37.251854349444017</v>
+        <v>68.26615170741961</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>52.748145650555983</v>
+        <v>21.73384829258039</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -38433,20 +39925,20 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>6.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>80.403786602373401</v>
+        <v>137.79532149169651</v>
       </c>
       <c r="L13">
         <f>J13/L12</f>
-        <v>13.180948623339903</v>
+        <v>22.965886915282752</v>
       </c>
       <c r="Q13" t="s">
         <v>404</v>
@@ -38464,13 +39956,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>64</v>
+        <v>51.024999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>52.748145650555983</v>
+        <v>21.73384829258039</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -38478,7 +39970,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>24</v>
+        <v>26.975000000000001</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -38500,14 +39992,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>48.67</v>
+        <v>128</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>10.050473325296675</v>
+        <v>21.604362017316454</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -38754,10 +40246,13 @@
         <v>93</v>
       </c>
       <c r="F41" s="15">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
+      </c>
+      <c r="K41">
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -38765,7 +40260,7 @@
         <v>178</v>
       </c>
       <c r="F42" s="15">
-        <v>3300</v>
+        <v>2640</v>
       </c>
       <c r="G42" t="s">
         <v>171</v>
@@ -38777,14 +40272,14 @@
       </c>
       <c r="F43">
         <f>F41/F42</f>
-        <v>3.0303030303030303E-4</v>
+        <v>0.13257575757575757</v>
       </c>
       <c r="G43" t="s">
         <v>181</v>
       </c>
       <c r="H43">
         <f>F43*100*100*100</f>
-        <v>303.030303030303</v>
+        <v>132575.75757575757</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -38793,7 +40288,7 @@
       </c>
       <c r="F44">
         <f>((6*F43)/PI())^(1/3)</f>
-        <v>8.3335327392970712E-2</v>
+        <v>0.63263784032285664</v>
       </c>
       <c r="G44" t="s">
         <v>182</v>
@@ -38802,7 +40297,7 @@
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F45">
         <f>F44*100</f>
-        <v>8.3335327392970715</v>
+        <v>63.263784032285663</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -38813,7 +40308,7 @@
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F48">
         <f>F41*F47</f>
-        <v>4.4000000000000003E-3</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
@@ -38844,12 +40339,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F006F-09CB-4518-A6A0-B4628B5EF033}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42362,10 +43857,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E00CB2-4C03-4E08-A2A2-C2F4859B5A17}">
   <dimension ref="F5:W87"/>
   <sheetViews>
@@ -43722,7 +45218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A5485-B526-4F4A-98E6-46596A9C7AC6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -43787,7 +45283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3642CC9A-E743-4191-A934-02A4E166F560}">
   <dimension ref="A1:I93"/>
   <sheetViews>
@@ -44708,12 +46204,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46219,6 +47715,25 @@
         <v>45039</v>
       </c>
     </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="33">
+        <v>141</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C138" s="31">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="33">
+        <v>142</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>1487</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{55C4805C-87A8-4D18-978D-FAFC0E5CA908}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
@@ -46227,106 +47742,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A1EA5-6E5D-46A3-AAE6-F062C7845542}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="109.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>43791</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>43796</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>43803</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>43805</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>43812</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>43817</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34469144-E33C-4B26-9180-809D7417418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E19762-C9F6-472F-9D6B-E56718EE0F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1755" yWindow="810" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="1643">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -5073,6 +5073,21 @@
   </si>
   <si>
     <t>score</t>
+  </si>
+  <si>
+    <t>Languedoc</t>
+  </si>
+  <si>
+    <t>Tioga Astro</t>
+  </si>
+  <si>
+    <t>Presly</t>
+  </si>
+  <si>
+    <t>Fireball Recovery and InterPlanetary Observation Network (FRIPON), https://fireball.fripon.org/</t>
+  </si>
+  <si>
+    <t>Neuvy-sur-Barangeon</t>
   </si>
 </sst>
 </file>
@@ -14032,13 +14047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI188"/>
+  <dimension ref="A1:BI189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="L188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
+      <selection pane="bottomRight" activeCell="V190" sqref="V190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38031,7 +38046,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H188" si="10">F153+G153/24</f>
+        <f t="shared" ref="H153:H189" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -42211,7 +42226,7 @@
         <v>20500</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" ref="K180:K188" si="14">I180*J180^2/2/4.184/10^12</f>
+        <f t="shared" ref="K180:K189" si="14">I180*J180^2/2/4.184/10^12</f>
         <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
@@ -43872,6 +43887,196 @@
         <v>1416</v>
       </c>
       <c r="BI188" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>188</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F189" s="17">
+        <v>45178.926215277781</v>
+      </c>
+      <c r="G189" s="21">
+        <v>2</v>
+      </c>
+      <c r="H189" s="4">
+        <f t="shared" si="10"/>
+        <v>45179.009548611117</v>
+      </c>
+      <c r="I189" s="3">
+        <v>10</v>
+      </c>
+      <c r="J189" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K189" s="3">
+        <f t="shared" si="14"/>
+        <v>3.4536328871892925E-4</v>
+      </c>
+      <c r="L189" s="3">
+        <v>2.4195000000000002</v>
+      </c>
+      <c r="M189" s="3">
+        <v>49.635599999999997</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O189" s="3">
+        <v>47.332197999999998</v>
+      </c>
+      <c r="P189" s="3">
+        <v>2.2825120000000001</v>
+      </c>
+      <c r="Q189" s="3">
+        <v>22600</v>
+      </c>
+      <c r="R189" s="3">
+        <f>Q189</f>
+        <v>22600</v>
+      </c>
+      <c r="S189" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T189" s="3">
+        <f>M189</f>
+        <v>49.635599999999997</v>
+      </c>
+      <c r="U189" s="3">
+        <f>R189</f>
+        <v>22600</v>
+      </c>
+      <c r="V189" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W189" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X189" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z189" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA189" s="5">
+        <v>800</v>
+      </c>
+      <c r="AB189" s="5">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AC189" s="5">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="AD189" s="5">
+        <v>1.7420000000001323E-3</v>
+      </c>
+      <c r="AE189" s="5">
+        <v>1.9860000000000433E-3</v>
+      </c>
+      <c r="AF189" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AG189" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH189" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI189" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ189" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK189" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL189" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM189" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN189" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO189" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP189" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ189" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR189" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS189" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT189" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU189" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV189" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW189" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX189" s="38">
+        <v>143</v>
+      </c>
+      <c r="AY189" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ189" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA189" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB189" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC189" s="38">
+        <v>144</v>
+      </c>
+      <c r="BD189" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE189" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF189" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG189" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH189" s="40" t="s">
+        <v>1639</v>
+      </c>
+      <c r="BI189" s="40">
         <v>0</v>
       </c>
     </row>
@@ -44927,7 +45132,7 @@
   <dimension ref="A7:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N11:N14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45029,11 +45234,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>68.26615170741961</v>
+        <v>48.868761607215369</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>21.73384829258039</v>
+        <v>41.131238392784631</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -45041,20 +45246,20 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>137.79532149169651</v>
+        <v>87.718498049157219</v>
       </c>
       <c r="L13">
         <f>J13/L12</f>
-        <v>22.965886915282752</v>
+        <v>13.923571118913845</v>
       </c>
       <c r="Q13" t="s">
         <v>404</v>
@@ -45072,13 +45277,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>51.024999999999999</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>21.73384829258039</v>
+        <v>41.131238392784631</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -45086,7 +45291,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>26.975000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -45108,14 +45313,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>128</v>
+        <v>66.069999999999993</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>21.604362017316454</v>
+        <v>12.162010128132716</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -45460,7 +45665,7 @@
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50638,7 +50843,7 @@
         <v>2</v>
       </c>
       <c r="J107">
-        <f t="shared" ref="J106:J169" si="14">ABS(COS(RADIANS(2*I107)))+1</f>
+        <f t="shared" ref="J107:J169" si="14">ABS(COS(RADIANS(2*I107)))+1</f>
         <v>1.9975640502598242</v>
       </c>
     </row>
@@ -55398,10 +55603,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56926,6 +57131,25 @@
         <v>1487</v>
       </c>
     </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="33">
+        <v>143</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C140" s="31">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="33">
+        <v>144</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>1641</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{55C4805C-87A8-4D18-978D-FAFC0E5CA908}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E19762-C9F6-472F-9D6B-E56718EE0F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9635E2AF-D3E5-4D69-90E0-A6BDBA6F1A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Database!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sources!$A$1:$C$1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">AllEventData!$I$7</definedName>
@@ -5081,13 +5081,13 @@
     <t>Tioga Astro</t>
   </si>
   <si>
-    <t>Presly</t>
-  </si>
-  <si>
     <t>Fireball Recovery and InterPlanetary Observation Network (FRIPON), https://fireball.fripon.org/</t>
   </si>
   <si>
-    <t>Neuvy-sur-Barangeon</t>
+    <t>Menetreol</t>
+  </si>
+  <si>
+    <t>Menetreol-sur-Sauldre</t>
   </si>
 </sst>
 </file>
@@ -14050,10 +14050,10 @@
   <dimension ref="A1:BI189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="L188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V190" sqref="V190"/>
+      <selection pane="bottomRight" activeCell="J190" sqref="J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43895,10 +43895,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>1642</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>1640</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>1638</v>
@@ -43927,37 +43927,37 @@
         <v>3.4536328871892925E-4</v>
       </c>
       <c r="L189" s="3">
-        <v>2.4195000000000002</v>
+        <v>2.0994999999999999</v>
       </c>
       <c r="M189" s="3">
-        <v>49.635599999999997</v>
+        <v>53.131300000000003</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>1334</v>
       </c>
       <c r="O189" s="3">
-        <v>47.332197999999998</v>
+        <v>47.375329000000001</v>
       </c>
       <c r="P189" s="3">
-        <v>2.2825120000000001</v>
+        <v>2.28199</v>
       </c>
       <c r="Q189" s="3">
-        <v>22600</v>
+        <v>22060.02</v>
       </c>
       <c r="R189" s="3">
         <f>Q189</f>
-        <v>22600</v>
+        <v>22060.02</v>
       </c>
       <c r="S189" s="3">
         <v>3500</v>
       </c>
       <c r="T189" s="3">
         <f>M189</f>
-        <v>49.635599999999997</v>
+        <v>53.131300000000003</v>
       </c>
       <c r="U189" s="3">
         <f>R189</f>
-        <v>22600</v>
+        <v>22060.02</v>
       </c>
       <c r="V189" s="3" t="s">
         <v>81</v>
@@ -43975,22 +43975,22 @@
         <v>60000</v>
       </c>
       <c r="AA189" s="5">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="AB189" s="5">
-        <v>0.19800000000000001</v>
+        <v>2.0994999999999999</v>
       </c>
       <c r="AC189" s="5">
-        <v>0.64700000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="AD189" s="5">
-        <v>1.7420000000001323E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="AE189" s="5">
-        <v>1.9860000000000433E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AF189" s="5">
-        <v>1000</v>
+        <v>34.36</v>
       </c>
       <c r="AG189" s="5">
         <v>-1</v>
@@ -44081,7 +44081,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:BI185" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
+  <autoFilter ref="A5:BI189" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -45234,11 +45234,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>48.868761607215369</v>
+        <v>74.922424091497547</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>41.131238392784631</v>
+        <v>15.077575908502453</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -45246,7 +45246,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>80</v>
+        <v>6.7</v>
       </c>
       <c r="L12">
         <v>6.3</v>
@@ -45255,11 +45255,11 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>87.718498049157219</v>
+        <v>25.75668651049665</v>
       </c>
       <c r="L13">
         <f>J13/L12</f>
-        <v>13.923571118913845</v>
+        <v>4.0883629381740718</v>
       </c>
       <c r="Q13" t="s">
         <v>404</v>
@@ -45277,13 +45277,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>57.7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>41.131238392784631</v>
+        <v>15.077575908502453</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -45291,7 +45291,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -45313,14 +45313,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>66.069999999999993</v>
+        <v>24.87</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>12.162010128132716</v>
+        <v>30.754252549846754</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -57147,7 +57147,7 @@
         <v>144</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
   </sheetData>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E88EA-EB59-4D37-873F-EDE589715780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A717460-E724-4FAF-AF86-7F693F0CA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="1819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="1822">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -5680,6 +5680,15 @@
   </si>
   <si>
     <t>Saint-Symphorien</t>
+  </si>
+  <si>
+    <t>Mountain Home</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Annie Morris</t>
   </si>
 </sst>
 </file>
@@ -5974,7 +5983,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6122,6 +6131,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14639,13 +14663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI191"/>
+  <dimension ref="A1:BI192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F192" sqref="F192"/>
+      <selection pane="bottomRight" activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15581,7 +15605,7 @@
         <v>-5</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H19" si="0">F6+G6/24</f>
+        <f>F6+G6/24</f>
         <v>43116.83924768518</v>
       </c>
       <c r="I6" s="9">
@@ -15591,7 +15615,7 @@
         <v>15830</v>
       </c>
       <c r="K6" s="26">
-        <f t="shared" ref="K6:K31" si="1">I6*J6^2/2/4.184/10^12</f>
+        <f>I6*J6^2/2/4.184/10^12</f>
         <v>3.4737467017208409E-3</v>
       </c>
       <c r="L6" s="9">
@@ -15736,7 +15760,7 @@
         <v>-4</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="0"/>
+        <f>F7+G7/24</f>
         <v>43596.029861111114</v>
       </c>
       <c r="I7" s="9">
@@ -15746,7 +15770,7 @@
         <v>21500</v>
       </c>
       <c r="K7" s="26">
-        <f t="shared" si="1"/>
+        <f>I7*J7^2/2/4.184/10^12</f>
         <v>1.1048040152963671E-3</v>
       </c>
       <c r="L7" s="9">
@@ -15891,7 +15915,7 @@
         <v>-6</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
+        <f>F8+G8/24</f>
         <v>37706.993361111112</v>
       </c>
       <c r="I8" s="3">
@@ -15901,7 +15925,7 @@
         <v>19500</v>
       </c>
       <c r="K8" s="26">
-        <f t="shared" si="1"/>
+        <f>I8*J8^2/2/4.184/10^12</f>
         <v>0.41001383245697892</v>
       </c>
       <c r="L8" s="3">
@@ -16079,7 +16103,7 @@
         <v>-4</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f>F9+G9/24</f>
         <v>40763.056944444448</v>
       </c>
       <c r="I9" s="3">
@@ -16089,7 +16113,7 @@
         <v>25000</v>
       </c>
       <c r="K9" s="26">
-        <f t="shared" si="1"/>
+        <f>I9*J9^2/2/4.184/10^12</f>
         <v>3.7344646271510515E-4</v>
       </c>
       <c r="L9" s="3">
@@ -16234,7 +16258,7 @@
         <v>-4</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
+        <f>F10+G10/24</f>
         <v>43605.94063657408</v>
       </c>
       <c r="I10" s="3">
@@ -16244,7 +16268,7 @@
         <v>13600</v>
       </c>
       <c r="K10" s="26">
-        <f t="shared" si="1"/>
+        <f>I10*J10^2/2/4.184/10^12</f>
         <v>2.210325047801147E-4</v>
       </c>
       <c r="L10" s="3">
@@ -16389,7 +16413,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="0"/>
+        <f>F11+G11/24</f>
         <v>41648.128865740735</v>
       </c>
       <c r="I11" s="3">
@@ -16399,7 +16423,7 @@
         <v>44832</v>
       </c>
       <c r="K11" s="26">
-        <f t="shared" si="1"/>
+        <f>I11*J11^2/2/4.184/10^12</f>
         <v>0.11000692717399617</v>
       </c>
       <c r="L11" s="3">
@@ -16545,7 +16569,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="0"/>
+        <f>F12+G12/24</f>
         <v>42189.402905092596</v>
       </c>
       <c r="I12" s="3">
@@ -16555,7 +16579,7 @@
         <v>49000</v>
       </c>
       <c r="K12" s="26">
-        <f t="shared" si="1"/>
+        <f>I12*J12^2/2/4.184/10^12</f>
         <v>0.17990284416826005</v>
       </c>
       <c r="L12" s="3">
@@ -16680,7 +16704,7 @@
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="57">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -16702,7 +16726,7 @@
         <v>-7</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
+        <f>F13+G13/24</f>
         <v>39630.444664351853</v>
       </c>
       <c r="I13" s="3">
@@ -16712,7 +16736,7 @@
         <v>9800</v>
       </c>
       <c r="K13" s="26">
-        <f t="shared" si="1"/>
+        <f>I13*J13^2/2/4.184/10^12</f>
         <v>0.11999261472275334</v>
       </c>
       <c r="L13" s="3">
@@ -16748,7 +16772,7 @@
       <c r="V13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="W13" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X13" s="3">
@@ -16857,7 +16881,7 @@
         <v>-3</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
+        <f>F14+G14/24</f>
         <v>43622.936111111114</v>
       </c>
       <c r="I14" s="3">
@@ -16867,7 +16891,7 @@
         <v>14800</v>
       </c>
       <c r="K14" s="26">
-        <f t="shared" si="1"/>
+        <f>I14*J14^2/2/4.184/10^12</f>
         <v>8.504552581261951E-2</v>
       </c>
       <c r="L14" s="3">
@@ -16990,7 +17014,7 @@
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="57">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -17012,7 +17036,7 @@
         <v>-4</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
+        <f>F15+G15/24</f>
         <v>40000.044965277782</v>
       </c>
       <c r="I15" s="3">
@@ -17022,7 +17046,7 @@
         <v>11000</v>
       </c>
       <c r="K15" s="26">
-        <f t="shared" si="1"/>
+        <f>I15*J15^2/2/4.184/10^12</f>
         <v>5.3501434034416828E-3</v>
       </c>
       <c r="L15" s="3">
@@ -17167,7 +17191,7 @@
         <v>9.5</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="0"/>
+        <f>F16+G16/24</f>
         <v>43605.011840277781</v>
       </c>
       <c r="I16" s="3">
@@ -17177,7 +17201,7 @@
         <v>15200</v>
       </c>
       <c r="K16" s="26">
-        <f t="shared" si="1"/>
+        <f>I16*J16^2/2/4.184/10^12</f>
         <v>0.10999801147227532</v>
       </c>
       <c r="L16" s="3">
@@ -17322,7 +17346,7 @@
         <v>-4</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="0"/>
+        <f>F17+G17/24</f>
         <v>43670.113657407412</v>
       </c>
       <c r="I17" s="3">
@@ -17332,7 +17356,7 @@
         <v>20200</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" si="1"/>
+        <f>I17*J17^2/2/4.184/10^12</f>
         <v>2.4380975143403439E-3</v>
       </c>
       <c r="L17" s="3">
@@ -17477,7 +17501,7 @@
         <v>-7</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="0"/>
+        <f>F18+G18/24</f>
         <v>41021.327222222222</v>
       </c>
       <c r="I18" s="3">
@@ -17487,7 +17511,7 @@
         <v>28600</v>
       </c>
       <c r="K18" s="26">
-        <f t="shared" si="1"/>
+        <f>I18*J18^2/2/4.184/10^12</f>
         <v>3.9099426386233267</v>
       </c>
       <c r="L18" s="3">
@@ -17664,7 +17688,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="0"/>
+        <f>F19+G19/24</f>
         <v>41320.347462962964</v>
       </c>
       <c r="I19" s="3">
@@ -17674,7 +17698,7 @@
         <v>19160</v>
       </c>
       <c r="K19" s="26">
-        <f t="shared" si="1"/>
+        <f>I19*J19^2/2/4.184/10^12</f>
         <v>466.89343921548755</v>
       </c>
       <c r="L19" s="3">
@@ -17861,7 +17885,7 @@
         <v>18614.2</v>
       </c>
       <c r="K20" s="26">
-        <f t="shared" si="1"/>
+        <f>I20*J20^2/2/4.184/10^12</f>
         <v>439.98400822976106</v>
       </c>
       <c r="L20" s="3">
@@ -18006,7 +18030,7 @@
         <v>-4</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ref="H21:H31" si="2">F21+G21/24</f>
+        <f>F21+G21/24</f>
         <v>43670.960416666669</v>
       </c>
       <c r="I21" s="3">
@@ -18016,7 +18040,7 @@
         <v>30400</v>
       </c>
       <c r="K21" s="26">
-        <f t="shared" si="1"/>
+        <f>I21*J21^2/2/4.184/10^12</f>
         <v>1.104397705544933E-3</v>
       </c>
       <c r="L21" s="3">
@@ -18157,11 +18181,11 @@
       <c r="F22" s="17">
         <v>43709.183217592596</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="58">
         <v>-6</v>
       </c>
-      <c r="H22" s="4">
-        <f t="shared" si="2"/>
+      <c r="H22" s="59">
+        <f>F22+G22/24</f>
         <v>43708.933217592596</v>
       </c>
       <c r="I22" s="3">
@@ -18171,7 +18195,7 @@
         <v>7827</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" si="1"/>
+        <f>I22*J22^2/2/4.184/10^12</f>
         <v>3.6604881094646271E-4</v>
       </c>
       <c r="L22" s="3">
@@ -18316,7 +18340,7 @@
         <v>-4</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
+        <f>F23+G23/24</f>
         <v>43743.800115740742</v>
       </c>
       <c r="I23" s="3">
@@ -18326,7 +18350,7 @@
         <v>14000</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="1"/>
+        <f>I23*J23^2/2/4.184/10^12</f>
         <v>2.3422562141491394E-3</v>
       </c>
       <c r="L23" s="3">
@@ -18471,7 +18495,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f>F24+G24/24</f>
         <v>43720.61791666667</v>
       </c>
       <c r="I24" s="3">
@@ -18481,7 +18505,7 @@
         <v>19998</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="1"/>
+        <f>I24*J24^2/2/4.184/10^12</f>
         <v>0.48000000000000004</v>
       </c>
       <c r="L24" s="3">
@@ -18625,7 +18649,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f>F25+G25/24</f>
         <v>43735.81248842593</v>
       </c>
       <c r="I25" s="3">
@@ -18635,7 +18659,7 @@
         <v>17965</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="1"/>
+        <f>I25*J25^2/2/4.184/10^12</f>
         <v>1.928425101577438E-3</v>
       </c>
       <c r="L25" s="3">
@@ -18779,7 +18803,7 @@
         <v>-4</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="2"/>
+        <f>F26+G26/24</f>
         <v>43739.041655092595</v>
       </c>
       <c r="I26" s="3">
@@ -18789,7 +18813,7 @@
         <v>59700</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="1"/>
+        <f>I26*J26^2/2/4.184/10^12</f>
         <v>4.2591897705544932E-2</v>
       </c>
       <c r="L26" s="3">
@@ -18934,7 +18958,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="2"/>
+        <f>F27+G27/24</f>
         <v>43749.01152777778</v>
       </c>
       <c r="I27" s="3">
@@ -18944,7 +18968,7 @@
         <v>14065</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="1"/>
+        <f>I27*J27^2/2/4.184/10^12</f>
         <v>0.56999759667483263</v>
       </c>
       <c r="L27" s="3">
@@ -18980,7 +19004,7 @@
       <c r="V27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="W27" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X27" s="3">
@@ -19089,7 +19113,7 @@
         <v>-6</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="2"/>
+        <f>F28+G28/24</f>
         <v>43780.869270833333</v>
       </c>
       <c r="I28" s="3">
@@ -19099,7 +19123,7 @@
         <v>15300</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f>I28*J28^2/2/4.184/10^12</f>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L28" s="3">
@@ -19274,7 +19298,7 @@
         <v>-6</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="2"/>
+        <f>F29+G29/24</f>
         <v>43780.869270833333</v>
       </c>
       <c r="I29" s="3">
@@ -19284,7 +19308,7 @@
         <v>15300</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
+        <f>I29*J29^2/2/4.184/10^12</f>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L29" s="3">
@@ -19429,7 +19453,7 @@
         <v>-5</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="2"/>
+        <f>F30+G30/24</f>
         <v>43802.803101851852</v>
       </c>
       <c r="I30" s="3">
@@ -19439,7 +19463,7 @@
         <v>20000</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="1"/>
+        <f>I30*J30^2/2/4.184/10^12</f>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L30" s="3">
@@ -19584,7 +19608,7 @@
         <v>-8</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="2"/>
+        <f>F31+G31/24</f>
         <v>36543.363692129627</v>
       </c>
       <c r="I31" s="3">
@@ -19594,7 +19618,7 @@
         <v>15800</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="1"/>
+        <f>I31*J31^2/2/4.184/10^12</f>
         <v>1.7452127151051624</v>
       </c>
       <c r="L31" s="3">
@@ -19769,7 +19793,7 @@
       <c r="S32" s="3">
         <v>13395</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="W32" s="60" t="s">
         <v>246</v>
       </c>
       <c r="X32" s="3">
@@ -20937,7 +20961,7 @@
       <c r="S47" s="3">
         <v>14500</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="60" t="s">
         <v>240</v>
       </c>
       <c r="X47" s="3">
@@ -21391,6 +21415,7 @@
       <c r="J52" s="3">
         <v>12760</v>
       </c>
+      <c r="K52" s="60"/>
       <c r="O52" s="3">
         <v>20.858000000000001</v>
       </c>
@@ -22413,7 +22438,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" ref="H62:H71" si="3">F62+G62/24</f>
+        <f>F62+G62/24</f>
         <v>39060.355000000003</v>
       </c>
       <c r="I62" s="3">
@@ -22423,7 +22448,7 @@
         <v>17100</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" ref="K62:K72" si="4">I62*J62^2/2/4.184/10^12</f>
+        <f>I62*J62^2/2/4.184/10^12</f>
         <v>16.272679398900571</v>
       </c>
       <c r="L62" s="3">
@@ -22567,7 +22592,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="3"/>
+        <f>F63+G63/24</f>
         <v>42249.923922685186</v>
       </c>
       <c r="I63" s="37">
@@ -22577,7 +22602,7 @@
         <v>17100</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="4"/>
+        <f>I63*J63^2/2/4.184/10^12</f>
         <v>6.5659463432122367E-2</v>
       </c>
       <c r="L63" s="3">
@@ -22721,7 +22746,7 @@
         <v>-6</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="3"/>
+        <f>F64+G64/24</f>
         <v>43578.879861111112</v>
       </c>
       <c r="I64" s="3">
@@ -22731,7 +22756,7 @@
         <v>14000</v>
       </c>
       <c r="K64" s="36">
-        <f t="shared" si="4"/>
+        <f>I64*J64^2/2/4.184/10^12</f>
         <v>1.1711281070745696E-2</v>
       </c>
       <c r="L64" s="3">
@@ -22771,7 +22796,7 @@
       <c r="V64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W64" s="3" t="s">
+      <c r="W64" s="60" t="s">
         <v>216</v>
       </c>
       <c r="X64" s="3">
@@ -22891,7 +22916,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="3"/>
+        <f>F65+G65/24</f>
         <v>43835.169652777775</v>
       </c>
       <c r="I65" s="3">
@@ -22901,7 +22926,7 @@
         <v>18000</v>
       </c>
       <c r="K65" s="36">
-        <f t="shared" si="4"/>
+        <f>I65*J65^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L65" s="3">
@@ -23046,7 +23071,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="3"/>
+        <f>F66+G66/24</f>
         <v>43835.169652777775</v>
       </c>
       <c r="I66" s="3">
@@ -23056,7 +23081,7 @@
         <v>18000</v>
       </c>
       <c r="K66" s="36">
-        <f t="shared" si="4"/>
+        <f>I66*J66^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L66" s="3">
@@ -23201,7 +23226,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="3"/>
+        <f>F67+G67/24</f>
         <v>43857.277256944442</v>
       </c>
       <c r="I67" s="3">
@@ -23211,7 +23236,7 @@
         <v>20860</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="4"/>
+        <f>I67*J67^2/2/4.184/10^12</f>
         <v>0.15001000000000006</v>
       </c>
       <c r="L67" s="3">
@@ -23386,7 +23411,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="3"/>
+        <f>F68+G68/24</f>
         <v>43859.005555555552</v>
       </c>
       <c r="I68" s="3">
@@ -23396,7 +23421,7 @@
         <v>16944</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="4"/>
+        <f>I68*J68^2/2/4.184/10^12</f>
         <v>1.0292751051625238E-2</v>
       </c>
       <c r="L68" s="3">
@@ -23567,7 +23592,7 @@
         <v>5.5</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="3"/>
+        <f>F69+G69/24</f>
         <v>43872.221030092587</v>
       </c>
       <c r="I69" s="3">
@@ -23577,7 +23602,7 @@
         <v>31690</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="4"/>
+        <f>I69*J69^2/2/4.184/10^12</f>
         <v>9.4929084022466539E-2</v>
       </c>
       <c r="L69" s="3">
@@ -23751,7 +23776,7 @@
         <v>-5</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="3"/>
+        <f>F70+G70/24</f>
         <v>43868.778518518513</v>
       </c>
       <c r="I70" s="3">
@@ -23761,7 +23786,7 @@
         <v>19080</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="4"/>
+        <f>I70*J70^2/2/4.184/10^12</f>
         <v>6.5256883365200757E-3</v>
       </c>
       <c r="L70" s="3">
@@ -23905,7 +23930,7 @@
         <v>-7</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="3"/>
+        <f>F71+G71/24</f>
         <v>43877.303761574076</v>
       </c>
       <c r="I71" s="3">
@@ -23915,7 +23940,7 @@
         <v>23000</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="4"/>
+        <f>I71*J71^2/2/4.184/10^12</f>
         <v>9.48255258126195E-3</v>
       </c>
       <c r="L71" s="3">
@@ -24034,77 +24059,77 @@
       </c>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="57">
         <v>68</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="57" t="s">
         <v>1229</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="57" t="s">
         <v>1226</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="57" t="s">
         <v>1227</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="57" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="17">
         <v>43877.59542824074</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="58">
         <v>-7</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="59">
         <v>43877.303761574076</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="60">
         <v>0.1</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="60">
         <v>50</v>
       </c>
-      <c r="K72" s="3">
-        <f t="shared" si="4"/>
+      <c r="K72" s="60">
+        <f>I72*J72^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="60">
         <v>282.5</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
+      <c r="M72" s="60">
+        <v>0</v>
+      </c>
+      <c r="N72" s="60" t="s">
         <v>1334</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="60">
         <v>34.772824</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="60">
         <v>-112.717595</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="60">
         <v>11527</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="60">
         <v>11527</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="60">
         <v>80</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="60">
         <v>2</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="60">
         <v>11527</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="V72" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="W72" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="60">
         <v>0</v>
       </c>
       <c r="Y72" s="3">
@@ -24113,28 +24138,28 @@
       <c r="Z72" s="3">
         <v>11527</v>
       </c>
-      <c r="AA72" s="5">
+      <c r="AA72" s="61">
         <v>30</v>
       </c>
-      <c r="AB72" s="5">
+      <c r="AB72" s="61">
         <v>3</v>
       </c>
-      <c r="AC72" s="5">
+      <c r="AC72" s="61">
         <v>1</v>
       </c>
-      <c r="AD72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="5">
+      <c r="AD72" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="61">
         <v>1150</v>
       </c>
-      <c r="AG72" s="5">
+      <c r="AG72" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH72" s="5">
+      <c r="AH72" s="61">
         <v>1.5</v>
       </c>
       <c r="AI72" s="44" t="s">
@@ -24184,76 +24209,76 @@
       </c>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="57">
         <v>68</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="57" t="s">
         <v>1230</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="57" t="s">
         <v>1226</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="57" t="s">
         <v>1227</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="57" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="17">
         <v>43877.59542824074</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="58">
         <v>-7</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="59">
         <v>43877.303761574076</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="60">
         <v>0.1</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="60">
         <v>50</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="60">
         <v>4.5889101338432122E-9</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="60">
         <v>282.5</v>
       </c>
-      <c r="M73" s="3">
-        <v>0</v>
-      </c>
-      <c r="N73" s="3" t="s">
+      <c r="M73" s="60">
+        <v>0</v>
+      </c>
+      <c r="N73" s="60" t="s">
         <v>1334</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="60">
         <v>34.784137999999999</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="60">
         <v>-112.640496</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="Q73" s="60">
         <v>13723</v>
       </c>
-      <c r="R73" s="3">
+      <c r="R73" s="60">
         <v>13723</v>
       </c>
-      <c r="S73" s="3">
+      <c r="S73" s="60">
         <v>50</v>
       </c>
-      <c r="T73" s="3">
+      <c r="T73" s="60">
         <v>2</v>
       </c>
-      <c r="U73" s="3">
+      <c r="U73" s="60">
         <v>13723</v>
       </c>
-      <c r="V73" s="3" t="s">
+      <c r="V73" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="W73" s="3" t="s">
+      <c r="W73" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X73" s="3">
+      <c r="X73" s="60">
         <v>0</v>
       </c>
       <c r="Y73" s="3">
@@ -24262,28 +24287,28 @@
       <c r="Z73" s="3">
         <v>13723</v>
       </c>
-      <c r="AA73" s="5">
+      <c r="AA73" s="61">
         <v>30</v>
       </c>
-      <c r="AB73" s="5">
+      <c r="AB73" s="61">
         <v>3</v>
       </c>
-      <c r="AC73" s="5">
+      <c r="AC73" s="61">
         <v>1</v>
       </c>
-      <c r="AD73" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="5">
+      <c r="AD73" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="61">
         <v>1150</v>
       </c>
-      <c r="AG73" s="5">
+      <c r="AG73" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH73" s="5">
+      <c r="AH73" s="61">
         <v>1.5</v>
       </c>
       <c r="AI73" s="44" t="s">
@@ -25486,7 +25511,7 @@
         <v>-3</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" ref="H81:H112" si="5">F81+G81/24</f>
+        <f>F81+G81/24</f>
         <v>43959.142534722225</v>
       </c>
       <c r="I81" s="3">
@@ -25544,28 +25569,28 @@
       <c r="Z81" s="3">
         <v>60000</v>
       </c>
-      <c r="AA81" s="5">
+      <c r="AA81" s="61">
         <v>2000</v>
       </c>
-      <c r="AB81" s="5">
+      <c r="AB81" s="61">
         <v>3</v>
       </c>
-      <c r="AC81" s="5">
+      <c r="AC81" s="61">
         <v>10</v>
       </c>
-      <c r="AD81" s="5">
+      <c r="AD81" s="61">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AE81" s="5">
+      <c r="AE81" s="61">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF81" s="5">
+      <c r="AF81" s="61">
         <v>1000</v>
       </c>
-      <c r="AG81" s="5">
+      <c r="AG81" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH81" s="5">
+      <c r="AH81" s="61">
         <v>1.5</v>
       </c>
       <c r="AI81" s="45">
@@ -25673,7 +25698,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="5"/>
+        <f>F82+G82/24</f>
         <v>43978.854328703703</v>
       </c>
       <c r="I82" s="3">
@@ -25859,7 +25884,7 @@
         <v>9</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="5"/>
+        <f>F83+G83/24</f>
         <v>44014.105590277781</v>
       </c>
       <c r="I83" s="3">
@@ -25869,7 +25894,7 @@
         <v>14646</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" ref="K83:K130" si="6">I83*J83^2/2/4.184/10^12</f>
+        <f>I83*J83^2/2/4.184/10^12</f>
         <v>0.16405760305927342</v>
       </c>
       <c r="L83" s="3">
@@ -25906,7 +25931,7 @@
       <c r="V83" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W83" s="3" t="s">
+      <c r="W83" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X83" s="3">
@@ -26043,11 +26068,11 @@
       <c r="F84" s="17">
         <v>44027.915972222225</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G84" s="58">
         <v>-3</v>
       </c>
-      <c r="H84" s="4">
-        <f t="shared" si="5"/>
+      <c r="H84" s="59">
+        <f>F84+G84/24</f>
         <v>44027.790972222225</v>
       </c>
       <c r="I84" s="3">
@@ -26056,8 +26081,8 @@
       <c r="J84" s="3">
         <v>12500</v>
       </c>
-      <c r="K84" s="3">
-        <f t="shared" si="6"/>
+      <c r="K84" s="60">
+        <f>I84*J84^2/2/4.184/10^12</f>
         <v>3.7344646271510514E-3</v>
       </c>
       <c r="L84" s="3">
@@ -26094,7 +26119,7 @@
       <c r="V84" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W84" s="3" t="s">
+      <c r="W84" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X84" s="3">
@@ -26124,10 +26149,10 @@
       <c r="AF84" s="5">
         <v>804</v>
       </c>
-      <c r="AG84" s="5">
+      <c r="AG84" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH84" s="5">
+      <c r="AH84" s="61">
         <v>1.5</v>
       </c>
       <c r="AI84" s="45">
@@ -26235,7 +26260,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="5"/>
+        <f>F85+G85/24</f>
         <v>44043.100694444445</v>
       </c>
       <c r="I85" s="3">
@@ -26245,7 +26270,7 @@
         <v>18000</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="6"/>
+        <f>I85*J85^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L85" s="3">
@@ -26422,7 +26447,7 @@
         <v>-3</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="5"/>
+        <f>F86+G86/24</f>
         <v>44062.429560185185</v>
       </c>
       <c r="I86" s="3">
@@ -26432,7 +26457,7 @@
         <v>17970</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="6"/>
+        <f>I86*J86^2/2/4.184/10^12</f>
         <v>3.8589973709369028E-2</v>
       </c>
       <c r="L86" s="3">
@@ -26609,7 +26634,7 @@
         <v>-3</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="5"/>
+        <f>F87+G87/24</f>
         <v>44105.048020833332</v>
       </c>
       <c r="I87" s="3">
@@ -26619,7 +26644,7 @@
         <v>16550</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="6"/>
+        <f>I87*J87^2/2/4.184/10^12</f>
         <v>6.546426864244741E-3</v>
       </c>
       <c r="L87" s="3">
@@ -26796,7 +26821,7 @@
         <v>-6</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="5"/>
+        <f>F88+G88/24</f>
         <v>44136.745266203703</v>
       </c>
       <c r="I88" s="3">
@@ -26806,7 +26831,7 @@
         <v>20100</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="6"/>
+        <f>I88*J88^2/2/4.184/10^12</f>
         <v>4.8280353728489482E-4</v>
       </c>
       <c r="L88" s="3">
@@ -26983,7 +27008,7 @@
         <v>-4</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="5"/>
+        <f>F89+G89/24</f>
         <v>44143.84652777778</v>
       </c>
       <c r="I89" s="3">
@@ -26993,7 +27018,7 @@
         <v>18000</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="6"/>
+        <f>I89*J89^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L89" s="3">
@@ -27170,7 +27195,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="5"/>
+        <f>F90+G90/24</f>
         <v>44142.93546296296</v>
       </c>
       <c r="I90" s="3">
@@ -27180,7 +27205,7 @@
         <v>17400</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="6"/>
+        <f>I90*J90^2/2/4.184/10^12</f>
         <v>0.33467136711281065</v>
       </c>
       <c r="L90" s="3">
@@ -27357,7 +27382,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="5"/>
+        <f>F91+G91/24</f>
         <v>44142.93546296296</v>
       </c>
       <c r="I91" s="3">
@@ -27367,7 +27392,7 @@
         <v>17055</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="6"/>
+        <f>I91*J91^2/2/4.184/10^12</f>
         <v>0.3371735590941683</v>
       </c>
       <c r="L91" s="3">
@@ -27544,7 +27569,7 @@
         <v>-5</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="5"/>
+        <f>F92+G92/24</f>
         <v>44167.504861111105</v>
       </c>
       <c r="I92" s="3">
@@ -27554,7 +27579,7 @@
         <v>25000</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="6"/>
+        <f>I92*J92^2/2/4.184/10^12</f>
         <v>6.7220363288718929E-2</v>
       </c>
       <c r="L92" s="3">
@@ -27731,7 +27756,7 @@
         <v>-5</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="5"/>
+        <f>F93+G93/24</f>
         <v>44175.809984953703</v>
       </c>
       <c r="I93" s="3">
@@ -27741,7 +27766,7 @@
         <v>28072.8632</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="6"/>
+        <f>I93*J93^2/2/4.184/10^12</f>
         <v>1.8835699049854547E-4</v>
       </c>
       <c r="L93" s="3">
@@ -27896,7 +27921,7 @@
       </c>
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="57">
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -27914,11 +27939,11 @@
       <c r="F94" s="17">
         <v>44181.534918981481</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="58">
         <v>-6</v>
       </c>
-      <c r="H94" s="4">
-        <f t="shared" si="5"/>
+      <c r="H94" s="59">
+        <f>F94+G94/24</f>
         <v>44181.284918981481</v>
       </c>
       <c r="I94" s="3">
@@ -27927,8 +27952,8 @@
       <c r="J94" s="3">
         <v>12000</v>
       </c>
-      <c r="K94" s="3">
-        <f t="shared" si="6"/>
+      <c r="K94" s="60">
+        <f>I94*J94^2/2/4.184/10^12</f>
         <v>8.6042065009560222E-4</v>
       </c>
       <c r="L94" s="3">
@@ -27964,7 +27989,7 @@
       <c r="V94" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="W94" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X94" s="3">
@@ -27994,10 +28019,10 @@
       <c r="AF94" s="5">
         <v>1000</v>
       </c>
-      <c r="AG94" s="5">
+      <c r="AG94" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH94" s="5">
+      <c r="AH94" s="61">
         <v>1.5</v>
       </c>
       <c r="AI94" s="45">
@@ -28105,7 +28130,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="5"/>
+        <f>F95+G95/24</f>
         <v>44188.308020833334</v>
       </c>
       <c r="I95" s="3">
@@ -28115,7 +28140,7 @@
         <v>13710</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="6"/>
+        <f>I95*J95^2/2/4.184/10^12</f>
         <v>9.4986112532265761</v>
       </c>
       <c r="L95" s="3">
@@ -28151,7 +28176,7 @@
       <c r="V95" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W95" s="3" t="s">
+      <c r="W95" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X95" s="3">
@@ -28292,7 +28317,7 @@
         <v>-6</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="5"/>
+        <f>F96+G96/24</f>
         <v>44251.845289351855</v>
       </c>
       <c r="I96" s="3">
@@ -28302,7 +28327,7 @@
         <v>26300</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="6"/>
+        <f>I96*J96^2/2/4.184/10^12</f>
         <v>4.1329469407265776E-3</v>
       </c>
       <c r="L96" s="3">
@@ -28479,7 +28504,7 @@
         <v>-5</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="5"/>
+        <f>F97+G97/24</f>
         <v>44253.921574074069</v>
       </c>
       <c r="I97" s="3">
@@ -28489,7 +28514,7 @@
         <v>29400</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="6"/>
+        <f>I97*J97^2/2/4.184/10^12</f>
         <v>1.0329349904397705E-3</v>
       </c>
       <c r="L97" s="3">
@@ -28662,11 +28687,11 @@
       <c r="F98" s="17">
         <v>44254.129907407405</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="58">
         <v>-5</v>
       </c>
-      <c r="H98" s="4">
-        <f t="shared" si="5"/>
+      <c r="H98" s="59">
+        <f>F98+G98/24</f>
         <v>44253.921574074069</v>
       </c>
       <c r="I98" s="3">
@@ -28675,8 +28700,8 @@
       <c r="J98" s="3">
         <v>50</v>
       </c>
-      <c r="K98" s="3">
-        <f t="shared" si="6"/>
+      <c r="K98" s="60">
+        <f>I98*J98^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L98" s="3">
@@ -28709,13 +28734,13 @@
       <c r="U98" s="3">
         <v>1100</v>
       </c>
-      <c r="V98" s="3" t="s">
+      <c r="V98" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="W98" s="3" t="s">
+      <c r="W98" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X98" s="3">
+      <c r="X98" s="60">
         <v>0</v>
       </c>
       <c r="Y98" s="3">
@@ -28742,10 +28767,10 @@
       <c r="AF98" s="5">
         <v>400</v>
       </c>
-      <c r="AG98" s="5">
+      <c r="AG98" s="61">
         <v>-1</v>
       </c>
-      <c r="AH98" s="5">
+      <c r="AH98" s="61">
         <v>1</v>
       </c>
       <c r="AI98" s="45">
@@ -28853,7 +28878,7 @@
         <v>-6</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="5"/>
+        <f>F99+G99/24</f>
         <v>44236.727418981478</v>
       </c>
       <c r="I99" s="3">
@@ -28863,7 +28888,7 @@
         <v>13150</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="6"/>
+        <f>I99*J99^2/2/4.184/10^12</f>
         <v>0.10005864543499043</v>
       </c>
       <c r="L99" s="3">
@@ -28899,7 +28924,7 @@
       <c r="V99" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W99" s="3" t="s">
+      <c r="W99" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X99" s="3">
@@ -29036,11 +29061,11 @@
       <c r="F100" s="17">
         <v>44255.91269675926</v>
       </c>
-      <c r="G100" s="21">
-        <v>0</v>
-      </c>
-      <c r="H100" s="4">
-        <f t="shared" si="5"/>
+      <c r="G100" s="58">
+        <v>0</v>
+      </c>
+      <c r="H100" s="59">
+        <f>F100+G100/24</f>
         <v>44255.91269675926</v>
       </c>
       <c r="I100" s="3">
@@ -29049,8 +29074,8 @@
       <c r="J100" s="3">
         <v>10600</v>
       </c>
-      <c r="K100" s="3">
-        <f t="shared" si="6"/>
+      <c r="K100" s="60">
+        <f>I100*J100^2/2/4.184/10^12</f>
         <v>6.7136711281070733E-5</v>
       </c>
       <c r="L100" s="3">
@@ -29086,7 +29111,7 @@
       <c r="V100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W100" s="3" t="s">
+      <c r="W100" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X100" s="3">
@@ -29116,10 +29141,10 @@
       <c r="AF100" s="5">
         <v>1500</v>
       </c>
-      <c r="AG100" s="5">
+      <c r="AG100" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH100" s="5">
+      <c r="AH100" s="61">
         <v>1.5</v>
       </c>
       <c r="AI100" s="45">
@@ -29227,7 +29252,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="5"/>
+        <f>F101+G101/24</f>
         <v>44261.118067129624</v>
       </c>
       <c r="I101" s="3">
@@ -29237,7 +29262,7 @@
         <v>23260</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="6"/>
+        <f>I101*J101^2/2/4.184/10^12</f>
         <v>0.12995524330783939</v>
       </c>
       <c r="L101" s="3">
@@ -29414,7 +29439,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="5"/>
+        <f>F102+G102/24</f>
         <v>44229.627326388894</v>
       </c>
       <c r="I102" s="3">
@@ -29423,8 +29448,8 @@
       <c r="J102" s="3">
         <v>12760</v>
       </c>
-      <c r="K102" s="3">
-        <f t="shared" si="6"/>
+      <c r="K102" s="60">
+        <f>I102*J102^2/2/4.184/10^12</f>
         <v>0.10995246864244741</v>
       </c>
       <c r="L102" s="3">
@@ -29601,7 +29626,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="5"/>
+        <f>F103+G103/24</f>
         <v>44271.798460648148</v>
       </c>
       <c r="I103" s="3">
@@ -29611,7 +29636,7 @@
         <v>12900</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="6"/>
+        <f>I103*J103^2/2/4.184/10^12</f>
         <v>9.9432361376673023E-4</v>
       </c>
       <c r="L103" s="3">
@@ -29678,10 +29703,10 @@
       <c r="AF103" s="5">
         <v>1000</v>
       </c>
-      <c r="AG103" s="5">
+      <c r="AG103" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH103" s="5">
+      <c r="AH103" s="61">
         <v>1.5</v>
       </c>
       <c r="AI103" s="45">
@@ -29789,7 +29814,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="5"/>
+        <f>F104+G104/24</f>
         <v>44270.372916666667</v>
       </c>
       <c r="I104" s="3">
@@ -29799,7 +29824,7 @@
         <v>14000</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="6"/>
+        <f>I104*J104^2/2/4.184/10^12</f>
         <v>2.3422562141491395E-4</v>
       </c>
       <c r="L104" s="3">
@@ -29976,7 +30001,7 @@
         <v>-4</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="5"/>
+        <f>F105+G105/24</f>
         <v>40245.251469907409</v>
       </c>
       <c r="I105" s="3">
@@ -29986,7 +30011,7 @@
         <v>24501</v>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="6"/>
+        <f>I105*J105^2/2/4.184/10^12</f>
         <v>0.85001707252019587</v>
       </c>
       <c r="L105" s="3">
@@ -30163,7 +30188,7 @@
         <v>-5</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="5"/>
+        <f>F106+G106/24</f>
         <v>42965.996932870366</v>
       </c>
       <c r="I106" s="3">
@@ -30173,7 +30198,7 @@
         <v>15000</v>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="6"/>
+        <f>I106*J106^2/2/4.184/10^12</f>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L106" s="3">
@@ -30350,7 +30375,7 @@
         <v>9.5</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="5"/>
+        <f>F107+G107/24</f>
         <v>44322.64197916667</v>
       </c>
       <c r="I107" s="3">
@@ -30360,7 +30385,7 @@
         <v>26620</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="6"/>
+        <f>I107*J107^2/2/4.184/10^12</f>
         <v>7.5960335420650088E-2</v>
       </c>
       <c r="L107" s="3">
@@ -30537,7 +30562,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="5"/>
+        <f>F108+G108/24</f>
         <v>43893.025694444441</v>
       </c>
       <c r="I108" s="3">
@@ -30547,7 +30572,7 @@
         <v>15000</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="6"/>
+        <f>I108*J108^2/2/4.184/10^12</f>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L108" s="3">
@@ -30724,7 +30749,7 @@
         <v>2</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="5"/>
+        <f>F109+G109/24</f>
         <v>44402.047789351855</v>
       </c>
       <c r="I109" s="3">
@@ -30734,7 +30759,7 @@
         <v>14500</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="6"/>
+        <f>I109*J109^2/2/4.184/10^12</f>
         <v>2.5125478011472271E-3</v>
       </c>
       <c r="L109" s="3">
@@ -30770,7 +30795,7 @@
       <c r="V109" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W109" s="3" t="s">
+      <c r="W109" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X109" s="3">
@@ -30911,7 +30936,7 @@
         <v>-5</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="5"/>
+        <f>F110+G110/24</f>
         <v>44402.872916666667</v>
       </c>
       <c r="I110" s="3">
@@ -30921,7 +30946,7 @@
         <v>13000</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="6"/>
+        <f>I110*J110^2/2/4.184/10^12</f>
         <v>2.0195984703632886E-4</v>
       </c>
       <c r="L110" s="3">
@@ -30987,10 +31012,10 @@
       <c r="AF110" s="5">
         <v>2500</v>
       </c>
-      <c r="AG110" s="5">
+      <c r="AG110" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH110" s="5">
+      <c r="AH110" s="61">
         <v>1.5</v>
       </c>
       <c r="AI110" s="45">
@@ -31098,7 +31123,7 @@
         <v>8</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="5"/>
+        <f>F111+G111/24</f>
         <v>44406.888854166667</v>
       </c>
       <c r="I111" s="3">
@@ -31108,7 +31133,7 @@
         <v>14650</v>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="6"/>
+        <f>I111*J111^2/2/4.184/10^12</f>
         <v>0.12993278979445505</v>
       </c>
       <c r="L111" s="3">
@@ -31144,7 +31169,7 @@
       <c r="V111" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W111" s="3" t="s">
+      <c r="W111" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X111" s="3">
@@ -31285,7 +31310,7 @@
         <v>-3</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="5"/>
+        <f>F112+G112/24</f>
         <v>44446.921956018516</v>
       </c>
       <c r="I112" s="3">
@@ -31295,7 +31320,7 @@
         <v>24020</v>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="6"/>
+        <f>I112*J112^2/2/4.184/10^12</f>
         <v>3.4474211281070744E-3</v>
       </c>
       <c r="L112" s="3">
@@ -31472,7 +31497,7 @@
         <v>-4</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" ref="H113:H130" si="7">F113+G113/24</f>
+        <f>F113+G113/24</f>
         <v>44492.879375000004</v>
       </c>
       <c r="I113" s="3">
@@ -31482,7 +31507,7 @@
         <v>18300</v>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="6"/>
+        <f>I113*J113^2/2/4.184/10^12</f>
         <v>4.0020315487571698E-4</v>
       </c>
       <c r="L113" s="3">
@@ -31659,7 +31684,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="7"/>
+        <f>F114+G114/24</f>
         <v>44551.177719907413</v>
       </c>
       <c r="I114" s="3">
@@ -31669,7 +31694,7 @@
         <v>18190</v>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="6"/>
+        <f>I114*J114^2/2/4.184/10^12</f>
         <v>0.11004160926147227</v>
       </c>
       <c r="L114" s="3">
@@ -31846,7 +31871,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="7"/>
+        <f>F115+G115/24</f>
         <v>44574.754837962959</v>
       </c>
       <c r="I115" s="3">
@@ -31856,7 +31881,7 @@
         <v>16000</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="6"/>
+        <f>I115*J115^2/2/4.184/10^12</f>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L115" s="3">
@@ -32029,11 +32054,11 @@
       <c r="F116" s="17">
         <v>44575.495138888888</v>
       </c>
-      <c r="G116" s="21">
+      <c r="G116" s="58">
         <v>-3</v>
       </c>
-      <c r="H116" s="4">
-        <f t="shared" si="7"/>
+      <c r="H116" s="59">
+        <f>F116+G116/24</f>
         <v>44575.370138888888</v>
       </c>
       <c r="I116" s="3">
@@ -32042,8 +32067,8 @@
       <c r="J116" s="3">
         <v>12138</v>
       </c>
-      <c r="K116" s="3">
-        <f t="shared" si="6"/>
+      <c r="K116" s="60">
+        <f>I116*J116^2/2/4.184/10^12</f>
         <v>1.7606482313575525E-3</v>
       </c>
       <c r="L116" s="3">
@@ -32079,7 +32104,7 @@
       <c r="V116" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W116" s="3" t="s">
+      <c r="W116" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X116" s="3">
@@ -32109,10 +32134,10 @@
       <c r="AF116" s="5">
         <v>10</v>
       </c>
-      <c r="AG116" s="5">
+      <c r="AG116" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH116" s="5">
+      <c r="AH116" s="61">
         <v>1.5</v>
       </c>
       <c r="AI116" s="45">
@@ -32220,7 +32245,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="7"/>
+        <f>F117+G117/24</f>
         <v>44575.935416666667</v>
       </c>
       <c r="I117" s="3">
@@ -32230,7 +32255,7 @@
         <v>13330</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="6"/>
+        <f>I117*J117^2/2/4.184/10^12</f>
         <v>1.592574988049713E-3</v>
       </c>
       <c r="L117" s="3">
@@ -32407,7 +32432,7 @@
         <v>-6</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="7"/>
+        <f>F118+G118/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I118" s="3">
@@ -32417,7 +32442,7 @@
         <v>16000</v>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="6"/>
+        <f>I118*J118^2/2/4.184/10^12</f>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L118" s="3">
@@ -32572,7 +32597,7 @@
       </c>
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
+      <c r="A119" s="57">
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -32590,11 +32615,11 @@
       <c r="F119" s="17">
         <v>44581.533333333333</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="58">
         <v>-6</v>
       </c>
-      <c r="H119" s="4">
-        <f t="shared" si="7"/>
+      <c r="H119" s="59">
+        <f>F119+G119/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I119" s="3">
@@ -32603,8 +32628,8 @@
       <c r="J119" s="3">
         <v>50</v>
       </c>
-      <c r="K119" s="3">
-        <f t="shared" si="6"/>
+      <c r="K119" s="60">
+        <f>I119*J119^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L119" s="3">
@@ -32637,13 +32662,13 @@
       <c r="U119" s="3">
         <v>800</v>
       </c>
-      <c r="V119" s="3" t="s">
+      <c r="V119" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="W119" s="3" t="s">
+      <c r="W119" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X119" s="3">
+      <c r="X119" s="60">
         <v>0</v>
       </c>
       <c r="Y119" s="3">
@@ -32670,10 +32695,10 @@
       <c r="AF119" s="5">
         <v>300</v>
       </c>
-      <c r="AG119" s="5">
+      <c r="AG119" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH119" s="5">
+      <c r="AH119" s="61">
         <v>1.5</v>
       </c>
       <c r="AI119" s="45">
@@ -32759,7 +32784,7 @@
       </c>
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
+      <c r="A120" s="57">
         <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -32777,11 +32802,11 @@
       <c r="F120" s="17">
         <v>44581.533333333333</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="58">
         <v>-6</v>
       </c>
-      <c r="H120" s="4">
-        <f t="shared" si="7"/>
+      <c r="H120" s="59">
+        <f>F120+G120/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I120" s="3">
@@ -32790,8 +32815,8 @@
       <c r="J120" s="3">
         <v>50</v>
       </c>
-      <c r="K120" s="3">
-        <f t="shared" si="6"/>
+      <c r="K120" s="60">
+        <f>I120*J120^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L120" s="3">
@@ -32827,7 +32852,7 @@
       <c r="V120" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W120" s="3" t="s">
+      <c r="W120" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X120" s="3">
@@ -32857,10 +32882,10 @@
       <c r="AF120" s="5">
         <v>1000</v>
       </c>
-      <c r="AG120" s="5">
+      <c r="AG120" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH120" s="5">
+      <c r="AH120" s="61">
         <v>1.5</v>
       </c>
       <c r="AI120" s="45">
@@ -32968,7 +32993,7 @@
         <v>-7</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="7"/>
+        <f>F121+G121/24</f>
         <v>44587.794907407413</v>
       </c>
       <c r="I121" s="3">
@@ -32978,7 +33003,7 @@
         <v>13100</v>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="6"/>
+        <f>I121*J121^2/2/4.184/10^12</f>
         <v>4.9218929254302094E-8</v>
       </c>
       <c r="L121" s="3">
@@ -33014,7 +33039,7 @@
       <c r="V121" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W121" s="3" t="s">
+      <c r="W121" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X121" s="3">
@@ -33044,10 +33069,10 @@
       <c r="AF121" s="5">
         <v>1000</v>
       </c>
-      <c r="AG121" s="5">
+      <c r="AG121" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH121" s="5">
+      <c r="AH121" s="61">
         <v>1.5</v>
       </c>
       <c r="AI121" s="45">
@@ -33155,7 +33180,7 @@
         <v>-7</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="7"/>
+        <f>F122+G122/24</f>
         <v>42523.164259259262</v>
       </c>
       <c r="I122" s="3">
@@ -33165,7 +33190,7 @@
         <v>18300</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="6"/>
+        <f>I122*J122^2/2/4.184/10^12</f>
         <v>0.48024378585086042</v>
       </c>
       <c r="L122" s="3">
@@ -33342,7 +33367,7 @@
         <v>-6</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="7"/>
+        <f>F123+G123/24</f>
         <v>44568.023611111108</v>
       </c>
       <c r="I123" s="3">
@@ -33352,7 +33377,7 @@
         <v>20000</v>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="6"/>
+        <f>I123*J123^2/2/4.184/10^12</f>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L123" s="3">
@@ -33529,7 +33554,7 @@
         <v>-7</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="7"/>
+        <f>F124+G124/24</f>
         <v>44287.167407407411</v>
       </c>
       <c r="I124" s="3">
@@ -33539,7 +33564,7 @@
         <v>14010</v>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="6"/>
+        <f>I124*J124^2/2/4.184/10^12</f>
         <v>2.3456034894837476E-4</v>
       </c>
       <c r="L124" s="3">
@@ -33575,7 +33600,7 @@
       <c r="V124" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="W124" s="3" t="s">
+      <c r="W124" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X124" s="3">
@@ -33716,7 +33741,7 @@
         <v>-4</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="7"/>
+        <f>F125+G125/24</f>
         <v>44668.984027777777</v>
       </c>
       <c r="I125" s="3">
@@ -33726,7 +33751,7 @@
         <v>14360</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="6"/>
+        <f>I125*J125^2/2/4.184/10^12</f>
         <v>2.464263862332696E-4</v>
       </c>
       <c r="L125" s="3">
@@ -33762,7 +33787,7 @@
       <c r="V125" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W125" s="3" t="s">
+      <c r="W125" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X125" s="3">
@@ -33903,7 +33928,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" si="7"/>
+        <f>F126+G126/24</f>
         <v>44664.98982638889</v>
       </c>
       <c r="I126" s="3">
@@ -33912,8 +33937,8 @@
       <c r="J126" s="3">
         <v>12897.75</v>
       </c>
-      <c r="K126" s="3">
-        <f t="shared" si="6"/>
+      <c r="K126" s="60">
+        <f>I126*J126^2/2/4.184/10^12</f>
         <v>1.987953573882648E-4</v>
       </c>
       <c r="L126" s="3">
@@ -33979,10 +34004,10 @@
       <c r="AF126" s="5">
         <v>13.15</v>
       </c>
-      <c r="AG126" s="5">
+      <c r="AG126" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH126" s="5">
+      <c r="AH126" s="61">
         <v>1.5</v>
       </c>
       <c r="AI126" s="45">
@@ -34090,7 +34115,7 @@
         <v>-3</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="7"/>
+        <f>F127+G127/24</f>
         <v>44672.802407407406</v>
       </c>
       <c r="I127" s="3">
@@ -34099,8 +34124,8 @@
       <c r="J127" s="3">
         <v>12750</v>
       </c>
-      <c r="K127" s="3">
-        <f t="shared" si="6"/>
+      <c r="K127" s="60">
+        <f>I127*J127^2/2/4.184/10^12</f>
         <v>0.13010050938097514</v>
       </c>
       <c r="L127" s="3">
@@ -34277,7 +34302,7 @@
         <v>2</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="7"/>
+        <f>F128+G128/24</f>
         <v>44631.974143518521</v>
       </c>
       <c r="I128" s="3">
@@ -34287,7 +34312,7 @@
         <v>17240</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="6"/>
+        <f>I128*J128^2/2/4.184/10^12</f>
         <v>4.0000061755258125</v>
       </c>
       <c r="L128" s="3">
@@ -34464,7 +34489,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="7"/>
+        <f>F129+G129/24</f>
         <v>44596.243518518517</v>
       </c>
       <c r="I129" s="3">
@@ -34474,7 +34499,7 @@
         <v>22810</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="6"/>
+        <f>I129*J129^2/2/4.184/10^12</f>
         <v>0.43983922220363286</v>
       </c>
       <c r="L129" s="3">
@@ -34651,7 +34676,7 @@
         <v>-5</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="7"/>
+        <f>F130+G130/24</f>
         <v>44678.335416666661</v>
       </c>
       <c r="I130" s="3">
@@ -34661,7 +34686,7 @@
         <v>24000</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="6"/>
+        <f>I130*J130^2/2/4.184/10^12</f>
         <v>4.8183556405353729E-3</v>
       </c>
       <c r="L130" s="3">
@@ -34873,7 +34898,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H151" si="8">F132+G132/24</f>
+        <f>F132+G132/24</f>
         <v>44697.864131944443</v>
       </c>
       <c r="I132" s="3">
@@ -34883,7 +34908,7 @@
         <v>21350</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" ref="K132:K145" si="9">I132*J132^2/2/4.184/10^12</f>
+        <f>I132*J132^2/2/4.184/10^12</f>
         <v>2.7236048040152963E-5</v>
       </c>
       <c r="L132" s="3">
@@ -35060,7 +35085,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="8"/>
+        <f>F133+G133/24</f>
         <v>44692.986111111109</v>
       </c>
       <c r="I133" s="3">
@@ -35070,7 +35095,7 @@
         <v>27900</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="9"/>
+        <f>I133*J133^2/2/4.184/10^12</f>
         <v>9.3022227533460795E-4</v>
       </c>
       <c r="L133" s="3">
@@ -35247,7 +35272,7 @@
         <v>-7</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="8"/>
+        <f>F134+G134/24</f>
         <v>44700.921018518522</v>
       </c>
       <c r="I134" s="3">
@@ -35257,7 +35282,7 @@
         <v>15160</v>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="9"/>
+        <f>I134*J134^2/2/4.184/10^12</f>
         <v>2.7464818355640533E-5</v>
       </c>
       <c r="L134" s="3">
@@ -35425,7 +35450,7 @@
         <v>8</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="8"/>
+        <f>F135+G135/24</f>
         <v>42169.460486111115</v>
       </c>
       <c r="I135" s="3">
@@ -35435,7 +35460,7 @@
         <v>31858</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="9"/>
+        <f>I135*J135^2/2/4.184/10^12</f>
         <v>0.22001517035086041</v>
       </c>
       <c r="L135" s="3">
@@ -35606,7 +35631,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="8"/>
+        <f>F136+G136/24</f>
         <v>42644.891493055555</v>
       </c>
       <c r="I136" s="3">
@@ -35616,7 +35641,7 @@
         <v>14202</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="9"/>
+        <f>I136*J136^2/2/4.184/10^12</f>
         <v>0.11000767369216062</v>
       </c>
       <c r="L136" s="3">
@@ -35771,7 +35796,7 @@
       </c>
     </row>
     <row r="137" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
+      <c r="A137" s="57">
         <v>134</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -35783,11 +35808,11 @@
       <c r="F137" s="17">
         <v>40943.612500000003</v>
       </c>
-      <c r="G137" s="21">
+      <c r="G137" s="58">
         <v>1</v>
       </c>
-      <c r="H137" s="4">
-        <f t="shared" si="8"/>
+      <c r="H137" s="59">
+        <f>F137+G137/24</f>
         <v>40943.654166666667</v>
       </c>
       <c r="I137" s="3">
@@ -35796,8 +35821,8 @@
       <c r="J137" s="3">
         <v>12248</v>
       </c>
-      <c r="K137" s="3">
-        <f t="shared" si="9"/>
+      <c r="K137" s="60">
+        <f>I137*J137^2/2/4.184/10^12</f>
         <v>0.42999807683365199</v>
       </c>
       <c r="L137" s="3">
@@ -35863,10 +35888,10 @@
       <c r="AF137" s="5">
         <v>1000</v>
       </c>
-      <c r="AG137" s="5">
+      <c r="AG137" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH137" s="5">
+      <c r="AH137" s="61">
         <v>1.5</v>
       </c>
       <c r="AI137" s="45">
@@ -35974,7 +35999,7 @@
         <v>-4</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="8"/>
+        <f>F138+G138/24</f>
         <v>44764.0778587963</v>
       </c>
       <c r="I138" s="3">
@@ -35984,7 +36009,7 @@
         <v>13640</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="9"/>
+        <f>I138*J138^2/2/4.184/10^12</f>
         <v>2.2233460803059273E-4</v>
       </c>
       <c r="L138" s="3">
@@ -36020,7 +36045,7 @@
       <c r="V138" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W138" s="3" t="s">
+      <c r="W138" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X138" s="3">
@@ -36161,7 +36186,7 @@
         <v>-5</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="8"/>
+        <f>F139+G139/24</f>
         <v>44766.932592592588</v>
       </c>
       <c r="I139" s="3">
@@ -36171,7 +36196,7 @@
         <v>16870</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="9"/>
+        <f>I139*J139^2/2/4.184/10^12</f>
         <v>3.4010145793499043E-4</v>
       </c>
       <c r="L139" s="3">
@@ -36348,7 +36373,7 @@
         <v>-4</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="8"/>
+        <f>F140+G140/24</f>
         <v>44771.914583333339</v>
       </c>
       <c r="I140" s="3">
@@ -36358,7 +36383,7 @@
         <v>20500</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="9"/>
+        <f>I140*J140^2/2/4.184/10^12</f>
         <v>4.5550519837476103E-3</v>
       </c>
       <c r="L140" s="3">
@@ -36535,7 +36560,7 @@
         <v>-6</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="8"/>
+        <f>F141+G141/24</f>
         <v>44786.35434027778</v>
       </c>
       <c r="I141" s="3">
@@ -36545,7 +36570,7 @@
         <v>18000</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="9"/>
+        <f>I141*J141^2/2/4.184/10^12</f>
         <v>0.38718929254302098</v>
       </c>
       <c r="L141" s="3">
@@ -36718,11 +36743,11 @@
       <c r="F142" s="17">
         <v>44786.60434027778</v>
       </c>
-      <c r="G142" s="21">
+      <c r="G142" s="58">
         <v>-6</v>
       </c>
-      <c r="H142" s="4">
-        <f t="shared" si="8"/>
+      <c r="H142" s="59">
+        <f>F142+G142/24</f>
         <v>44786.35434027778</v>
       </c>
       <c r="I142" s="3">
@@ -36731,8 +36756,8 @@
       <c r="J142" s="3">
         <v>8000</v>
       </c>
-      <c r="K142" s="3">
-        <f t="shared" si="9"/>
+      <c r="K142" s="60">
+        <f>I142*J142^2/2/4.184/10^12</f>
         <v>1.5296367112810707E-3</v>
       </c>
       <c r="L142" s="3">
@@ -36798,10 +36823,10 @@
       <c r="AF142" s="5">
         <v>0</v>
       </c>
-      <c r="AG142" s="5">
+      <c r="AG142" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH142" s="5">
+      <c r="AH142" s="61">
         <v>1.5</v>
       </c>
       <c r="AI142" s="45">
@@ -36905,11 +36930,11 @@
       <c r="F143" s="17">
         <v>44830.170005659726</v>
       </c>
-      <c r="G143" s="21">
+      <c r="G143" s="58">
         <v>-4</v>
       </c>
-      <c r="H143" s="4">
-        <f t="shared" si="8"/>
+      <c r="H143" s="59">
+        <f>F143+G143/24</f>
         <v>44830.003338993061</v>
       </c>
       <c r="I143" s="3">
@@ -36918,8 +36943,8 @@
       <c r="J143" s="3">
         <v>11882</v>
       </c>
-      <c r="K143" s="3">
-        <f t="shared" si="9"/>
+      <c r="K143" s="60">
+        <f>I143*J143^2/2/4.184/10^12</f>
         <v>1.6871644837476097E-4</v>
       </c>
       <c r="L143" s="3">
@@ -36956,7 +36981,7 @@
       <c r="V143" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W143" s="3" t="s">
+      <c r="W143" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X143" s="3">
@@ -36986,10 +37011,10 @@
       <c r="AF143" s="5">
         <v>263</v>
       </c>
-      <c r="AG143" s="5">
+      <c r="AG143" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH143" s="5">
+      <c r="AH143" s="61">
         <v>1.5</v>
       </c>
       <c r="AI143" s="45">
@@ -37097,7 +37122,7 @@
         <v>2</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="8"/>
+        <f>F144+G144/24</f>
         <v>44845.874861111115</v>
       </c>
       <c r="I144" s="3">
@@ -37107,7 +37132,7 @@
         <v>23218</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="9"/>
+        <f>I144*J144^2/2/4.184/10^12</f>
         <v>6.4421071223709373E-4</v>
       </c>
       <c r="L144" s="3">
@@ -37284,7 +37309,7 @@
         <v>2</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="8"/>
+        <f>F145+G145/24</f>
         <v>44848.86377314815</v>
       </c>
       <c r="I145" s="3">
@@ -37294,7 +37319,7 @@
         <v>14680</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="9"/>
+        <f>I145*J145^2/2/4.184/10^12</f>
         <v>5.1506309751434026E-2</v>
       </c>
       <c r="L145" s="3">
@@ -37331,7 +37356,7 @@
       <c r="V145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W145" s="3" t="s">
+      <c r="W145" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X145" s="3">
@@ -37472,7 +37497,7 @@
         <v>-4</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="8"/>
+        <f>F146+G146/24</f>
         <v>44855.892754629633</v>
       </c>
       <c r="AR146" s="25">
@@ -37514,7 +37539,7 @@
         <v>-7</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" si="8"/>
+        <f>F147+G147/24</f>
         <v>44858.786898148152</v>
       </c>
       <c r="I147" s="3">
@@ -37702,7 +37727,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" si="8"/>
+        <f>F148+G148/24</f>
         <v>44846.284722222226</v>
       </c>
       <c r="I148" s="3">
@@ -37889,7 +37914,7 @@
         <v>7</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="8"/>
+        <f>F149+G149/24</f>
         <v>44851.010416666664</v>
       </c>
       <c r="I149" s="3">
@@ -38078,7 +38103,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="8"/>
+        <f>F150+G150/24</f>
         <v>44857.815283090276</v>
       </c>
       <c r="I150" s="3">
@@ -38125,7 +38150,7 @@
       <c r="V150" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W150" s="3" t="s">
+      <c r="W150" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X150" s="3">
@@ -38266,7 +38291,7 @@
         <v>-5</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="8"/>
+        <f>F151+G151/24</f>
         <v>44884.143564814811</v>
       </c>
       <c r="I151" s="3">
@@ -38449,10 +38474,10 @@
       <c r="F152" s="17">
         <v>44884.351898148147</v>
       </c>
-      <c r="G152" s="21">
+      <c r="G152" s="58">
         <v>-5</v>
       </c>
-      <c r="H152" s="4">
+      <c r="H152" s="59">
         <v>44884.143564814811</v>
       </c>
       <c r="I152" s="3">
@@ -38461,7 +38486,7 @@
       <c r="J152" s="3">
         <v>50</v>
       </c>
-      <c r="K152" s="3">
+      <c r="K152" s="60">
         <v>1.7268164435946462E-3</v>
       </c>
       <c r="L152" s="3">
@@ -38527,10 +38552,10 @@
       <c r="AF152" s="5">
         <v>1000</v>
       </c>
-      <c r="AG152" s="5">
+      <c r="AG152" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH152" s="5">
+      <c r="AH152" s="61">
         <v>1.5</v>
       </c>
       <c r="AI152" s="45">
@@ -38638,7 +38663,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H191" si="10">F153+G153/24</f>
+        <f>F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -38648,7 +38673,7 @@
         <v>16440</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" ref="K153:K161" si="11">I153*J153^2/2/4.184/10^12</f>
+        <f>I153*J153^2/2/4.184/10^12</f>
         <v>0.20008902390057362</v>
       </c>
       <c r="L153" s="3">
@@ -38803,7 +38828,7 @@
       </c>
     </row>
     <row r="154" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A154" s="6">
+      <c r="A154" s="57">
         <v>152</v>
       </c>
       <c r="B154" s="6" t="s">
@@ -38825,7 +38850,7 @@
         <v>-6</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="10"/>
+        <f>F154+G154/24</f>
         <v>44936.782372685186</v>
       </c>
       <c r="I154" s="3">
@@ -38834,8 +38859,8 @@
       <c r="J154" s="3">
         <v>12500</v>
       </c>
-      <c r="K154" s="3">
-        <f t="shared" si="11"/>
+      <c r="K154" s="60">
+        <f>I154*J154^2/2/4.184/10^12</f>
         <v>9.3361615678776285E-4</v>
       </c>
       <c r="L154" s="3">
@@ -38871,7 +38896,7 @@
       <c r="V154" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W154" s="3" t="s">
+      <c r="W154" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X154" s="3">
@@ -38901,10 +38926,10 @@
       <c r="AF154" s="5">
         <v>2500</v>
       </c>
-      <c r="AG154" s="5">
+      <c r="AG154" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH154" s="5">
+      <c r="AH154" s="61">
         <v>1.5</v>
       </c>
       <c r="AI154" s="45">
@@ -39012,7 +39037,7 @@
         <v>-6</v>
       </c>
       <c r="H155" s="4">
-        <f t="shared" si="10"/>
+        <f>F155+G155/24</f>
         <v>44946.151967592596</v>
       </c>
       <c r="I155" s="3">
@@ -39022,7 +39047,7 @@
         <v>14000</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="11"/>
+        <f>I155*J155^2/2/4.184/10^12</f>
         <v>1.7566921606118546E-3</v>
       </c>
       <c r="L155" s="3">
@@ -39051,7 +39076,7 @@
         <v>5000</v>
       </c>
       <c r="T155" s="3">
-        <f t="shared" ref="T155:T161" si="12">M155</f>
+        <f>M155</f>
         <v>59</v>
       </c>
       <c r="U155" s="3">
@@ -39202,7 +39227,7 @@
         <v>1</v>
       </c>
       <c r="H156" s="4">
-        <f t="shared" si="10"/>
+        <f>F156+G156/24</f>
         <v>44951.183217592588</v>
       </c>
       <c r="I156" s="3">
@@ -39212,7 +39237,7 @@
         <v>26000</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="11"/>
+        <f>I156*J156^2/2/4.184/10^12</f>
         <v>8.8862332695984695E-4</v>
       </c>
       <c r="L156" s="3">
@@ -39240,7 +39265,7 @@
         <v>5000</v>
       </c>
       <c r="T156" s="3">
-        <f t="shared" si="12"/>
+        <f>M156</f>
         <v>56.5</v>
       </c>
       <c r="U156" s="3">
@@ -39391,7 +39416,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="4">
-        <f t="shared" si="10"/>
+        <f>F157+G157/24</f>
         <v>44970.166168981479</v>
       </c>
       <c r="I157" s="3">
@@ -39401,7 +39426,7 @@
         <v>14060.9</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="11"/>
+        <f>I157*J157^2/2/4.184/10^12</f>
         <v>4.0803451901872602E-2</v>
       </c>
       <c r="L157" s="3">
@@ -39431,7 +39456,7 @@
         <v>5000</v>
       </c>
       <c r="T157" s="3">
-        <f t="shared" si="12"/>
+        <f>M157</f>
         <v>41.423400000000001</v>
       </c>
       <c r="U157" s="3">
@@ -39440,7 +39465,7 @@
       <c r="V157" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="W157" s="3" t="s">
+      <c r="W157" s="60" t="s">
         <v>1545</v>
       </c>
       <c r="X157" s="3">
@@ -39581,7 +39606,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="4">
-        <f t="shared" si="10"/>
+        <f>F158+G158/24</f>
         <v>44970.166168981479</v>
       </c>
       <c r="I158" s="3">
@@ -39591,7 +39616,7 @@
         <v>14016</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="11"/>
+        <f>I158*J158^2/2/4.184/10^12</f>
         <v>4.0543276543021034E-2</v>
       </c>
       <c r="L158" s="3">
@@ -39620,7 +39645,7 @@
         <v>5000</v>
       </c>
       <c r="T158" s="3">
-        <f t="shared" si="12"/>
+        <f>M158</f>
         <v>41.272100000000002</v>
       </c>
       <c r="U158" s="3">
@@ -39770,7 +39795,7 @@
         <v>-6</v>
       </c>
       <c r="H159" s="4">
-        <f t="shared" si="10"/>
+        <f>F159+G159/24</f>
         <v>44972.723611111112</v>
       </c>
       <c r="I159" s="3">
@@ -39780,7 +39805,7 @@
         <v>15000</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="11"/>
+        <f>I159*J159^2/2/4.184/10^12</f>
         <v>1.2180329827915868E-2</v>
       </c>
       <c r="L159" s="3">
@@ -39808,7 +39833,7 @@
         <v>5000</v>
       </c>
       <c r="T159" s="3">
-        <f t="shared" si="12"/>
+        <f>M159</f>
         <v>53.6</v>
       </c>
       <c r="U159" s="3">
@@ -39958,7 +39983,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="4">
-        <f t="shared" si="10"/>
+        <f>F160+G160/24</f>
         <v>44966.008333333331</v>
       </c>
       <c r="I160" s="3">
@@ -39967,8 +39992,8 @@
       <c r="J160" s="3">
         <v>12500</v>
       </c>
-      <c r="K160" s="3">
-        <f t="shared" si="11"/>
+      <c r="K160" s="60">
+        <f>I160*J160^2/2/4.184/10^12</f>
         <v>2.9875717017208408E-4</v>
       </c>
       <c r="L160" s="3">
@@ -39996,7 +40021,7 @@
         <v>5000</v>
       </c>
       <c r="T160" s="3">
-        <f t="shared" si="12"/>
+        <f>M160</f>
         <v>24.6</v>
       </c>
       <c r="U160" s="3">
@@ -40036,10 +40061,10 @@
       <c r="AF160" s="5">
         <v>200</v>
       </c>
-      <c r="AG160" s="5">
+      <c r="AG160" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH160" s="5">
+      <c r="AH160" s="61">
         <v>1.5</v>
       </c>
       <c r="AI160" s="45">
@@ -40147,7 +40172,7 @@
         <v>-5</v>
       </c>
       <c r="H161" s="4">
-        <f t="shared" si="10"/>
+        <f>F161+G161/24</f>
         <v>44976.868518518517</v>
       </c>
       <c r="I161" s="3">
@@ -40157,7 +40182,7 @@
         <v>25000</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="11"/>
+        <f>I161*J161^2/2/4.184/10^12</f>
         <v>1.8672323135755257E-3</v>
       </c>
       <c r="L161" s="3">
@@ -40187,7 +40212,7 @@
         <v>5000</v>
       </c>
       <c r="T161" s="3">
-        <f t="shared" si="12"/>
+        <f>M161</f>
         <v>63.701499999999996</v>
       </c>
       <c r="U161" s="3">
@@ -40334,7 +40359,7 @@
         <v>10.5</v>
       </c>
       <c r="H162" s="4">
-        <f t="shared" si="10"/>
+        <f>F162+G162/24</f>
         <v>43618.310416666667</v>
       </c>
       <c r="O162" s="3">
@@ -40463,7 +40488,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="4">
-        <f t="shared" si="10"/>
+        <f>F163+G163/24</f>
         <v>43831.810347222221</v>
       </c>
       <c r="I163" s="3">
@@ -40592,7 +40617,7 @@
         <v>-7</v>
       </c>
       <c r="H164" s="4">
-        <f t="shared" si="10"/>
+        <f>F164+G164/24</f>
         <v>42300.94981481482</v>
       </c>
       <c r="I164" s="3">
@@ -40721,7 +40746,7 @@
         <v>8</v>
       </c>
       <c r="H165" s="4">
-        <f t="shared" si="10"/>
+        <f>F165+G165/24</f>
         <v>42674.835960648154</v>
       </c>
       <c r="I165" s="3">
@@ -40850,7 +40875,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="4">
-        <f t="shared" si="10"/>
+        <f>F166+G166/24</f>
         <v>44154.199247685181</v>
       </c>
       <c r="O166" s="3">
@@ -40976,7 +41001,7 @@
         <v>8</v>
       </c>
       <c r="H167" s="4">
-        <f t="shared" si="10"/>
+        <f>F167+G167/24</f>
         <v>44002.170219907413</v>
       </c>
       <c r="I167" s="3">
@@ -41096,7 +41121,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="4">
-        <f t="shared" si="10"/>
+        <f>F168+G168/24</f>
         <v>39830.839583333334</v>
       </c>
       <c r="I168" s="3">
@@ -41222,7 +41247,7 @@
         <v>2</v>
       </c>
       <c r="H169" s="4">
-        <f t="shared" si="10"/>
+        <f>F169+G169/24</f>
         <v>43253.78056712963</v>
       </c>
       <c r="I169" s="3">
@@ -41351,7 +41376,7 @@
         <v>9.5</v>
       </c>
       <c r="H170" s="4">
-        <f t="shared" si="10"/>
+        <f>F170+G170/24</f>
         <v>42335.842881944445</v>
       </c>
       <c r="O170" s="3">
@@ -41477,7 +41502,7 @@
         <v>-5</v>
       </c>
       <c r="H171" s="4">
-        <f t="shared" si="10"/>
+        <f>F171+G171/24</f>
         <v>42393.435416666667</v>
       </c>
       <c r="I171" s="3">
@@ -41606,7 +41631,7 @@
         <v>3</v>
       </c>
       <c r="H172" s="4">
-        <f t="shared" si="10"/>
+        <f>F172+G172/24</f>
         <v>43272.17800925926</v>
       </c>
       <c r="I172" s="3">
@@ -41732,7 +41757,7 @@
         <v>-2</v>
       </c>
       <c r="H173" s="4">
-        <f t="shared" si="10"/>
+        <f>F173+G173/24</f>
         <v>42013.649305555555</v>
       </c>
       <c r="I173" s="3">
@@ -41861,7 +41886,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="4">
-        <f t="shared" si="10"/>
+        <f>F174+G174/24</f>
         <v>42435.942256944443</v>
       </c>
       <c r="I174" s="3">
@@ -41990,7 +42015,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="4">
-        <f t="shared" si="10"/>
+        <f>F175+G175/24</f>
         <v>44214.054814814815</v>
       </c>
       <c r="I175" s="3">
@@ -42119,7 +42144,7 @@
         <v>-5</v>
       </c>
       <c r="H176" s="4">
-        <f t="shared" si="10"/>
+        <f>F176+G176/24</f>
         <v>43497.553587962961</v>
       </c>
       <c r="I176" s="3">
@@ -42248,7 +42273,7 @@
         <v>2</v>
       </c>
       <c r="H177" s="4">
-        <f t="shared" si="10"/>
+        <f>F177+G177/24</f>
         <v>45031.431956018518</v>
       </c>
       <c r="I177" s="3">
@@ -42258,7 +42283,7 @@
         <v>17210</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" ref="K177:K179" si="13">I177*J177^2/2/4.184/10^12</f>
+        <f>I177*J177^2/2/4.184/10^12</f>
         <v>6.3021945197657745</v>
       </c>
       <c r="L177" s="3">
@@ -42432,7 +42457,7 @@
         <v>2</v>
       </c>
       <c r="H178" s="4">
-        <f t="shared" si="10"/>
+        <f>F178+G178/24</f>
         <v>45018.895000000004</v>
       </c>
       <c r="I178" s="3">
@@ -42442,7 +42467,7 @@
         <v>13610</v>
       </c>
       <c r="K178" s="3">
-        <f t="shared" si="13"/>
+        <f>I178*J178^2/2/4.184/10^12</f>
         <v>1.10678836042065E-3</v>
       </c>
       <c r="L178" s="3">
@@ -42620,7 +42645,7 @@
         <v>-4</v>
       </c>
       <c r="H179" s="4">
-        <f t="shared" si="10"/>
+        <f>F179+G179/24</f>
         <v>45024.494791666672</v>
       </c>
       <c r="I179" s="3">
@@ -42630,7 +42655,7 @@
         <v>17000</v>
       </c>
       <c r="K179" s="3">
-        <f t="shared" si="13"/>
+        <f>I179*J179^2/2/4.184/10^12</f>
         <v>1.381453154875717E-2</v>
       </c>
       <c r="L179" s="3">
@@ -42808,7 +42833,7 @@
         <v>2</v>
       </c>
       <c r="H180" s="4">
-        <f t="shared" si="10"/>
+        <f>F180+G180/24</f>
         <v>45041.59375</v>
       </c>
       <c r="I180" s="3">
@@ -42818,7 +42843,7 @@
         <v>20500</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" ref="K180:K191" si="14">I180*J180^2/2/4.184/10^12</f>
+        <f>I180*J180^2/2/4.184/10^12</f>
         <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
@@ -42995,7 +43020,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="4">
-        <f t="shared" si="10"/>
+        <f>F181+G181/24</f>
         <v>45043.153351273148</v>
       </c>
       <c r="I181" s="3">
@@ -43005,7 +43030,7 @@
         <v>14321</v>
       </c>
       <c r="K181" s="3">
-        <f t="shared" si="14"/>
+        <f>I181*J181^2/2/4.184/10^12</f>
         <v>1.2254483807361376E-3</v>
       </c>
       <c r="L181" s="3">
@@ -43185,7 +43210,7 @@
         <v>-4</v>
       </c>
       <c r="H182" s="4">
-        <f t="shared" si="10"/>
+        <f>F182+G182/24</f>
         <v>45054.515972222223</v>
       </c>
       <c r="I182" s="3">
@@ -43195,7 +43220,7 @@
         <v>17000</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="14"/>
+        <f>I182*J182^2/2/4.184/10^12</f>
         <v>8.634082217973231E-4</v>
       </c>
       <c r="L182" s="3">
@@ -43372,7 +43397,7 @@
         <v>2</v>
       </c>
       <c r="H183" s="4">
-        <f t="shared" si="10"/>
+        <f>F183+G183/24</f>
         <v>45066.978626747688</v>
       </c>
       <c r="I183" s="3">
@@ -43382,7 +43407,7 @@
         <v>15985.39</v>
       </c>
       <c r="K183" s="3">
-        <f t="shared" si="14"/>
+        <f>I183*J183^2/2/4.184/10^12</f>
         <v>7.6342224382200039E-4</v>
       </c>
       <c r="L183" s="3">
@@ -43411,7 +43436,7 @@
         <v>5000</v>
       </c>
       <c r="T183" s="3">
-        <f t="shared" ref="T183:T187" si="15">M183</f>
+        <f>M183</f>
         <v>37.200000000000003</v>
       </c>
       <c r="U183" s="3">
@@ -43562,7 +43587,7 @@
         <v>10</v>
       </c>
       <c r="H184" s="4">
-        <f t="shared" si="10"/>
+        <f>F184+G184/24</f>
         <v>45066.890543981477</v>
       </c>
       <c r="I184" s="3">
@@ -43572,7 +43597,7 @@
         <v>27920</v>
       </c>
       <c r="K184" s="3">
-        <f t="shared" si="14"/>
+        <f>I184*J184^2/2/4.184/10^12</f>
         <v>7.2026078149139581</v>
       </c>
       <c r="L184" s="3">
@@ -43600,7 +43625,7 @@
         <v>5000</v>
       </c>
       <c r="T184" s="3">
-        <f t="shared" si="15"/>
+        <f>M184</f>
         <v>50.3</v>
       </c>
       <c r="U184" s="3">
@@ -43750,7 +43775,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" si="10"/>
+        <f>F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -43760,7 +43785,7 @@
         <v>20920</v>
       </c>
       <c r="K185" s="3">
-        <f t="shared" si="14"/>
+        <f>I185*J185^2/2/4.184/10^12</f>
         <v>1.0460000000000001E-2</v>
       </c>
       <c r="L185" s="3">
@@ -43788,7 +43813,7 @@
         <v>8000</v>
       </c>
       <c r="T185" s="3">
-        <f t="shared" si="15"/>
+        <f>M185</f>
         <v>60</v>
       </c>
       <c r="U185" s="3">
@@ -43939,7 +43964,7 @@
         <v>2</v>
       </c>
       <c r="H186" s="4">
-        <f t="shared" si="10"/>
+        <f>F186+G186/24</f>
         <v>45118.867905092593</v>
       </c>
       <c r="I186" s="3">
@@ -43949,7 +43974,7 @@
         <v>19000</v>
       </c>
       <c r="K186" s="3">
-        <f t="shared" si="14"/>
+        <f>I186*J186^2/2/4.184/10^12</f>
         <v>8.628107074569789E-3</v>
       </c>
       <c r="L186" s="3">
@@ -43978,7 +44003,7 @@
         <v>5000</v>
       </c>
       <c r="T186" s="3">
-        <f t="shared" si="15"/>
+        <f>M186</f>
         <v>32.43</v>
       </c>
       <c r="U186" s="3">
@@ -44128,7 +44153,7 @@
         <v>-7</v>
       </c>
       <c r="H187" s="4">
-        <f t="shared" si="10"/>
+        <f>F187+G187/24</f>
         <v>45132.862430555557</v>
       </c>
       <c r="I187" s="3">
@@ -44138,7 +44163,7 @@
         <v>15580</v>
       </c>
       <c r="K187" s="3">
-        <f t="shared" si="14"/>
+        <f>I187*J187^2/2/4.184/10^12</f>
         <v>0.44004674808795408</v>
       </c>
       <c r="L187" s="3">
@@ -44166,7 +44191,7 @@
         <v>15580</v>
       </c>
       <c r="T187" s="3">
-        <f t="shared" si="15"/>
+        <f>M187</f>
         <v>56.8</v>
       </c>
       <c r="U187" s="3">
@@ -44316,7 +44341,7 @@
         <v>-4</v>
       </c>
       <c r="H188" s="4">
-        <f t="shared" si="10"/>
+        <f>F188+G188/24</f>
         <v>45140.092546296299</v>
       </c>
       <c r="I188" s="3">
@@ -44326,7 +44351,7 @@
         <v>22770</v>
       </c>
       <c r="K188" s="3">
-        <f t="shared" si="14"/>
+        <f>I188*J188^2/2/4.184/10^12</f>
         <v>2.1685649498087954E-3</v>
       </c>
       <c r="L188" s="3">
@@ -44505,7 +44530,7 @@
         <v>2</v>
       </c>
       <c r="H189" s="4">
-        <f t="shared" si="10"/>
+        <f>F189+G189/24</f>
         <v>45179.009548611117</v>
       </c>
       <c r="I189" s="3">
@@ -44515,7 +44540,7 @@
         <v>17000</v>
       </c>
       <c r="K189" s="3">
-        <f t="shared" si="14"/>
+        <f>I189*J189^2/2/4.184/10^12</f>
         <v>3.4536328871892925E-4</v>
       </c>
       <c r="L189" s="3">
@@ -44695,7 +44720,7 @@
         <v>2</v>
       </c>
       <c r="H190" s="4">
-        <f t="shared" si="10"/>
+        <f>F190+G190/24</f>
         <v>45196.180824745374</v>
       </c>
       <c r="I190" s="3">
@@ -44705,7 +44730,7 @@
         <v>16956</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="14"/>
+        <f>I190*J190^2/2/4.184/10^12</f>
         <v>3.4357783938814533E-4</v>
       </c>
       <c r="L190" s="3">
@@ -44885,7 +44910,7 @@
         <v>2</v>
       </c>
       <c r="H191" s="4">
-        <f t="shared" si="10"/>
+        <f>F191+G191/24</f>
         <v>45010.012233796297</v>
       </c>
       <c r="I191" s="3">
@@ -44895,7 +44920,7 @@
         <v>13800</v>
       </c>
       <c r="K191" s="3">
-        <f t="shared" si="14"/>
+        <f>I191*J191^2/2/4.184/10^12</f>
         <v>1.137906309751434E-4</v>
       </c>
       <c r="L191" s="3">
@@ -45049,6 +45074,195 @@
         <v>1416</v>
       </c>
       <c r="BI191" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>191</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="17">
+        <v>45206.158368055556</v>
+      </c>
+      <c r="G192" s="21">
+        <v>-6</v>
+      </c>
+      <c r="H192" s="4">
+        <f>F192+G192/24</f>
+        <v>45205.908368055556</v>
+      </c>
+      <c r="I192" s="3">
+        <v>50</v>
+      </c>
+      <c r="J192" s="3">
+        <v>11970</v>
+      </c>
+      <c r="K192" s="3">
+        <f>I192*J192^2/2/4.184/10^12</f>
+        <v>8.5612392447418739E-4</v>
+      </c>
+      <c r="L192" s="3">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="M192" s="3">
+        <v>76.64</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O192" s="3">
+        <v>42.965649999999997</v>
+      </c>
+      <c r="P192" s="3">
+        <v>-115.73570000000001</v>
+      </c>
+      <c r="Q192" s="3">
+        <v>40000</v>
+      </c>
+      <c r="R192" s="3">
+        <v>40000</v>
+      </c>
+      <c r="S192" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T192" s="3">
+        <f>M192</f>
+        <v>76.64</v>
+      </c>
+      <c r="U192" s="3">
+        <f>Q192</f>
+        <v>40000</v>
+      </c>
+      <c r="V192" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W192" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X192" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z192" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA192" s="5">
+        <v>1380</v>
+      </c>
+      <c r="AB192" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="AC192" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="AD192" s="5">
+        <v>2.049999999997E-3</v>
+      </c>
+      <c r="AE192" s="5">
+        <v>0.106100000000012</v>
+      </c>
+      <c r="AF192" s="5">
+        <v>10000</v>
+      </c>
+      <c r="AG192" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH192" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI192" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ192" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK192" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL192" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM192" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN192" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO192" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP192" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ192" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR192" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS192" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT192" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU192" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV192" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW192" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX192" s="38">
+        <v>144</v>
+      </c>
+      <c r="AY192" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ192" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA192" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB192" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC192" s="38">
+        <v>144</v>
+      </c>
+      <c r="BD192" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE192" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF192" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG192" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH192" s="40" t="s">
+        <v>1821</v>
+      </c>
+      <c r="BI192" s="40">
         <v>0</v>
       </c>
     </row>
@@ -77346,7 +77560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F006F-09CB-4518-A6A0-B4628B5EF033}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A717460-E724-4FAF-AF86-7F693F0CA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F13BE29-7FB7-4F68-B49B-0FD5ACC8697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4934" uniqueCount="1822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4951" uniqueCount="1826">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -5689,6 +5689,18 @@
   </si>
   <si>
     <t>Annie Morris</t>
+  </si>
+  <si>
+    <t>Mountain Home 40km</t>
+  </si>
+  <si>
+    <t>Mountain Home 50km</t>
+  </si>
+  <si>
+    <t>Mountain Home 30km</t>
+  </si>
+  <si>
+    <t>Annie Morris, AMS20</t>
   </si>
 </sst>
 </file>
@@ -14663,13 +14675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI192"/>
+  <dimension ref="A1:BI194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="V187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B192" sqref="B192"/>
+      <selection pane="bottomRight" activeCell="AH192" sqref="AH192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45082,7 +45094,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>1819</v>
@@ -45107,43 +45119,43 @@
         <v>50</v>
       </c>
       <c r="J192" s="3">
-        <v>11970</v>
+        <v>12530</v>
       </c>
       <c r="K192" s="3">
         <f>I192*J192^2/2/4.184/10^12</f>
-        <v>8.5612392447418739E-4</v>
+        <v>9.381028919694072E-4</v>
       </c>
       <c r="L192" s="3">
-        <v>64.739999999999995</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="M192" s="3">
-        <v>76.64</v>
+        <v>74.14</v>
       </c>
       <c r="N192" s="3" t="s">
         <v>1334</v>
       </c>
       <c r="O192" s="3">
-        <v>42.965649999999997</v>
+        <v>42.9636</v>
       </c>
       <c r="P192" s="3">
-        <v>-115.73570000000001</v>
+        <v>-115.6296</v>
       </c>
       <c r="Q192" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="R192" s="3">
-        <v>40000</v>
+        <f>Q192</f>
+        <v>30000</v>
       </c>
       <c r="S192" s="3">
         <v>4000</v>
       </c>
       <c r="T192" s="3">
         <f>M192</f>
-        <v>76.64</v>
+        <v>74.14</v>
       </c>
       <c r="U192" s="3">
-        <f>Q192</f>
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="V192" s="3" t="s">
         <v>144</v>
@@ -45161,22 +45173,22 @@
         <v>60000</v>
       </c>
       <c r="AA192" s="5">
-        <v>1380</v>
+        <v>820</v>
       </c>
       <c r="AB192" s="5">
-        <v>1.23</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC192" s="5">
-        <v>2.96</v>
+        <v>0.46</v>
       </c>
       <c r="AD192" s="5">
-        <v>2.049999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="AE192" s="5">
-        <v>0.106100000000012</v>
+        <v>0</v>
       </c>
       <c r="AF192" s="5">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AG192" s="5">
         <v>-1</v>
@@ -45230,7 +45242,7 @@
         <v>0</v>
       </c>
       <c r="AX192" s="38">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AY192" s="38">
         <v>0</v>
@@ -45245,7 +45257,7 @@
         <v>0</v>
       </c>
       <c r="BC192" s="38">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BD192" s="38">
         <v>0</v>
@@ -45263,6 +45275,380 @@
         <v>1821</v>
       </c>
       <c r="BI192" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>192</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F193" s="17">
+        <v>45206.158368055556</v>
+      </c>
+      <c r="G193" s="21">
+        <v>-6</v>
+      </c>
+      <c r="H193" s="4">
+        <v>45205.908368055556</v>
+      </c>
+      <c r="I193" s="3">
+        <v>50</v>
+      </c>
+      <c r="J193" s="3">
+        <v>11910</v>
+      </c>
+      <c r="K193" s="3">
+        <v>8.5612392447418739E-4</v>
+      </c>
+      <c r="L193" s="3">
+        <v>64.855000000000004</v>
+      </c>
+      <c r="M193" s="3">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O193" s="3">
+        <v>42.965699999999998</v>
+      </c>
+      <c r="P193" s="3">
+        <v>-115.7359</v>
+      </c>
+      <c r="Q193" s="3">
+        <v>40000</v>
+      </c>
+      <c r="R193" s="3">
+        <f>Q193</f>
+        <v>40000</v>
+      </c>
+      <c r="S193" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T193" s="3">
+        <f t="shared" ref="T193:T194" si="0">M193</f>
+        <v>76.349999999999994</v>
+      </c>
+      <c r="U193" s="3">
+        <v>38000</v>
+      </c>
+      <c r="V193" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W193" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X193" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z193" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA193" s="5">
+        <v>790</v>
+      </c>
+      <c r="AB193" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AC193" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="AD193" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE193" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF193" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG193" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH193" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI193" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ193" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK193" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL193" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM193" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN193" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO193" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP193" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ193" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR193" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS193" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT193" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU193" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV193" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW193" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX193" s="38">
+        <v>145</v>
+      </c>
+      <c r="AY193" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ193" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA193" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB193" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC193" s="38">
+        <v>145</v>
+      </c>
+      <c r="BD193" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE193" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF193" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG193" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH193" s="40" t="s">
+        <v>1821</v>
+      </c>
+      <c r="BI193" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>193</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="17">
+        <v>45206.158368055556</v>
+      </c>
+      <c r="G194" s="21">
+        <v>-6</v>
+      </c>
+      <c r="H194" s="4">
+        <v>45205.908368055556</v>
+      </c>
+      <c r="I194" s="3">
+        <v>50</v>
+      </c>
+      <c r="J194" s="3">
+        <v>11380</v>
+      </c>
+      <c r="K194" s="3">
+        <v>8.5612392447418739E-4</v>
+      </c>
+      <c r="L194" s="3">
+        <v>63.734999999999999</v>
+      </c>
+      <c r="M194" s="3">
+        <v>78.78</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O194" s="3">
+        <v>42.967700000000001</v>
+      </c>
+      <c r="P194" s="3">
+        <v>-115.84180000000001</v>
+      </c>
+      <c r="Q194" s="3">
+        <v>50000</v>
+      </c>
+      <c r="R194" s="3">
+        <f>Q194</f>
+        <v>50000</v>
+      </c>
+      <c r="S194" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T194" s="3">
+        <f t="shared" si="0"/>
+        <v>78.78</v>
+      </c>
+      <c r="U194" s="3">
+        <v>48000</v>
+      </c>
+      <c r="V194" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W194" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X194" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z194" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA194" s="5">
+        <v>790</v>
+      </c>
+      <c r="AB194" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC194" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AD194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF194" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG194" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH194" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI194" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ194" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK194" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL194" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM194" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN194" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO194" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP194" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ194" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR194" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS194" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT194" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU194" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV194" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW194" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX194" s="38">
+        <v>145</v>
+      </c>
+      <c r="AY194" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ194" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA194" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB194" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC194" s="38">
+        <v>145</v>
+      </c>
+      <c r="BD194" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE194" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF194" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG194" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH194" s="40" t="s">
+        <v>1821</v>
+      </c>
+      <c r="BI194" s="40">
         <v>0</v>
       </c>
     </row>
@@ -87499,10 +87885,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89046,6 +89432,14 @@
         <v>1640</v>
       </c>
     </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="33">
+        <v>145</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>1825</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{55C4805C-87A8-4D18-978D-FAFC0E5CA908}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B5324A-7A86-4C60-AB2E-D47B089A03D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D77F2-548D-4FB7-BCA7-BDA8B284E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -15841,10 +15841,10 @@
   <dimension ref="A1:BI194"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="Y152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O193" sqref="O193:P193"/>
+      <selection pane="bottomRight" activeCell="AG158" sqref="AG158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32671,7 +32671,7 @@
         <v>-4</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" ref="H113:H144" si="7">F113+G113/24</f>
+        <f t="shared" ref="H113:H130" si="7">F113+G113/24</f>
         <v>44492.879375000004</v>
       </c>
       <c r="I113" s="3">
@@ -40670,10 +40670,10 @@
         <v>45.37</v>
       </c>
       <c r="AG157" s="5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AH157" s="5">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AI157" s="45">
         <v>0</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D77F2-548D-4FB7-BCA7-BDA8B284E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD750C-B3BE-4F8D-B591-C0A92E425F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="32580" yWindow="1380" windowWidth="17280" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="2222">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6879,6 +6879,18 @@
   </si>
   <si>
     <t>Line Islands Time</t>
+  </si>
+  <si>
+    <t>Brixham</t>
+  </si>
+  <si>
+    <t>Devon</t>
+  </si>
+  <si>
+    <t>Luther Jackson</t>
+  </si>
+  <si>
+    <t>Quartzite</t>
   </si>
 </sst>
 </file>
@@ -15838,13 +15850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI194"/>
+  <dimension ref="A1:BI196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="Y152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AG158" sqref="AG158"/>
+      <selection pane="bottomRight" activeCell="H194" sqref="H194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39837,7 +39849,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H192" si="10">F153+G153/24</f>
+        <f t="shared" ref="H153:H196" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -45736,7 +45748,7 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R194" si="14">Q189</f>
+        <f t="shared" ref="R189:R196" si="14">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
@@ -46463,6 +46475,7 @@
         <v>-6</v>
       </c>
       <c r="H193" s="4">
+        <f t="shared" si="10"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I193" s="3">
@@ -46500,7 +46513,7 @@
         <v>4000</v>
       </c>
       <c r="T193" s="3">
-        <f t="shared" ref="T193:T194" si="15">M193</f>
+        <f t="shared" ref="T193:T196" si="15">M193</f>
         <v>76.349999999999994</v>
       </c>
       <c r="U193" s="3">
@@ -46650,6 +46663,7 @@
         <v>-6</v>
       </c>
       <c r="H194" s="4">
+        <f t="shared" si="10"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I194" s="3">
@@ -46811,6 +46825,385 @@
         <v>1821</v>
       </c>
       <c r="BI194" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>194</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F195" s="17">
+        <v>45290.088495370372</v>
+      </c>
+      <c r="G195" s="21">
+        <v>0</v>
+      </c>
+      <c r="H195" s="4">
+        <f t="shared" si="10"/>
+        <v>45290.088495370372</v>
+      </c>
+      <c r="I195" s="3">
+        <v>2</v>
+      </c>
+      <c r="J195" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K195" s="3">
+        <f t="shared" ref="K195:K196" si="16">I195*J195^2/2/4.184/10^12</f>
+        <v>1.2048279158699809E-3</v>
+      </c>
+      <c r="L195" s="3">
+        <v>301.22000000000003</v>
+      </c>
+      <c r="M195" s="3">
+        <v>60.255000000000003</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O195" s="3">
+        <v>50.243816000000002</v>
+      </c>
+      <c r="P195" s="3">
+        <v>-3.3686129999999999</v>
+      </c>
+      <c r="Q195" s="3">
+        <v>70000</v>
+      </c>
+      <c r="R195" s="3">
+        <f t="shared" si="14"/>
+        <v>70000</v>
+      </c>
+      <c r="S195" s="3">
+        <v>20000</v>
+      </c>
+      <c r="T195" s="3">
+        <f t="shared" si="15"/>
+        <v>60.255000000000003</v>
+      </c>
+      <c r="U195" s="3">
+        <v>70000</v>
+      </c>
+      <c r="V195" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W195" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X195" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="3">
+        <v>108000</v>
+      </c>
+      <c r="Z195" s="3">
+        <v>108000</v>
+      </c>
+      <c r="AA195" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AB195" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AC195" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD195" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AE195" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AF195" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG195" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH195" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI195" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ195" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK195" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL195" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM195" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN195" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO195" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP195" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ195" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR195" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS195" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT195" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU195" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV195" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW195" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX195" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY195" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ195" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA195" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB195" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC195" s="38">
+        <v>144</v>
+      </c>
+      <c r="BD195" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE195" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF195" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG195" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH195" s="40" t="s">
+        <v>2220</v>
+      </c>
+      <c r="BI195" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>195</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="17">
+        <v>45289.111493055556</v>
+      </c>
+      <c r="G196" s="21">
+        <v>-7</v>
+      </c>
+      <c r="H196" s="4">
+        <f t="shared" si="10"/>
+        <v>45288.819826388892</v>
+      </c>
+      <c r="I196" s="3">
+        <v>100</v>
+      </c>
+      <c r="J196" s="3">
+        <v>13530</v>
+      </c>
+      <c r="K196" s="3">
+        <f t="shared" si="16"/>
+        <v>2.1876302581261948E-3</v>
+      </c>
+      <c r="L196" s="3">
+        <v>237.5</v>
+      </c>
+      <c r="M196" s="3">
+        <v>36.810099999999998</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O196" s="3">
+        <v>33.876800000000003</v>
+      </c>
+      <c r="P196" s="3">
+        <v>-114.2052</v>
+      </c>
+      <c r="Q196" s="3">
+        <v>26206</v>
+      </c>
+      <c r="R196" s="3">
+        <f t="shared" si="14"/>
+        <v>26206</v>
+      </c>
+      <c r="S196" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T196" s="3">
+        <f t="shared" si="15"/>
+        <v>36.810099999999998</v>
+      </c>
+      <c r="U196" s="3">
+        <f>Q196</f>
+        <v>26206</v>
+      </c>
+      <c r="V196" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W196" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X196" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="3">
+        <v>68000</v>
+      </c>
+      <c r="Z196" s="3">
+        <v>68000</v>
+      </c>
+      <c r="AA196" s="5">
+        <v>283</v>
+      </c>
+      <c r="AB196" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC196" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD196" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AE196" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AF196" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AG196" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH196" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI196" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ196" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK196" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL196" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM196" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN196" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO196" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP196" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ196" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR196" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS196" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT196" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU196" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV196" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW196" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX196" s="38">
+        <v>138</v>
+      </c>
+      <c r="AY196" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ196" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA196" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB196" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC196" s="38">
+        <v>138</v>
+      </c>
+      <c r="BD196" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE196" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF196" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG196" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH196" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI196" s="40">
         <v>0</v>
       </c>
     </row>
@@ -46826,8 +47219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80140,10 +80533,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF5B9B-0F72-45F1-9ED5-2AE8EF041BE8}">
-  <dimension ref="A7:V59"/>
+  <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80154,6 +80547,16 @@
     <col min="22" max="22" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>19</v>
+      </c>
+    </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90</v>
@@ -80245,11 +80648,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>74.922424091497547</v>
+        <v>37.530814597260232</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>15.077575908502453</v>
+        <v>52.469185402739768</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -80257,20 +80660,20 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>6.7</v>
+        <v>68</v>
       </c>
       <c r="L12">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>25.75668651049665</v>
+        <v>52.70950673265687</v>
       </c>
       <c r="L13">
         <f>J13/L12</f>
-        <v>4.0883629381740718</v>
+        <v>13.515258136578685</v>
       </c>
       <c r="Q13" t="s">
         <v>404</v>
@@ -80288,13 +80691,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>6.7</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>15.077575908502453</v>
+        <v>52.469185402739768</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -80302,7 +80705,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -80324,14 +80727,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>24.87</v>
+        <v>32.11</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>30.754252549846754</v>
+        <v>10.087943872278828</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD750C-B3BE-4F8D-B591-C0A92E425F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CC892-91FB-4F48-B81B-6687EAB91022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="1380" windowWidth="17280" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="9735" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="2222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="2223">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6891,6 +6891,9 @@
   </si>
   <si>
     <t>Quartzite</t>
+  </si>
+  <si>
+    <t>Emwaila</t>
   </si>
 </sst>
 </file>
@@ -15853,10 +15856,10 @@
   <dimension ref="A1:BI196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="N192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H194" sqref="H194"/>
+      <selection pane="bottomRight" activeCell="O196" sqref="O196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23631,11 +23634,11 @@
         <v>465681</v>
       </c>
       <c r="J62" s="3">
-        <v>17100</v>
+        <v>15861</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" ref="K62:K72" si="4">I62*J62^2/2/4.184/10^12</f>
-        <v>16.272679398900571</v>
+        <v>13.99999812793989</v>
       </c>
       <c r="L62" s="3">
         <v>278.709</v>
@@ -23665,7 +23668,7 @@
         <v>85.509</v>
       </c>
       <c r="U62" s="3">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>144</v>
@@ -23677,19 +23680,19 @@
         <v>0</v>
       </c>
       <c r="Y62" s="3">
-        <v>85000</v>
+        <v>60000</v>
       </c>
       <c r="Z62" s="3">
-        <v>85000</v>
+        <v>60000</v>
       </c>
       <c r="AA62" s="5">
         <v>500</v>
       </c>
       <c r="AB62" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC62" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD62" s="5">
         <v>0.05</v>
@@ -23701,10 +23704,10 @@
         <v>500</v>
       </c>
       <c r="AG62" s="5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AH62" s="5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="44" t="s">
         <v>1320</v>
@@ -23745,11 +23748,41 @@
       <c r="AV62" s="52">
         <v>0</v>
       </c>
-      <c r="BG62" s="40">
+      <c r="AW62" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX62" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA62" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB62" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD62" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE62" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF62" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG62" s="41">
         <v>2</v>
       </c>
       <c r="BH62" s="40" t="s">
-        <v>1416</v>
+        <v>2222</v>
       </c>
       <c r="BI62" s="40">
         <v>0</v>
@@ -45755,7 +45788,7 @@
         <v>3500</v>
       </c>
       <c r="T189" s="3">
-        <f>M189</f>
+        <f t="shared" ref="T189:T196" si="15">M189</f>
         <v>53.131300000000003</v>
       </c>
       <c r="U189" s="3">
@@ -45945,7 +45978,7 @@
         <v>2500</v>
       </c>
       <c r="T190" s="3">
-        <f>M190</f>
+        <f t="shared" si="15"/>
         <v>36.557000000000002</v>
       </c>
       <c r="U190" s="3">
@@ -46135,7 +46168,7 @@
         <v>4100</v>
       </c>
       <c r="T191" s="3">
-        <f>M191</f>
+        <f t="shared" si="15"/>
         <v>64.163600000000002</v>
       </c>
       <c r="U191" s="3">
@@ -46325,7 +46358,7 @@
         <v>4000</v>
       </c>
       <c r="T192" s="3">
-        <f>M192</f>
+        <f t="shared" si="15"/>
         <v>74.14</v>
       </c>
       <c r="U192" s="3">
@@ -46513,7 +46546,7 @@
         <v>4000</v>
       </c>
       <c r="T193" s="3">
-        <f t="shared" ref="T193:T196" si="15">M193</f>
+        <f t="shared" si="15"/>
         <v>76.349999999999994</v>
       </c>
       <c r="U193" s="3">
@@ -46861,7 +46894,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K196" si="16">I195*J195^2/2/4.184/10^12</f>
+        <f>I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -47050,7 +47083,7 @@
         <v>13530</v>
       </c>
       <c r="K196" s="3">
-        <f t="shared" si="16"/>
+        <f>I196*J196^2/2/4.184/10^12</f>
         <v>2.1876302581261948E-3</v>
       </c>
       <c r="L196" s="3">
@@ -47063,10 +47096,10 @@
         <v>1334</v>
       </c>
       <c r="O196" s="3">
-        <v>33.876800000000003</v>
+        <v>33.882944999999999</v>
       </c>
       <c r="P196" s="3">
-        <v>-114.2052</v>
+        <v>-114.2671855</v>
       </c>
       <c r="Q196" s="3">
         <v>26206</v>
@@ -47087,7 +47120,7 @@
         <v>26206</v>
       </c>
       <c r="V196" s="3" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="W196" s="3" t="s">
         <v>382</v>
@@ -47096,10 +47129,10 @@
         <v>0</v>
       </c>
       <c r="Y196" s="3">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="Z196" s="3">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="AA196" s="5">
         <v>283</v>
@@ -47108,13 +47141,13 @@
         <v>1</v>
       </c>
       <c r="AC196" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD196" s="5">
-        <v>5.0000000000000001E-4</v>
+        <v>4.3140000000008172E-3</v>
       </c>
       <c r="AE196" s="5">
-        <v>5.0000000000000001E-4</v>
+        <v>1.2336500000003525E-2</v>
       </c>
       <c r="AF196" s="5">
         <v>1000</v>
@@ -47208,7 +47241,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:BI189" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
+  <autoFilter ref="A5:BI189" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:BI196">
+      <sortCondition ref="A5:A189"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -47219,7 +47256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CC892-91FB-4F48-B81B-6687EAB91022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84613A7B-F011-4ABF-A551-552CCC47F9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -15856,10 +15856,10 @@
   <dimension ref="A1:BI196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="N192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O196" sqref="O196"/>
+      <selection pane="bottomRight" activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84613A7B-F011-4ABF-A551-552CCC47F9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC61E72-F1C9-4154-87EA-84B89693803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="2226">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6894,6 +6894,15 @@
   </si>
   <si>
     <t>Emwaila</t>
+  </si>
+  <si>
+    <t>2024 BX1</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Rob Matson</t>
   </si>
 </sst>
 </file>
@@ -15853,13 +15862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI196"/>
+  <dimension ref="A1:BI197"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J196" sqref="J196"/>
+      <selection pane="bottomRight" activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39882,7 +39891,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H196" si="10">F153+G153/24</f>
+        <f t="shared" ref="H153:H197" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -45781,14 +45790,14 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R196" si="14">Q189</f>
+        <f t="shared" ref="R189:R197" si="14">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
         <v>3500</v>
       </c>
       <c r="T189" s="3">
-        <f t="shared" ref="T189:T196" si="15">M189</f>
+        <f t="shared" ref="T189:T197" si="15">M189</f>
         <v>53.131300000000003</v>
       </c>
       <c r="U189" s="3">
@@ -47237,6 +47246,196 @@
         <v>1416</v>
       </c>
       <c r="BI196" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>196</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="17">
+        <v>45312.02270833333</v>
+      </c>
+      <c r="G197" s="21">
+        <v>1</v>
+      </c>
+      <c r="H197" s="4">
+        <f t="shared" si="10"/>
+        <v>45312.064374999994</v>
+      </c>
+      <c r="I197" s="3">
+        <v>1727</v>
+      </c>
+      <c r="J197" s="3">
+        <v>15221</v>
+      </c>
+      <c r="K197" s="3">
+        <f>I197*J197^2/2/4.184/10^12</f>
+        <v>4.7814215870817398E-2</v>
+      </c>
+      <c r="L197" s="3">
+        <v>74.063199999999995</v>
+      </c>
+      <c r="M197" s="3">
+        <v>14.5168</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O197" s="3">
+        <v>52.633274290000003</v>
+      </c>
+      <c r="P197" s="3">
+        <v>12.638593859964788</v>
+      </c>
+      <c r="Q197" s="3">
+        <v>22000</v>
+      </c>
+      <c r="R197" s="3">
+        <f t="shared" si="14"/>
+        <v>22000</v>
+      </c>
+      <c r="S197" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T197" s="3">
+        <f t="shared" si="15"/>
+        <v>14.5168</v>
+      </c>
+      <c r="U197" s="3">
+        <v>22000</v>
+      </c>
+      <c r="V197" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W197" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X197" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y197" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z197" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA197" s="5">
+        <v>24</v>
+      </c>
+      <c r="AB197" s="5">
+        <f>AC197*4.91</f>
+        <v>0.49100000000000005</v>
+      </c>
+      <c r="AC197" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AD197" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AE197" s="5">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AF197" s="5">
+        <v>20</v>
+      </c>
+      <c r="AG197" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH197" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI197" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ197" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK197" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL197" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM197" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN197" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO197" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP197" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ197" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR197" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS197" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT197" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU197" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV197" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW197" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX197" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY197" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ197" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA197" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB197" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC197" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD197" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE197" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF197" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG197" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH197" s="40" t="s">
+        <v>2225</v>
+      </c>
+      <c r="BI197" s="40">
         <v>0</v>
       </c>
     </row>
@@ -47256,8 +47455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC61E72-F1C9-4154-87EA-84B89693803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93382390-C5D1-4C18-BA18-6317616A5E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -7197,7 +7197,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7345,6 +7345,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15865,10 +15880,10 @@
   <dimension ref="A1:BI197"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="V176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H210" sqref="H210"/>
+      <selection pane="bottomRight" activeCell="AH197" sqref="AH197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16804,7 +16819,7 @@
         <v>-5</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H19" si="0">F6+G6/24</f>
+        <f>F6+G6/24</f>
         <v>43116.83924768518</v>
       </c>
       <c r="I6" s="9">
@@ -16814,7 +16829,7 @@
         <v>15830</v>
       </c>
       <c r="K6" s="26">
-        <f t="shared" ref="K6:K31" si="1">I6*J6^2/2/4.184/10^12</f>
+        <f>I6*J6^2/2/4.184/10^12</f>
         <v>3.4737467017208409E-3</v>
       </c>
       <c r="L6" s="9">
@@ -16959,7 +16974,7 @@
         <v>-4</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="0"/>
+        <f>F7+G7/24</f>
         <v>43596.029861111114</v>
       </c>
       <c r="I7" s="9">
@@ -16969,7 +16984,7 @@
         <v>21500</v>
       </c>
       <c r="K7" s="26">
-        <f t="shared" si="1"/>
+        <f>I7*J7^2/2/4.184/10^12</f>
         <v>1.1048040152963671E-3</v>
       </c>
       <c r="L7" s="9">
@@ -17114,7 +17129,7 @@
         <v>-6</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
+        <f>F8+G8/24</f>
         <v>37706.993361111112</v>
       </c>
       <c r="I8" s="3">
@@ -17124,7 +17139,7 @@
         <v>19500</v>
       </c>
       <c r="K8" s="26">
-        <f t="shared" si="1"/>
+        <f>I8*J8^2/2/4.184/10^12</f>
         <v>0.41001383245697892</v>
       </c>
       <c r="L8" s="3">
@@ -17302,7 +17317,7 @@
         <v>-4</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f>F9+G9/24</f>
         <v>40763.056944444448</v>
       </c>
       <c r="I9" s="3">
@@ -17312,7 +17327,7 @@
         <v>25000</v>
       </c>
       <c r="K9" s="26">
-        <f t="shared" si="1"/>
+        <f>I9*J9^2/2/4.184/10^12</f>
         <v>3.7344646271510515E-4</v>
       </c>
       <c r="L9" s="3">
@@ -17457,7 +17472,7 @@
         <v>-4</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
+        <f>F10+G10/24</f>
         <v>43605.94063657408</v>
       </c>
       <c r="I10" s="3">
@@ -17467,7 +17482,7 @@
         <v>13600</v>
       </c>
       <c r="K10" s="26">
-        <f t="shared" si="1"/>
+        <f>I10*J10^2/2/4.184/10^12</f>
         <v>2.210325047801147E-4</v>
       </c>
       <c r="L10" s="3">
@@ -17612,7 +17627,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="0"/>
+        <f>F11+G11/24</f>
         <v>41648.128865740735</v>
       </c>
       <c r="I11" s="3">
@@ -17622,7 +17637,7 @@
         <v>44832</v>
       </c>
       <c r="K11" s="26">
-        <f t="shared" si="1"/>
+        <f>I11*J11^2/2/4.184/10^12</f>
         <v>0.11000692717399617</v>
       </c>
       <c r="L11" s="3">
@@ -17659,7 +17674,7 @@
       <c r="V11" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X11" s="3">
@@ -17768,7 +17783,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="0"/>
+        <f>F12+G12/24</f>
         <v>42189.402905092596</v>
       </c>
       <c r="I12" s="3">
@@ -17778,7 +17793,7 @@
         <v>49000</v>
       </c>
       <c r="K12" s="26">
-        <f t="shared" si="1"/>
+        <f>I12*J12^2/2/4.184/10^12</f>
         <v>0.17990284416826005</v>
       </c>
       <c r="L12" s="3">
@@ -17814,7 +17829,7 @@
       <c r="V12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X12" s="3">
@@ -17925,7 +17940,7 @@
         <v>-7</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
+        <f>F13+G13/24</f>
         <v>39630.444664351853</v>
       </c>
       <c r="I13" s="3">
@@ -17935,7 +17950,7 @@
         <v>9800</v>
       </c>
       <c r="K13" s="26">
-        <f t="shared" si="1"/>
+        <f>I13*J13^2/2/4.184/10^12</f>
         <v>0.11999261472275334</v>
       </c>
       <c r="L13" s="3">
@@ -18080,7 +18095,7 @@
         <v>-3</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
+        <f>F14+G14/24</f>
         <v>43622.936111111114</v>
       </c>
       <c r="I14" s="3">
@@ -18090,7 +18105,7 @@
         <v>14800</v>
       </c>
       <c r="K14" s="26">
-        <f t="shared" si="1"/>
+        <f>I14*J14^2/2/4.184/10^12</f>
         <v>8.504552581261951E-2</v>
       </c>
       <c r="L14" s="3">
@@ -18235,7 +18250,7 @@
         <v>-4</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
+        <f>F15+G15/24</f>
         <v>40000.044965277782</v>
       </c>
       <c r="I15" s="3">
@@ -18245,7 +18260,7 @@
         <v>11000</v>
       </c>
       <c r="K15" s="26">
-        <f t="shared" si="1"/>
+        <f>I15*J15^2/2/4.184/10^12</f>
         <v>5.3501434034416828E-3</v>
       </c>
       <c r="L15" s="3">
@@ -18390,7 +18405,7 @@
         <v>9.5</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="0"/>
+        <f>F16+G16/24</f>
         <v>43605.011840277781</v>
       </c>
       <c r="I16" s="3">
@@ -18400,7 +18415,7 @@
         <v>15200</v>
       </c>
       <c r="K16" s="26">
-        <f t="shared" si="1"/>
+        <f>I16*J16^2/2/4.184/10^12</f>
         <v>0.10999801147227532</v>
       </c>
       <c r="L16" s="3">
@@ -18545,7 +18560,7 @@
         <v>-4</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="0"/>
+        <f>F17+G17/24</f>
         <v>43670.113657407412</v>
       </c>
       <c r="I17" s="3">
@@ -18555,7 +18570,7 @@
         <v>20200</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" si="1"/>
+        <f>I17*J17^2/2/4.184/10^12</f>
         <v>2.4380975143403439E-3</v>
       </c>
       <c r="L17" s="3">
@@ -18700,7 +18715,7 @@
         <v>-7</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="0"/>
+        <f>F18+G18/24</f>
         <v>41021.327222222222</v>
       </c>
       <c r="I18" s="3">
@@ -18710,7 +18725,7 @@
         <v>28600</v>
       </c>
       <c r="K18" s="26">
-        <f t="shared" si="1"/>
+        <f>I18*J18^2/2/4.184/10^12</f>
         <v>3.9099426386233267</v>
       </c>
       <c r="L18" s="3">
@@ -18887,7 +18902,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="0"/>
+        <f>F19+G19/24</f>
         <v>41320.347462962964</v>
       </c>
       <c r="I19" s="3">
@@ -18897,7 +18912,7 @@
         <v>19160</v>
       </c>
       <c r="K19" s="26">
-        <f t="shared" si="1"/>
+        <f>I19*J19^2/2/4.184/10^12</f>
         <v>466.89343921548755</v>
       </c>
       <c r="L19" s="3">
@@ -19084,7 +19099,7 @@
         <v>18614.2</v>
       </c>
       <c r="K20" s="26">
-        <f t="shared" si="1"/>
+        <f>I20*J20^2/2/4.184/10^12</f>
         <v>439.98400822976106</v>
       </c>
       <c r="L20" s="3">
@@ -19229,7 +19244,7 @@
         <v>-4</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ref="H21:H31" si="2">F21+G21/24</f>
+        <f>F21+G21/24</f>
         <v>43670.960416666669</v>
       </c>
       <c r="I21" s="3">
@@ -19239,7 +19254,7 @@
         <v>30400</v>
       </c>
       <c r="K21" s="26">
-        <f t="shared" si="1"/>
+        <f>I21*J21^2/2/4.184/10^12</f>
         <v>1.104397705544933E-3</v>
       </c>
       <c r="L21" s="3">
@@ -19384,7 +19399,7 @@
         <v>-6</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="2"/>
+        <f>F22+G22/24</f>
         <v>43708.933217592596</v>
       </c>
       <c r="I22" s="3">
@@ -19394,7 +19409,7 @@
         <v>7827</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" si="1"/>
+        <f>I22*J22^2/2/4.184/10^12</f>
         <v>3.6604881094646271E-4</v>
       </c>
       <c r="L22" s="3">
@@ -19539,7 +19554,7 @@
         <v>-4</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
+        <f>F23+G23/24</f>
         <v>43743.800115740742</v>
       </c>
       <c r="I23" s="3">
@@ -19549,7 +19564,7 @@
         <v>14000</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="1"/>
+        <f>I23*J23^2/2/4.184/10^12</f>
         <v>2.3422562141491394E-3</v>
       </c>
       <c r="L23" s="3">
@@ -19694,7 +19709,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f>F24+G24/24</f>
         <v>43720.61791666667</v>
       </c>
       <c r="I24" s="3">
@@ -19704,7 +19719,7 @@
         <v>19998</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="1"/>
+        <f>I24*J24^2/2/4.184/10^12</f>
         <v>0.48000000000000004</v>
       </c>
       <c r="L24" s="3">
@@ -19848,7 +19863,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f>F25+G25/24</f>
         <v>43735.81248842593</v>
       </c>
       <c r="I25" s="3">
@@ -19858,7 +19873,7 @@
         <v>17965</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="1"/>
+        <f>I25*J25^2/2/4.184/10^12</f>
         <v>1.928425101577438E-3</v>
       </c>
       <c r="L25" s="3">
@@ -20002,7 +20017,7 @@
         <v>-4</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="2"/>
+        <f>F26+G26/24</f>
         <v>43739.041655092595</v>
       </c>
       <c r="I26" s="3">
@@ -20012,7 +20027,7 @@
         <v>59700</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="1"/>
+        <f>I26*J26^2/2/4.184/10^12</f>
         <v>4.2591897705544932E-2</v>
       </c>
       <c r="L26" s="3">
@@ -20157,7 +20172,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="2"/>
+        <f>F27+G27/24</f>
         <v>43749.01152777778</v>
       </c>
       <c r="I27" s="3">
@@ -20167,7 +20182,7 @@
         <v>14065</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="1"/>
+        <f>I27*J27^2/2/4.184/10^12</f>
         <v>0.56999759667483263</v>
       </c>
       <c r="L27" s="3">
@@ -20312,7 +20327,7 @@
         <v>-6</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="2"/>
+        <f>F28+G28/24</f>
         <v>43780.869270833333</v>
       </c>
       <c r="I28" s="3">
@@ -20322,7 +20337,7 @@
         <v>15300</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f>I28*J28^2/2/4.184/10^12</f>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L28" s="3">
@@ -20497,7 +20512,7 @@
         <v>-6</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="2"/>
+        <f>F29+G29/24</f>
         <v>43780.869270833333</v>
       </c>
       <c r="I29" s="3">
@@ -20507,7 +20522,7 @@
         <v>15300</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
+        <f>I29*J29^2/2/4.184/10^12</f>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L29" s="3">
@@ -20652,7 +20667,7 @@
         <v>-5</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="2"/>
+        <f>F30+G30/24</f>
         <v>43802.803101851852</v>
       </c>
       <c r="I30" s="3">
@@ -20662,7 +20677,7 @@
         <v>20000</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="1"/>
+        <f>I30*J30^2/2/4.184/10^12</f>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L30" s="3">
@@ -20803,11 +20818,11 @@
       <c r="F31" s="17">
         <v>36543.697025462963</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="58">
         <v>-8</v>
       </c>
-      <c r="H31" s="4">
-        <f t="shared" si="2"/>
+      <c r="H31" s="59">
+        <f>F31+G31/24</f>
         <v>36543.363692129627</v>
       </c>
       <c r="I31" s="3">
@@ -20816,8 +20831,8 @@
       <c r="J31" s="3">
         <v>15800</v>
       </c>
-      <c r="K31" s="3">
-        <f t="shared" si="1"/>
+      <c r="K31" s="60">
+        <f>I31*J31^2/2/4.184/10^12</f>
         <v>1.7452127151051624</v>
       </c>
       <c r="L31" s="3">
@@ -20883,10 +20898,10 @@
       <c r="AF31" s="5">
         <v>0</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AG31" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH31" s="5">
+      <c r="AH31" s="61">
         <v>1.5</v>
       </c>
       <c r="AI31" s="44" t="s">
@@ -20983,6 +20998,7 @@
       <c r="J32" s="3">
         <v>13395</v>
       </c>
+      <c r="K32" s="60"/>
       <c r="O32" s="3">
         <v>-31.45</v>
       </c>
@@ -21001,6 +21017,8 @@
       <c r="AA32" s="5">
         <v>7</v>
       </c>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
       <c r="AI32" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21110,6 +21128,8 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
       <c r="AI33" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21154,6 +21174,9 @@
       <c r="F34" s="17">
         <v>19311</v>
       </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="K34" s="60"/>
       <c r="O34" s="3">
         <v>7.05</v>
       </c>
@@ -21166,6 +21189,8 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
       <c r="AI34" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21226,7 +21251,7 @@
       <c r="S35" s="3">
         <v>20950</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="W35" s="60" t="s">
         <v>239</v>
       </c>
       <c r="X35" s="3">
@@ -21297,34 +21322,57 @@
       </c>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="57">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="57" t="s">
         <v>191</v>
       </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
       <c r="F36" s="17">
         <v>4585.125</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="58">
         <v>-8</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="59">
         <f>F36+G36/24</f>
         <v>4584.791666666667</v>
       </c>
-      <c r="O36" s="3">
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60">
         <v>34.9</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="60">
         <v>-110.1833</v>
       </c>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
       <c r="W36" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="X36" s="3">
-        <v>0</v>
-      </c>
+      <c r="X36" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
       <c r="AI36" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21357,7 +21405,7 @@
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="57">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -21375,13 +21423,14 @@
       <c r="F37" s="17">
         <v>29558.197916666668</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="58">
         <v>3</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="59">
         <f>F37+G37/24</f>
         <v>29558.322916666668</v>
       </c>
+      <c r="K37" s="60"/>
       <c r="O37" s="3">
         <v>15</v>
       </c>
@@ -21394,6 +21443,8 @@
       <c r="X37" s="3">
         <v>0</v>
       </c>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
       <c r="AI37" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21435,7 +21486,7 @@
       </c>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="57">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -21450,25 +21501,29 @@
       <c r="F38" s="17">
         <v>15453.708333333334</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="58">
         <v>2</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="59">
         <f>F38+G38/24</f>
         <v>15453.791666666668</v>
       </c>
+      <c r="K38" s="60"/>
       <c r="O38" s="3">
         <v>4.7</v>
       </c>
       <c r="P38" s="3">
         <v>33.633299999999998</v>
       </c>
+      <c r="V38" s="60"/>
       <c r="W38" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="X38" s="3">
-        <v>0</v>
-      </c>
+      <c r="X38" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
       <c r="AI38" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21614,6 +21669,7 @@
       <c r="J40" s="3">
         <v>20960</v>
       </c>
+      <c r="K40" s="60"/>
       <c r="O40" s="3">
         <v>47.304000000000002</v>
       </c>
@@ -21632,6 +21688,8 @@
       <c r="AA40" s="5">
         <v>40</v>
       </c>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
       <c r="AI40" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21706,13 +21764,14 @@
       <c r="F41" s="17">
         <v>23511.752083333333</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="58">
         <v>2</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="59">
         <f>F41+G41/24</f>
         <v>23511.835416666665</v>
       </c>
+      <c r="K41" s="60"/>
       <c r="O41" s="3">
         <v>43.883299999999998</v>
       </c>
@@ -21725,6 +21784,8 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
       <c r="AI41" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21757,7 +21818,7 @@
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="57">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -21766,9 +21827,12 @@
       <c r="F42" s="17">
         <v>21647.812627314815</v>
       </c>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
       <c r="J42" s="3">
         <v>20930</v>
       </c>
+      <c r="K42" s="60"/>
       <c r="O42" s="3">
         <v>49.51</v>
       </c>
@@ -21790,6 +21854,8 @@
       <c r="AB42" s="5">
         <v>0</v>
       </c>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
       <c r="AI42" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21861,13 +21927,14 @@
       <c r="F43" s="17">
         <v>22805.75</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="58">
         <v>1</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="59">
         <f>F43+G43/24</f>
         <v>22805.791666666668</v>
       </c>
+      <c r="K43" s="60"/>
       <c r="O43" s="3">
         <v>50.766599999999997</v>
       </c>
@@ -21880,6 +21947,8 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
       <c r="AI43" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21930,25 +21999,29 @@
       <c r="F44" s="17">
         <v>14910</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="58">
         <v>5.5</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="59">
         <f>F44+G44/24</f>
         <v>14910.229166666666</v>
       </c>
+      <c r="K44" s="60"/>
       <c r="O44" s="3">
         <v>22.25</v>
       </c>
       <c r="P44" s="3">
         <v>79</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="V44" s="60"/>
+      <c r="W44" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
+      <c r="X44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
       <c r="AI44" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21987,7 +22060,7 @@
       </c>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="57">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -21996,25 +22069,28 @@
       <c r="F45" s="17">
         <v>17210.020833333332</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="58">
         <v>10</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="59">
         <f>F45+G45/24</f>
         <v>17210.4375</v>
       </c>
+      <c r="K45" s="60"/>
       <c r="O45" s="3">
         <v>46.16</v>
       </c>
       <c r="P45" s="3">
         <v>134.6533</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="W45" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
       <c r="AI45" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22047,7 +22123,7 @@
       </c>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="57">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -22056,9 +22132,12 @@
       <c r="F46" s="17">
         <v>25572.09304398148</v>
       </c>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
       <c r="J46" s="3">
         <v>14235</v>
       </c>
+      <c r="K46" s="60"/>
       <c r="O46" s="3">
         <v>36.005000000000003</v>
       </c>
@@ -22077,6 +22156,8 @@
       <c r="AA46" s="5">
         <v>2</v>
       </c>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
       <c r="AI46" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22148,9 +22229,12 @@
       <c r="F47" s="17">
         <v>28162.095578703702</v>
       </c>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
       <c r="J47" s="3">
         <v>14500</v>
       </c>
+      <c r="K47" s="60"/>
       <c r="O47" s="3">
         <v>53.414999999999999</v>
       </c>
@@ -22160,7 +22244,7 @@
       <c r="S47" s="3">
         <v>14500</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="60" t="s">
         <v>240</v>
       </c>
       <c r="X47" s="3">
@@ -22169,6 +22253,8 @@
       <c r="AA47" s="5">
         <v>100</v>
       </c>
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="61"/>
       <c r="AI47" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22240,9 +22326,12 @@
       <c r="F48" s="17">
         <v>33365.961018518516</v>
       </c>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
       <c r="J48" s="3">
         <v>21272</v>
       </c>
+      <c r="K48" s="60"/>
       <c r="O48" s="3">
         <v>49.661999999999999</v>
       </c>
@@ -22261,6 +22350,8 @@
       <c r="AA48" s="5">
         <v>5</v>
       </c>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
       <c r="AI48" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22323,7 +22414,7 @@
       </c>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="57">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -22332,9 +22423,12 @@
       <c r="F49" s="17">
         <v>33886.991666666669</v>
       </c>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
       <c r="J49" s="3">
         <v>14720</v>
       </c>
+      <c r="K49" s="60"/>
       <c r="M49" s="3">
         <v>76</v>
       </c>
@@ -22356,6 +22450,8 @@
       <c r="AA49" s="5">
         <v>50</v>
       </c>
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
       <c r="AI49" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22418,7 +22514,7 @@
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="57">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -22430,6 +22526,7 @@
       <c r="J50" s="3">
         <v>22500</v>
       </c>
+      <c r="K50" s="60"/>
       <c r="O50" s="3">
         <v>50.23</v>
       </c>
@@ -22439,7 +22536,7 @@
       <c r="S50" s="3">
         <v>22500</v>
       </c>
-      <c r="W50" s="3" t="s">
+      <c r="W50" s="60" t="s">
         <v>239</v>
       </c>
       <c r="X50" s="3">
@@ -22448,6 +22545,8 @@
       <c r="AA50" s="5">
         <v>300</v>
       </c>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
       <c r="AI50" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22522,6 +22621,7 @@
       <c r="J51" s="3">
         <v>16900</v>
       </c>
+      <c r="K51" s="60"/>
       <c r="O51" s="3">
         <v>42.771000000000001</v>
       </c>
@@ -22623,7 +22723,7 @@
       <c r="S52" s="3">
         <v>12760</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="W52" s="60" t="s">
         <v>247</v>
       </c>
       <c r="X52" s="3">
@@ -22632,6 +22732,8 @@
       <c r="AA52" s="5">
         <v>1</v>
       </c>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
       <c r="AI52" s="44" t="s">
         <v>1320</v>
       </c>
@@ -23636,7 +23738,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" ref="H62:H71" si="3">F62+G62/24</f>
+        <f>F62+G62/24</f>
         <v>39060.355000000003</v>
       </c>
       <c r="I62" s="3">
@@ -23645,8 +23747,8 @@
       <c r="J62" s="3">
         <v>15861</v>
       </c>
-      <c r="K62" s="3">
-        <f t="shared" ref="K62:K72" si="4">I62*J62^2/2/4.184/10^12</f>
+      <c r="K62" s="60">
+        <f>I62*J62^2/2/4.184/10^12</f>
         <v>13.99999812793989</v>
       </c>
       <c r="L62" s="3">
@@ -23820,7 +23922,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="3"/>
+        <f>F63+G63/24</f>
         <v>42249.923922685186</v>
       </c>
       <c r="I63" s="37">
@@ -23830,7 +23932,7 @@
         <v>17100</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="4"/>
+        <f>I63*J63^2/2/4.184/10^12</f>
         <v>6.5659463432122367E-2</v>
       </c>
       <c r="L63" s="3">
@@ -23866,7 +23968,7 @@
       <c r="V63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W63" s="3" t="s">
+      <c r="W63" s="60" t="s">
         <v>392</v>
       </c>
       <c r="X63" s="3">
@@ -23974,7 +24076,7 @@
         <v>-6</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="3"/>
+        <f>F64+G64/24</f>
         <v>43578.879861111112</v>
       </c>
       <c r="I64" s="3">
@@ -23984,7 +24086,7 @@
         <v>14000</v>
       </c>
       <c r="K64" s="36">
-        <f t="shared" si="4"/>
+        <f>I64*J64^2/2/4.184/10^12</f>
         <v>1.1711281070745696E-2</v>
       </c>
       <c r="L64" s="3">
@@ -24144,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="3"/>
+        <f>F65+G65/24</f>
         <v>43835.169652777775</v>
       </c>
       <c r="I65" s="3">
@@ -24154,7 +24256,7 @@
         <v>18000</v>
       </c>
       <c r="K65" s="36">
-        <f t="shared" si="4"/>
+        <f>I65*J65^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L65" s="3">
@@ -24299,7 +24401,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="3"/>
+        <f>F66+G66/24</f>
         <v>43835.169652777775</v>
       </c>
       <c r="I66" s="3">
@@ -24309,7 +24411,7 @@
         <v>18000</v>
       </c>
       <c r="K66" s="36">
-        <f t="shared" si="4"/>
+        <f>I66*J66^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L66" s="3">
@@ -24454,7 +24556,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="3"/>
+        <f>F67+G67/24</f>
         <v>43857.277256944442</v>
       </c>
       <c r="I67" s="3">
@@ -24464,7 +24566,7 @@
         <v>20860</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="4"/>
+        <f>I67*J67^2/2/4.184/10^12</f>
         <v>0.15001000000000006</v>
       </c>
       <c r="L67" s="3">
@@ -24639,7 +24741,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="3"/>
+        <f>F68+G68/24</f>
         <v>43859.005555555552</v>
       </c>
       <c r="I68" s="3">
@@ -24649,7 +24751,7 @@
         <v>16944</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="4"/>
+        <f>I68*J68^2/2/4.184/10^12</f>
         <v>1.0292751051625238E-2</v>
       </c>
       <c r="L68" s="3">
@@ -24820,7 +24922,7 @@
         <v>5.5</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="3"/>
+        <f>F69+G69/24</f>
         <v>43872.221030092587</v>
       </c>
       <c r="I69" s="3">
@@ -24830,7 +24932,7 @@
         <v>31690</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="4"/>
+        <f>I69*J69^2/2/4.184/10^12</f>
         <v>9.4929084022466539E-2</v>
       </c>
       <c r="L69" s="3">
@@ -25004,7 +25106,7 @@
         <v>-5</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="3"/>
+        <f>F70+G70/24</f>
         <v>43868.778518518513</v>
       </c>
       <c r="I70" s="3">
@@ -25014,7 +25116,7 @@
         <v>19080</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="4"/>
+        <f>I70*J70^2/2/4.184/10^12</f>
         <v>6.5256883365200757E-3</v>
       </c>
       <c r="L70" s="3">
@@ -25158,7 +25260,7 @@
         <v>-7</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="3"/>
+        <f>F71+G71/24</f>
         <v>43877.303761574076</v>
       </c>
       <c r="I71" s="3">
@@ -25168,7 +25270,7 @@
         <v>23000</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="4"/>
+        <f>I71*J71^2/2/4.184/10^12</f>
         <v>9.48255258126195E-3</v>
       </c>
       <c r="L71" s="3">
@@ -25318,7 +25420,7 @@
         <v>50</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="4"/>
+        <f>I72*J72^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L72" s="3">
@@ -26197,77 +26299,77 @@
       </c>
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="57">
         <v>74</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="57" t="s">
         <v>1322</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="57" t="s">
         <v>1322</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="57" t="s">
         <v>1323</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="57" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="17">
         <v>14152.625</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="58">
         <v>-6</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="59">
         <v>14152.375</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="60">
         <v>25</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="60">
         <v>20000</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="60">
         <f>I78*J78^2/2/4.184/10^12</f>
         <v>1.1950286806883363E-3</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="60">
         <v>244.77</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="60">
         <v>35</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="N78" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="60">
         <v>39.142685999999998</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="60">
         <v>-89.669224999999997</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78" s="60">
         <v>210</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R78" s="60">
         <v>210</v>
       </c>
-      <c r="S78" s="3">
+      <c r="S78" s="60">
         <v>225</v>
       </c>
-      <c r="T78" s="3">
+      <c r="T78" s="60">
         <v>12.4833</v>
       </c>
-      <c r="U78" s="3">
+      <c r="U78" s="60">
         <v>20000</v>
       </c>
-      <c r="V78" s="3" t="s">
+      <c r="V78" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="W78" s="3" t="s">
+      <c r="W78" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="X78" s="3">
+      <c r="X78" s="60">
         <v>3690</v>
       </c>
       <c r="Y78" s="3">
@@ -26276,28 +26378,28 @@
       <c r="Z78" s="3">
         <v>60000</v>
       </c>
-      <c r="AA78" s="5">
+      <c r="AA78" s="61">
         <v>10000</v>
       </c>
-      <c r="AB78" s="5">
+      <c r="AB78" s="61">
         <v>1</v>
       </c>
-      <c r="AC78" s="5">
+      <c r="AC78" s="61">
         <v>20</v>
       </c>
-      <c r="AD78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="5">
+      <c r="AD78" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH78" s="5">
+      <c r="AH78" s="61">
         <v>1.5</v>
       </c>
       <c r="AI78" s="45" t="s">
@@ -26739,7 +26841,7 @@
         <v>-3</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" ref="H81:H112" si="5">F81+G81/24</f>
+        <f>F81+G81/24</f>
         <v>43959.142534722225</v>
       </c>
       <c r="I81" s="3">
@@ -26926,7 +27028,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="5"/>
+        <f>F82+G82/24</f>
         <v>43978.854328703703</v>
       </c>
       <c r="I82" s="3">
@@ -27112,7 +27214,7 @@
         <v>9</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="5"/>
+        <f>F83+G83/24</f>
         <v>44014.105590277781</v>
       </c>
       <c r="I83" s="3">
@@ -27122,7 +27224,7 @@
         <v>14646</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" ref="K83:K130" si="6">I83*J83^2/2/4.184/10^12</f>
+        <f>I83*J83^2/2/4.184/10^12</f>
         <v>0.16405760305927342</v>
       </c>
       <c r="L83" s="3">
@@ -27300,7 +27402,7 @@
         <v>-3</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="5"/>
+        <f>F84+G84/24</f>
         <v>44027.790972222225</v>
       </c>
       <c r="I84" s="3">
@@ -27310,7 +27412,7 @@
         <v>12500</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="6"/>
+        <f>I84*J84^2/2/4.184/10^12</f>
         <v>3.7344646271510514E-3</v>
       </c>
       <c r="L84" s="3">
@@ -27488,7 +27590,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="5"/>
+        <f>F85+G85/24</f>
         <v>44043.100694444445</v>
       </c>
       <c r="I85" s="3">
@@ -27498,7 +27600,7 @@
         <v>18000</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="6"/>
+        <f>I85*J85^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L85" s="3">
@@ -27675,7 +27777,7 @@
         <v>-3</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="5"/>
+        <f>F86+G86/24</f>
         <v>44062.429560185185</v>
       </c>
       <c r="I86" s="3">
@@ -27685,7 +27787,7 @@
         <v>17970</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="6"/>
+        <f>I86*J86^2/2/4.184/10^12</f>
         <v>3.8589973709369028E-2</v>
       </c>
       <c r="L86" s="3">
@@ -27862,7 +27964,7 @@
         <v>-3</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="5"/>
+        <f>F87+G87/24</f>
         <v>44105.048020833332</v>
       </c>
       <c r="I87" s="3">
@@ -27872,7 +27974,7 @@
         <v>16550</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="6"/>
+        <f>I87*J87^2/2/4.184/10^12</f>
         <v>6.546426864244741E-3</v>
       </c>
       <c r="L87" s="3">
@@ -28049,7 +28151,7 @@
         <v>-6</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="5"/>
+        <f>F88+G88/24</f>
         <v>44136.745266203703</v>
       </c>
       <c r="I88" s="3">
@@ -28059,7 +28161,7 @@
         <v>20100</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="6"/>
+        <f>I88*J88^2/2/4.184/10^12</f>
         <v>4.8280353728489482E-4</v>
       </c>
       <c r="L88" s="3">
@@ -28236,7 +28338,7 @@
         <v>-4</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="5"/>
+        <f>F89+G89/24</f>
         <v>44143.84652777778</v>
       </c>
       <c r="I89" s="3">
@@ -28246,7 +28348,7 @@
         <v>18000</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="6"/>
+        <f>I89*J89^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L89" s="3">
@@ -28423,7 +28525,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="5"/>
+        <f>F90+G90/24</f>
         <v>44142.93546296296</v>
       </c>
       <c r="I90" s="3">
@@ -28433,7 +28535,7 @@
         <v>17400</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="6"/>
+        <f>I90*J90^2/2/4.184/10^12</f>
         <v>0.33467136711281065</v>
       </c>
       <c r="L90" s="3">
@@ -28610,7 +28712,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="5"/>
+        <f>F91+G91/24</f>
         <v>44142.93546296296</v>
       </c>
       <c r="I91" s="3">
@@ -28620,7 +28722,7 @@
         <v>17055</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="6"/>
+        <f>I91*J91^2/2/4.184/10^12</f>
         <v>0.3371735590941683</v>
       </c>
       <c r="L91" s="3">
@@ -28797,7 +28899,7 @@
         <v>-5</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="5"/>
+        <f>F92+G92/24</f>
         <v>44167.504861111105</v>
       </c>
       <c r="I92" s="3">
@@ -28807,7 +28909,7 @@
         <v>25000</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="6"/>
+        <f>I92*J92^2/2/4.184/10^12</f>
         <v>6.7220363288718929E-2</v>
       </c>
       <c r="L92" s="3">
@@ -28984,7 +29086,7 @@
         <v>-5</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="5"/>
+        <f>F93+G93/24</f>
         <v>44175.809984953703</v>
       </c>
       <c r="I93" s="3">
@@ -28994,7 +29096,7 @@
         <v>28072.8632</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="6"/>
+        <f>I93*J93^2/2/4.184/10^12</f>
         <v>1.8835699049854547E-4</v>
       </c>
       <c r="L93" s="3">
@@ -29171,7 +29273,7 @@
         <v>-6</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="5"/>
+        <f>F94+G94/24</f>
         <v>44181.284918981481</v>
       </c>
       <c r="I94" s="3">
@@ -29181,7 +29283,7 @@
         <v>12000</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="6"/>
+        <f>I94*J94^2/2/4.184/10^12</f>
         <v>8.6042065009560222E-4</v>
       </c>
       <c r="L94" s="3">
@@ -29358,7 +29460,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="5"/>
+        <f>F95+G95/24</f>
         <v>44188.308020833334</v>
       </c>
       <c r="I95" s="3">
@@ -29368,7 +29470,7 @@
         <v>13710</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="6"/>
+        <f>I95*J95^2/2/4.184/10^12</f>
         <v>9.4986112532265761</v>
       </c>
       <c r="L95" s="3">
@@ -29545,7 +29647,7 @@
         <v>-6</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="5"/>
+        <f>F96+G96/24</f>
         <v>44251.845289351855</v>
       </c>
       <c r="I96" s="3">
@@ -29555,7 +29657,7 @@
         <v>26300</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="6"/>
+        <f>I96*J96^2/2/4.184/10^12</f>
         <v>4.1329469407265776E-3</v>
       </c>
       <c r="L96" s="3">
@@ -29732,7 +29834,7 @@
         <v>-5</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="5"/>
+        <f>F97+G97/24</f>
         <v>44253.921574074069</v>
       </c>
       <c r="I97" s="3">
@@ -29742,7 +29844,7 @@
         <v>29400</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="6"/>
+        <f>I97*J97^2/2/4.184/10^12</f>
         <v>1.0329349904397705E-3</v>
       </c>
       <c r="L97" s="3">
@@ -29919,7 +30021,7 @@
         <v>-5</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="5"/>
+        <f>F98+G98/24</f>
         <v>44253.921574074069</v>
       </c>
       <c r="I98" s="3">
@@ -29929,7 +30031,7 @@
         <v>50</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="6"/>
+        <f>I98*J98^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L98" s="3">
@@ -30106,7 +30208,7 @@
         <v>-6</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="5"/>
+        <f>F99+G99/24</f>
         <v>44236.727418981478</v>
       </c>
       <c r="I99" s="3">
@@ -30116,7 +30218,7 @@
         <v>13150</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="6"/>
+        <f>I99*J99^2/2/4.184/10^12</f>
         <v>0.10005864543499043</v>
       </c>
       <c r="L99" s="3">
@@ -30293,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="5"/>
+        <f>F100+G100/24</f>
         <v>44255.91269675926</v>
       </c>
       <c r="I100" s="3">
@@ -30303,7 +30405,7 @@
         <v>10600</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="6"/>
+        <f>I100*J100^2/2/4.184/10^12</f>
         <v>6.7136711281070733E-5</v>
       </c>
       <c r="L100" s="3">
@@ -30480,7 +30582,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="5"/>
+        <f>F101+G101/24</f>
         <v>44261.118067129624</v>
       </c>
       <c r="I101" s="3">
@@ -30490,7 +30592,7 @@
         <v>23260</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="6"/>
+        <f>I101*J101^2/2/4.184/10^12</f>
         <v>0.12995524330783939</v>
       </c>
       <c r="L101" s="3">
@@ -30667,7 +30769,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="5"/>
+        <f>F102+G102/24</f>
         <v>44229.627326388894</v>
       </c>
       <c r="I102" s="3">
@@ -30677,7 +30779,7 @@
         <v>12760</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="6"/>
+        <f>I102*J102^2/2/4.184/10^12</f>
         <v>0.10995246864244741</v>
       </c>
       <c r="L102" s="3">
@@ -30854,7 +30956,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="5"/>
+        <f>F103+G103/24</f>
         <v>44271.798460648148</v>
       </c>
       <c r="I103" s="3">
@@ -30864,7 +30966,7 @@
         <v>12900</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="6"/>
+        <f>I103*J103^2/2/4.184/10^12</f>
         <v>9.9432361376673023E-4</v>
       </c>
       <c r="L103" s="3">
@@ -31042,7 +31144,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="5"/>
+        <f>F104+G104/24</f>
         <v>44270.372916666667</v>
       </c>
       <c r="I104" s="3">
@@ -31052,7 +31154,7 @@
         <v>14000</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="6"/>
+        <f>I104*J104^2/2/4.184/10^12</f>
         <v>2.3422562141491395E-4</v>
       </c>
       <c r="L104" s="3">
@@ -31229,7 +31331,7 @@
         <v>-4</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="5"/>
+        <f>F105+G105/24</f>
         <v>40245.251469907409</v>
       </c>
       <c r="I105" s="3">
@@ -31239,7 +31341,7 @@
         <v>24501</v>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="6"/>
+        <f>I105*J105^2/2/4.184/10^12</f>
         <v>0.85001707252019587</v>
       </c>
       <c r="L105" s="3">
@@ -31275,7 +31377,7 @@
       <c r="V105" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W105" s="3" t="s">
+      <c r="W105" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X105" s="3">
@@ -31416,7 +31518,7 @@
         <v>-5</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="5"/>
+        <f>F106+G106/24</f>
         <v>42965.996932870366</v>
       </c>
       <c r="I106" s="3">
@@ -31426,7 +31528,7 @@
         <v>15000</v>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="6"/>
+        <f>I106*J106^2/2/4.184/10^12</f>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L106" s="3">
@@ -31603,7 +31705,7 @@
         <v>9.5</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="5"/>
+        <f>F107+G107/24</f>
         <v>44322.64197916667</v>
       </c>
       <c r="I107" s="3">
@@ -31613,7 +31715,7 @@
         <v>26620</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="6"/>
+        <f>I107*J107^2/2/4.184/10^12</f>
         <v>7.5960335420650088E-2</v>
       </c>
       <c r="L107" s="3">
@@ -31790,7 +31892,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="5"/>
+        <f>F108+G108/24</f>
         <v>43893.025694444441</v>
       </c>
       <c r="I108" s="3">
@@ -31800,7 +31902,7 @@
         <v>15000</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="6"/>
+        <f>I108*J108^2/2/4.184/10^12</f>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L108" s="3">
@@ -31977,7 +32079,7 @@
         <v>2</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="5"/>
+        <f>F109+G109/24</f>
         <v>44402.047789351855</v>
       </c>
       <c r="I109" s="3">
@@ -31987,7 +32089,7 @@
         <v>14500</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="6"/>
+        <f>I109*J109^2/2/4.184/10^12</f>
         <v>2.5125478011472271E-3</v>
       </c>
       <c r="L109" s="3">
@@ -32164,7 +32266,7 @@
         <v>-5</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="5"/>
+        <f>F110+G110/24</f>
         <v>44402.872916666667</v>
       </c>
       <c r="I110" s="3">
@@ -32174,7 +32276,7 @@
         <v>13000</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="6"/>
+        <f>I110*J110^2/2/4.184/10^12</f>
         <v>2.0195984703632886E-4</v>
       </c>
       <c r="L110" s="3">
@@ -32351,7 +32453,7 @@
         <v>8</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="5"/>
+        <f>F111+G111/24</f>
         <v>44406.888854166667</v>
       </c>
       <c r="I111" s="3">
@@ -32361,7 +32463,7 @@
         <v>14650</v>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="6"/>
+        <f>I111*J111^2/2/4.184/10^12</f>
         <v>0.12993278979445505</v>
       </c>
       <c r="L111" s="3">
@@ -32538,7 +32640,7 @@
         <v>-3</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="5"/>
+        <f>F112+G112/24</f>
         <v>44446.921956018516</v>
       </c>
       <c r="I112" s="3">
@@ -32548,7 +32650,7 @@
         <v>24020</v>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="6"/>
+        <f>I112*J112^2/2/4.184/10^12</f>
         <v>3.4474211281070744E-3</v>
       </c>
       <c r="L112" s="3">
@@ -32725,7 +32827,7 @@
         <v>-4</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" ref="H113:H130" si="7">F113+G113/24</f>
+        <f>F113+G113/24</f>
         <v>44492.879375000004</v>
       </c>
       <c r="I113" s="3">
@@ -32735,7 +32837,7 @@
         <v>18300</v>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="6"/>
+        <f>I113*J113^2/2/4.184/10^12</f>
         <v>4.0020315487571698E-4</v>
       </c>
       <c r="L113" s="3">
@@ -32912,7 +33014,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="7"/>
+        <f>F114+G114/24</f>
         <v>44551.177719907413</v>
       </c>
       <c r="I114" s="3">
@@ -32922,7 +33024,7 @@
         <v>18190</v>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="6"/>
+        <f>I114*J114^2/2/4.184/10^12</f>
         <v>0.11004160926147227</v>
       </c>
       <c r="L114" s="3">
@@ -33099,7 +33201,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="7"/>
+        <f>F115+G115/24</f>
         <v>44574.754837962959</v>
       </c>
       <c r="I115" s="3">
@@ -33109,7 +33211,7 @@
         <v>16000</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="6"/>
+        <f>I115*J115^2/2/4.184/10^12</f>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L115" s="3">
@@ -33286,7 +33388,7 @@
         <v>-3</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="7"/>
+        <f>F116+G116/24</f>
         <v>44575.370138888888</v>
       </c>
       <c r="I116" s="3">
@@ -33296,7 +33398,7 @@
         <v>12138</v>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="6"/>
+        <f>I116*J116^2/2/4.184/10^12</f>
         <v>1.7606482313575525E-3</v>
       </c>
       <c r="L116" s="3">
@@ -33473,7 +33575,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="7"/>
+        <f>F117+G117/24</f>
         <v>44575.935416666667</v>
       </c>
       <c r="I117" s="3">
@@ -33483,7 +33585,7 @@
         <v>13330</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="6"/>
+        <f>I117*J117^2/2/4.184/10^12</f>
         <v>1.592574988049713E-3</v>
       </c>
       <c r="L117" s="3">
@@ -33660,7 +33762,7 @@
         <v>-6</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="7"/>
+        <f>F118+G118/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I118" s="3">
@@ -33670,7 +33772,7 @@
         <v>16000</v>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="6"/>
+        <f>I118*J118^2/2/4.184/10^12</f>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L118" s="3">
@@ -33706,7 +33808,7 @@
       <c r="V118" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W118" s="3" t="s">
+      <c r="W118" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X118" s="3">
@@ -33847,7 +33949,7 @@
         <v>-6</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="7"/>
+        <f>F119+G119/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I119" s="3">
@@ -33857,7 +33959,7 @@
         <v>50</v>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="6"/>
+        <f>I119*J119^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L119" s="3">
@@ -33893,7 +33995,7 @@
       <c r="V119" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W119" s="3" t="s">
+      <c r="W119" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X119" s="3">
@@ -34034,7 +34136,7 @@
         <v>-6</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="7"/>
+        <f>F120+G120/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I120" s="3">
@@ -34044,7 +34146,7 @@
         <v>50</v>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="6"/>
+        <f>I120*J120^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L120" s="3">
@@ -34221,7 +34323,7 @@
         <v>-7</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="7"/>
+        <f>F121+G121/24</f>
         <v>44587.794907407413</v>
       </c>
       <c r="I121" s="3">
@@ -34231,7 +34333,7 @@
         <v>13100</v>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="6"/>
+        <f>I121*J121^2/2/4.184/10^12</f>
         <v>4.9218929254302094E-8</v>
       </c>
       <c r="L121" s="3">
@@ -34267,7 +34369,7 @@
       <c r="V121" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W121" s="3" t="s">
+      <c r="W121" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X121" s="3">
@@ -34408,7 +34510,7 @@
         <v>-7</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="7"/>
+        <f>F122+G122/24</f>
         <v>42523.164259259262</v>
       </c>
       <c r="I122" s="3">
@@ -34418,7 +34520,7 @@
         <v>18300</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="6"/>
+        <f>I122*J122^2/2/4.184/10^12</f>
         <v>0.48024378585086042</v>
       </c>
       <c r="L122" s="3">
@@ -34454,7 +34556,7 @@
       <c r="V122" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="W122" s="3" t="s">
+      <c r="W122" s="60" t="s">
         <v>1432</v>
       </c>
       <c r="X122" s="3">
@@ -34595,7 +34697,7 @@
         <v>-6</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="7"/>
+        <f>F123+G123/24</f>
         <v>44568.023611111108</v>
       </c>
       <c r="I123" s="3">
@@ -34605,7 +34707,7 @@
         <v>20000</v>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="6"/>
+        <f>I123*J123^2/2/4.184/10^12</f>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L123" s="3">
@@ -34653,28 +34755,28 @@
       <c r="Z123" s="3">
         <v>60000</v>
       </c>
-      <c r="AA123" s="5">
+      <c r="AA123" s="61">
         <v>1500</v>
       </c>
-      <c r="AB123" s="5">
+      <c r="AB123" s="61">
         <v>3</v>
       </c>
-      <c r="AC123" s="5">
+      <c r="AC123" s="61">
         <v>5</v>
       </c>
-      <c r="AD123" s="5">
+      <c r="AD123" s="61">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AE123" s="5">
+      <c r="AE123" s="61">
         <v>0.05</v>
       </c>
-      <c r="AF123" s="5">
+      <c r="AF123" s="61">
         <v>1000</v>
       </c>
-      <c r="AG123" s="5">
+      <c r="AG123" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH123" s="5">
+      <c r="AH123" s="61">
         <v>1.5</v>
       </c>
       <c r="AI123" s="45">
@@ -34782,7 +34884,7 @@
         <v>-7</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="7"/>
+        <f>F124+G124/24</f>
         <v>44287.167407407411</v>
       </c>
       <c r="I124" s="3">
@@ -34792,7 +34894,7 @@
         <v>14010</v>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="6"/>
+        <f>I124*J124^2/2/4.184/10^12</f>
         <v>2.3456034894837476E-4</v>
       </c>
       <c r="L124" s="3">
@@ -34969,7 +35071,7 @@
         <v>-4</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="7"/>
+        <f>F125+G125/24</f>
         <v>44668.984027777777</v>
       </c>
       <c r="I125" s="3">
@@ -34979,7 +35081,7 @@
         <v>14360</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="6"/>
+        <f>I125*J125^2/2/4.184/10^12</f>
         <v>2.464263862332696E-4</v>
       </c>
       <c r="L125" s="3">
@@ -35015,7 +35117,7 @@
       <c r="V125" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W125" s="3" t="s">
+      <c r="W125" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X125" s="3">
@@ -35156,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" si="7"/>
+        <f>F126+G126/24</f>
         <v>44664.98982638889</v>
       </c>
       <c r="I126" s="3">
@@ -35166,7 +35268,7 @@
         <v>12897.75</v>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="6"/>
+        <f>I126*J126^2/2/4.184/10^12</f>
         <v>1.987953573882648E-4</v>
       </c>
       <c r="L126" s="3">
@@ -35202,7 +35304,7 @@
       <c r="V126" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W126" s="3" t="s">
+      <c r="W126" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X126" s="3">
@@ -35343,7 +35445,7 @@
         <v>-3</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="7"/>
+        <f>F127+G127/24</f>
         <v>44672.802407407406</v>
       </c>
       <c r="I127" s="3">
@@ -35353,7 +35455,7 @@
         <v>12750</v>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="6"/>
+        <f>I127*J127^2/2/4.184/10^12</f>
         <v>0.13010050938097514</v>
       </c>
       <c r="L127" s="3">
@@ -35389,7 +35491,7 @@
       <c r="V127" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W127" s="3" t="s">
+      <c r="W127" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X127" s="3">
@@ -35530,7 +35632,7 @@
         <v>2</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="7"/>
+        <f>F128+G128/24</f>
         <v>44631.974143518521</v>
       </c>
       <c r="I128" s="3">
@@ -35540,7 +35642,7 @@
         <v>17240</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="6"/>
+        <f>I128*J128^2/2/4.184/10^12</f>
         <v>4.0000061755258125</v>
       </c>
       <c r="L128" s="3">
@@ -35576,7 +35678,7 @@
       <c r="V128" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W128" s="3" t="s">
+      <c r="W128" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X128" s="3">
@@ -35717,7 +35819,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="7"/>
+        <f>F129+G129/24</f>
         <v>44596.243518518517</v>
       </c>
       <c r="I129" s="3">
@@ -35727,7 +35829,7 @@
         <v>22810</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="6"/>
+        <f>I129*J129^2/2/4.184/10^12</f>
         <v>0.43983922220363286</v>
       </c>
       <c r="L129" s="3">
@@ -35763,7 +35865,7 @@
       <c r="V129" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W129" s="3" t="s">
+      <c r="W129" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X129" s="3">
@@ -35904,7 +36006,7 @@
         <v>-5</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="7"/>
+        <f>F130+G130/24</f>
         <v>44678.335416666661</v>
       </c>
       <c r="I130" s="3">
@@ -35914,7 +36016,7 @@
         <v>24000</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="6"/>
+        <f>I130*J130^2/2/4.184/10^12</f>
         <v>4.8183556405353729E-3</v>
       </c>
       <c r="L130" s="3">
@@ -35950,7 +36052,7 @@
       <c r="V130" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W130" s="3" t="s">
+      <c r="W130" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X130" s="3">
@@ -36069,7 +36171,7 @@
       </c>
     </row>
     <row r="131" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
+      <c r="A131" s="57">
         <v>128</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -36081,12 +36183,18 @@
       <c r="F131" s="17">
         <v>22922</v>
       </c>
+      <c r="G131" s="58"/>
+      <c r="H131" s="59"/>
+      <c r="K131" s="60"/>
       <c r="O131" s="3">
         <v>11.7333</v>
       </c>
       <c r="P131" s="3">
         <v>7.0833000000000004</v>
       </c>
+      <c r="W131" s="60"/>
+      <c r="AG131" s="61"/>
+      <c r="AH131" s="61"/>
       <c r="AR131" s="25">
         <v>0</v>
       </c>
@@ -36126,7 +36234,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H151" si="8">F132+G132/24</f>
+        <f>F132+G132/24</f>
         <v>44697.864131944443</v>
       </c>
       <c r="I132" s="3">
@@ -36136,7 +36244,7 @@
         <v>21350</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" ref="K132:K145" si="9">I132*J132^2/2/4.184/10^12</f>
+        <f>I132*J132^2/2/4.184/10^12</f>
         <v>2.7236048040152963E-5</v>
       </c>
       <c r="L132" s="3">
@@ -36313,7 +36421,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="8"/>
+        <f>F133+G133/24</f>
         <v>44692.986111111109</v>
       </c>
       <c r="I133" s="3">
@@ -36323,7 +36431,7 @@
         <v>27900</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="9"/>
+        <f>I133*J133^2/2/4.184/10^12</f>
         <v>9.3022227533460795E-4</v>
       </c>
       <c r="L133" s="3">
@@ -36359,7 +36467,7 @@
       <c r="V133" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W133" s="3" t="s">
+      <c r="W133" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X133" s="3">
@@ -36500,7 +36608,7 @@
         <v>-7</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="8"/>
+        <f>F134+G134/24</f>
         <v>44700.921018518522</v>
       </c>
       <c r="I134" s="3">
@@ -36510,7 +36618,7 @@
         <v>15160</v>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="9"/>
+        <f>I134*J134^2/2/4.184/10^12</f>
         <v>2.7464818355640533E-5</v>
       </c>
       <c r="L134" s="3">
@@ -36678,7 +36786,7 @@
         <v>8</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="8"/>
+        <f>F135+G135/24</f>
         <v>42169.460486111115</v>
       </c>
       <c r="I135" s="3">
@@ -36688,7 +36796,7 @@
         <v>31858</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="9"/>
+        <f>I135*J135^2/2/4.184/10^12</f>
         <v>0.22001517035086041</v>
       </c>
       <c r="L135" s="3">
@@ -36859,7 +36967,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="8"/>
+        <f>F136+G136/24</f>
         <v>42644.891493055555</v>
       </c>
       <c r="I136" s="3">
@@ -36869,7 +36977,7 @@
         <v>14202</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="9"/>
+        <f>I136*J136^2/2/4.184/10^12</f>
         <v>0.11000767369216062</v>
       </c>
       <c r="L136" s="3">
@@ -36905,7 +37013,7 @@
       <c r="V136" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W136" s="3" t="s">
+      <c r="W136" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X136" s="3">
@@ -37040,7 +37148,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" si="8"/>
+        <f>F137+G137/24</f>
         <v>40943.654166666667</v>
       </c>
       <c r="I137" s="3">
@@ -37050,7 +37158,7 @@
         <v>12248</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="9"/>
+        <f>I137*J137^2/2/4.184/10^12</f>
         <v>0.42999807683365199</v>
       </c>
       <c r="L137" s="3">
@@ -37086,7 +37194,7 @@
       <c r="V137" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W137" s="3" t="s">
+      <c r="W137" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X137" s="3">
@@ -37227,7 +37335,7 @@
         <v>-4</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="8"/>
+        <f>F138+G138/24</f>
         <v>44764.0778587963</v>
       </c>
       <c r="I138" s="3">
@@ -37237,7 +37345,7 @@
         <v>13640</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="9"/>
+        <f>I138*J138^2/2/4.184/10^12</f>
         <v>2.2233460803059273E-4</v>
       </c>
       <c r="L138" s="3">
@@ -37414,7 +37522,7 @@
         <v>-5</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="8"/>
+        <f>F139+G139/24</f>
         <v>44766.932592592588</v>
       </c>
       <c r="I139" s="3">
@@ -37424,7 +37532,7 @@
         <v>16870</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="9"/>
+        <f>I139*J139^2/2/4.184/10^12</f>
         <v>3.4010145793499043E-4</v>
       </c>
       <c r="L139" s="3">
@@ -37460,7 +37568,7 @@
       <c r="V139" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W139" s="3" t="s">
+      <c r="W139" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X139" s="3">
@@ -37601,7 +37709,7 @@
         <v>-4</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="8"/>
+        <f>F140+G140/24</f>
         <v>44771.914583333339</v>
       </c>
       <c r="I140" s="3">
@@ -37611,7 +37719,7 @@
         <v>20500</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="9"/>
+        <f>I140*J140^2/2/4.184/10^12</f>
         <v>4.5550519837476103E-3</v>
       </c>
       <c r="L140" s="3">
@@ -37647,7 +37755,7 @@
       <c r="V140" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W140" s="3" t="s">
+      <c r="W140" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X140" s="3">
@@ -37788,7 +37896,7 @@
         <v>-6</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="8"/>
+        <f>F141+G141/24</f>
         <v>44786.35434027778</v>
       </c>
       <c r="I141" s="3">
@@ -37798,7 +37906,7 @@
         <v>18000</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="9"/>
+        <f>I141*J141^2/2/4.184/10^12</f>
         <v>0.38718929254302098</v>
       </c>
       <c r="L141" s="3">
@@ -37834,7 +37942,7 @@
       <c r="V141" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W141" s="3" t="s">
+      <c r="W141" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X141" s="3">
@@ -37975,7 +38083,7 @@
         <v>-6</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="8"/>
+        <f>F142+G142/24</f>
         <v>44786.35434027778</v>
       </c>
       <c r="I142" s="3">
@@ -37985,7 +38093,7 @@
         <v>8000</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="9"/>
+        <f>I142*J142^2/2/4.184/10^12</f>
         <v>1.5296367112810707E-3</v>
       </c>
       <c r="L142" s="3">
@@ -38162,7 +38270,7 @@
         <v>-4</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" si="8"/>
+        <f>F143+G143/24</f>
         <v>44830.003338993061</v>
       </c>
       <c r="I143" s="3">
@@ -38172,7 +38280,7 @@
         <v>11882</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="9"/>
+        <f>I143*J143^2/2/4.184/10^12</f>
         <v>1.6871644837476097E-4</v>
       </c>
       <c r="L143" s="3">
@@ -38350,7 +38458,7 @@
         <v>2</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="8"/>
+        <f>F144+G144/24</f>
         <v>44845.874861111115</v>
       </c>
       <c r="I144" s="3">
@@ -38360,7 +38468,7 @@
         <v>23218</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="9"/>
+        <f>I144*J144^2/2/4.184/10^12</f>
         <v>6.4421071223709373E-4</v>
       </c>
       <c r="L144" s="3">
@@ -38537,7 +38645,7 @@
         <v>2</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="8"/>
+        <f>F145+G145/24</f>
         <v>44848.86377314815</v>
       </c>
       <c r="I145" s="3">
@@ -38547,7 +38655,7 @@
         <v>14680</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="9"/>
+        <f>I145*J145^2/2/4.184/10^12</f>
         <v>5.1506309751434026E-2</v>
       </c>
       <c r="L145" s="3">
@@ -38725,7 +38833,7 @@
         <v>-4</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="8"/>
+        <f>F146+G146/24</f>
         <v>44855.892754629633</v>
       </c>
       <c r="AR146" s="25">
@@ -38767,7 +38875,7 @@
         <v>-7</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" si="8"/>
+        <f>F147+G147/24</f>
         <v>44858.786898148152</v>
       </c>
       <c r="I147" s="3">
@@ -38814,7 +38922,7 @@
       <c r="V147" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W147" s="3" t="s">
+      <c r="W147" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X147" s="3">
@@ -38955,7 +39063,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" si="8"/>
+        <f>F148+G148/24</f>
         <v>44846.284722222226</v>
       </c>
       <c r="I148" s="3">
@@ -39001,7 +39109,7 @@
       <c r="V148" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W148" s="3" t="s">
+      <c r="W148" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X148" s="3">
@@ -39142,7 +39250,7 @@
         <v>7</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="8"/>
+        <f>F149+G149/24</f>
         <v>44851.010416666664</v>
       </c>
       <c r="I149" s="3">
@@ -39190,7 +39298,7 @@
       <c r="V149" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W149" s="3" t="s">
+      <c r="W149" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X149" s="3">
@@ -39331,7 +39439,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="8"/>
+        <f>F150+G150/24</f>
         <v>44857.815283090276</v>
       </c>
       <c r="I150" s="3">
@@ -39519,7 +39627,7 @@
         <v>-5</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="8"/>
+        <f>F151+G151/24</f>
         <v>44884.143564814811</v>
       </c>
       <c r="I151" s="3">
@@ -39565,7 +39673,7 @@
       <c r="V151" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W151" s="3" t="s">
+      <c r="W151" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X151" s="3">
@@ -39750,7 +39858,7 @@
       <c r="V152" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W152" s="3" t="s">
+      <c r="W152" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X152" s="3">
@@ -39891,7 +39999,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H197" si="10">F153+G153/24</f>
+        <f>F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -39901,7 +40009,7 @@
         <v>16440</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" ref="K153:K161" si="11">I153*J153^2/2/4.184/10^12</f>
+        <f>I153*J153^2/2/4.184/10^12</f>
         <v>0.20008902390057362</v>
       </c>
       <c r="L153" s="3">
@@ -40078,7 +40186,7 @@
         <v>-6</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="10"/>
+        <f>F154+G154/24</f>
         <v>44936.782372685186</v>
       </c>
       <c r="I154" s="3">
@@ -40088,7 +40196,7 @@
         <v>12500</v>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="11"/>
+        <f>I154*J154^2/2/4.184/10^12</f>
         <v>9.3361615678776285E-4</v>
       </c>
       <c r="L154" s="3">
@@ -40124,7 +40232,7 @@
       <c r="V154" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W154" s="3" t="s">
+      <c r="W154" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X154" s="3">
@@ -40265,7 +40373,7 @@
         <v>-6</v>
       </c>
       <c r="H155" s="4">
-        <f t="shared" si="10"/>
+        <f>F155+G155/24</f>
         <v>44946.151967592596</v>
       </c>
       <c r="I155" s="3">
@@ -40275,7 +40383,7 @@
         <v>14000</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="11"/>
+        <f>I155*J155^2/2/4.184/10^12</f>
         <v>1.7566921606118546E-3</v>
       </c>
       <c r="L155" s="3">
@@ -40304,7 +40412,7 @@
         <v>5000</v>
       </c>
       <c r="T155" s="3">
-        <f t="shared" ref="T155:T161" si="12">M155</f>
+        <f>M155</f>
         <v>59</v>
       </c>
       <c r="U155" s="3">
@@ -40314,7 +40422,7 @@
       <c r="V155" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W155" s="3" t="s">
+      <c r="W155" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X155" s="3">
@@ -40455,7 +40563,7 @@
         <v>1</v>
       </c>
       <c r="H156" s="4">
-        <f t="shared" si="10"/>
+        <f>F156+G156/24</f>
         <v>44951.183217592588</v>
       </c>
       <c r="I156" s="3">
@@ -40465,7 +40573,7 @@
         <v>26000</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="11"/>
+        <f>I156*J156^2/2/4.184/10^12</f>
         <v>8.8862332695984695E-4</v>
       </c>
       <c r="L156" s="3">
@@ -40493,7 +40601,7 @@
         <v>5000</v>
       </c>
       <c r="T156" s="3">
-        <f t="shared" si="12"/>
+        <f>M156</f>
         <v>56.5</v>
       </c>
       <c r="U156" s="3">
@@ -40644,7 +40752,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="4">
-        <f t="shared" si="10"/>
+        <f>F157+G157/24</f>
         <v>44970.166168981479</v>
       </c>
       <c r="I157" s="3">
@@ -40654,7 +40762,7 @@
         <v>14060.9</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="11"/>
+        <f>I157*J157^2/2/4.184/10^12</f>
         <v>4.0803451901872602E-2</v>
       </c>
       <c r="L157" s="3">
@@ -40684,7 +40792,7 @@
         <v>5000</v>
       </c>
       <c r="T157" s="3">
-        <f t="shared" si="12"/>
+        <f>M157</f>
         <v>41.423400000000001</v>
       </c>
       <c r="U157" s="3">
@@ -40723,10 +40831,10 @@
       <c r="AF157" s="5">
         <v>45.37</v>
       </c>
-      <c r="AG157" s="5">
+      <c r="AG157" s="61">
         <v>-1</v>
       </c>
-      <c r="AH157" s="5">
+      <c r="AH157" s="61">
         <v>1</v>
       </c>
       <c r="AI157" s="45">
@@ -40834,7 +40942,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="4">
-        <f t="shared" si="10"/>
+        <f>F158+G158/24</f>
         <v>44970.166168981479</v>
       </c>
       <c r="I158" s="3">
@@ -40844,7 +40952,7 @@
         <v>14016</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="11"/>
+        <f>I158*J158^2/2/4.184/10^12</f>
         <v>4.0543276543021034E-2</v>
       </c>
       <c r="L158" s="3">
@@ -40873,7 +40981,7 @@
         <v>5000</v>
       </c>
       <c r="T158" s="3">
-        <f t="shared" si="12"/>
+        <f>M158</f>
         <v>41.272100000000002</v>
       </c>
       <c r="U158" s="3">
@@ -40882,7 +40990,7 @@
       <c r="V158" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W158" s="3" t="s">
+      <c r="W158" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X158" s="3">
@@ -40912,10 +41020,10 @@
       <c r="AF158" s="5">
         <v>45.37</v>
       </c>
-      <c r="AG158" s="5">
+      <c r="AG158" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH158" s="5">
+      <c r="AH158" s="61">
         <v>-0.5</v>
       </c>
       <c r="AI158" s="45">
@@ -41023,7 +41131,7 @@
         <v>-6</v>
       </c>
       <c r="H159" s="4">
-        <f t="shared" si="10"/>
+        <f>F159+G159/24</f>
         <v>44972.723611111112</v>
       </c>
       <c r="I159" s="3">
@@ -41033,7 +41141,7 @@
         <v>15000</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="11"/>
+        <f>I159*J159^2/2/4.184/10^12</f>
         <v>1.2180329827915868E-2</v>
       </c>
       <c r="L159" s="3">
@@ -41061,7 +41169,7 @@
         <v>5000</v>
       </c>
       <c r="T159" s="3">
-        <f t="shared" si="12"/>
+        <f>M159</f>
         <v>53.6</v>
       </c>
       <c r="U159" s="3">
@@ -41100,10 +41208,10 @@
       <c r="AF159" s="5">
         <v>3000</v>
       </c>
-      <c r="AG159" s="5">
+      <c r="AG159" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH159" s="5">
+      <c r="AH159" s="61">
         <v>1.5</v>
       </c>
       <c r="AI159" s="45">
@@ -41211,7 +41319,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="4">
-        <f t="shared" si="10"/>
+        <f>F160+G160/24</f>
         <v>44966.008333333331</v>
       </c>
       <c r="I160" s="3">
@@ -41221,7 +41329,7 @@
         <v>12500</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="11"/>
+        <f>I160*J160^2/2/4.184/10^12</f>
         <v>2.9875717017208408E-4</v>
       </c>
       <c r="L160" s="3">
@@ -41249,7 +41357,7 @@
         <v>5000</v>
       </c>
       <c r="T160" s="3">
-        <f t="shared" si="12"/>
+        <f>M160</f>
         <v>24.6</v>
       </c>
       <c r="U160" s="3">
@@ -41259,7 +41367,7 @@
       <c r="V160" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W160" s="3" t="s">
+      <c r="W160" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X160" s="3">
@@ -41400,7 +41508,7 @@
         <v>-5</v>
       </c>
       <c r="H161" s="4">
-        <f t="shared" si="10"/>
+        <f>F161+G161/24</f>
         <v>44976.868518518517</v>
       </c>
       <c r="I161" s="3">
@@ -41409,8 +41517,8 @@
       <c r="J161" s="3">
         <v>25000</v>
       </c>
-      <c r="K161" s="3">
-        <f t="shared" si="11"/>
+      <c r="K161" s="60">
+        <f>I161*J161^2/2/4.184/10^12</f>
         <v>1.8672323135755257E-3</v>
       </c>
       <c r="L161" s="3">
@@ -41440,7 +41548,7 @@
         <v>5000</v>
       </c>
       <c r="T161" s="3">
-        <f t="shared" si="12"/>
+        <f>M161</f>
         <v>63.701499999999996</v>
       </c>
       <c r="U161" s="3">
@@ -41479,10 +41587,10 @@
       <c r="AF161" s="5">
         <v>500</v>
       </c>
-      <c r="AG161" s="5">
+      <c r="AG161" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH161" s="5">
+      <c r="AH161" s="61">
         <v>1.5</v>
       </c>
       <c r="AI161" s="45">
@@ -41587,7 +41695,7 @@
         <v>10.5</v>
       </c>
       <c r="H162" s="4">
-        <f t="shared" si="10"/>
+        <f>F162+G162/24</f>
         <v>43618.310416666667</v>
       </c>
       <c r="O162" s="3">
@@ -41716,7 +41824,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="4">
-        <f t="shared" si="10"/>
+        <f>F163+G163/24</f>
         <v>43831.810347222221</v>
       </c>
       <c r="I163" s="3">
@@ -41845,7 +41953,7 @@
         <v>-7</v>
       </c>
       <c r="H164" s="4">
-        <f t="shared" si="10"/>
+        <f>F164+G164/24</f>
         <v>42300.94981481482</v>
       </c>
       <c r="I164" s="3">
@@ -41860,7 +41968,7 @@
       <c r="V164" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W164" s="3" t="s">
+      <c r="W164" s="60" t="s">
         <v>245</v>
       </c>
       <c r="AG164" s="5">
@@ -41974,7 +42082,7 @@
         <v>8</v>
       </c>
       <c r="H165" s="4">
-        <f t="shared" si="10"/>
+        <f>F165+G165/24</f>
         <v>42674.835960648154</v>
       </c>
       <c r="I165" s="3">
@@ -41989,7 +42097,7 @@
       <c r="V165" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W165" s="3" t="s">
+      <c r="W165" s="60" t="s">
         <v>1577</v>
       </c>
       <c r="AG165" s="5">
@@ -42103,7 +42211,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="4">
-        <f t="shared" si="10"/>
+        <f>F166+G166/24</f>
         <v>44154.199247685181</v>
       </c>
       <c r="O166" s="3">
@@ -42229,7 +42337,7 @@
         <v>8</v>
       </c>
       <c r="H167" s="4">
-        <f t="shared" si="10"/>
+        <f>F167+G167/24</f>
         <v>44002.170219907413</v>
       </c>
       <c r="I167" s="3">
@@ -42349,7 +42457,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="4">
-        <f t="shared" si="10"/>
+        <f>F168+G168/24</f>
         <v>39830.839583333334</v>
       </c>
       <c r="I168" s="3">
@@ -42364,7 +42472,7 @@
       <c r="V168" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W168" s="3" t="s">
+      <c r="W168" s="60" t="s">
         <v>216</v>
       </c>
       <c r="AG168" s="5">
@@ -42475,7 +42583,7 @@
         <v>2</v>
       </c>
       <c r="H169" s="4">
-        <f t="shared" si="10"/>
+        <f>F169+G169/24</f>
         <v>43253.78056712963</v>
       </c>
       <c r="I169" s="3">
@@ -42604,7 +42712,7 @@
         <v>9.5</v>
       </c>
       <c r="H170" s="4">
-        <f t="shared" si="10"/>
+        <f>F170+G170/24</f>
         <v>42335.842881944445</v>
       </c>
       <c r="O170" s="3">
@@ -42616,7 +42724,7 @@
       <c r="V170" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W170" s="3" t="s">
+      <c r="W170" s="60" t="s">
         <v>239</v>
       </c>
       <c r="AG170" s="5">
@@ -42730,7 +42838,7 @@
         <v>-5</v>
       </c>
       <c r="H171" s="4">
-        <f t="shared" si="10"/>
+        <f>F171+G171/24</f>
         <v>42393.435416666667</v>
       </c>
       <c r="I171" s="3">
@@ -42745,7 +42853,7 @@
       <c r="V171" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W171" s="3" t="s">
+      <c r="W171" s="60" t="s">
         <v>245</v>
       </c>
       <c r="AG171" s="5">
@@ -42859,7 +42967,7 @@
         <v>3</v>
       </c>
       <c r="H172" s="4">
-        <f t="shared" si="10"/>
+        <f>F172+G172/24</f>
         <v>43272.17800925926</v>
       </c>
       <c r="I172" s="3">
@@ -42985,7 +43093,7 @@
         <v>-2</v>
       </c>
       <c r="H173" s="4">
-        <f t="shared" si="10"/>
+        <f>F173+G173/24</f>
         <v>42013.649305555555</v>
       </c>
       <c r="I173" s="3">
@@ -43114,7 +43222,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="4">
-        <f t="shared" si="10"/>
+        <f>F174+G174/24</f>
         <v>42435.942256944443</v>
       </c>
       <c r="I174" s="3">
@@ -43129,7 +43237,7 @@
       <c r="V174" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W174" s="3" t="s">
+      <c r="W174" s="60" t="s">
         <v>1579</v>
       </c>
       <c r="AG174" s="5">
@@ -43243,7 +43351,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="4">
-        <f t="shared" si="10"/>
+        <f>F175+G175/24</f>
         <v>44214.054814814815</v>
       </c>
       <c r="I175" s="3">
@@ -43372,7 +43480,7 @@
         <v>-5</v>
       </c>
       <c r="H176" s="4">
-        <f t="shared" si="10"/>
+        <f>F176+G176/24</f>
         <v>43497.553587962961</v>
       </c>
       <c r="I176" s="3">
@@ -43390,10 +43498,16 @@
       <c r="W176" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AG176" s="5">
+      <c r="AA176" s="61"/>
+      <c r="AB176" s="61"/>
+      <c r="AC176" s="61"/>
+      <c r="AD176" s="61"/>
+      <c r="AE176" s="61"/>
+      <c r="AF176" s="61"/>
+      <c r="AG176" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH176" s="5">
+      <c r="AH176" s="61">
         <v>1.5</v>
       </c>
       <c r="AI176" s="45">
@@ -43501,7 +43615,7 @@
         <v>2</v>
       </c>
       <c r="H177" s="4">
-        <f t="shared" si="10"/>
+        <f>F177+G177/24</f>
         <v>45031.431956018518</v>
       </c>
       <c r="I177" s="3">
@@ -43510,8 +43624,8 @@
       <c r="J177" s="3">
         <v>17210</v>
       </c>
-      <c r="K177" s="3">
-        <f t="shared" ref="K177:K192" si="13">I177*J177^2/2/4.184/10^12</f>
+      <c r="K177" s="60">
+        <f>I177*J177^2/2/4.184/10^12</f>
         <v>6.3021945197657745</v>
       </c>
       <c r="L177" s="3">
@@ -43574,10 +43688,10 @@
       <c r="AF177" s="5">
         <v>500</v>
       </c>
-      <c r="AG177" s="5">
+      <c r="AG177" s="61">
         <v>-1.5</v>
       </c>
-      <c r="AH177" s="5">
+      <c r="AH177" s="61">
         <v>1.5</v>
       </c>
       <c r="AI177" s="45">
@@ -43685,7 +43799,7 @@
         <v>2</v>
       </c>
       <c r="H178" s="4">
-        <f t="shared" si="10"/>
+        <f>F178+G178/24</f>
         <v>45018.895000000004</v>
       </c>
       <c r="I178" s="3">
@@ -43694,8 +43808,8 @@
       <c r="J178" s="3">
         <v>13610</v>
       </c>
-      <c r="K178" s="3">
-        <f t="shared" si="13"/>
+      <c r="K178" s="60">
+        <f>I178*J178^2/2/4.184/10^12</f>
         <v>1.10678836042065E-3</v>
       </c>
       <c r="L178" s="3">
@@ -43873,7 +43987,7 @@
         <v>-4</v>
       </c>
       <c r="H179" s="4">
-        <f t="shared" si="10"/>
+        <f>F179+G179/24</f>
         <v>45024.494791666672</v>
       </c>
       <c r="I179" s="3">
@@ -43882,8 +43996,8 @@
       <c r="J179" s="3">
         <v>17000</v>
       </c>
-      <c r="K179" s="3">
-        <f t="shared" si="13"/>
+      <c r="K179" s="60">
+        <f>I179*J179^2/2/4.184/10^12</f>
         <v>1.381453154875717E-2</v>
       </c>
       <c r="L179" s="3">
@@ -44039,7 +44153,7 @@
       </c>
     </row>
     <row r="180" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A180" s="6">
+      <c r="A180" s="57">
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -44061,7 +44175,7 @@
         <v>2</v>
       </c>
       <c r="H180" s="4">
-        <f t="shared" si="10"/>
+        <f>F180+G180/24</f>
         <v>45041.59375</v>
       </c>
       <c r="I180" s="3">
@@ -44070,8 +44184,8 @@
       <c r="J180" s="3">
         <v>20500</v>
       </c>
-      <c r="K180" s="3">
-        <f t="shared" si="13"/>
+      <c r="K180" s="60">
+        <f>I180*J180^2/2/4.184/10^12</f>
         <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
@@ -44107,7 +44221,7 @@
       <c r="V180" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W180" s="3" t="s">
+      <c r="W180" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X180" s="3">
@@ -44137,10 +44251,10 @@
       <c r="AF180" s="5">
         <v>0</v>
       </c>
-      <c r="AG180" s="5">
+      <c r="AG180" s="61">
         <v>-1</v>
       </c>
-      <c r="AH180" s="5">
+      <c r="AH180" s="61">
         <v>1</v>
       </c>
       <c r="AI180" s="45">
@@ -44244,11 +44358,11 @@
       <c r="F181" s="17">
         <v>45043.070017939812</v>
       </c>
-      <c r="G181" s="21">
+      <c r="G181" s="58">
         <v>2</v>
       </c>
-      <c r="H181" s="4">
-        <f t="shared" si="10"/>
+      <c r="H181" s="59">
+        <f>F181+G181/24</f>
         <v>45043.153351273148</v>
       </c>
       <c r="I181" s="3">
@@ -44257,8 +44371,8 @@
       <c r="J181" s="3">
         <v>14321</v>
       </c>
-      <c r="K181" s="3">
-        <f t="shared" si="13"/>
+      <c r="K181" s="60">
+        <f>I181*J181^2/2/4.184/10^12</f>
         <v>1.2254483807361376E-3</v>
       </c>
       <c r="L181" s="3">
@@ -44297,7 +44411,7 @@
       <c r="V181" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W181" s="3" t="s">
+      <c r="W181" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X181" s="3">
@@ -44327,10 +44441,10 @@
       <c r="AF181" s="5">
         <v>919</v>
       </c>
-      <c r="AG181" s="5">
+      <c r="AG181" s="61">
         <v>-1</v>
       </c>
-      <c r="AH181" s="5">
+      <c r="AH181" s="61">
         <v>1</v>
       </c>
       <c r="AI181" s="45">
@@ -44416,7 +44530,7 @@
       </c>
     </row>
     <row r="182" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A182" s="6">
+      <c r="A182" s="57">
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -44434,11 +44548,11 @@
       <c r="F182" s="17">
         <v>45054.682638888888</v>
       </c>
-      <c r="G182" s="21">
+      <c r="G182" s="58">
         <v>-4</v>
       </c>
-      <c r="H182" s="4">
-        <f t="shared" si="10"/>
+      <c r="H182" s="59">
+        <f>F182+G182/24</f>
         <v>45054.515972222223</v>
       </c>
       <c r="I182" s="3">
@@ -44447,8 +44561,8 @@
       <c r="J182" s="3">
         <v>17000</v>
       </c>
-      <c r="K182" s="3">
-        <f t="shared" si="13"/>
+      <c r="K182" s="60">
+        <f>I182*J182^2/2/4.184/10^12</f>
         <v>8.634082217973231E-4</v>
       </c>
       <c r="L182" s="3">
@@ -44514,10 +44628,10 @@
       <c r="AF182" s="5">
         <v>0</v>
       </c>
-      <c r="AG182" s="5">
+      <c r="AG182" s="61">
         <v>-1</v>
       </c>
-      <c r="AH182" s="5">
+      <c r="AH182" s="61">
         <v>1</v>
       </c>
       <c r="AI182" s="45">
@@ -44603,7 +44717,7 @@
       </c>
     </row>
     <row r="183" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
+      <c r="A183" s="57">
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -44621,11 +44735,11 @@
       <c r="F183" s="17">
         <v>45066.895293414353</v>
       </c>
-      <c r="G183" s="21">
+      <c r="G183" s="58">
         <v>2</v>
       </c>
-      <c r="H183" s="4">
-        <f t="shared" si="10"/>
+      <c r="H183" s="59">
+        <f>F183+G183/24</f>
         <v>45066.978626747688</v>
       </c>
       <c r="I183" s="3">
@@ -44634,8 +44748,8 @@
       <c r="J183" s="3">
         <v>15985.39</v>
       </c>
-      <c r="K183" s="3">
-        <f t="shared" si="13"/>
+      <c r="K183" s="60">
+        <f>I183*J183^2/2/4.184/10^12</f>
         <v>7.6342224382200039E-4</v>
       </c>
       <c r="L183" s="3">
@@ -44674,7 +44788,7 @@
       <c r="V183" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W183" s="3" t="s">
+      <c r="W183" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X183" s="3">
@@ -44704,10 +44818,10 @@
       <c r="AF183" s="5">
         <v>500</v>
       </c>
-      <c r="AG183" s="5">
+      <c r="AG183" s="61">
         <v>-1</v>
       </c>
-      <c r="AH183" s="5">
+      <c r="AH183" s="61">
         <v>1</v>
       </c>
       <c r="AI183" s="45">
@@ -44811,11 +44925,11 @@
       <c r="F184" s="17">
         <v>45066.473877314813</v>
       </c>
-      <c r="G184" s="21">
+      <c r="G184" s="58">
         <v>10</v>
       </c>
-      <c r="H184" s="4">
-        <f t="shared" si="10"/>
+      <c r="H184" s="59">
+        <f>F184+G184/24</f>
         <v>45066.890543981477</v>
       </c>
       <c r="I184" s="3">
@@ -44824,8 +44938,8 @@
       <c r="J184" s="3">
         <v>27920</v>
       </c>
-      <c r="K184" s="3">
-        <f t="shared" si="13"/>
+      <c r="K184" s="60">
+        <f>I184*J184^2/2/4.184/10^12</f>
         <v>7.2026078149139581</v>
       </c>
       <c r="L184" s="3">
@@ -44862,7 +44976,7 @@
       <c r="V184" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W184" s="3" t="s">
+      <c r="W184" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X184" s="3">
@@ -44892,10 +45006,10 @@
       <c r="AF184" s="5">
         <v>500</v>
       </c>
-      <c r="AG184" s="5">
+      <c r="AG184" s="61">
         <v>-1</v>
       </c>
-      <c r="AH184" s="5">
+      <c r="AH184" s="61">
         <v>1</v>
       </c>
       <c r="AI184" s="45">
@@ -44999,11 +45113,11 @@
       <c r="F185" s="17">
         <v>45103.864710648151</v>
       </c>
-      <c r="G185" s="21">
+      <c r="G185" s="58">
         <v>2</v>
       </c>
-      <c r="H185" s="4">
-        <f t="shared" si="10"/>
+      <c r="H185" s="59">
+        <f>F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -45012,8 +45126,8 @@
       <c r="J185" s="3">
         <v>20920</v>
       </c>
-      <c r="K185" s="3">
-        <f t="shared" si="13"/>
+      <c r="K185" s="60">
+        <f>I185*J185^2/2/4.184/10^12</f>
         <v>1.0460000000000001E-2</v>
       </c>
       <c r="L185" s="3">
@@ -45051,7 +45165,7 @@
       <c r="V185" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W185" s="3" t="s">
+      <c r="W185" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X185" s="3">
@@ -45081,10 +45195,10 @@
       <c r="AF185" s="5">
         <v>500</v>
       </c>
-      <c r="AG185" s="5">
+      <c r="AG185" s="61">
         <v>-1</v>
       </c>
-      <c r="AH185" s="5">
+      <c r="AH185" s="61">
         <v>1</v>
       </c>
       <c r="AI185" s="45">
@@ -45170,7 +45284,7 @@
       </c>
     </row>
     <row r="186" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A186" s="6">
+      <c r="A186" s="57">
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -45188,11 +45302,11 @@
       <c r="F186" s="17">
         <v>45118.784571759257</v>
       </c>
-      <c r="G186" s="21">
+      <c r="G186" s="58">
         <v>2</v>
       </c>
-      <c r="H186" s="4">
-        <f t="shared" si="10"/>
+      <c r="H186" s="59">
+        <f>F186+G186/24</f>
         <v>45118.867905092593</v>
       </c>
       <c r="I186" s="3">
@@ -45201,8 +45315,8 @@
       <c r="J186" s="3">
         <v>19000</v>
       </c>
-      <c r="K186" s="3">
-        <f t="shared" si="13"/>
+      <c r="K186" s="60">
+        <f>I186*J186^2/2/4.184/10^12</f>
         <v>8.628107074569789E-3</v>
       </c>
       <c r="L186" s="3">
@@ -45270,10 +45384,10 @@
       <c r="AF186" s="5">
         <v>100</v>
       </c>
-      <c r="AG186" s="5">
+      <c r="AG186" s="61">
         <v>-1</v>
       </c>
-      <c r="AH186" s="5">
+      <c r="AH186" s="61">
         <v>1</v>
       </c>
       <c r="AI186" s="45">
@@ -45377,11 +45491,11 @@
       <c r="F187" s="17">
         <v>45133.154097222221</v>
       </c>
-      <c r="G187" s="21">
+      <c r="G187" s="58">
         <v>-7</v>
       </c>
-      <c r="H187" s="4">
-        <f t="shared" si="10"/>
+      <c r="H187" s="59">
+        <f>F187+G187/24</f>
         <v>45132.862430555557</v>
       </c>
       <c r="I187" s="3">
@@ -45390,8 +45504,8 @@
       <c r="J187" s="3">
         <v>15580</v>
       </c>
-      <c r="K187" s="3">
-        <f t="shared" si="13"/>
+      <c r="K187" s="60">
+        <f>I187*J187^2/2/4.184/10^12</f>
         <v>0.44004674808795408</v>
       </c>
       <c r="L187" s="3">
@@ -45428,7 +45542,7 @@
       <c r="V187" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W187" s="3" t="s">
+      <c r="W187" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X187" s="3">
@@ -45458,10 +45572,10 @@
       <c r="AF187" s="5">
         <v>500</v>
       </c>
-      <c r="AG187" s="5">
+      <c r="AG187" s="61">
         <v>-1</v>
       </c>
-      <c r="AH187" s="5">
+      <c r="AH187" s="61">
         <v>1</v>
       </c>
       <c r="AI187" s="45">
@@ -45547,7 +45661,7 @@
       </c>
     </row>
     <row r="188" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A188" s="6">
+      <c r="A188" s="57">
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -45565,11 +45679,11 @@
       <c r="F188" s="17">
         <v>45140.259212962963</v>
       </c>
-      <c r="G188" s="21">
+      <c r="G188" s="58">
         <v>-4</v>
       </c>
-      <c r="H188" s="4">
-        <f t="shared" si="10"/>
+      <c r="H188" s="59">
+        <f>F188+G188/24</f>
         <v>45140.092546296299</v>
       </c>
       <c r="I188" s="3">
@@ -45578,8 +45692,8 @@
       <c r="J188" s="3">
         <v>22770</v>
       </c>
-      <c r="K188" s="3">
-        <f t="shared" si="13"/>
+      <c r="K188" s="60">
+        <f>I188*J188^2/2/4.184/10^12</f>
         <v>2.1685649498087954E-3</v>
       </c>
       <c r="L188" s="3">
@@ -45617,7 +45731,7 @@
       <c r="V188" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W188" s="3" t="s">
+      <c r="W188" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X188" s="3">
@@ -45647,10 +45761,10 @@
       <c r="AF188" s="5">
         <v>2675</v>
       </c>
-      <c r="AG188" s="5">
+      <c r="AG188" s="61">
         <v>-1</v>
       </c>
-      <c r="AH188" s="5">
+      <c r="AH188" s="61">
         <v>1</v>
       </c>
       <c r="AI188" s="45">
@@ -45754,11 +45868,11 @@
       <c r="F189" s="17">
         <v>45178.926215277781</v>
       </c>
-      <c r="G189" s="21">
+      <c r="G189" s="58">
         <v>2</v>
       </c>
-      <c r="H189" s="4">
-        <f t="shared" si="10"/>
+      <c r="H189" s="59">
+        <f>F189+G189/24</f>
         <v>45179.009548611117</v>
       </c>
       <c r="I189" s="3">
@@ -45767,8 +45881,8 @@
       <c r="J189" s="3">
         <v>17000</v>
       </c>
-      <c r="K189" s="3">
-        <f t="shared" si="13"/>
+      <c r="K189" s="60">
+        <f>I189*J189^2/2/4.184/10^12</f>
         <v>3.4536328871892925E-4</v>
       </c>
       <c r="L189" s="3">
@@ -45790,14 +45904,14 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R197" si="14">Q189</f>
+        <f>Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
         <v>3500</v>
       </c>
       <c r="T189" s="3">
-        <f t="shared" ref="T189:T197" si="15">M189</f>
+        <f>M189</f>
         <v>53.131300000000003</v>
       </c>
       <c r="U189" s="3">
@@ -45837,10 +45951,10 @@
       <c r="AF189" s="5">
         <v>34.36</v>
       </c>
-      <c r="AG189" s="5">
+      <c r="AG189" s="61">
         <v>-1</v>
       </c>
-      <c r="AH189" s="5">
+      <c r="AH189" s="61">
         <v>1</v>
       </c>
       <c r="AI189" s="45">
@@ -45926,7 +46040,7 @@
       </c>
     </row>
     <row r="190" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A190" s="6">
+      <c r="A190" s="57">
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -45944,11 +46058,11 @@
       <c r="F190" s="17">
         <v>45196.097491412038</v>
       </c>
-      <c r="G190" s="21">
+      <c r="G190" s="58">
         <v>2</v>
       </c>
-      <c r="H190" s="4">
-        <f t="shared" si="10"/>
+      <c r="H190" s="59">
+        <f>F190+G190/24</f>
         <v>45196.180824745374</v>
       </c>
       <c r="I190" s="3">
@@ -45957,8 +46071,8 @@
       <c r="J190" s="3">
         <v>16956</v>
       </c>
-      <c r="K190" s="3">
-        <f t="shared" si="13"/>
+      <c r="K190" s="60">
+        <f>I190*J190^2/2/4.184/10^12</f>
         <v>3.4357783938814533E-4</v>
       </c>
       <c r="L190" s="3">
@@ -45980,14 +46094,14 @@
         <v>28118.03</v>
       </c>
       <c r="R190" s="3">
-        <f t="shared" si="14"/>
+        <f>Q190</f>
         <v>28118.03</v>
       </c>
       <c r="S190" s="3">
         <v>2500</v>
       </c>
       <c r="T190" s="3">
-        <f t="shared" si="15"/>
+        <f>M190</f>
         <v>36.557000000000002</v>
       </c>
       <c r="U190" s="3">
@@ -46027,10 +46141,10 @@
       <c r="AF190" s="5">
         <v>10</v>
       </c>
-      <c r="AG190" s="5">
+      <c r="AG190" s="61">
         <v>-1</v>
       </c>
-      <c r="AH190" s="5">
+      <c r="AH190" s="61">
         <v>1</v>
       </c>
       <c r="AI190" s="45">
@@ -46138,7 +46252,7 @@
         <v>2</v>
       </c>
       <c r="H191" s="4">
-        <f t="shared" si="10"/>
+        <f>F191+G191/24</f>
         <v>45010.012233796297</v>
       </c>
       <c r="I191" s="3">
@@ -46147,8 +46261,8 @@
       <c r="J191" s="3">
         <v>13800</v>
       </c>
-      <c r="K191" s="3">
-        <f t="shared" si="13"/>
+      <c r="K191" s="60">
+        <f>I191*J191^2/2/4.184/10^12</f>
         <v>1.137906309751434E-4</v>
       </c>
       <c r="L191" s="3">
@@ -46170,14 +46284,14 @@
         <v>27500</v>
       </c>
       <c r="R191" s="3">
-        <f t="shared" si="14"/>
+        <f>Q191</f>
         <v>27500</v>
       </c>
       <c r="S191" s="3">
         <v>4100</v>
       </c>
       <c r="T191" s="3">
-        <f t="shared" si="15"/>
+        <f>M191</f>
         <v>64.163600000000002</v>
       </c>
       <c r="U191" s="3">
@@ -46306,7 +46420,7 @@
       </c>
     </row>
     <row r="192" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A192" s="6">
+      <c r="A192" s="57">
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -46324,11 +46438,11 @@
       <c r="F192" s="17">
         <v>45206.158368055556</v>
       </c>
-      <c r="G192" s="21">
+      <c r="G192" s="58">
         <v>-6</v>
       </c>
-      <c r="H192" s="4">
-        <f t="shared" si="10"/>
+      <c r="H192" s="59">
+        <f>F192+G192/24</f>
         <v>45205.908368055556</v>
       </c>
       <c r="I192" s="3">
@@ -46337,8 +46451,8 @@
       <c r="J192" s="3">
         <v>12530</v>
       </c>
-      <c r="K192" s="3">
-        <f t="shared" si="13"/>
+      <c r="K192" s="60">
+        <f>I192*J192^2/2/4.184/10^12</f>
         <v>9.381028919694072E-4</v>
       </c>
       <c r="L192" s="3">
@@ -46360,26 +46474,26 @@
         <v>30000</v>
       </c>
       <c r="R192" s="3">
-        <f t="shared" si="14"/>
+        <f>Q192</f>
         <v>30000</v>
       </c>
       <c r="S192" s="3">
         <v>4000</v>
       </c>
       <c r="T192" s="3">
-        <f t="shared" si="15"/>
+        <f>M192</f>
         <v>74.14</v>
       </c>
       <c r="U192" s="3">
         <v>28000</v>
       </c>
-      <c r="V192" s="3" t="s">
+      <c r="V192" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="W192" s="3" t="s">
+      <c r="W192" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X192" s="3">
+      <c r="X192" s="60">
         <v>0</v>
       </c>
       <c r="Y192" s="3">
@@ -46406,10 +46520,10 @@
       <c r="AF192" s="5">
         <v>0</v>
       </c>
-      <c r="AG192" s="5">
+      <c r="AG192" s="61">
         <v>-1</v>
       </c>
-      <c r="AH192" s="5">
+      <c r="AH192" s="61">
         <v>1</v>
       </c>
       <c r="AI192" s="45">
@@ -46495,7 +46609,7 @@
       </c>
     </row>
     <row r="193" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A193" s="6">
+      <c r="A193" s="57">
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -46513,11 +46627,11 @@
       <c r="F193" s="17">
         <v>45206.158368055556</v>
       </c>
-      <c r="G193" s="21">
+      <c r="G193" s="58">
         <v>-6</v>
       </c>
-      <c r="H193" s="4">
-        <f t="shared" si="10"/>
+      <c r="H193" s="59">
+        <f>F193+G193/24</f>
         <v>45205.908368055556</v>
       </c>
       <c r="I193" s="3">
@@ -46526,7 +46640,7 @@
       <c r="J193" s="3">
         <v>11910</v>
       </c>
-      <c r="K193" s="3">
+      <c r="K193" s="60">
         <v>8.5612392447418739E-4</v>
       </c>
       <c r="L193" s="3">
@@ -46548,14 +46662,14 @@
         <v>40000</v>
       </c>
       <c r="R193" s="3">
-        <f t="shared" si="14"/>
+        <f>Q193</f>
         <v>40000</v>
       </c>
       <c r="S193" s="3">
         <v>4000</v>
       </c>
       <c r="T193" s="3">
-        <f t="shared" si="15"/>
+        <f>M193</f>
         <v>76.349999999999994</v>
       </c>
       <c r="U193" s="3">
@@ -46564,7 +46678,7 @@
       <c r="V193" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W193" s="3" t="s">
+      <c r="W193" s="60" t="s">
         <v>382</v>
       </c>
       <c r="X193" s="3">
@@ -46594,10 +46708,10 @@
       <c r="AF193" s="5">
         <v>0</v>
       </c>
-      <c r="AG193" s="5">
+      <c r="AG193" s="61">
         <v>-1</v>
       </c>
-      <c r="AH193" s="5">
+      <c r="AH193" s="61">
         <v>1</v>
       </c>
       <c r="AI193" s="45">
@@ -46701,11 +46815,11 @@
       <c r="F194" s="17">
         <v>45206.158368055556</v>
       </c>
-      <c r="G194" s="21">
+      <c r="G194" s="58">
         <v>-6</v>
       </c>
-      <c r="H194" s="4">
-        <f t="shared" si="10"/>
+      <c r="H194" s="59">
+        <f>F194+G194/24</f>
         <v>45205.908368055556</v>
       </c>
       <c r="I194" s="3">
@@ -46714,7 +46828,7 @@
       <c r="J194" s="3">
         <v>11380</v>
       </c>
-      <c r="K194" s="3">
+      <c r="K194" s="60">
         <v>8.5612392447418739E-4</v>
       </c>
       <c r="L194" s="3">
@@ -46736,14 +46850,14 @@
         <v>50000</v>
       </c>
       <c r="R194" s="3">
-        <f t="shared" si="14"/>
+        <f>Q194</f>
         <v>50000</v>
       </c>
       <c r="S194" s="3">
         <v>4000</v>
       </c>
       <c r="T194" s="3">
-        <f t="shared" si="15"/>
+        <f>M194</f>
         <v>78.78</v>
       </c>
       <c r="U194" s="3">
@@ -46782,10 +46896,10 @@
       <c r="AF194" s="5">
         <v>0</v>
       </c>
-      <c r="AG194" s="5">
+      <c r="AG194" s="61">
         <v>-1</v>
       </c>
-      <c r="AH194" s="5">
+      <c r="AH194" s="61">
         <v>1</v>
       </c>
       <c r="AI194" s="45">
@@ -46871,80 +46985,80 @@
       </c>
     </row>
     <row r="195" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A195" s="6">
+      <c r="A195" s="57">
         <v>194</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="57" t="s">
         <v>2218</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="57" t="s">
         <v>2218</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D195" s="57" t="s">
         <v>2219</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="57" t="s">
         <v>1439</v>
       </c>
       <c r="F195" s="17">
         <v>45290.088495370372</v>
       </c>
-      <c r="G195" s="21">
-        <v>0</v>
-      </c>
-      <c r="H195" s="4">
-        <f t="shared" si="10"/>
+      <c r="G195" s="58">
+        <v>0</v>
+      </c>
+      <c r="H195" s="59">
+        <f>F195+G195/24</f>
         <v>45290.088495370372</v>
       </c>
-      <c r="I195" s="3">
+      <c r="I195" s="60">
         <v>2</v>
       </c>
-      <c r="J195" s="3">
+      <c r="J195" s="60">
         <v>71000</v>
       </c>
-      <c r="K195" s="3">
+      <c r="K195" s="60">
         <f>I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
-      <c r="L195" s="3">
+      <c r="L195" s="60">
         <v>301.22000000000003</v>
       </c>
-      <c r="M195" s="3">
+      <c r="M195" s="60">
         <v>60.255000000000003</v>
       </c>
-      <c r="N195" s="3" t="s">
+      <c r="N195" s="60" t="s">
         <v>1334</v>
       </c>
-      <c r="O195" s="3">
+      <c r="O195" s="60">
         <v>50.243816000000002</v>
       </c>
-      <c r="P195" s="3">
+      <c r="P195" s="60">
         <v>-3.3686129999999999</v>
       </c>
-      <c r="Q195" s="3">
+      <c r="Q195" s="60">
         <v>70000</v>
       </c>
-      <c r="R195" s="3">
-        <f t="shared" si="14"/>
+      <c r="R195" s="60">
+        <f>Q195</f>
         <v>70000</v>
       </c>
-      <c r="S195" s="3">
+      <c r="S195" s="60">
         <v>20000</v>
       </c>
-      <c r="T195" s="3">
-        <f t="shared" si="15"/>
+      <c r="T195" s="60">
+        <f>M195</f>
         <v>60.255000000000003</v>
       </c>
-      <c r="U195" s="3">
+      <c r="U195" s="60">
         <v>70000</v>
       </c>
-      <c r="V195" s="3" t="s">
+      <c r="V195" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="W195" s="3" t="s">
+      <c r="W195" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X195" s="3">
+      <c r="X195" s="60">
         <v>0</v>
       </c>
       <c r="Y195" s="3">
@@ -46953,28 +47067,28 @@
       <c r="Z195" s="3">
         <v>108000</v>
       </c>
-      <c r="AA195" s="5">
+      <c r="AA195" s="61">
         <v>2000</v>
       </c>
-      <c r="AB195" s="5">
+      <c r="AB195" s="61">
         <v>0.25</v>
       </c>
-      <c r="AC195" s="5">
+      <c r="AC195" s="61">
         <v>1</v>
       </c>
-      <c r="AD195" s="5">
+      <c r="AD195" s="61">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AE195" s="5">
+      <c r="AE195" s="61">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AF195" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG195" s="5">
+      <c r="AF195" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG195" s="61">
         <v>-1</v>
       </c>
-      <c r="AH195" s="5">
+      <c r="AH195" s="61">
         <v>1</v>
       </c>
       <c r="AI195" s="45">
@@ -47078,11 +47192,11 @@
       <c r="F196" s="17">
         <v>45289.111493055556</v>
       </c>
-      <c r="G196" s="21">
+      <c r="G196" s="58">
         <v>-7</v>
       </c>
-      <c r="H196" s="4">
-        <f t="shared" si="10"/>
+      <c r="H196" s="59">
+        <f>F196+G196/24</f>
         <v>45288.819826388892</v>
       </c>
       <c r="I196" s="3">
@@ -47091,7 +47205,7 @@
       <c r="J196" s="3">
         <v>13530</v>
       </c>
-      <c r="K196" s="3">
+      <c r="K196" s="60">
         <f>I196*J196^2/2/4.184/10^12</f>
         <v>2.1876302581261948E-3</v>
       </c>
@@ -47114,27 +47228,27 @@
         <v>26206</v>
       </c>
       <c r="R196" s="3">
-        <f t="shared" si="14"/>
+        <f>Q196</f>
         <v>26206</v>
       </c>
       <c r="S196" s="3">
         <v>4000</v>
       </c>
       <c r="T196" s="3">
-        <f t="shared" si="15"/>
+        <f>M196</f>
         <v>36.810099999999998</v>
       </c>
       <c r="U196" s="3">
         <f>Q196</f>
         <v>26206</v>
       </c>
-      <c r="V196" s="3" t="s">
+      <c r="V196" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="W196" s="3" t="s">
+      <c r="W196" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="X196" s="3">
+      <c r="X196" s="60">
         <v>0</v>
       </c>
       <c r="Y196" s="3">
@@ -47161,10 +47275,10 @@
       <c r="AF196" s="5">
         <v>1000</v>
       </c>
-      <c r="AG196" s="5">
+      <c r="AG196" s="61">
         <v>-1</v>
       </c>
-      <c r="AH196" s="5">
+      <c r="AH196" s="61">
         <v>1</v>
       </c>
       <c r="AI196" s="45">
@@ -47250,80 +47364,80 @@
       </c>
     </row>
     <row r="197" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A197" s="6">
+      <c r="A197" s="57">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="57" t="s">
         <v>2223</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="57" t="s">
         <v>2224</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="57" t="s">
         <v>4</v>
       </c>
       <c r="F197" s="17">
         <v>45312.02270833333</v>
       </c>
-      <c r="G197" s="21">
+      <c r="G197" s="58">
         <v>1</v>
       </c>
-      <c r="H197" s="4">
-        <f t="shared" si="10"/>
+      <c r="H197" s="59">
+        <f>F197+G197/24</f>
         <v>45312.064374999994</v>
       </c>
-      <c r="I197" s="3">
+      <c r="I197" s="60">
         <v>1727</v>
       </c>
-      <c r="J197" s="3">
+      <c r="J197" s="60">
         <v>15221</v>
       </c>
-      <c r="K197" s="3">
+      <c r="K197" s="60">
         <f>I197*J197^2/2/4.184/10^12</f>
         <v>4.7814215870817398E-2</v>
       </c>
-      <c r="L197" s="3">
+      <c r="L197" s="60">
         <v>74.063199999999995</v>
       </c>
-      <c r="M197" s="3">
+      <c r="M197" s="60">
         <v>14.5168</v>
       </c>
-      <c r="N197" s="3" t="s">
+      <c r="N197" s="60" t="s">
         <v>1334</v>
       </c>
-      <c r="O197" s="3">
+      <c r="O197" s="60">
         <v>52.633274290000003</v>
       </c>
-      <c r="P197" s="3">
+      <c r="P197" s="60">
         <v>12.638593859964788</v>
       </c>
-      <c r="Q197" s="3">
+      <c r="Q197" s="60">
         <v>22000</v>
       </c>
-      <c r="R197" s="3">
-        <f t="shared" si="14"/>
+      <c r="R197" s="60">
+        <f>Q197</f>
         <v>22000</v>
       </c>
-      <c r="S197" s="3">
+      <c r="S197" s="60">
         <v>5000</v>
       </c>
-      <c r="T197" s="3">
-        <f t="shared" si="15"/>
+      <c r="T197" s="60">
+        <f>M197</f>
         <v>14.5168</v>
       </c>
-      <c r="U197" s="3">
+      <c r="U197" s="60">
         <v>22000</v>
       </c>
-      <c r="V197" s="3" t="s">
+      <c r="V197" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="W197" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="X197" s="3">
+      <c r="W197" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="X197" s="60">
         <v>0</v>
       </c>
       <c r="Y197" s="3">
@@ -47332,51 +47446,51 @@
       <c r="Z197" s="3">
         <v>60000</v>
       </c>
-      <c r="AA197" s="5">
+      <c r="AA197" s="61">
         <v>24</v>
       </c>
-      <c r="AB197" s="5">
+      <c r="AB197" s="61">
         <f>AC197*4.91</f>
         <v>0.49100000000000005</v>
       </c>
-      <c r="AC197" s="5">
+      <c r="AC197" s="61">
         <v>0.1</v>
       </c>
-      <c r="AD197" s="5">
+      <c r="AD197" s="61">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AE197" s="5">
+      <c r="AE197" s="61">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="AF197" s="5">
+      <c r="AF197" s="61">
         <v>20</v>
       </c>
-      <c r="AG197" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AH197" s="5">
+      <c r="AG197" s="61">
+        <v>-0.6</v>
+      </c>
+      <c r="AH197" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="AI197" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ197" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK197" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL197" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM197" s="23">
         <v>1</v>
       </c>
-      <c r="AI197" s="45">
-        <v>0</v>
-      </c>
-      <c r="AJ197" s="45">
-        <v>0</v>
-      </c>
-      <c r="AK197" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL197" s="23">
-        <v>0</v>
-      </c>
-      <c r="AM197" s="23">
-        <v>0</v>
-      </c>
       <c r="AN197" s="23">
-        <v>0</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="AO197" s="23">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AP197" s="23">
         <v>0</v>
@@ -47441,7 +47555,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:BI189" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:BI196">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:BI197">
       <sortCondition ref="A5:A189"/>
     </sortState>
   </autoFilter>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93382390-C5D1-4C18-BA18-6317616A5E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5D8C8-2212-440A-B8B4-F552C83E0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="9630" yWindow="1620" windowWidth="18795" windowHeight="10155" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$198</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Database!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">EventID!$A$5:$BJ$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sources!$A$1:$C$1</definedName>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5388" uniqueCount="2226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5396" uniqueCount="2227">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6903,6 +6903,9 @@
   </si>
   <si>
     <t>Rob Matson</t>
+  </si>
+  <si>
+    <t>Dunn</t>
   </si>
 </sst>
 </file>
@@ -7197,7 +7200,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7345,21 +7348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15877,13 +15865,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI197"/>
+  <dimension ref="A1:BI198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="V176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AG196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH197" sqref="AH197"/>
+      <selection pane="bottomRight" activeCell="AL198" sqref="AL198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16819,7 +16807,7 @@
         <v>-5</v>
       </c>
       <c r="H6" s="8">
-        <f>F6+G6/24</f>
+        <f t="shared" ref="H6:H19" si="0">F6+G6/24</f>
         <v>43116.83924768518</v>
       </c>
       <c r="I6" s="9">
@@ -16829,7 +16817,7 @@
         <v>15830</v>
       </c>
       <c r="K6" s="26">
-        <f>I6*J6^2/2/4.184/10^12</f>
+        <f t="shared" ref="K6:K31" si="1">I6*J6^2/2/4.184/10^12</f>
         <v>3.4737467017208409E-3</v>
       </c>
       <c r="L6" s="9">
@@ -16909,7 +16897,7 @@
       </c>
       <c r="AK6" s="44"/>
       <c r="AL6" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM6" s="22">
         <v>26</v>
@@ -16926,8 +16914,9 @@
       <c r="AQ6" s="23">
         <v>0</v>
       </c>
-      <c r="AR6" s="23">
-        <v>0</v>
+      <c r="AR6" s="25">
+        <f>AM6/AL6</f>
+        <v>1.3</v>
       </c>
       <c r="AS6" s="54">
         <v>0</v>
@@ -16974,7 +16963,7 @@
         <v>-4</v>
       </c>
       <c r="H7" s="8">
-        <f>F7+G7/24</f>
+        <f t="shared" si="0"/>
         <v>43596.029861111114</v>
       </c>
       <c r="I7" s="9">
@@ -16984,7 +16973,7 @@
         <v>21500</v>
       </c>
       <c r="K7" s="26">
-        <f>I7*J7^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>1.1048040152963671E-3</v>
       </c>
       <c r="L7" s="9">
@@ -17129,7 +17118,7 @@
         <v>-6</v>
       </c>
       <c r="H8" s="8">
-        <f>F8+G8/24</f>
+        <f t="shared" si="0"/>
         <v>37706.993361111112</v>
       </c>
       <c r="I8" s="3">
@@ -17139,7 +17128,7 @@
         <v>19500</v>
       </c>
       <c r="K8" s="26">
-        <f>I8*J8^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.41001383245697892</v>
       </c>
       <c r="L8" s="3">
@@ -17317,7 +17306,7 @@
         <v>-4</v>
       </c>
       <c r="H9" s="8">
-        <f>F9+G9/24</f>
+        <f t="shared" si="0"/>
         <v>40763.056944444448</v>
       </c>
       <c r="I9" s="3">
@@ -17327,7 +17316,7 @@
         <v>25000</v>
       </c>
       <c r="K9" s="26">
-        <f>I9*J9^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>3.7344646271510515E-4</v>
       </c>
       <c r="L9" s="3">
@@ -17472,7 +17461,7 @@
         <v>-4</v>
       </c>
       <c r="H10" s="8">
-        <f>F10+G10/24</f>
+        <f t="shared" si="0"/>
         <v>43605.94063657408</v>
       </c>
       <c r="I10" s="3">
@@ -17482,7 +17471,7 @@
         <v>13600</v>
       </c>
       <c r="K10" s="26">
-        <f>I10*J10^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.210325047801147E-4</v>
       </c>
       <c r="L10" s="3">
@@ -17627,7 +17616,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="8">
-        <f>F11+G11/24</f>
+        <f t="shared" si="0"/>
         <v>41648.128865740735</v>
       </c>
       <c r="I11" s="3">
@@ -17637,7 +17626,7 @@
         <v>44832</v>
       </c>
       <c r="K11" s="26">
-        <f>I11*J11^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.11000692717399617</v>
       </c>
       <c r="L11" s="3">
@@ -17674,7 +17663,7 @@
       <c r="V11" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="W11" s="60" t="s">
+      <c r="W11" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X11" s="3">
@@ -17783,7 +17772,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <f>F12+G12/24</f>
+        <f t="shared" si="0"/>
         <v>42189.402905092596</v>
       </c>
       <c r="I12" s="3">
@@ -17793,7 +17782,7 @@
         <v>49000</v>
       </c>
       <c r="K12" s="26">
-        <f>I12*J12^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.17990284416826005</v>
       </c>
       <c r="L12" s="3">
@@ -17829,7 +17818,7 @@
       <c r="V12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W12" s="60" t="s">
+      <c r="W12" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X12" s="3">
@@ -17940,7 +17929,7 @@
         <v>-7</v>
       </c>
       <c r="H13" s="8">
-        <f>F13+G13/24</f>
+        <f t="shared" si="0"/>
         <v>39630.444664351853</v>
       </c>
       <c r="I13" s="3">
@@ -17950,7 +17939,7 @@
         <v>9800</v>
       </c>
       <c r="K13" s="26">
-        <f>I13*J13^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.11999261472275334</v>
       </c>
       <c r="L13" s="3">
@@ -18095,7 +18084,7 @@
         <v>-3</v>
       </c>
       <c r="H14" s="8">
-        <f>F14+G14/24</f>
+        <f t="shared" si="0"/>
         <v>43622.936111111114</v>
       </c>
       <c r="I14" s="3">
@@ -18105,7 +18094,7 @@
         <v>14800</v>
       </c>
       <c r="K14" s="26">
-        <f>I14*J14^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>8.504552581261951E-2</v>
       </c>
       <c r="L14" s="3">
@@ -18250,7 +18239,7 @@
         <v>-4</v>
       </c>
       <c r="H15" s="8">
-        <f>F15+G15/24</f>
+        <f t="shared" si="0"/>
         <v>40000.044965277782</v>
       </c>
       <c r="I15" s="3">
@@ -18260,7 +18249,7 @@
         <v>11000</v>
       </c>
       <c r="K15" s="26">
-        <f>I15*J15^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>5.3501434034416828E-3</v>
       </c>
       <c r="L15" s="3">
@@ -18405,7 +18394,7 @@
         <v>9.5</v>
       </c>
       <c r="H16" s="8">
-        <f>F16+G16/24</f>
+        <f t="shared" si="0"/>
         <v>43605.011840277781</v>
       </c>
       <c r="I16" s="3">
@@ -18415,7 +18404,7 @@
         <v>15200</v>
       </c>
       <c r="K16" s="26">
-        <f>I16*J16^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.10999801147227532</v>
       </c>
       <c r="L16" s="3">
@@ -18560,7 +18549,7 @@
         <v>-4</v>
       </c>
       <c r="H17" s="8">
-        <f>F17+G17/24</f>
+        <f t="shared" si="0"/>
         <v>43670.113657407412</v>
       </c>
       <c r="I17" s="3">
@@ -18570,7 +18559,7 @@
         <v>20200</v>
       </c>
       <c r="K17" s="26">
-        <f>I17*J17^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.4380975143403439E-3</v>
       </c>
       <c r="L17" s="3">
@@ -18715,7 +18704,7 @@
         <v>-7</v>
       </c>
       <c r="H18" s="8">
-        <f>F18+G18/24</f>
+        <f t="shared" si="0"/>
         <v>41021.327222222222</v>
       </c>
       <c r="I18" s="3">
@@ -18725,7 +18714,7 @@
         <v>28600</v>
       </c>
       <c r="K18" s="26">
-        <f>I18*J18^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>3.9099426386233267</v>
       </c>
       <c r="L18" s="3">
@@ -18902,7 +18891,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="8">
-        <f>F19+G19/24</f>
+        <f t="shared" si="0"/>
         <v>41320.347462962964</v>
       </c>
       <c r="I19" s="3">
@@ -18912,7 +18901,7 @@
         <v>19160</v>
       </c>
       <c r="K19" s="26">
-        <f>I19*J19^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>466.89343921548755</v>
       </c>
       <c r="L19" s="3">
@@ -19099,7 +19088,7 @@
         <v>18614.2</v>
       </c>
       <c r="K20" s="26">
-        <f>I20*J20^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>439.98400822976106</v>
       </c>
       <c r="L20" s="3">
@@ -19244,7 +19233,7 @@
         <v>-4</v>
       </c>
       <c r="H21" s="8">
-        <f>F21+G21/24</f>
+        <f t="shared" ref="H21:H31" si="2">F21+G21/24</f>
         <v>43670.960416666669</v>
       </c>
       <c r="I21" s="3">
@@ -19254,7 +19243,7 @@
         <v>30400</v>
       </c>
       <c r="K21" s="26">
-        <f>I21*J21^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>1.104397705544933E-3</v>
       </c>
       <c r="L21" s="3">
@@ -19399,7 +19388,7 @@
         <v>-6</v>
       </c>
       <c r="H22" s="4">
-        <f>F22+G22/24</f>
+        <f t="shared" si="2"/>
         <v>43708.933217592596</v>
       </c>
       <c r="I22" s="3">
@@ -19409,7 +19398,7 @@
         <v>7827</v>
       </c>
       <c r="K22" s="26">
-        <f>I22*J22^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>3.6604881094646271E-4</v>
       </c>
       <c r="L22" s="3">
@@ -19554,7 +19543,7 @@
         <v>-4</v>
       </c>
       <c r="H23" s="4">
-        <f>F23+G23/24</f>
+        <f t="shared" si="2"/>
         <v>43743.800115740742</v>
       </c>
       <c r="I23" s="3">
@@ -19564,7 +19553,7 @@
         <v>14000</v>
       </c>
       <c r="K23" s="9">
-        <f>I23*J23^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.3422562141491394E-3</v>
       </c>
       <c r="L23" s="3">
@@ -19709,7 +19698,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <f>F24+G24/24</f>
+        <f t="shared" si="2"/>
         <v>43720.61791666667</v>
       </c>
       <c r="I24" s="3">
@@ -19719,7 +19708,7 @@
         <v>19998</v>
       </c>
       <c r="K24" s="9">
-        <f>I24*J24^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="L24" s="3">
@@ -19863,7 +19852,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <f>F25+G25/24</f>
+        <f t="shared" si="2"/>
         <v>43735.81248842593</v>
       </c>
       <c r="I25" s="3">
@@ -19873,7 +19862,7 @@
         <v>17965</v>
       </c>
       <c r="K25" s="9">
-        <f>I25*J25^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>1.928425101577438E-3</v>
       </c>
       <c r="L25" s="3">
@@ -20017,7 +20006,7 @@
         <v>-4</v>
       </c>
       <c r="H26" s="4">
-        <f>F26+G26/24</f>
+        <f t="shared" si="2"/>
         <v>43739.041655092595</v>
       </c>
       <c r="I26" s="3">
@@ -20027,7 +20016,7 @@
         <v>59700</v>
       </c>
       <c r="K26" s="9">
-        <f>I26*J26^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>4.2591897705544932E-2</v>
       </c>
       <c r="L26" s="3">
@@ -20172,7 +20161,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4">
-        <f>F27+G27/24</f>
+        <f t="shared" si="2"/>
         <v>43749.01152777778</v>
       </c>
       <c r="I27" s="3">
@@ -20182,7 +20171,7 @@
         <v>14065</v>
       </c>
       <c r="K27" s="9">
-        <f>I27*J27^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.56999759667483263</v>
       </c>
       <c r="L27" s="3">
@@ -20327,7 +20316,7 @@
         <v>-6</v>
       </c>
       <c r="H28" s="4">
-        <f>F28+G28/24</f>
+        <f t="shared" si="2"/>
         <v>43780.869270833333</v>
       </c>
       <c r="I28" s="3">
@@ -20337,7 +20326,7 @@
         <v>15300</v>
       </c>
       <c r="K28" s="3">
-        <f>I28*J28^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L28" s="3">
@@ -20512,7 +20501,7 @@
         <v>-6</v>
       </c>
       <c r="H29" s="4">
-        <f>F29+G29/24</f>
+        <f t="shared" si="2"/>
         <v>43780.869270833333</v>
       </c>
       <c r="I29" s="3">
@@ -20522,7 +20511,7 @@
         <v>15300</v>
       </c>
       <c r="K29" s="3">
-        <f>I29*J29^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L29" s="3">
@@ -20667,7 +20656,7 @@
         <v>-5</v>
       </c>
       <c r="H30" s="4">
-        <f>F30+G30/24</f>
+        <f t="shared" si="2"/>
         <v>43802.803101851852</v>
       </c>
       <c r="I30" s="3">
@@ -20677,7 +20666,7 @@
         <v>20000</v>
       </c>
       <c r="K30" s="3">
-        <f>I30*J30^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L30" s="3">
@@ -20818,11 +20807,11 @@
       <c r="F31" s="17">
         <v>36543.697025462963</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="21">
         <v>-8</v>
       </c>
-      <c r="H31" s="59">
-        <f>F31+G31/24</f>
+      <c r="H31" s="4">
+        <f t="shared" si="2"/>
         <v>36543.363692129627</v>
       </c>
       <c r="I31" s="3">
@@ -20831,8 +20820,8 @@
       <c r="J31" s="3">
         <v>15800</v>
       </c>
-      <c r="K31" s="60">
-        <f>I31*J31^2/2/4.184/10^12</f>
+      <c r="K31" s="3">
+        <f t="shared" si="1"/>
         <v>1.7452127151051624</v>
       </c>
       <c r="L31" s="3">
@@ -20898,10 +20887,10 @@
       <c r="AF31" s="5">
         <v>0</v>
       </c>
-      <c r="AG31" s="61">
+      <c r="AG31" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH31" s="61">
+      <c r="AH31" s="5">
         <v>1.5</v>
       </c>
       <c r="AI31" s="44" t="s">
@@ -20998,7 +20987,6 @@
       <c r="J32" s="3">
         <v>13395</v>
       </c>
-      <c r="K32" s="60"/>
       <c r="O32" s="3">
         <v>-31.45</v>
       </c>
@@ -21017,8 +21005,6 @@
       <c r="AA32" s="5">
         <v>7</v>
       </c>
-      <c r="AG32" s="61"/>
-      <c r="AH32" s="61"/>
       <c r="AI32" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21128,8 +21114,6 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-      <c r="AG33" s="61"/>
-      <c r="AH33" s="61"/>
       <c r="AI33" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21174,9 +21158,6 @@
       <c r="F34" s="17">
         <v>19311</v>
       </c>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="K34" s="60"/>
       <c r="O34" s="3">
         <v>7.05</v>
       </c>
@@ -21189,8 +21170,6 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-      <c r="AG34" s="61"/>
-      <c r="AH34" s="61"/>
       <c r="AI34" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21251,7 +21230,7 @@
       <c r="S35" s="3">
         <v>20950</v>
       </c>
-      <c r="W35" s="60" t="s">
+      <c r="W35" s="3" t="s">
         <v>239</v>
       </c>
       <c r="X35" s="3">
@@ -21322,57 +21301,34 @@
       </c>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A36" s="57">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
       <c r="F36" s="17">
         <v>4585.125</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="21">
         <v>-8</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="4">
         <f>F36+G36/24</f>
         <v>4584.791666666667</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60">
+      <c r="O36" s="3">
         <v>34.9</v>
       </c>
-      <c r="P36" s="60">
+      <c r="P36" s="3">
         <v>-110.1833</v>
       </c>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
       <c r="W36" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="X36" s="60">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="61"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="61"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="61"/>
+      <c r="X36" s="3">
+        <v>0</v>
+      </c>
       <c r="AI36" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21405,7 +21361,7 @@
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A37" s="57">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -21423,14 +21379,13 @@
       <c r="F37" s="17">
         <v>29558.197916666668</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="21">
         <v>3</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="4">
         <f>F37+G37/24</f>
         <v>29558.322916666668</v>
       </c>
-      <c r="K37" s="60"/>
       <c r="O37" s="3">
         <v>15</v>
       </c>
@@ -21443,8 +21398,6 @@
       <c r="X37" s="3">
         <v>0</v>
       </c>
-      <c r="AG37" s="61"/>
-      <c r="AH37" s="61"/>
       <c r="AI37" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21486,7 +21439,7 @@
       </c>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A38" s="57">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -21501,29 +21454,25 @@
       <c r="F38" s="17">
         <v>15453.708333333334</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="21">
         <v>2</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="4">
         <f>F38+G38/24</f>
         <v>15453.791666666668</v>
       </c>
-      <c r="K38" s="60"/>
       <c r="O38" s="3">
         <v>4.7</v>
       </c>
       <c r="P38" s="3">
         <v>33.633299999999998</v>
       </c>
-      <c r="V38" s="60"/>
       <c r="W38" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="X38" s="60">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="61"/>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
       <c r="AI38" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21669,7 +21618,6 @@
       <c r="J40" s="3">
         <v>20960</v>
       </c>
-      <c r="K40" s="60"/>
       <c r="O40" s="3">
         <v>47.304000000000002</v>
       </c>
@@ -21688,8 +21636,6 @@
       <c r="AA40" s="5">
         <v>40</v>
       </c>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
       <c r="AI40" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21764,14 +21710,13 @@
       <c r="F41" s="17">
         <v>23511.752083333333</v>
       </c>
-      <c r="G41" s="58">
+      <c r="G41" s="21">
         <v>2</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="4">
         <f>F41+G41/24</f>
         <v>23511.835416666665</v>
       </c>
-      <c r="K41" s="60"/>
       <c r="O41" s="3">
         <v>43.883299999999998</v>
       </c>
@@ -21784,8 +21729,6 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="61"/>
       <c r="AI41" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21818,7 +21761,7 @@
       </c>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A42" s="57">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -21827,12 +21770,9 @@
       <c r="F42" s="17">
         <v>21647.812627314815</v>
       </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="59"/>
       <c r="J42" s="3">
         <v>20930</v>
       </c>
-      <c r="K42" s="60"/>
       <c r="O42" s="3">
         <v>49.51</v>
       </c>
@@ -21854,8 +21794,6 @@
       <c r="AB42" s="5">
         <v>0</v>
       </c>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
       <c r="AI42" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21927,14 +21865,13 @@
       <c r="F43" s="17">
         <v>22805.75</v>
       </c>
-      <c r="G43" s="58">
+      <c r="G43" s="21">
         <v>1</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="4">
         <f>F43+G43/24</f>
         <v>22805.791666666668</v>
       </c>
-      <c r="K43" s="60"/>
       <c r="O43" s="3">
         <v>50.766599999999997</v>
       </c>
@@ -21947,8 +21884,6 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
       <c r="AI43" s="44" t="s">
         <v>1320</v>
       </c>
@@ -21999,29 +21934,25 @@
       <c r="F44" s="17">
         <v>14910</v>
       </c>
-      <c r="G44" s="58">
+      <c r="G44" s="21">
         <v>5.5</v>
       </c>
-      <c r="H44" s="59">
+      <c r="H44" s="4">
         <f>F44+G44/24</f>
         <v>14910.229166666666</v>
       </c>
-      <c r="K44" s="60"/>
       <c r="O44" s="3">
         <v>22.25</v>
       </c>
       <c r="P44" s="3">
         <v>79</v>
       </c>
-      <c r="V44" s="60"/>
-      <c r="W44" s="60" t="s">
+      <c r="W44" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X44" s="60">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="61"/>
-      <c r="AH44" s="61"/>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
       <c r="AI44" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22060,7 +21991,7 @@
       </c>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -22069,28 +22000,25 @@
       <c r="F45" s="17">
         <v>17210.020833333332</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G45" s="21">
         <v>10</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="4">
         <f>F45+G45/24</f>
         <v>17210.4375</v>
       </c>
-      <c r="K45" s="60"/>
       <c r="O45" s="3">
         <v>46.16</v>
       </c>
       <c r="P45" s="3">
         <v>134.6533</v>
       </c>
-      <c r="W45" s="60" t="s">
+      <c r="W45" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="AG45" s="61"/>
-      <c r="AH45" s="61"/>
       <c r="AI45" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22123,7 +22051,7 @@
       </c>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A46" s="57">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -22132,12 +22060,9 @@
       <c r="F46" s="17">
         <v>25572.09304398148</v>
       </c>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
       <c r="J46" s="3">
         <v>14235</v>
       </c>
-      <c r="K46" s="60"/>
       <c r="O46" s="3">
         <v>36.005000000000003</v>
       </c>
@@ -22156,8 +22081,6 @@
       <c r="AA46" s="5">
         <v>2</v>
       </c>
-      <c r="AG46" s="61"/>
-      <c r="AH46" s="61"/>
       <c r="AI46" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22229,12 +22152,9 @@
       <c r="F47" s="17">
         <v>28162.095578703702</v>
       </c>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
       <c r="J47" s="3">
         <v>14500</v>
       </c>
-      <c r="K47" s="60"/>
       <c r="O47" s="3">
         <v>53.414999999999999</v>
       </c>
@@ -22244,7 +22164,7 @@
       <c r="S47" s="3">
         <v>14500</v>
       </c>
-      <c r="W47" s="60" t="s">
+      <c r="W47" s="3" t="s">
         <v>240</v>
       </c>
       <c r="X47" s="3">
@@ -22253,8 +22173,6 @@
       <c r="AA47" s="5">
         <v>100</v>
       </c>
-      <c r="AG47" s="61"/>
-      <c r="AH47" s="61"/>
       <c r="AI47" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22326,12 +22244,9 @@
       <c r="F48" s="17">
         <v>33365.961018518516</v>
       </c>
-      <c r="G48" s="58"/>
-      <c r="H48" s="59"/>
       <c r="J48" s="3">
         <v>21272</v>
       </c>
-      <c r="K48" s="60"/>
       <c r="O48" s="3">
         <v>49.661999999999999</v>
       </c>
@@ -22350,8 +22265,6 @@
       <c r="AA48" s="5">
         <v>5</v>
       </c>
-      <c r="AG48" s="61"/>
-      <c r="AH48" s="61"/>
       <c r="AI48" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22414,7 +22327,7 @@
       </c>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A49" s="57">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -22423,12 +22336,9 @@
       <c r="F49" s="17">
         <v>33886.991666666669</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
       <c r="J49" s="3">
         <v>14720</v>
       </c>
-      <c r="K49" s="60"/>
       <c r="M49" s="3">
         <v>76</v>
       </c>
@@ -22450,8 +22360,6 @@
       <c r="AA49" s="5">
         <v>50</v>
       </c>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="61"/>
       <c r="AI49" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22514,7 +22422,7 @@
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A50" s="57">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -22526,7 +22434,6 @@
       <c r="J50" s="3">
         <v>22500</v>
       </c>
-      <c r="K50" s="60"/>
       <c r="O50" s="3">
         <v>50.23</v>
       </c>
@@ -22536,7 +22443,7 @@
       <c r="S50" s="3">
         <v>22500</v>
       </c>
-      <c r="W50" s="60" t="s">
+      <c r="W50" s="3" t="s">
         <v>239</v>
       </c>
       <c r="X50" s="3">
@@ -22545,8 +22452,6 @@
       <c r="AA50" s="5">
         <v>300</v>
       </c>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="61"/>
       <c r="AI50" s="44" t="s">
         <v>1320</v>
       </c>
@@ -22621,7 +22526,6 @@
       <c r="J51" s="3">
         <v>16900</v>
       </c>
-      <c r="K51" s="60"/>
       <c r="O51" s="3">
         <v>42.771000000000001</v>
       </c>
@@ -22723,7 +22627,7 @@
       <c r="S52" s="3">
         <v>12760</v>
       </c>
-      <c r="W52" s="60" t="s">
+      <c r="W52" s="3" t="s">
         <v>247</v>
       </c>
       <c r="X52" s="3">
@@ -22732,8 +22636,6 @@
       <c r="AA52" s="5">
         <v>1</v>
       </c>
-      <c r="AG52" s="61"/>
-      <c r="AH52" s="61"/>
       <c r="AI52" s="44" t="s">
         <v>1320</v>
       </c>
@@ -23738,7 +23640,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="4">
-        <f>F62+G62/24</f>
+        <f t="shared" ref="H62:H71" si="3">F62+G62/24</f>
         <v>39060.355000000003</v>
       </c>
       <c r="I62" s="3">
@@ -23747,8 +23649,8 @@
       <c r="J62" s="3">
         <v>15861</v>
       </c>
-      <c r="K62" s="60">
-        <f>I62*J62^2/2/4.184/10^12</f>
+      <c r="K62" s="3">
+        <f t="shared" ref="K62:K72" si="4">I62*J62^2/2/4.184/10^12</f>
         <v>13.99999812793989</v>
       </c>
       <c r="L62" s="3">
@@ -23922,7 +23824,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="4">
-        <f>F63+G63/24</f>
+        <f t="shared" si="3"/>
         <v>42249.923922685186</v>
       </c>
       <c r="I63" s="37">
@@ -23932,7 +23834,7 @@
         <v>17100</v>
       </c>
       <c r="K63" s="3">
-        <f>I63*J63^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>6.5659463432122367E-2</v>
       </c>
       <c r="L63" s="3">
@@ -23968,7 +23870,7 @@
       <c r="V63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W63" s="60" t="s">
+      <c r="W63" s="3" t="s">
         <v>392</v>
       </c>
       <c r="X63" s="3">
@@ -24076,7 +23978,7 @@
         <v>-6</v>
       </c>
       <c r="H64" s="4">
-        <f>F64+G64/24</f>
+        <f t="shared" si="3"/>
         <v>43578.879861111112</v>
       </c>
       <c r="I64" s="3">
@@ -24086,7 +23988,7 @@
         <v>14000</v>
       </c>
       <c r="K64" s="36">
-        <f>I64*J64^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>1.1711281070745696E-2</v>
       </c>
       <c r="L64" s="3">
@@ -24246,7 +24148,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <f>F65+G65/24</f>
+        <f t="shared" si="3"/>
         <v>43835.169652777775</v>
       </c>
       <c r="I65" s="3">
@@ -24256,7 +24158,7 @@
         <v>18000</v>
       </c>
       <c r="K65" s="36">
-        <f>I65*J65^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L65" s="3">
@@ -24401,7 +24303,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <f>F66+G66/24</f>
+        <f t="shared" si="3"/>
         <v>43835.169652777775</v>
       </c>
       <c r="I66" s="3">
@@ -24411,7 +24313,7 @@
         <v>18000</v>
       </c>
       <c r="K66" s="36">
-        <f>I66*J66^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L66" s="3">
@@ -24556,7 +24458,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="4">
-        <f>F67+G67/24</f>
+        <f t="shared" si="3"/>
         <v>43857.277256944442</v>
       </c>
       <c r="I67" s="3">
@@ -24566,7 +24468,7 @@
         <v>20860</v>
       </c>
       <c r="K67" s="3">
-        <f>I67*J67^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>0.15001000000000006</v>
       </c>
       <c r="L67" s="3">
@@ -24741,7 +24643,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="4">
-        <f>F68+G68/24</f>
+        <f t="shared" si="3"/>
         <v>43859.005555555552</v>
       </c>
       <c r="I68" s="3">
@@ -24751,7 +24653,7 @@
         <v>16944</v>
       </c>
       <c r="K68" s="3">
-        <f>I68*J68^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>1.0292751051625238E-2</v>
       </c>
       <c r="L68" s="3">
@@ -24922,7 +24824,7 @@
         <v>5.5</v>
       </c>
       <c r="H69" s="4">
-        <f>F69+G69/24</f>
+        <f t="shared" si="3"/>
         <v>43872.221030092587</v>
       </c>
       <c r="I69" s="3">
@@ -24932,7 +24834,7 @@
         <v>31690</v>
       </c>
       <c r="K69" s="3">
-        <f>I69*J69^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>9.4929084022466539E-2</v>
       </c>
       <c r="L69" s="3">
@@ -25106,7 +25008,7 @@
         <v>-5</v>
       </c>
       <c r="H70" s="4">
-        <f>F70+G70/24</f>
+        <f t="shared" si="3"/>
         <v>43868.778518518513</v>
       </c>
       <c r="I70" s="3">
@@ -25116,7 +25018,7 @@
         <v>19080</v>
       </c>
       <c r="K70" s="3">
-        <f>I70*J70^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>6.5256883365200757E-3</v>
       </c>
       <c r="L70" s="3">
@@ -25260,7 +25162,7 @@
         <v>-7</v>
       </c>
       <c r="H71" s="4">
-        <f>F71+G71/24</f>
+        <f t="shared" si="3"/>
         <v>43877.303761574076</v>
       </c>
       <c r="I71" s="3">
@@ -25270,7 +25172,7 @@
         <v>23000</v>
       </c>
       <c r="K71" s="3">
-        <f>I71*J71^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>9.48255258126195E-3</v>
       </c>
       <c r="L71" s="3">
@@ -25420,7 +25322,7 @@
         <v>50</v>
       </c>
       <c r="K72" s="3">
-        <f>I72*J72^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L72" s="3">
@@ -26299,77 +26201,77 @@
       </c>
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A78" s="57">
+      <c r="A78" s="6">
         <v>74</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="6" t="s">
         <v>1323</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="17">
         <v>14152.625</v>
       </c>
-      <c r="G78" s="58">
+      <c r="G78" s="21">
         <v>-6</v>
       </c>
-      <c r="H78" s="59">
+      <c r="H78" s="4">
         <v>14152.375</v>
       </c>
-      <c r="I78" s="60">
+      <c r="I78" s="3">
         <v>25</v>
       </c>
-      <c r="J78" s="60">
+      <c r="J78" s="3">
         <v>20000</v>
       </c>
-      <c r="K78" s="60">
+      <c r="K78" s="3">
         <f>I78*J78^2/2/4.184/10^12</f>
         <v>1.1950286806883363E-3</v>
       </c>
-      <c r="L78" s="60">
+      <c r="L78" s="3">
         <v>244.77</v>
       </c>
-      <c r="M78" s="60">
+      <c r="M78" s="3">
         <v>35</v>
       </c>
-      <c r="N78" s="60" t="s">
+      <c r="N78" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O78" s="60">
+      <c r="O78" s="3">
         <v>39.142685999999998</v>
       </c>
-      <c r="P78" s="60">
+      <c r="P78" s="3">
         <v>-89.669224999999997</v>
       </c>
-      <c r="Q78" s="60">
+      <c r="Q78" s="3">
         <v>210</v>
       </c>
-      <c r="R78" s="60">
+      <c r="R78" s="3">
         <v>210</v>
       </c>
-      <c r="S78" s="60">
+      <c r="S78" s="3">
         <v>225</v>
       </c>
-      <c r="T78" s="60">
+      <c r="T78" s="3">
         <v>12.4833</v>
       </c>
-      <c r="U78" s="60">
+      <c r="U78" s="3">
         <v>20000</v>
       </c>
-      <c r="V78" s="60" t="s">
+      <c r="V78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W78" s="60" t="s">
+      <c r="W78" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="X78" s="60">
+      <c r="X78" s="3">
         <v>3690</v>
       </c>
       <c r="Y78" s="3">
@@ -26378,28 +26280,28 @@
       <c r="Z78" s="3">
         <v>60000</v>
       </c>
-      <c r="AA78" s="61">
+      <c r="AA78" s="5">
         <v>10000</v>
       </c>
-      <c r="AB78" s="61">
+      <c r="AB78" s="5">
         <v>1</v>
       </c>
-      <c r="AC78" s="61">
+      <c r="AC78" s="5">
         <v>20</v>
       </c>
-      <c r="AD78" s="61">
-        <v>0</v>
-      </c>
-      <c r="AE78" s="61">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="61">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="61">
+      <c r="AD78" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH78" s="61">
+      <c r="AH78" s="5">
         <v>1.5</v>
       </c>
       <c r="AI78" s="45" t="s">
@@ -26841,7 +26743,7 @@
         <v>-3</v>
       </c>
       <c r="H81" s="4">
-        <f>F81+G81/24</f>
+        <f t="shared" ref="H81:H112" si="5">F81+G81/24</f>
         <v>43959.142534722225</v>
       </c>
       <c r="I81" s="3">
@@ -27028,7 +26930,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="4">
-        <f>F82+G82/24</f>
+        <f t="shared" si="5"/>
         <v>43978.854328703703</v>
       </c>
       <c r="I82" s="3">
@@ -27214,7 +27116,7 @@
         <v>9</v>
       </c>
       <c r="H83" s="4">
-        <f>F83+G83/24</f>
+        <f t="shared" si="5"/>
         <v>44014.105590277781</v>
       </c>
       <c r="I83" s="3">
@@ -27224,7 +27126,7 @@
         <v>14646</v>
       </c>
       <c r="K83" s="3">
-        <f>I83*J83^2/2/4.184/10^12</f>
+        <f t="shared" ref="K83:K130" si="6">I83*J83^2/2/4.184/10^12</f>
         <v>0.16405760305927342</v>
       </c>
       <c r="L83" s="3">
@@ -27402,7 +27304,7 @@
         <v>-3</v>
       </c>
       <c r="H84" s="4">
-        <f>F84+G84/24</f>
+        <f t="shared" si="5"/>
         <v>44027.790972222225</v>
       </c>
       <c r="I84" s="3">
@@ -27412,7 +27314,7 @@
         <v>12500</v>
       </c>
       <c r="K84" s="3">
-        <f>I84*J84^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.7344646271510514E-3</v>
       </c>
       <c r="L84" s="3">
@@ -27590,7 +27492,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="4">
-        <f>F85+G85/24</f>
+        <f t="shared" si="5"/>
         <v>44043.100694444445</v>
       </c>
       <c r="I85" s="3">
@@ -27600,7 +27502,7 @@
         <v>18000</v>
       </c>
       <c r="K85" s="3">
-        <f>I85*J85^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L85" s="3">
@@ -27777,7 +27679,7 @@
         <v>-3</v>
       </c>
       <c r="H86" s="4">
-        <f>F86+G86/24</f>
+        <f t="shared" si="5"/>
         <v>44062.429560185185</v>
       </c>
       <c r="I86" s="3">
@@ -27787,7 +27689,7 @@
         <v>17970</v>
       </c>
       <c r="K86" s="3">
-        <f>I86*J86^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.8589973709369028E-2</v>
       </c>
       <c r="L86" s="3">
@@ -27964,7 +27866,7 @@
         <v>-3</v>
       </c>
       <c r="H87" s="4">
-        <f>F87+G87/24</f>
+        <f t="shared" si="5"/>
         <v>44105.048020833332</v>
       </c>
       <c r="I87" s="3">
@@ -27974,7 +27876,7 @@
         <v>16550</v>
       </c>
       <c r="K87" s="3">
-        <f>I87*J87^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>6.546426864244741E-3</v>
       </c>
       <c r="L87" s="3">
@@ -28151,7 +28053,7 @@
         <v>-6</v>
       </c>
       <c r="H88" s="4">
-        <f>F88+G88/24</f>
+        <f t="shared" si="5"/>
         <v>44136.745266203703</v>
       </c>
       <c r="I88" s="3">
@@ -28161,7 +28063,7 @@
         <v>20100</v>
       </c>
       <c r="K88" s="3">
-        <f>I88*J88^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.8280353728489482E-4</v>
       </c>
       <c r="L88" s="3">
@@ -28338,7 +28240,7 @@
         <v>-4</v>
       </c>
       <c r="H89" s="4">
-        <f>F89+G89/24</f>
+        <f t="shared" si="5"/>
         <v>44143.84652777778</v>
       </c>
       <c r="I89" s="3">
@@ -28348,7 +28250,7 @@
         <v>18000</v>
       </c>
       <c r="K89" s="3">
-        <f>I89*J89^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L89" s="3">
@@ -28525,7 +28427,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="4">
-        <f>F90+G90/24</f>
+        <f t="shared" si="5"/>
         <v>44142.93546296296</v>
       </c>
       <c r="I90" s="3">
@@ -28535,7 +28437,7 @@
         <v>17400</v>
       </c>
       <c r="K90" s="3">
-        <f>I90*J90^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.33467136711281065</v>
       </c>
       <c r="L90" s="3">
@@ -28712,7 +28614,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <f>F91+G91/24</f>
+        <f t="shared" si="5"/>
         <v>44142.93546296296</v>
       </c>
       <c r="I91" s="3">
@@ -28722,7 +28624,7 @@
         <v>17055</v>
       </c>
       <c r="K91" s="3">
-        <f>I91*J91^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.3371735590941683</v>
       </c>
       <c r="L91" s="3">
@@ -28899,7 +28801,7 @@
         <v>-5</v>
       </c>
       <c r="H92" s="4">
-        <f>F92+G92/24</f>
+        <f t="shared" si="5"/>
         <v>44167.504861111105</v>
       </c>
       <c r="I92" s="3">
@@ -28909,7 +28811,7 @@
         <v>25000</v>
       </c>
       <c r="K92" s="3">
-        <f>I92*J92^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>6.7220363288718929E-2</v>
       </c>
       <c r="L92" s="3">
@@ -29086,7 +28988,7 @@
         <v>-5</v>
       </c>
       <c r="H93" s="4">
-        <f>F93+G93/24</f>
+        <f t="shared" si="5"/>
         <v>44175.809984953703</v>
       </c>
       <c r="I93" s="3">
@@ -29096,7 +28998,7 @@
         <v>28072.8632</v>
       </c>
       <c r="K93" s="3">
-        <f>I93*J93^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.8835699049854547E-4</v>
       </c>
       <c r="L93" s="3">
@@ -29273,7 +29175,7 @@
         <v>-6</v>
       </c>
       <c r="H94" s="4">
-        <f>F94+G94/24</f>
+        <f t="shared" si="5"/>
         <v>44181.284918981481</v>
       </c>
       <c r="I94" s="3">
@@ -29283,7 +29185,7 @@
         <v>12000</v>
       </c>
       <c r="K94" s="3">
-        <f>I94*J94^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>8.6042065009560222E-4</v>
       </c>
       <c r="L94" s="3">
@@ -29460,7 +29362,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4">
-        <f>F95+G95/24</f>
+        <f t="shared" si="5"/>
         <v>44188.308020833334</v>
       </c>
       <c r="I95" s="3">
@@ -29470,7 +29372,7 @@
         <v>13710</v>
       </c>
       <c r="K95" s="3">
-        <f>I95*J95^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>9.4986112532265761</v>
       </c>
       <c r="L95" s="3">
@@ -29647,7 +29549,7 @@
         <v>-6</v>
       </c>
       <c r="H96" s="4">
-        <f>F96+G96/24</f>
+        <f t="shared" si="5"/>
         <v>44251.845289351855</v>
       </c>
       <c r="I96" s="3">
@@ -29657,7 +29559,7 @@
         <v>26300</v>
       </c>
       <c r="K96" s="3">
-        <f>I96*J96^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.1329469407265776E-3</v>
       </c>
       <c r="L96" s="3">
@@ -29834,7 +29736,7 @@
         <v>-5</v>
       </c>
       <c r="H97" s="4">
-        <f>F97+G97/24</f>
+        <f t="shared" si="5"/>
         <v>44253.921574074069</v>
       </c>
       <c r="I97" s="3">
@@ -29844,7 +29746,7 @@
         <v>29400</v>
       </c>
       <c r="K97" s="3">
-        <f>I97*J97^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.0329349904397705E-3</v>
       </c>
       <c r="L97" s="3">
@@ -30021,7 +29923,7 @@
         <v>-5</v>
       </c>
       <c r="H98" s="4">
-        <f>F98+G98/24</f>
+        <f t="shared" si="5"/>
         <v>44253.921574074069</v>
       </c>
       <c r="I98" s="3">
@@ -30031,7 +29933,7 @@
         <v>50</v>
       </c>
       <c r="K98" s="3">
-        <f>I98*J98^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L98" s="3">
@@ -30208,7 +30110,7 @@
         <v>-6</v>
       </c>
       <c r="H99" s="4">
-        <f>F99+G99/24</f>
+        <f t="shared" si="5"/>
         <v>44236.727418981478</v>
       </c>
       <c r="I99" s="3">
@@ -30218,7 +30120,7 @@
         <v>13150</v>
       </c>
       <c r="K99" s="3">
-        <f>I99*J99^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.10005864543499043</v>
       </c>
       <c r="L99" s="3">
@@ -30395,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f>F100+G100/24</f>
+        <f t="shared" si="5"/>
         <v>44255.91269675926</v>
       </c>
       <c r="I100" s="3">
@@ -30405,7 +30307,7 @@
         <v>10600</v>
       </c>
       <c r="K100" s="3">
-        <f>I100*J100^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>6.7136711281070733E-5</v>
       </c>
       <c r="L100" s="3">
@@ -30582,7 +30484,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="4">
-        <f>F101+G101/24</f>
+        <f t="shared" si="5"/>
         <v>44261.118067129624</v>
       </c>
       <c r="I101" s="3">
@@ -30592,7 +30494,7 @@
         <v>23260</v>
       </c>
       <c r="K101" s="3">
-        <f>I101*J101^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.12995524330783939</v>
       </c>
       <c r="L101" s="3">
@@ -30769,7 +30671,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="4">
-        <f>F102+G102/24</f>
+        <f t="shared" si="5"/>
         <v>44229.627326388894</v>
       </c>
       <c r="I102" s="3">
@@ -30779,7 +30681,7 @@
         <v>12760</v>
       </c>
       <c r="K102" s="3">
-        <f>I102*J102^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.10995246864244741</v>
       </c>
       <c r="L102" s="3">
@@ -30956,7 +30858,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="4">
-        <f>F103+G103/24</f>
+        <f t="shared" si="5"/>
         <v>44271.798460648148</v>
       </c>
       <c r="I103" s="3">
@@ -30966,7 +30868,7 @@
         <v>12900</v>
       </c>
       <c r="K103" s="3">
-        <f>I103*J103^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>9.9432361376673023E-4</v>
       </c>
       <c r="L103" s="3">
@@ -31144,7 +31046,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="4">
-        <f>F104+G104/24</f>
+        <f t="shared" si="5"/>
         <v>44270.372916666667</v>
       </c>
       <c r="I104" s="3">
@@ -31154,7 +31056,7 @@
         <v>14000</v>
       </c>
       <c r="K104" s="3">
-        <f>I104*J104^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.3422562141491395E-4</v>
       </c>
       <c r="L104" s="3">
@@ -31331,7 +31233,7 @@
         <v>-4</v>
       </c>
       <c r="H105" s="4">
-        <f>F105+G105/24</f>
+        <f t="shared" si="5"/>
         <v>40245.251469907409</v>
       </c>
       <c r="I105" s="3">
@@ -31341,7 +31243,7 @@
         <v>24501</v>
       </c>
       <c r="K105" s="3">
-        <f>I105*J105^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.85001707252019587</v>
       </c>
       <c r="L105" s="3">
@@ -31377,7 +31279,7 @@
       <c r="V105" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W105" s="60" t="s">
+      <c r="W105" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X105" s="3">
@@ -31518,7 +31420,7 @@
         <v>-5</v>
       </c>
       <c r="H106" s="4">
-        <f>F106+G106/24</f>
+        <f t="shared" si="5"/>
         <v>42965.996932870366</v>
       </c>
       <c r="I106" s="3">
@@ -31528,7 +31430,7 @@
         <v>15000</v>
       </c>
       <c r="K106" s="3">
-        <f>I106*J106^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L106" s="3">
@@ -31705,7 +31607,7 @@
         <v>9.5</v>
       </c>
       <c r="H107" s="4">
-        <f>F107+G107/24</f>
+        <f t="shared" si="5"/>
         <v>44322.64197916667</v>
       </c>
       <c r="I107" s="3">
@@ -31715,7 +31617,7 @@
         <v>26620</v>
       </c>
       <c r="K107" s="3">
-        <f>I107*J107^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>7.5960335420650088E-2</v>
       </c>
       <c r="L107" s="3">
@@ -31892,7 +31794,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="4">
-        <f>F108+G108/24</f>
+        <f t="shared" si="5"/>
         <v>43893.025694444441</v>
       </c>
       <c r="I108" s="3">
@@ -31902,7 +31804,7 @@
         <v>15000</v>
       </c>
       <c r="K108" s="3">
-        <f>I108*J108^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L108" s="3">
@@ -32079,7 +31981,7 @@
         <v>2</v>
       </c>
       <c r="H109" s="4">
-        <f>F109+G109/24</f>
+        <f t="shared" si="5"/>
         <v>44402.047789351855</v>
       </c>
       <c r="I109" s="3">
@@ -32089,7 +31991,7 @@
         <v>14500</v>
       </c>
       <c r="K109" s="3">
-        <f>I109*J109^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.5125478011472271E-3</v>
       </c>
       <c r="L109" s="3">
@@ -32266,7 +32168,7 @@
         <v>-5</v>
       </c>
       <c r="H110" s="4">
-        <f>F110+G110/24</f>
+        <f t="shared" si="5"/>
         <v>44402.872916666667</v>
       </c>
       <c r="I110" s="3">
@@ -32276,7 +32178,7 @@
         <v>13000</v>
       </c>
       <c r="K110" s="3">
-        <f>I110*J110^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.0195984703632886E-4</v>
       </c>
       <c r="L110" s="3">
@@ -32453,7 +32355,7 @@
         <v>8</v>
       </c>
       <c r="H111" s="4">
-        <f>F111+G111/24</f>
+        <f t="shared" si="5"/>
         <v>44406.888854166667</v>
       </c>
       <c r="I111" s="3">
@@ -32463,7 +32365,7 @@
         <v>14650</v>
       </c>
       <c r="K111" s="3">
-        <f>I111*J111^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.12993278979445505</v>
       </c>
       <c r="L111" s="3">
@@ -32640,7 +32542,7 @@
         <v>-3</v>
       </c>
       <c r="H112" s="4">
-        <f>F112+G112/24</f>
+        <f t="shared" si="5"/>
         <v>44446.921956018516</v>
       </c>
       <c r="I112" s="3">
@@ -32650,7 +32552,7 @@
         <v>24020</v>
       </c>
       <c r="K112" s="3">
-        <f>I112*J112^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.4474211281070744E-3</v>
       </c>
       <c r="L112" s="3">
@@ -32827,7 +32729,7 @@
         <v>-4</v>
       </c>
       <c r="H113" s="4">
-        <f>F113+G113/24</f>
+        <f t="shared" ref="H113:H144" si="7">F113+G113/24</f>
         <v>44492.879375000004</v>
       </c>
       <c r="I113" s="3">
@@ -32837,7 +32739,7 @@
         <v>18300</v>
       </c>
       <c r="K113" s="3">
-        <f>I113*J113^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.0020315487571698E-4</v>
       </c>
       <c r="L113" s="3">
@@ -33014,7 +32916,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="4">
-        <f>F114+G114/24</f>
+        <f t="shared" si="7"/>
         <v>44551.177719907413</v>
       </c>
       <c r="I114" s="3">
@@ -33024,7 +32926,7 @@
         <v>18190</v>
       </c>
       <c r="K114" s="3">
-        <f>I114*J114^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.11004160926147227</v>
       </c>
       <c r="L114" s="3">
@@ -33201,7 +33103,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="4">
-        <f>F115+G115/24</f>
+        <f t="shared" si="7"/>
         <v>44574.754837962959</v>
       </c>
       <c r="I115" s="3">
@@ -33211,7 +33113,7 @@
         <v>16000</v>
       </c>
       <c r="K115" s="3">
-        <f>I115*J115^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L115" s="3">
@@ -33388,7 +33290,7 @@
         <v>-3</v>
       </c>
       <c r="H116" s="4">
-        <f>F116+G116/24</f>
+        <f t="shared" si="7"/>
         <v>44575.370138888888</v>
       </c>
       <c r="I116" s="3">
@@ -33398,7 +33300,7 @@
         <v>12138</v>
       </c>
       <c r="K116" s="3">
-        <f>I116*J116^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.7606482313575525E-3</v>
       </c>
       <c r="L116" s="3">
@@ -33575,7 +33477,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="4">
-        <f>F117+G117/24</f>
+        <f t="shared" si="7"/>
         <v>44575.935416666667</v>
       </c>
       <c r="I117" s="3">
@@ -33585,7 +33487,7 @@
         <v>13330</v>
       </c>
       <c r="K117" s="3">
-        <f>I117*J117^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.592574988049713E-3</v>
       </c>
       <c r="L117" s="3">
@@ -33762,7 +33664,7 @@
         <v>-6</v>
       </c>
       <c r="H118" s="4">
-        <f>F118+G118/24</f>
+        <f t="shared" si="7"/>
         <v>44581.283333333333</v>
       </c>
       <c r="I118" s="3">
@@ -33772,7 +33674,7 @@
         <v>16000</v>
       </c>
       <c r="K118" s="3">
-        <f>I118*J118^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L118" s="3">
@@ -33808,7 +33710,7 @@
       <c r="V118" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W118" s="60" t="s">
+      <c r="W118" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X118" s="3">
@@ -33949,7 +33851,7 @@
         <v>-6</v>
       </c>
       <c r="H119" s="4">
-        <f>F119+G119/24</f>
+        <f t="shared" si="7"/>
         <v>44581.283333333333</v>
       </c>
       <c r="I119" s="3">
@@ -33959,7 +33861,7 @@
         <v>50</v>
       </c>
       <c r="K119" s="3">
-        <f>I119*J119^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L119" s="3">
@@ -33995,7 +33897,7 @@
       <c r="V119" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W119" s="60" t="s">
+      <c r="W119" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X119" s="3">
@@ -34136,7 +34038,7 @@
         <v>-6</v>
       </c>
       <c r="H120" s="4">
-        <f>F120+G120/24</f>
+        <f t="shared" si="7"/>
         <v>44581.283333333333</v>
       </c>
       <c r="I120" s="3">
@@ -34146,7 +34048,7 @@
         <v>50</v>
       </c>
       <c r="K120" s="3">
-        <f>I120*J120^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L120" s="3">
@@ -34323,7 +34225,7 @@
         <v>-7</v>
       </c>
       <c r="H121" s="4">
-        <f>F121+G121/24</f>
+        <f t="shared" si="7"/>
         <v>44587.794907407413</v>
       </c>
       <c r="I121" s="3">
@@ -34333,7 +34235,7 @@
         <v>13100</v>
       </c>
       <c r="K121" s="3">
-        <f>I121*J121^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.9218929254302094E-8</v>
       </c>
       <c r="L121" s="3">
@@ -34369,7 +34271,7 @@
       <c r="V121" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W121" s="60" t="s">
+      <c r="W121" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X121" s="3">
@@ -34510,7 +34412,7 @@
         <v>-7</v>
       </c>
       <c r="H122" s="4">
-        <f>F122+G122/24</f>
+        <f t="shared" si="7"/>
         <v>42523.164259259262</v>
       </c>
       <c r="I122" s="3">
@@ -34520,7 +34422,7 @@
         <v>18300</v>
       </c>
       <c r="K122" s="3">
-        <f>I122*J122^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.48024378585086042</v>
       </c>
       <c r="L122" s="3">
@@ -34556,7 +34458,7 @@
       <c r="V122" s="3" t="s">
         <v>1433</v>
       </c>
-      <c r="W122" s="60" t="s">
+      <c r="W122" s="3" t="s">
         <v>1432</v>
       </c>
       <c r="X122" s="3">
@@ -34697,7 +34599,7 @@
         <v>-6</v>
       </c>
       <c r="H123" s="4">
-        <f>F123+G123/24</f>
+        <f t="shared" si="7"/>
         <v>44568.023611111108</v>
       </c>
       <c r="I123" s="3">
@@ -34707,7 +34609,7 @@
         <v>20000</v>
       </c>
       <c r="K123" s="3">
-        <f>I123*J123^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L123" s="3">
@@ -34755,28 +34657,28 @@
       <c r="Z123" s="3">
         <v>60000</v>
       </c>
-      <c r="AA123" s="61">
+      <c r="AA123" s="5">
         <v>1500</v>
       </c>
-      <c r="AB123" s="61">
+      <c r="AB123" s="5">
         <v>3</v>
       </c>
-      <c r="AC123" s="61">
+      <c r="AC123" s="5">
         <v>5</v>
       </c>
-      <c r="AD123" s="61">
+      <c r="AD123" s="5">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AE123" s="61">
+      <c r="AE123" s="5">
         <v>0.05</v>
       </c>
-      <c r="AF123" s="61">
+      <c r="AF123" s="5">
         <v>1000</v>
       </c>
-      <c r="AG123" s="61">
+      <c r="AG123" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH123" s="61">
+      <c r="AH123" s="5">
         <v>1.5</v>
       </c>
       <c r="AI123" s="45">
@@ -34884,7 +34786,7 @@
         <v>-7</v>
       </c>
       <c r="H124" s="4">
-        <f>F124+G124/24</f>
+        <f t="shared" si="7"/>
         <v>44287.167407407411</v>
       </c>
       <c r="I124" s="3">
@@ -34894,7 +34796,7 @@
         <v>14010</v>
       </c>
       <c r="K124" s="3">
-        <f>I124*J124^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.3456034894837476E-4</v>
       </c>
       <c r="L124" s="3">
@@ -35071,7 +34973,7 @@
         <v>-4</v>
       </c>
       <c r="H125" s="4">
-        <f>F125+G125/24</f>
+        <f t="shared" si="7"/>
         <v>44668.984027777777</v>
       </c>
       <c r="I125" s="3">
@@ -35081,7 +34983,7 @@
         <v>14360</v>
       </c>
       <c r="K125" s="3">
-        <f>I125*J125^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.464263862332696E-4</v>
       </c>
       <c r="L125" s="3">
@@ -35117,7 +35019,7 @@
       <c r="V125" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W125" s="60" t="s">
+      <c r="W125" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X125" s="3">
@@ -35258,7 +35160,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f>F126+G126/24</f>
+        <f t="shared" si="7"/>
         <v>44664.98982638889</v>
       </c>
       <c r="I126" s="3">
@@ -35268,7 +35170,7 @@
         <v>12897.75</v>
       </c>
       <c r="K126" s="3">
-        <f>I126*J126^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.987953573882648E-4</v>
       </c>
       <c r="L126" s="3">
@@ -35304,7 +35206,7 @@
       <c r="V126" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W126" s="60" t="s">
+      <c r="W126" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X126" s="3">
@@ -35445,7 +35347,7 @@
         <v>-3</v>
       </c>
       <c r="H127" s="4">
-        <f>F127+G127/24</f>
+        <f t="shared" si="7"/>
         <v>44672.802407407406</v>
       </c>
       <c r="I127" s="3">
@@ -35455,7 +35357,7 @@
         <v>12750</v>
       </c>
       <c r="K127" s="3">
-        <f>I127*J127^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.13010050938097514</v>
       </c>
       <c r="L127" s="3">
@@ -35491,7 +35393,7 @@
       <c r="V127" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W127" s="60" t="s">
+      <c r="W127" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X127" s="3">
@@ -35632,7 +35534,7 @@
         <v>2</v>
       </c>
       <c r="H128" s="4">
-        <f>F128+G128/24</f>
+        <f t="shared" si="7"/>
         <v>44631.974143518521</v>
       </c>
       <c r="I128" s="3">
@@ -35642,7 +35544,7 @@
         <v>17240</v>
       </c>
       <c r="K128" s="3">
-        <f>I128*J128^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.0000061755258125</v>
       </c>
       <c r="L128" s="3">
@@ -35678,7 +35580,7 @@
       <c r="V128" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W128" s="60" t="s">
+      <c r="W128" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X128" s="3">
@@ -35819,7 +35721,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4">
-        <f>F129+G129/24</f>
+        <f t="shared" si="7"/>
         <v>44596.243518518517</v>
       </c>
       <c r="I129" s="3">
@@ -35829,7 +35731,7 @@
         <v>22810</v>
       </c>
       <c r="K129" s="3">
-        <f>I129*J129^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.43983922220363286</v>
       </c>
       <c r="L129" s="3">
@@ -35865,7 +35767,7 @@
       <c r="V129" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W129" s="60" t="s">
+      <c r="W129" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X129" s="3">
@@ -36006,7 +35908,7 @@
         <v>-5</v>
       </c>
       <c r="H130" s="4">
-        <f>F130+G130/24</f>
+        <f t="shared" si="7"/>
         <v>44678.335416666661</v>
       </c>
       <c r="I130" s="3">
@@ -36016,7 +35918,7 @@
         <v>24000</v>
       </c>
       <c r="K130" s="3">
-        <f>I130*J130^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.8183556405353729E-3</v>
       </c>
       <c r="L130" s="3">
@@ -36052,7 +35954,7 @@
       <c r="V130" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W130" s="60" t="s">
+      <c r="W130" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X130" s="3">
@@ -36171,7 +36073,7 @@
       </c>
     </row>
     <row r="131" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A131" s="57">
+      <c r="A131" s="6">
         <v>128</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -36183,18 +36085,12 @@
       <c r="F131" s="17">
         <v>22922</v>
       </c>
-      <c r="G131" s="58"/>
-      <c r="H131" s="59"/>
-      <c r="K131" s="60"/>
       <c r="O131" s="3">
         <v>11.7333</v>
       </c>
       <c r="P131" s="3">
         <v>7.0833000000000004</v>
       </c>
-      <c r="W131" s="60"/>
-      <c r="AG131" s="61"/>
-      <c r="AH131" s="61"/>
       <c r="AR131" s="25">
         <v>0</v>
       </c>
@@ -36234,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f>F132+G132/24</f>
+        <f t="shared" ref="H132:H151" si="8">F132+G132/24</f>
         <v>44697.864131944443</v>
       </c>
       <c r="I132" s="3">
@@ -36244,7 +36140,7 @@
         <v>21350</v>
       </c>
       <c r="K132" s="3">
-        <f>I132*J132^2/2/4.184/10^12</f>
+        <f t="shared" ref="K132:K145" si="9">I132*J132^2/2/4.184/10^12</f>
         <v>2.7236048040152963E-5</v>
       </c>
       <c r="L132" s="3">
@@ -36421,7 +36317,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f>F133+G133/24</f>
+        <f t="shared" si="8"/>
         <v>44692.986111111109</v>
       </c>
       <c r="I133" s="3">
@@ -36431,7 +36327,7 @@
         <v>27900</v>
       </c>
       <c r="K133" s="3">
-        <f>I133*J133^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>9.3022227533460795E-4</v>
       </c>
       <c r="L133" s="3">
@@ -36467,7 +36363,7 @@
       <c r="V133" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W133" s="60" t="s">
+      <c r="W133" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X133" s="3">
@@ -36608,7 +36504,7 @@
         <v>-7</v>
       </c>
       <c r="H134" s="4">
-        <f>F134+G134/24</f>
+        <f t="shared" si="8"/>
         <v>44700.921018518522</v>
       </c>
       <c r="I134" s="3">
@@ -36618,7 +36514,7 @@
         <v>15160</v>
       </c>
       <c r="K134" s="3">
-        <f>I134*J134^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.7464818355640533E-5</v>
       </c>
       <c r="L134" s="3">
@@ -36786,7 +36682,7 @@
         <v>8</v>
       </c>
       <c r="H135" s="4">
-        <f>F135+G135/24</f>
+        <f t="shared" si="8"/>
         <v>42169.460486111115</v>
       </c>
       <c r="I135" s="3">
@@ -36796,7 +36692,7 @@
         <v>31858</v>
       </c>
       <c r="K135" s="3">
-        <f>I135*J135^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.22001517035086041</v>
       </c>
       <c r="L135" s="3">
@@ -36967,7 +36863,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="4">
-        <f>F136+G136/24</f>
+        <f t="shared" si="8"/>
         <v>42644.891493055555</v>
       </c>
       <c r="I136" s="3">
@@ -36977,7 +36873,7 @@
         <v>14202</v>
       </c>
       <c r="K136" s="3">
-        <f>I136*J136^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.11000767369216062</v>
       </c>
       <c r="L136" s="3">
@@ -37013,7 +36909,7 @@
       <c r="V136" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W136" s="60" t="s">
+      <c r="W136" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X136" s="3">
@@ -37148,7 +37044,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="4">
-        <f>F137+G137/24</f>
+        <f t="shared" si="8"/>
         <v>40943.654166666667</v>
       </c>
       <c r="I137" s="3">
@@ -37158,7 +37054,7 @@
         <v>12248</v>
       </c>
       <c r="K137" s="3">
-        <f>I137*J137^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.42999807683365199</v>
       </c>
       <c r="L137" s="3">
@@ -37194,7 +37090,7 @@
       <c r="V137" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W137" s="60" t="s">
+      <c r="W137" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X137" s="3">
@@ -37335,7 +37231,7 @@
         <v>-4</v>
       </c>
       <c r="H138" s="4">
-        <f>F138+G138/24</f>
+        <f t="shared" si="8"/>
         <v>44764.0778587963</v>
       </c>
       <c r="I138" s="3">
@@ -37345,7 +37241,7 @@
         <v>13640</v>
       </c>
       <c r="K138" s="3">
-        <f>I138*J138^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.2233460803059273E-4</v>
       </c>
       <c r="L138" s="3">
@@ -37522,7 +37418,7 @@
         <v>-5</v>
       </c>
       <c r="H139" s="4">
-        <f>F139+G139/24</f>
+        <f t="shared" si="8"/>
         <v>44766.932592592588</v>
       </c>
       <c r="I139" s="3">
@@ -37532,7 +37428,7 @@
         <v>16870</v>
       </c>
       <c r="K139" s="3">
-        <f>I139*J139^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.4010145793499043E-4</v>
       </c>
       <c r="L139" s="3">
@@ -37568,7 +37464,7 @@
       <c r="V139" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W139" s="60" t="s">
+      <c r="W139" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X139" s="3">
@@ -37709,7 +37605,7 @@
         <v>-4</v>
       </c>
       <c r="H140" s="4">
-        <f>F140+G140/24</f>
+        <f t="shared" si="8"/>
         <v>44771.914583333339</v>
       </c>
       <c r="I140" s="3">
@@ -37719,7 +37615,7 @@
         <v>20500</v>
       </c>
       <c r="K140" s="3">
-        <f>I140*J140^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>4.5550519837476103E-3</v>
       </c>
       <c r="L140" s="3">
@@ -37755,7 +37651,7 @@
       <c r="V140" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W140" s="60" t="s">
+      <c r="W140" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X140" s="3">
@@ -37896,7 +37792,7 @@
         <v>-6</v>
       </c>
       <c r="H141" s="4">
-        <f>F141+G141/24</f>
+        <f t="shared" si="8"/>
         <v>44786.35434027778</v>
       </c>
       <c r="I141" s="3">
@@ -37906,7 +37802,7 @@
         <v>18000</v>
       </c>
       <c r="K141" s="3">
-        <f>I141*J141^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.38718929254302098</v>
       </c>
       <c r="L141" s="3">
@@ -37942,7 +37838,7 @@
       <c r="V141" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W141" s="60" t="s">
+      <c r="W141" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X141" s="3">
@@ -38083,7 +37979,7 @@
         <v>-6</v>
       </c>
       <c r="H142" s="4">
-        <f>F142+G142/24</f>
+        <f t="shared" si="8"/>
         <v>44786.35434027778</v>
       </c>
       <c r="I142" s="3">
@@ -38093,7 +37989,7 @@
         <v>8000</v>
       </c>
       <c r="K142" s="3">
-        <f>I142*J142^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>1.5296367112810707E-3</v>
       </c>
       <c r="L142" s="3">
@@ -38270,7 +38166,7 @@
         <v>-4</v>
       </c>
       <c r="H143" s="4">
-        <f>F143+G143/24</f>
+        <f t="shared" si="8"/>
         <v>44830.003338993061</v>
       </c>
       <c r="I143" s="3">
@@ -38280,7 +38176,7 @@
         <v>11882</v>
       </c>
       <c r="K143" s="3">
-        <f>I143*J143^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>1.6871644837476097E-4</v>
       </c>
       <c r="L143" s="3">
@@ -38458,7 +38354,7 @@
         <v>2</v>
       </c>
       <c r="H144" s="4">
-        <f>F144+G144/24</f>
+        <f t="shared" si="8"/>
         <v>44845.874861111115</v>
       </c>
       <c r="I144" s="3">
@@ -38468,7 +38364,7 @@
         <v>23218</v>
       </c>
       <c r="K144" s="3">
-        <f>I144*J144^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>6.4421071223709373E-4</v>
       </c>
       <c r="L144" s="3">
@@ -38645,7 +38541,7 @@
         <v>2</v>
       </c>
       <c r="H145" s="4">
-        <f>F145+G145/24</f>
+        <f t="shared" si="8"/>
         <v>44848.86377314815</v>
       </c>
       <c r="I145" s="3">
@@ -38655,7 +38551,7 @@
         <v>14680</v>
       </c>
       <c r="K145" s="3">
-        <f>I145*J145^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.1506309751434026E-2</v>
       </c>
       <c r="L145" s="3">
@@ -38833,7 +38729,7 @@
         <v>-4</v>
       </c>
       <c r="H146" s="4">
-        <f>F146+G146/24</f>
+        <f t="shared" si="8"/>
         <v>44855.892754629633</v>
       </c>
       <c r="AR146" s="25">
@@ -38875,7 +38771,7 @@
         <v>-7</v>
       </c>
       <c r="H147" s="4">
-        <f>F147+G147/24</f>
+        <f t="shared" si="8"/>
         <v>44858.786898148152</v>
       </c>
       <c r="I147" s="3">
@@ -38922,7 +38818,7 @@
       <c r="V147" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W147" s="60" t="s">
+      <c r="W147" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X147" s="3">
@@ -39063,7 +38959,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="4">
-        <f>F148+G148/24</f>
+        <f t="shared" si="8"/>
         <v>44846.284722222226</v>
       </c>
       <c r="I148" s="3">
@@ -39109,7 +39005,7 @@
       <c r="V148" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W148" s="60" t="s">
+      <c r="W148" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X148" s="3">
@@ -39250,7 +39146,7 @@
         <v>7</v>
       </c>
       <c r="H149" s="4">
-        <f>F149+G149/24</f>
+        <f t="shared" si="8"/>
         <v>44851.010416666664</v>
       </c>
       <c r="I149" s="3">
@@ -39298,7 +39194,7 @@
       <c r="V149" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W149" s="60" t="s">
+      <c r="W149" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X149" s="3">
@@ -39439,7 +39335,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f>F150+G150/24</f>
+        <f t="shared" si="8"/>
         <v>44857.815283090276</v>
       </c>
       <c r="I150" s="3">
@@ -39627,7 +39523,7 @@
         <v>-5</v>
       </c>
       <c r="H151" s="4">
-        <f>F151+G151/24</f>
+        <f t="shared" si="8"/>
         <v>44884.143564814811</v>
       </c>
       <c r="I151" s="3">
@@ -39673,7 +39569,7 @@
       <c r="V151" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W151" s="60" t="s">
+      <c r="W151" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X151" s="3">
@@ -39858,7 +39754,7 @@
       <c r="V152" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W152" s="60" t="s">
+      <c r="W152" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X152" s="3">
@@ -39999,7 +39895,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f>F153+G153/24</f>
+        <f t="shared" ref="H153:H198" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -40009,7 +39905,7 @@
         <v>16440</v>
       </c>
       <c r="K153" s="3">
-        <f>I153*J153^2/2/4.184/10^12</f>
+        <f t="shared" ref="K153:K161" si="11">I153*J153^2/2/4.184/10^12</f>
         <v>0.20008902390057362</v>
       </c>
       <c r="L153" s="3">
@@ -40186,7 +40082,7 @@
         <v>-6</v>
       </c>
       <c r="H154" s="4">
-        <f>F154+G154/24</f>
+        <f t="shared" si="10"/>
         <v>44936.782372685186</v>
       </c>
       <c r="I154" s="3">
@@ -40196,7 +40092,7 @@
         <v>12500</v>
       </c>
       <c r="K154" s="3">
-        <f>I154*J154^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>9.3361615678776285E-4</v>
       </c>
       <c r="L154" s="3">
@@ -40232,7 +40128,7 @@
       <c r="V154" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W154" s="60" t="s">
+      <c r="W154" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X154" s="3">
@@ -40373,7 +40269,7 @@
         <v>-6</v>
       </c>
       <c r="H155" s="4">
-        <f>F155+G155/24</f>
+        <f t="shared" si="10"/>
         <v>44946.151967592596</v>
       </c>
       <c r="I155" s="3">
@@ -40383,7 +40279,7 @@
         <v>14000</v>
       </c>
       <c r="K155" s="3">
-        <f>I155*J155^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.7566921606118546E-3</v>
       </c>
       <c r="L155" s="3">
@@ -40412,7 +40308,7 @@
         <v>5000</v>
       </c>
       <c r="T155" s="3">
-        <f>M155</f>
+        <f t="shared" ref="T155:T161" si="12">M155</f>
         <v>59</v>
       </c>
       <c r="U155" s="3">
@@ -40422,7 +40318,7 @@
       <c r="V155" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W155" s="60" t="s">
+      <c r="W155" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X155" s="3">
@@ -40563,7 +40459,7 @@
         <v>1</v>
       </c>
       <c r="H156" s="4">
-        <f>F156+G156/24</f>
+        <f t="shared" si="10"/>
         <v>44951.183217592588</v>
       </c>
       <c r="I156" s="3">
@@ -40573,7 +40469,7 @@
         <v>26000</v>
       </c>
       <c r="K156" s="3">
-        <f>I156*J156^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>8.8862332695984695E-4</v>
       </c>
       <c r="L156" s="3">
@@ -40601,7 +40497,7 @@
         <v>5000</v>
       </c>
       <c r="T156" s="3">
-        <f>M156</f>
+        <f t="shared" si="12"/>
         <v>56.5</v>
       </c>
       <c r="U156" s="3">
@@ -40752,7 +40648,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="4">
-        <f>F157+G157/24</f>
+        <f t="shared" si="10"/>
         <v>44970.166168981479</v>
       </c>
       <c r="I157" s="3">
@@ -40762,7 +40658,7 @@
         <v>14060.9</v>
       </c>
       <c r="K157" s="3">
-        <f>I157*J157^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>4.0803451901872602E-2</v>
       </c>
       <c r="L157" s="3">
@@ -40792,7 +40688,7 @@
         <v>5000</v>
       </c>
       <c r="T157" s="3">
-        <f>M157</f>
+        <f t="shared" si="12"/>
         <v>41.423400000000001</v>
       </c>
       <c r="U157" s="3">
@@ -40831,10 +40727,10 @@
       <c r="AF157" s="5">
         <v>45.37</v>
       </c>
-      <c r="AG157" s="61">
+      <c r="AG157" s="5">
         <v>-1</v>
       </c>
-      <c r="AH157" s="61">
+      <c r="AH157" s="5">
         <v>1</v>
       </c>
       <c r="AI157" s="45">
@@ -40942,7 +40838,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="4">
-        <f>F158+G158/24</f>
+        <f t="shared" si="10"/>
         <v>44970.166168981479</v>
       </c>
       <c r="I158" s="3">
@@ -40952,7 +40848,7 @@
         <v>14016</v>
       </c>
       <c r="K158" s="3">
-        <f>I158*J158^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>4.0543276543021034E-2</v>
       </c>
       <c r="L158" s="3">
@@ -40981,7 +40877,7 @@
         <v>5000</v>
       </c>
       <c r="T158" s="3">
-        <f>M158</f>
+        <f t="shared" si="12"/>
         <v>41.272100000000002</v>
       </c>
       <c r="U158" s="3">
@@ -40990,7 +40886,7 @@
       <c r="V158" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W158" s="60" t="s">
+      <c r="W158" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X158" s="3">
@@ -41020,10 +40916,10 @@
       <c r="AF158" s="5">
         <v>45.37</v>
       </c>
-      <c r="AG158" s="61">
+      <c r="AG158" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH158" s="61">
+      <c r="AH158" s="5">
         <v>-0.5</v>
       </c>
       <c r="AI158" s="45">
@@ -41131,7 +41027,7 @@
         <v>-6</v>
       </c>
       <c r="H159" s="4">
-        <f>F159+G159/24</f>
+        <f t="shared" si="10"/>
         <v>44972.723611111112</v>
       </c>
       <c r="I159" s="3">
@@ -41141,7 +41037,7 @@
         <v>15000</v>
       </c>
       <c r="K159" s="3">
-        <f>I159*J159^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.2180329827915868E-2</v>
       </c>
       <c r="L159" s="3">
@@ -41169,7 +41065,7 @@
         <v>5000</v>
       </c>
       <c r="T159" s="3">
-        <f>M159</f>
+        <f t="shared" si="12"/>
         <v>53.6</v>
       </c>
       <c r="U159" s="3">
@@ -41208,10 +41104,10 @@
       <c r="AF159" s="5">
         <v>3000</v>
       </c>
-      <c r="AG159" s="61">
+      <c r="AG159" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH159" s="61">
+      <c r="AH159" s="5">
         <v>1.5</v>
       </c>
       <c r="AI159" s="45">
@@ -41319,7 +41215,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="4">
-        <f>F160+G160/24</f>
+        <f t="shared" si="10"/>
         <v>44966.008333333331</v>
       </c>
       <c r="I160" s="3">
@@ -41329,7 +41225,7 @@
         <v>12500</v>
       </c>
       <c r="K160" s="3">
-        <f>I160*J160^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.9875717017208408E-4</v>
       </c>
       <c r="L160" s="3">
@@ -41357,7 +41253,7 @@
         <v>5000</v>
       </c>
       <c r="T160" s="3">
-        <f>M160</f>
+        <f t="shared" si="12"/>
         <v>24.6</v>
       </c>
       <c r="U160" s="3">
@@ -41367,7 +41263,7 @@
       <c r="V160" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W160" s="60" t="s">
+      <c r="W160" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X160" s="3">
@@ -41508,7 +41404,7 @@
         <v>-5</v>
       </c>
       <c r="H161" s="4">
-        <f>F161+G161/24</f>
+        <f t="shared" si="10"/>
         <v>44976.868518518517</v>
       </c>
       <c r="I161" s="3">
@@ -41517,8 +41413,8 @@
       <c r="J161" s="3">
         <v>25000</v>
       </c>
-      <c r="K161" s="60">
-        <f>I161*J161^2/2/4.184/10^12</f>
+      <c r="K161" s="3">
+        <f t="shared" si="11"/>
         <v>1.8672323135755257E-3</v>
       </c>
       <c r="L161" s="3">
@@ -41548,7 +41444,7 @@
         <v>5000</v>
       </c>
       <c r="T161" s="3">
-        <f>M161</f>
+        <f t="shared" si="12"/>
         <v>63.701499999999996</v>
       </c>
       <c r="U161" s="3">
@@ -41587,10 +41483,10 @@
       <c r="AF161" s="5">
         <v>500</v>
       </c>
-      <c r="AG161" s="61">
+      <c r="AG161" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH161" s="61">
+      <c r="AH161" s="5">
         <v>1.5</v>
       </c>
       <c r="AI161" s="45">
@@ -41695,7 +41591,7 @@
         <v>10.5</v>
       </c>
       <c r="H162" s="4">
-        <f>F162+G162/24</f>
+        <f t="shared" si="10"/>
         <v>43618.310416666667</v>
       </c>
       <c r="O162" s="3">
@@ -41780,7 +41676,7 @@
         <v>0</v>
       </c>
       <c r="BC162" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD162" s="38">
         <v>0</v>
@@ -41824,7 +41720,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="4">
-        <f>F163+G163/24</f>
+        <f t="shared" si="10"/>
         <v>43831.810347222221</v>
       </c>
       <c r="I163" s="3">
@@ -41909,7 +41805,7 @@
         <v>0</v>
       </c>
       <c r="BC163" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD163" s="38">
         <v>0</v>
@@ -41953,7 +41849,7 @@
         <v>-7</v>
       </c>
       <c r="H164" s="4">
-        <f>F164+G164/24</f>
+        <f t="shared" si="10"/>
         <v>42300.94981481482</v>
       </c>
       <c r="I164" s="3">
@@ -41968,7 +41864,7 @@
       <c r="V164" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W164" s="60" t="s">
+      <c r="W164" s="3" t="s">
         <v>245</v>
       </c>
       <c r="AG164" s="5">
@@ -42038,7 +41934,7 @@
         <v>0</v>
       </c>
       <c r="BC164" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD164" s="38">
         <v>0</v>
@@ -42082,7 +41978,7 @@
         <v>8</v>
       </c>
       <c r="H165" s="4">
-        <f>F165+G165/24</f>
+        <f t="shared" si="10"/>
         <v>42674.835960648154</v>
       </c>
       <c r="I165" s="3">
@@ -42097,7 +41993,7 @@
       <c r="V165" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W165" s="60" t="s">
+      <c r="W165" s="3" t="s">
         <v>1577</v>
       </c>
       <c r="AG165" s="5">
@@ -42167,7 +42063,7 @@
         <v>0</v>
       </c>
       <c r="BC165" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD165" s="38">
         <v>0</v>
@@ -42211,7 +42107,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="4">
-        <f>F166+G166/24</f>
+        <f t="shared" si="10"/>
         <v>44154.199247685181</v>
       </c>
       <c r="O166" s="3">
@@ -42293,7 +42189,7 @@
         <v>0</v>
       </c>
       <c r="BC166" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD166" s="38">
         <v>0</v>
@@ -42337,7 +42233,7 @@
         <v>8</v>
       </c>
       <c r="H167" s="4">
-        <f>F167+G167/24</f>
+        <f t="shared" si="10"/>
         <v>44002.170219907413</v>
       </c>
       <c r="I167" s="3">
@@ -42422,7 +42318,7 @@
         <v>0</v>
       </c>
       <c r="BC167" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD167" s="38">
         <v>0</v>
@@ -42457,7 +42353,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="4">
-        <f>F168+G168/24</f>
+        <f t="shared" si="10"/>
         <v>39830.839583333334</v>
       </c>
       <c r="I168" s="3">
@@ -42472,7 +42368,7 @@
       <c r="V168" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W168" s="60" t="s">
+      <c r="W168" s="3" t="s">
         <v>216</v>
       </c>
       <c r="AG168" s="5">
@@ -42542,7 +42438,7 @@
         <v>0</v>
       </c>
       <c r="BC168" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD168" s="38">
         <v>0</v>
@@ -42583,7 +42479,7 @@
         <v>2</v>
       </c>
       <c r="H169" s="4">
-        <f>F169+G169/24</f>
+        <f t="shared" si="10"/>
         <v>43253.78056712963</v>
       </c>
       <c r="I169" s="3">
@@ -42668,7 +42564,7 @@
         <v>0</v>
       </c>
       <c r="BC169" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD169" s="38">
         <v>0</v>
@@ -42712,7 +42608,7 @@
         <v>9.5</v>
       </c>
       <c r="H170" s="4">
-        <f>F170+G170/24</f>
+        <f t="shared" si="10"/>
         <v>42335.842881944445</v>
       </c>
       <c r="O170" s="3">
@@ -42724,7 +42620,7 @@
       <c r="V170" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W170" s="60" t="s">
+      <c r="W170" s="3" t="s">
         <v>239</v>
       </c>
       <c r="AG170" s="5">
@@ -42794,7 +42690,7 @@
         <v>0</v>
       </c>
       <c r="BC170" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD170" s="38">
         <v>0</v>
@@ -42838,7 +42734,7 @@
         <v>-5</v>
       </c>
       <c r="H171" s="4">
-        <f>F171+G171/24</f>
+        <f t="shared" si="10"/>
         <v>42393.435416666667</v>
       </c>
       <c r="I171" s="3">
@@ -42853,7 +42749,7 @@
       <c r="V171" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W171" s="60" t="s">
+      <c r="W171" s="3" t="s">
         <v>245</v>
       </c>
       <c r="AG171" s="5">
@@ -42923,7 +42819,7 @@
         <v>0</v>
       </c>
       <c r="BC171" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD171" s="38">
         <v>0</v>
@@ -42967,7 +42863,7 @@
         <v>3</v>
       </c>
       <c r="H172" s="4">
-        <f>F172+G172/24</f>
+        <f t="shared" si="10"/>
         <v>43272.17800925926</v>
       </c>
       <c r="I172" s="3">
@@ -43052,7 +42948,7 @@
         <v>0</v>
       </c>
       <c r="BC172" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD172" s="38">
         <v>0</v>
@@ -43093,7 +42989,7 @@
         <v>-2</v>
       </c>
       <c r="H173" s="4">
-        <f>F173+G173/24</f>
+        <f t="shared" si="10"/>
         <v>42013.649305555555</v>
       </c>
       <c r="I173" s="3">
@@ -43178,7 +43074,7 @@
         <v>0</v>
       </c>
       <c r="BC173" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD173" s="38">
         <v>0</v>
@@ -43222,7 +43118,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="4">
-        <f>F174+G174/24</f>
+        <f t="shared" si="10"/>
         <v>42435.942256944443</v>
       </c>
       <c r="I174" s="3">
@@ -43237,7 +43133,7 @@
       <c r="V174" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W174" s="60" t="s">
+      <c r="W174" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="AG174" s="5">
@@ -43307,7 +43203,7 @@
         <v>0</v>
       </c>
       <c r="BC174" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD174" s="38">
         <v>0</v>
@@ -43351,7 +43247,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="4">
-        <f>F175+G175/24</f>
+        <f t="shared" si="10"/>
         <v>44214.054814814815</v>
       </c>
       <c r="I175" s="3">
@@ -43436,7 +43332,7 @@
         <v>0</v>
       </c>
       <c r="BC175" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD175" s="38">
         <v>0</v>
@@ -43480,7 +43376,7 @@
         <v>-5</v>
       </c>
       <c r="H176" s="4">
-        <f>F176+G176/24</f>
+        <f t="shared" si="10"/>
         <v>43497.553587962961</v>
       </c>
       <c r="I176" s="3">
@@ -43498,16 +43394,10 @@
       <c r="W176" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AA176" s="61"/>
-      <c r="AB176" s="61"/>
-      <c r="AC176" s="61"/>
-      <c r="AD176" s="61"/>
-      <c r="AE176" s="61"/>
-      <c r="AF176" s="61"/>
-      <c r="AG176" s="61">
+      <c r="AG176" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH176" s="61">
+      <c r="AH176" s="5">
         <v>1.5</v>
       </c>
       <c r="AI176" s="45">
@@ -43571,7 +43461,7 @@
         <v>0</v>
       </c>
       <c r="BC176" s="38">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="BD176" s="38">
         <v>0</v>
@@ -43615,7 +43505,7 @@
         <v>2</v>
       </c>
       <c r="H177" s="4">
-        <f>F177+G177/24</f>
+        <f t="shared" si="10"/>
         <v>45031.431956018518</v>
       </c>
       <c r="I177" s="3">
@@ -43624,8 +43514,8 @@
       <c r="J177" s="3">
         <v>17210</v>
       </c>
-      <c r="K177" s="60">
-        <f>I177*J177^2/2/4.184/10^12</f>
+      <c r="K177" s="3">
+        <f t="shared" ref="K177:K192" si="13">I177*J177^2/2/4.184/10^12</f>
         <v>6.3021945197657745</v>
       </c>
       <c r="L177" s="3">
@@ -43688,10 +43578,10 @@
       <c r="AF177" s="5">
         <v>500</v>
       </c>
-      <c r="AG177" s="61">
+      <c r="AG177" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH177" s="61">
+      <c r="AH177" s="5">
         <v>1.5</v>
       </c>
       <c r="AI177" s="45">
@@ -43799,7 +43689,7 @@
         <v>2</v>
       </c>
       <c r="H178" s="4">
-        <f>F178+G178/24</f>
+        <f t="shared" si="10"/>
         <v>45018.895000000004</v>
       </c>
       <c r="I178" s="3">
@@ -43808,8 +43698,8 @@
       <c r="J178" s="3">
         <v>13610</v>
       </c>
-      <c r="K178" s="60">
-        <f>I178*J178^2/2/4.184/10^12</f>
+      <c r="K178" s="3">
+        <f t="shared" si="13"/>
         <v>1.10678836042065E-3</v>
       </c>
       <c r="L178" s="3">
@@ -43987,7 +43877,7 @@
         <v>-4</v>
       </c>
       <c r="H179" s="4">
-        <f>F179+G179/24</f>
+        <f t="shared" si="10"/>
         <v>45024.494791666672</v>
       </c>
       <c r="I179" s="3">
@@ -43996,8 +43886,8 @@
       <c r="J179" s="3">
         <v>17000</v>
       </c>
-      <c r="K179" s="60">
-        <f>I179*J179^2/2/4.184/10^12</f>
+      <c r="K179" s="3">
+        <f t="shared" si="13"/>
         <v>1.381453154875717E-2</v>
       </c>
       <c r="L179" s="3">
@@ -44153,7 +44043,7 @@
       </c>
     </row>
     <row r="180" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A180" s="57">
+      <c r="A180" s="6">
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -44175,7 +44065,7 @@
         <v>2</v>
       </c>
       <c r="H180" s="4">
-        <f>F180+G180/24</f>
+        <f t="shared" si="10"/>
         <v>45041.59375</v>
       </c>
       <c r="I180" s="3">
@@ -44184,8 +44074,8 @@
       <c r="J180" s="3">
         <v>20500</v>
       </c>
-      <c r="K180" s="60">
-        <f>I180*J180^2/2/4.184/10^12</f>
+      <c r="K180" s="3">
+        <f t="shared" si="13"/>
         <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
@@ -44221,7 +44111,7 @@
       <c r="V180" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W180" s="60" t="s">
+      <c r="W180" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X180" s="3">
@@ -44251,10 +44141,10 @@
       <c r="AF180" s="5">
         <v>0</v>
       </c>
-      <c r="AG180" s="61">
+      <c r="AG180" s="5">
         <v>-1</v>
       </c>
-      <c r="AH180" s="61">
+      <c r="AH180" s="5">
         <v>1</v>
       </c>
       <c r="AI180" s="45">
@@ -44358,11 +44248,11 @@
       <c r="F181" s="17">
         <v>45043.070017939812</v>
       </c>
-      <c r="G181" s="58">
+      <c r="G181" s="21">
         <v>2</v>
       </c>
-      <c r="H181" s="59">
-        <f>F181+G181/24</f>
+      <c r="H181" s="4">
+        <f t="shared" si="10"/>
         <v>45043.153351273148</v>
       </c>
       <c r="I181" s="3">
@@ -44371,8 +44261,8 @@
       <c r="J181" s="3">
         <v>14321</v>
       </c>
-      <c r="K181" s="60">
-        <f>I181*J181^2/2/4.184/10^12</f>
+      <c r="K181" s="3">
+        <f t="shared" si="13"/>
         <v>1.2254483807361376E-3</v>
       </c>
       <c r="L181" s="3">
@@ -44411,7 +44301,7 @@
       <c r="V181" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W181" s="60" t="s">
+      <c r="W181" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X181" s="3">
@@ -44441,10 +44331,10 @@
       <c r="AF181" s="5">
         <v>919</v>
       </c>
-      <c r="AG181" s="61">
+      <c r="AG181" s="5">
         <v>-1</v>
       </c>
-      <c r="AH181" s="61">
+      <c r="AH181" s="5">
         <v>1</v>
       </c>
       <c r="AI181" s="45">
@@ -44530,7 +44420,7 @@
       </c>
     </row>
     <row r="182" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A182" s="57">
+      <c r="A182" s="6">
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -44548,11 +44438,11 @@
       <c r="F182" s="17">
         <v>45054.682638888888</v>
       </c>
-      <c r="G182" s="58">
+      <c r="G182" s="21">
         <v>-4</v>
       </c>
-      <c r="H182" s="59">
-        <f>F182+G182/24</f>
+      <c r="H182" s="4">
+        <f t="shared" si="10"/>
         <v>45054.515972222223</v>
       </c>
       <c r="I182" s="3">
@@ -44561,8 +44451,8 @@
       <c r="J182" s="3">
         <v>17000</v>
       </c>
-      <c r="K182" s="60">
-        <f>I182*J182^2/2/4.184/10^12</f>
+      <c r="K182" s="3">
+        <f t="shared" si="13"/>
         <v>8.634082217973231E-4</v>
       </c>
       <c r="L182" s="3">
@@ -44628,10 +44518,10 @@
       <c r="AF182" s="5">
         <v>0</v>
       </c>
-      <c r="AG182" s="61">
+      <c r="AG182" s="5">
         <v>-1</v>
       </c>
-      <c r="AH182" s="61">
+      <c r="AH182" s="5">
         <v>1</v>
       </c>
       <c r="AI182" s="45">
@@ -44717,7 +44607,7 @@
       </c>
     </row>
     <row r="183" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A183" s="57">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -44735,11 +44625,11 @@
       <c r="F183" s="17">
         <v>45066.895293414353</v>
       </c>
-      <c r="G183" s="58">
+      <c r="G183" s="21">
         <v>2</v>
       </c>
-      <c r="H183" s="59">
-        <f>F183+G183/24</f>
+      <c r="H183" s="4">
+        <f t="shared" si="10"/>
         <v>45066.978626747688</v>
       </c>
       <c r="I183" s="3">
@@ -44748,8 +44638,8 @@
       <c r="J183" s="3">
         <v>15985.39</v>
       </c>
-      <c r="K183" s="60">
-        <f>I183*J183^2/2/4.184/10^12</f>
+      <c r="K183" s="3">
+        <f t="shared" si="13"/>
         <v>7.6342224382200039E-4</v>
       </c>
       <c r="L183" s="3">
@@ -44788,7 +44678,7 @@
       <c r="V183" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W183" s="60" t="s">
+      <c r="W183" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X183" s="3">
@@ -44818,10 +44708,10 @@
       <c r="AF183" s="5">
         <v>500</v>
       </c>
-      <c r="AG183" s="61">
+      <c r="AG183" s="5">
         <v>-1</v>
       </c>
-      <c r="AH183" s="61">
+      <c r="AH183" s="5">
         <v>1</v>
       </c>
       <c r="AI183" s="45">
@@ -44925,11 +44815,11 @@
       <c r="F184" s="17">
         <v>45066.473877314813</v>
       </c>
-      <c r="G184" s="58">
+      <c r="G184" s="21">
         <v>10</v>
       </c>
-      <c r="H184" s="59">
-        <f>F184+G184/24</f>
+      <c r="H184" s="4">
+        <f t="shared" si="10"/>
         <v>45066.890543981477</v>
       </c>
       <c r="I184" s="3">
@@ -44938,8 +44828,8 @@
       <c r="J184" s="3">
         <v>27920</v>
       </c>
-      <c r="K184" s="60">
-        <f>I184*J184^2/2/4.184/10^12</f>
+      <c r="K184" s="3">
+        <f t="shared" si="13"/>
         <v>7.2026078149139581</v>
       </c>
       <c r="L184" s="3">
@@ -44976,7 +44866,7 @@
       <c r="V184" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W184" s="60" t="s">
+      <c r="W184" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X184" s="3">
@@ -45006,10 +44896,10 @@
       <c r="AF184" s="5">
         <v>500</v>
       </c>
-      <c r="AG184" s="61">
+      <c r="AG184" s="5">
         <v>-1</v>
       </c>
-      <c r="AH184" s="61">
+      <c r="AH184" s="5">
         <v>1</v>
       </c>
       <c r="AI184" s="45">
@@ -45113,11 +45003,11 @@
       <c r="F185" s="17">
         <v>45103.864710648151</v>
       </c>
-      <c r="G185" s="58">
+      <c r="G185" s="21">
         <v>2</v>
       </c>
-      <c r="H185" s="59">
-        <f>F185+G185/24</f>
+      <c r="H185" s="4">
+        <f t="shared" si="10"/>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -45126,8 +45016,8 @@
       <c r="J185" s="3">
         <v>20920</v>
       </c>
-      <c r="K185" s="60">
-        <f>I185*J185^2/2/4.184/10^12</f>
+      <c r="K185" s="3">
+        <f t="shared" si="13"/>
         <v>1.0460000000000001E-2</v>
       </c>
       <c r="L185" s="3">
@@ -45165,7 +45055,7 @@
       <c r="V185" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W185" s="60" t="s">
+      <c r="W185" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X185" s="3">
@@ -45195,10 +45085,10 @@
       <c r="AF185" s="5">
         <v>500</v>
       </c>
-      <c r="AG185" s="61">
+      <c r="AG185" s="5">
         <v>-1</v>
       </c>
-      <c r="AH185" s="61">
+      <c r="AH185" s="5">
         <v>1</v>
       </c>
       <c r="AI185" s="45">
@@ -45284,7 +45174,7 @@
       </c>
     </row>
     <row r="186" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A186" s="57">
+      <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -45302,11 +45192,11 @@
       <c r="F186" s="17">
         <v>45118.784571759257</v>
       </c>
-      <c r="G186" s="58">
+      <c r="G186" s="21">
         <v>2</v>
       </c>
-      <c r="H186" s="59">
-        <f>F186+G186/24</f>
+      <c r="H186" s="4">
+        <f t="shared" si="10"/>
         <v>45118.867905092593</v>
       </c>
       <c r="I186" s="3">
@@ -45315,8 +45205,8 @@
       <c r="J186" s="3">
         <v>19000</v>
       </c>
-      <c r="K186" s="60">
-        <f>I186*J186^2/2/4.184/10^12</f>
+      <c r="K186" s="3">
+        <f t="shared" si="13"/>
         <v>8.628107074569789E-3</v>
       </c>
       <c r="L186" s="3">
@@ -45384,10 +45274,10 @@
       <c r="AF186" s="5">
         <v>100</v>
       </c>
-      <c r="AG186" s="61">
+      <c r="AG186" s="5">
         <v>-1</v>
       </c>
-      <c r="AH186" s="61">
+      <c r="AH186" s="5">
         <v>1</v>
       </c>
       <c r="AI186" s="45">
@@ -45491,11 +45381,11 @@
       <c r="F187" s="17">
         <v>45133.154097222221</v>
       </c>
-      <c r="G187" s="58">
+      <c r="G187" s="21">
         <v>-7</v>
       </c>
-      <c r="H187" s="59">
-        <f>F187+G187/24</f>
+      <c r="H187" s="4">
+        <f t="shared" si="10"/>
         <v>45132.862430555557</v>
       </c>
       <c r="I187" s="3">
@@ -45504,8 +45394,8 @@
       <c r="J187" s="3">
         <v>15580</v>
       </c>
-      <c r="K187" s="60">
-        <f>I187*J187^2/2/4.184/10^12</f>
+      <c r="K187" s="3">
+        <f t="shared" si="13"/>
         <v>0.44004674808795408</v>
       </c>
       <c r="L187" s="3">
@@ -45542,7 +45432,7 @@
       <c r="V187" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W187" s="60" t="s">
+      <c r="W187" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X187" s="3">
@@ -45572,10 +45462,10 @@
       <c r="AF187" s="5">
         <v>500</v>
       </c>
-      <c r="AG187" s="61">
+      <c r="AG187" s="5">
         <v>-1</v>
       </c>
-      <c r="AH187" s="61">
+      <c r="AH187" s="5">
         <v>1</v>
       </c>
       <c r="AI187" s="45">
@@ -45661,7 +45551,7 @@
       </c>
     </row>
     <row r="188" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A188" s="57">
+      <c r="A188" s="6">
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -45679,11 +45569,11 @@
       <c r="F188" s="17">
         <v>45140.259212962963</v>
       </c>
-      <c r="G188" s="58">
+      <c r="G188" s="21">
         <v>-4</v>
       </c>
-      <c r="H188" s="59">
-        <f>F188+G188/24</f>
+      <c r="H188" s="4">
+        <f t="shared" si="10"/>
         <v>45140.092546296299</v>
       </c>
       <c r="I188" s="3">
@@ -45692,8 +45582,8 @@
       <c r="J188" s="3">
         <v>22770</v>
       </c>
-      <c r="K188" s="60">
-        <f>I188*J188^2/2/4.184/10^12</f>
+      <c r="K188" s="3">
+        <f t="shared" si="13"/>
         <v>2.1685649498087954E-3</v>
       </c>
       <c r="L188" s="3">
@@ -45731,7 +45621,7 @@
       <c r="V188" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W188" s="60" t="s">
+      <c r="W188" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X188" s="3">
@@ -45761,10 +45651,10 @@
       <c r="AF188" s="5">
         <v>2675</v>
       </c>
-      <c r="AG188" s="61">
+      <c r="AG188" s="5">
         <v>-1</v>
       </c>
-      <c r="AH188" s="61">
+      <c r="AH188" s="5">
         <v>1</v>
       </c>
       <c r="AI188" s="45">
@@ -45868,11 +45758,11 @@
       <c r="F189" s="17">
         <v>45178.926215277781</v>
       </c>
-      <c r="G189" s="58">
+      <c r="G189" s="21">
         <v>2</v>
       </c>
-      <c r="H189" s="59">
-        <f>F189+G189/24</f>
+      <c r="H189" s="4">
+        <f t="shared" si="10"/>
         <v>45179.009548611117</v>
       </c>
       <c r="I189" s="3">
@@ -45881,8 +45771,8 @@
       <c r="J189" s="3">
         <v>17000</v>
       </c>
-      <c r="K189" s="60">
-        <f>I189*J189^2/2/4.184/10^12</f>
+      <c r="K189" s="3">
+        <f t="shared" si="13"/>
         <v>3.4536328871892925E-4</v>
       </c>
       <c r="L189" s="3">
@@ -45904,14 +45794,14 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f>Q189</f>
+        <f t="shared" ref="R189:R198" si="14">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
         <v>3500</v>
       </c>
       <c r="T189" s="3">
-        <f>M189</f>
+        <f t="shared" ref="T189:T197" si="15">M189</f>
         <v>53.131300000000003</v>
       </c>
       <c r="U189" s="3">
@@ -45951,10 +45841,10 @@
       <c r="AF189" s="5">
         <v>34.36</v>
       </c>
-      <c r="AG189" s="61">
+      <c r="AG189" s="5">
         <v>-1</v>
       </c>
-      <c r="AH189" s="61">
+      <c r="AH189" s="5">
         <v>1</v>
       </c>
       <c r="AI189" s="45">
@@ -46040,7 +45930,7 @@
       </c>
     </row>
     <row r="190" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A190" s="57">
+      <c r="A190" s="6">
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -46058,11 +45948,11 @@
       <c r="F190" s="17">
         <v>45196.097491412038</v>
       </c>
-      <c r="G190" s="58">
+      <c r="G190" s="21">
         <v>2</v>
       </c>
-      <c r="H190" s="59">
-        <f>F190+G190/24</f>
+      <c r="H190" s="4">
+        <f t="shared" si="10"/>
         <v>45196.180824745374</v>
       </c>
       <c r="I190" s="3">
@@ -46071,8 +45961,8 @@
       <c r="J190" s="3">
         <v>16956</v>
       </c>
-      <c r="K190" s="60">
-        <f>I190*J190^2/2/4.184/10^12</f>
+      <c r="K190" s="3">
+        <f t="shared" si="13"/>
         <v>3.4357783938814533E-4</v>
       </c>
       <c r="L190" s="3">
@@ -46094,14 +45984,14 @@
         <v>28118.03</v>
       </c>
       <c r="R190" s="3">
-        <f>Q190</f>
+        <f t="shared" si="14"/>
         <v>28118.03</v>
       </c>
       <c r="S190" s="3">
         <v>2500</v>
       </c>
       <c r="T190" s="3">
-        <f>M190</f>
+        <f t="shared" si="15"/>
         <v>36.557000000000002</v>
       </c>
       <c r="U190" s="3">
@@ -46141,10 +46031,10 @@
       <c r="AF190" s="5">
         <v>10</v>
       </c>
-      <c r="AG190" s="61">
+      <c r="AG190" s="5">
         <v>-1</v>
       </c>
-      <c r="AH190" s="61">
+      <c r="AH190" s="5">
         <v>1</v>
       </c>
       <c r="AI190" s="45">
@@ -46252,7 +46142,7 @@
         <v>2</v>
       </c>
       <c r="H191" s="4">
-        <f>F191+G191/24</f>
+        <f t="shared" si="10"/>
         <v>45010.012233796297</v>
       </c>
       <c r="I191" s="3">
@@ -46261,8 +46151,8 @@
       <c r="J191" s="3">
         <v>13800</v>
       </c>
-      <c r="K191" s="60">
-        <f>I191*J191^2/2/4.184/10^12</f>
+      <c r="K191" s="3">
+        <f t="shared" si="13"/>
         <v>1.137906309751434E-4</v>
       </c>
       <c r="L191" s="3">
@@ -46284,14 +46174,14 @@
         <v>27500</v>
       </c>
       <c r="R191" s="3">
-        <f>Q191</f>
+        <f t="shared" si="14"/>
         <v>27500</v>
       </c>
       <c r="S191" s="3">
         <v>4100</v>
       </c>
       <c r="T191" s="3">
-        <f>M191</f>
+        <f t="shared" si="15"/>
         <v>64.163600000000002</v>
       </c>
       <c r="U191" s="3">
@@ -46420,7 +46310,7 @@
       </c>
     </row>
     <row r="192" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A192" s="57">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -46438,11 +46328,11 @@
       <c r="F192" s="17">
         <v>45206.158368055556</v>
       </c>
-      <c r="G192" s="58">
+      <c r="G192" s="21">
         <v>-6</v>
       </c>
-      <c r="H192" s="59">
-        <f>F192+G192/24</f>
+      <c r="H192" s="4">
+        <f t="shared" si="10"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I192" s="3">
@@ -46451,8 +46341,8 @@
       <c r="J192" s="3">
         <v>12530</v>
       </c>
-      <c r="K192" s="60">
-        <f>I192*J192^2/2/4.184/10^12</f>
+      <c r="K192" s="3">
+        <f t="shared" si="13"/>
         <v>9.381028919694072E-4</v>
       </c>
       <c r="L192" s="3">
@@ -46474,26 +46364,26 @@
         <v>30000</v>
       </c>
       <c r="R192" s="3">
-        <f>Q192</f>
+        <f t="shared" si="14"/>
         <v>30000</v>
       </c>
       <c r="S192" s="3">
         <v>4000</v>
       </c>
       <c r="T192" s="3">
-        <f>M192</f>
+        <f t="shared" si="15"/>
         <v>74.14</v>
       </c>
       <c r="U192" s="3">
         <v>28000</v>
       </c>
-      <c r="V192" s="60" t="s">
+      <c r="V192" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W192" s="60" t="s">
+      <c r="W192" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X192" s="60">
+      <c r="X192" s="3">
         <v>0</v>
       </c>
       <c r="Y192" s="3">
@@ -46520,10 +46410,10 @@
       <c r="AF192" s="5">
         <v>0</v>
       </c>
-      <c r="AG192" s="61">
+      <c r="AG192" s="5">
         <v>-1</v>
       </c>
-      <c r="AH192" s="61">
+      <c r="AH192" s="5">
         <v>1</v>
       </c>
       <c r="AI192" s="45">
@@ -46609,7 +46499,7 @@
       </c>
     </row>
     <row r="193" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A193" s="57">
+      <c r="A193" s="6">
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -46627,11 +46517,11 @@
       <c r="F193" s="17">
         <v>45206.158368055556</v>
       </c>
-      <c r="G193" s="58">
+      <c r="G193" s="21">
         <v>-6</v>
       </c>
-      <c r="H193" s="59">
-        <f>F193+G193/24</f>
+      <c r="H193" s="4">
+        <f t="shared" si="10"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I193" s="3">
@@ -46640,7 +46530,7 @@
       <c r="J193" s="3">
         <v>11910</v>
       </c>
-      <c r="K193" s="60">
+      <c r="K193" s="3">
         <v>8.5612392447418739E-4</v>
       </c>
       <c r="L193" s="3">
@@ -46662,14 +46552,14 @@
         <v>40000</v>
       </c>
       <c r="R193" s="3">
-        <f>Q193</f>
+        <f t="shared" si="14"/>
         <v>40000</v>
       </c>
       <c r="S193" s="3">
         <v>4000</v>
       </c>
       <c r="T193" s="3">
-        <f>M193</f>
+        <f t="shared" si="15"/>
         <v>76.349999999999994</v>
       </c>
       <c r="U193" s="3">
@@ -46678,7 +46568,7 @@
       <c r="V193" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W193" s="60" t="s">
+      <c r="W193" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X193" s="3">
@@ -46708,10 +46598,10 @@
       <c r="AF193" s="5">
         <v>0</v>
       </c>
-      <c r="AG193" s="61">
+      <c r="AG193" s="5">
         <v>-1</v>
       </c>
-      <c r="AH193" s="61">
+      <c r="AH193" s="5">
         <v>1</v>
       </c>
       <c r="AI193" s="45">
@@ -46815,11 +46705,11 @@
       <c r="F194" s="17">
         <v>45206.158368055556</v>
       </c>
-      <c r="G194" s="58">
+      <c r="G194" s="21">
         <v>-6</v>
       </c>
-      <c r="H194" s="59">
-        <f>F194+G194/24</f>
+      <c r="H194" s="4">
+        <f t="shared" si="10"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I194" s="3">
@@ -46828,7 +46718,7 @@
       <c r="J194" s="3">
         <v>11380</v>
       </c>
-      <c r="K194" s="60">
+      <c r="K194" s="3">
         <v>8.5612392447418739E-4</v>
       </c>
       <c r="L194" s="3">
@@ -46850,14 +46740,14 @@
         <v>50000</v>
       </c>
       <c r="R194" s="3">
-        <f>Q194</f>
+        <f t="shared" si="14"/>
         <v>50000</v>
       </c>
       <c r="S194" s="3">
         <v>4000</v>
       </c>
       <c r="T194" s="3">
-        <f>M194</f>
+        <f t="shared" si="15"/>
         <v>78.78</v>
       </c>
       <c r="U194" s="3">
@@ -46896,10 +46786,10 @@
       <c r="AF194" s="5">
         <v>0</v>
       </c>
-      <c r="AG194" s="61">
+      <c r="AG194" s="5">
         <v>-1</v>
       </c>
-      <c r="AH194" s="61">
+      <c r="AH194" s="5">
         <v>1</v>
       </c>
       <c r="AI194" s="45">
@@ -46985,80 +46875,80 @@
       </c>
     </row>
     <row r="195" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A195" s="57">
+      <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="B195" s="57" t="s">
+      <c r="B195" s="6" t="s">
         <v>2218</v>
       </c>
-      <c r="C195" s="57" t="s">
+      <c r="C195" s="6" t="s">
         <v>2218</v>
       </c>
-      <c r="D195" s="57" t="s">
+      <c r="D195" s="6" t="s">
         <v>2219</v>
       </c>
-      <c r="E195" s="57" t="s">
+      <c r="E195" s="6" t="s">
         <v>1439</v>
       </c>
       <c r="F195" s="17">
         <v>45290.088495370372</v>
       </c>
-      <c r="G195" s="58">
-        <v>0</v>
-      </c>
-      <c r="H195" s="59">
-        <f>F195+G195/24</f>
+      <c r="G195" s="21">
+        <v>0</v>
+      </c>
+      <c r="H195" s="4">
+        <f t="shared" si="10"/>
         <v>45290.088495370372</v>
       </c>
-      <c r="I195" s="60">
+      <c r="I195" s="3">
         <v>2</v>
       </c>
-      <c r="J195" s="60">
+      <c r="J195" s="3">
         <v>71000</v>
       </c>
-      <c r="K195" s="60">
+      <c r="K195" s="3">
         <f>I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
-      <c r="L195" s="60">
+      <c r="L195" s="3">
         <v>301.22000000000003</v>
       </c>
-      <c r="M195" s="60">
+      <c r="M195" s="3">
         <v>60.255000000000003</v>
       </c>
-      <c r="N195" s="60" t="s">
+      <c r="N195" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="O195" s="60">
+      <c r="O195" s="3">
         <v>50.243816000000002</v>
       </c>
-      <c r="P195" s="60">
+      <c r="P195" s="3">
         <v>-3.3686129999999999</v>
       </c>
-      <c r="Q195" s="60">
+      <c r="Q195" s="3">
         <v>70000</v>
       </c>
-      <c r="R195" s="60">
-        <f>Q195</f>
+      <c r="R195" s="3">
+        <f t="shared" si="14"/>
         <v>70000</v>
       </c>
-      <c r="S195" s="60">
+      <c r="S195" s="3">
         <v>20000</v>
       </c>
-      <c r="T195" s="60">
-        <f>M195</f>
+      <c r="T195" s="3">
+        <f t="shared" si="15"/>
         <v>60.255000000000003</v>
       </c>
-      <c r="U195" s="60">
+      <c r="U195" s="3">
         <v>70000</v>
       </c>
-      <c r="V195" s="60" t="s">
+      <c r="V195" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W195" s="60" t="s">
+      <c r="W195" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X195" s="60">
+      <c r="X195" s="3">
         <v>0</v>
       </c>
       <c r="Y195" s="3">
@@ -47067,28 +46957,28 @@
       <c r="Z195" s="3">
         <v>108000</v>
       </c>
-      <c r="AA195" s="61">
+      <c r="AA195" s="5">
         <v>2000</v>
       </c>
-      <c r="AB195" s="61">
+      <c r="AB195" s="5">
         <v>0.25</v>
       </c>
-      <c r="AC195" s="61">
+      <c r="AC195" s="5">
         <v>1</v>
       </c>
-      <c r="AD195" s="61">
+      <c r="AD195" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AE195" s="61">
+      <c r="AE195" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AF195" s="61">
-        <v>0</v>
-      </c>
-      <c r="AG195" s="61">
+      <c r="AF195" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG195" s="5">
         <v>-1</v>
       </c>
-      <c r="AH195" s="61">
+      <c r="AH195" s="5">
         <v>1</v>
       </c>
       <c r="AI195" s="45">
@@ -47192,11 +47082,11 @@
       <c r="F196" s="17">
         <v>45289.111493055556</v>
       </c>
-      <c r="G196" s="58">
+      <c r="G196" s="21">
         <v>-7</v>
       </c>
-      <c r="H196" s="59">
-        <f>F196+G196/24</f>
+      <c r="H196" s="4">
+        <f t="shared" si="10"/>
         <v>45288.819826388892</v>
       </c>
       <c r="I196" s="3">
@@ -47205,7 +47095,7 @@
       <c r="J196" s="3">
         <v>13530</v>
       </c>
-      <c r="K196" s="60">
+      <c r="K196" s="3">
         <f>I196*J196^2/2/4.184/10^12</f>
         <v>2.1876302581261948E-3</v>
       </c>
@@ -47228,27 +47118,27 @@
         <v>26206</v>
       </c>
       <c r="R196" s="3">
-        <f>Q196</f>
+        <f t="shared" si="14"/>
         <v>26206</v>
       </c>
       <c r="S196" s="3">
         <v>4000</v>
       </c>
       <c r="T196" s="3">
-        <f>M196</f>
+        <f t="shared" si="15"/>
         <v>36.810099999999998</v>
       </c>
       <c r="U196" s="3">
         <f>Q196</f>
         <v>26206</v>
       </c>
-      <c r="V196" s="60" t="s">
+      <c r="V196" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W196" s="60" t="s">
+      <c r="W196" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X196" s="60">
+      <c r="X196" s="3">
         <v>0</v>
       </c>
       <c r="Y196" s="3">
@@ -47275,10 +47165,10 @@
       <c r="AF196" s="5">
         <v>1000</v>
       </c>
-      <c r="AG196" s="61">
+      <c r="AG196" s="5">
         <v>-1</v>
       </c>
-      <c r="AH196" s="61">
+      <c r="AH196" s="5">
         <v>1</v>
       </c>
       <c r="AI196" s="45">
@@ -47364,80 +47254,80 @@
       </c>
     </row>
     <row r="197" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A197" s="57">
+      <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="B197" s="57" t="s">
+      <c r="B197" s="6" t="s">
         <v>2223</v>
       </c>
-      <c r="C197" s="57" t="s">
+      <c r="C197" s="6" t="s">
         <v>2224</v>
       </c>
-      <c r="D197" s="57" t="s">
+      <c r="D197" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E197" s="57" t="s">
+      <c r="E197" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F197" s="17">
         <v>45312.02270833333</v>
       </c>
-      <c r="G197" s="58">
+      <c r="G197" s="21">
         <v>1</v>
       </c>
-      <c r="H197" s="59">
-        <f>F197+G197/24</f>
+      <c r="H197" s="4">
+        <f t="shared" si="10"/>
         <v>45312.064374999994</v>
       </c>
-      <c r="I197" s="60">
+      <c r="I197" s="3">
         <v>1727</v>
       </c>
-      <c r="J197" s="60">
+      <c r="J197" s="3">
         <v>15221</v>
       </c>
-      <c r="K197" s="60">
+      <c r="K197" s="3">
         <f>I197*J197^2/2/4.184/10^12</f>
         <v>4.7814215870817398E-2</v>
       </c>
-      <c r="L197" s="60">
+      <c r="L197" s="3">
         <v>74.063199999999995</v>
       </c>
-      <c r="M197" s="60">
+      <c r="M197" s="3">
         <v>14.5168</v>
       </c>
-      <c r="N197" s="60" t="s">
+      <c r="N197" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="O197" s="60">
+      <c r="O197" s="3">
         <v>52.633274290000003</v>
       </c>
-      <c r="P197" s="60">
+      <c r="P197" s="3">
         <v>12.638593859964788</v>
       </c>
-      <c r="Q197" s="60">
+      <c r="Q197" s="3">
         <v>22000</v>
       </c>
-      <c r="R197" s="60">
-        <f>Q197</f>
+      <c r="R197" s="3">
+        <f t="shared" si="14"/>
         <v>22000</v>
       </c>
-      <c r="S197" s="60">
+      <c r="S197" s="3">
         <v>5000</v>
       </c>
-      <c r="T197" s="60">
-        <f>M197</f>
+      <c r="T197" s="3">
+        <f t="shared" si="15"/>
         <v>14.5168</v>
       </c>
-      <c r="U197" s="60">
+      <c r="U197" s="3">
         <v>22000</v>
       </c>
-      <c r="V197" s="60" t="s">
+      <c r="V197" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W197" s="60" t="s">
+      <c r="W197" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="X197" s="60">
+      <c r="X197" s="3">
         <v>0</v>
       </c>
       <c r="Y197" s="3">
@@ -47446,29 +47336,29 @@
       <c r="Z197" s="3">
         <v>60000</v>
       </c>
-      <c r="AA197" s="61">
+      <c r="AA197" s="5">
         <v>24</v>
       </c>
-      <c r="AB197" s="61">
+      <c r="AB197" s="5">
         <f>AC197*4.91</f>
         <v>0.49100000000000005</v>
       </c>
-      <c r="AC197" s="61">
+      <c r="AC197" s="5">
         <v>0.1</v>
       </c>
-      <c r="AD197" s="61">
+      <c r="AD197" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AE197" s="61">
+      <c r="AE197" s="5">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="AF197" s="61">
+      <c r="AF197" s="5">
         <v>20</v>
       </c>
-      <c r="AG197" s="61">
+      <c r="AG197" s="5">
         <v>-0.6</v>
       </c>
-      <c r="AH197" s="61">
+      <c r="AH197" s="5">
         <v>0.6</v>
       </c>
       <c r="AI197" s="45">
@@ -47484,7 +47374,7 @@
         <v>0</v>
       </c>
       <c r="AM197" s="23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN197" s="23">
         <v>0.17100000000000001</v>
@@ -47553,12 +47443,198 @@
         <v>0</v>
       </c>
     </row>
+    <row r="198" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>197</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="17">
+        <v>45323.238796296297</v>
+      </c>
+      <c r="G198" s="21">
+        <v>-5</v>
+      </c>
+      <c r="H198" s="4">
+        <f t="shared" si="10"/>
+        <v>45323.030462962961</v>
+      </c>
+      <c r="I198" s="3">
+        <v>1</v>
+      </c>
+      <c r="J198" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K198" s="3">
+        <f>I198*J198^2/2/4.184/10^12</f>
+        <v>3.8289913957934988E-5</v>
+      </c>
+      <c r="L198" s="3">
+        <v>12.257199999999999</v>
+      </c>
+      <c r="M198" s="3">
+        <v>35.474899999999998</v>
+      </c>
+      <c r="N198" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O198" s="3">
+        <v>34.966000000000001</v>
+      </c>
+      <c r="P198" s="3">
+        <v>-84.594999999999999</v>
+      </c>
+      <c r="Q198" s="3">
+        <v>31000</v>
+      </c>
+      <c r="R198" s="3">
+        <f t="shared" si="14"/>
+        <v>31000</v>
+      </c>
+      <c r="S198" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T198" s="3">
+        <f>M198</f>
+        <v>35.474899999999998</v>
+      </c>
+      <c r="U198" s="3">
+        <f>Q198</f>
+        <v>31000</v>
+      </c>
+      <c r="V198" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W198" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X198" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z198" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA198" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB198" s="5">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AC198" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AD198" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AE198" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AF198" s="5">
+        <v>50</v>
+      </c>
+      <c r="AG198" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH198" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI198" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ198" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK198" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL198" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM198" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN198" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO198" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP198" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ198" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR198" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS198" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT198" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU198" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV198" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW198" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX198" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY198" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ198" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA198" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB198" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC198" s="38">
+        <v>138</v>
+      </c>
+      <c r="BD198" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE198" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF198" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG198" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH198" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BI198" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:BI189" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:BI197">
-      <sortCondition ref="A5:A189"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A5:BI198" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -47569,8 +47645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5D8C8-2212-440A-B8B4-F552C83E0145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E718BF-A1A2-432A-8BF3-1B30CE539EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="1620" windowWidth="18795" windowHeight="10155" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5396" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5396" uniqueCount="2229">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6906,6 +6906,12 @@
   </si>
   <si>
     <t>Dunn</t>
+  </si>
+  <si>
+    <t>Devon County</t>
+  </si>
+  <si>
+    <t>aubrite</t>
   </si>
 </sst>
 </file>
@@ -15868,10 +15874,10 @@
   <dimension ref="A1:BI198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AG196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AD176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AL198" sqref="AL198"/>
+      <selection pane="bottomRight" activeCell="AH197" sqref="AH197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32729,7 +32735,7 @@
         <v>-4</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" ref="H113:H144" si="7">F113+G113/24</f>
+        <f t="shared" ref="H113:H130" si="7">F113+G113/24</f>
         <v>44492.879375000004</v>
       </c>
       <c r="I113" s="3">
@@ -46879,7 +46885,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>2218</v>
+        <v>2227</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>2218</v>
@@ -47322,10 +47328,10 @@
         <v>22000</v>
       </c>
       <c r="V197" s="3" t="s">
-        <v>144</v>
+        <v>2228</v>
       </c>
       <c r="W197" s="3" t="s">
-        <v>81</v>
+        <v>2228</v>
       </c>
       <c r="X197" s="3">
         <v>0</v>
@@ -47356,10 +47362,10 @@
         <v>20</v>
       </c>
       <c r="AG197" s="5">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="AH197" s="5">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AI197" s="45">
         <v>0</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAFBD2-92C0-42D2-8B0B-2CAA2F67C6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C724C-0981-462C-B8F2-E60E25462474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$200</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Database!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sources!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Time Zones'!$A$1:$L$1</definedName>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="2059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="2064">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6338,6 +6338,21 @@
   </si>
   <si>
     <t>Minsk</t>
+  </si>
+  <si>
+    <t>Nizwa</t>
+  </si>
+  <si>
+    <t>Ad Dakhiliyah</t>
+  </si>
+  <si>
+    <t>Mike Farmer</t>
+  </si>
+  <si>
+    <t>Federalsburg</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -15297,13 +15312,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI199"/>
+  <dimension ref="A1:BI201"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A200" sqref="A200:XFD200"/>
+      <selection pane="bottomRight" activeCell="I201" sqref="I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19825,10 +19840,10 @@
         <v>0</v>
       </c>
       <c r="AG28" s="10">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AH28" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="44" t="s">
         <v>1320</v>
@@ -39327,7 +39342,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H199" si="10">F153+G153/24</f>
+        <f t="shared" ref="H153:H201" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -46339,7 +46354,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f>I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K201" si="16">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -46528,7 +46543,7 @@
         <v>13530</v>
       </c>
       <c r="K196" s="3">
-        <f>I196*J196^2/2/4.184/10^12</f>
+        <f t="shared" si="16"/>
         <v>2.1876302581261948E-3</v>
       </c>
       <c r="L196" s="3">
@@ -46718,7 +46733,7 @@
         <v>15221</v>
       </c>
       <c r="K197" s="3">
-        <f>I197*J197^2/2/4.184/10^12</f>
+        <f t="shared" si="16"/>
         <v>4.7814215870817398E-2</v>
       </c>
       <c r="L197" s="3">
@@ -46908,7 +46923,7 @@
         <v>17900</v>
       </c>
       <c r="K198" s="3">
-        <f>I198*J198^2/2/4.184/10^12</f>
+        <f t="shared" si="16"/>
         <v>3.8289913957934988E-5</v>
       </c>
       <c r="L198" s="3">
@@ -47098,7 +47113,7 @@
         <v>12430</v>
       </c>
       <c r="K199" s="3">
-        <f>I199*J199^2/2/4.184/10^12</f>
+        <f t="shared" si="16"/>
         <v>1.8463778680688336E-3</v>
       </c>
       <c r="L199" s="3">
@@ -47254,8 +47269,385 @@
         <v>1</v>
       </c>
     </row>
+    <row r="200" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="F200" s="17">
+        <v>45348.472928240742</v>
+      </c>
+      <c r="G200" s="21">
+        <v>4</v>
+      </c>
+      <c r="H200" s="4">
+        <f t="shared" si="10"/>
+        <v>45348.639594907407</v>
+      </c>
+      <c r="I200" s="3">
+        <v>2057</v>
+      </c>
+      <c r="J200" s="3">
+        <v>22998</v>
+      </c>
+      <c r="K200" s="3">
+        <f t="shared" si="16"/>
+        <v>0.13001479018021034</v>
+      </c>
+      <c r="L200" s="3">
+        <v>51.503</v>
+      </c>
+      <c r="M200" s="3">
+        <v>64.709000000000003</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O200" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="P200" s="3">
+        <v>57.4</v>
+      </c>
+      <c r="Q200" s="3">
+        <v>35900</v>
+      </c>
+      <c r="R200" s="3">
+        <f>Q200</f>
+        <v>35900</v>
+      </c>
+      <c r="S200" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T200" s="3">
+        <f>M200</f>
+        <v>64.709000000000003</v>
+      </c>
+      <c r="U200" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V200" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W200" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X200" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z200" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA200" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB200" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC200" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD200" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AE200" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF200" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG200" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH200" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI200" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ200" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK200" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL200" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM200" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN200" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO200" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP200" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ200" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR200" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS200" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT200" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU200" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV200" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW200" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX200" s="38">
+        <v>4</v>
+      </c>
+      <c r="AY200" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ200" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA200" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB200" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC200" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD200" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE200" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF200" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG200" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH200" s="40" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BI200" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>200</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" s="17">
+        <v>45392.321851851855</v>
+      </c>
+      <c r="G201" s="21">
+        <v>-4</v>
+      </c>
+      <c r="H201" s="4">
+        <f t="shared" si="10"/>
+        <v>45392.155185185191</v>
+      </c>
+      <c r="I201" s="3">
+        <v>100</v>
+      </c>
+      <c r="J201" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K201" s="3">
+        <f t="shared" si="16"/>
+        <v>9.3690248565965577E-3</v>
+      </c>
+      <c r="L201" s="3">
+        <v>225</v>
+      </c>
+      <c r="M201" s="3">
+        <v>52</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O201" s="3">
+        <v>38.774949999999997</v>
+      </c>
+      <c r="P201" s="3">
+        <v>-75.766750000000002</v>
+      </c>
+      <c r="Q201" s="3">
+        <v>41000</v>
+      </c>
+      <c r="R201" s="3">
+        <f>Q201</f>
+        <v>41000</v>
+      </c>
+      <c r="S201" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T201" s="3">
+        <v>52.47</v>
+      </c>
+      <c r="U201" s="3">
+        <v>41000</v>
+      </c>
+      <c r="V201" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W201" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X201" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y201" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z201" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA201" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AB201" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC201" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="AD201" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AE201" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AF201" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AG201" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH201" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI201" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ201" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK201" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL201" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM201" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN201" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO201" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP201" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ201" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR201" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS201" s="54">
+        <v>0</v>
+      </c>
+      <c r="AT201" s="52">
+        <v>0</v>
+      </c>
+      <c r="AU201" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV201" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW201" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX201" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY201" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ201" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA201" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB201" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC201" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD201" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE201" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF201" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG201" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH201" s="40" t="s">
+        <v>2063</v>
+      </c>
+      <c r="BI201" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:BI198" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
+  <autoFilter ref="A5:BI200" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -47266,7 +47658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
@@ -49873,7 +50265,7 @@
   <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="Q22" sqref="Q19:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49985,11 +50377,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>78.690067525979785</v>
+        <v>55.619655276155136</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>11.309932474020215</v>
+        <v>34.380344723844864</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -49997,20 +50389,17 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>30</v>
-      </c>
-      <c r="L12">
-        <v>3.9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>152.97058540778355</v>
-      </c>
-      <c r="L13">
+        <v>69.06518659932803</v>
+      </c>
+      <c r="L13" t="e">
         <f>J13/L12</f>
-        <v>39.22322702763681</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q13" t="s">
         <v>404</v>
@@ -50028,13 +50417,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>11.309932474020215</v>
+        <v>34.380344723844864</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -50042,7 +50431,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -50064,14 +50453,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>40.79215610874229</v>
+        <v>14.167217763964725</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -50085,9 +50474,6 @@
       <c r="K21">
         <v>66</v>
       </c>
-      <c r="P21">
-        <v>14.784000000000001</v>
-      </c>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="J22">
@@ -50100,10 +50486,6 @@
       <c r="L22">
         <v>42.8</v>
       </c>
-      <c r="P22">
-        <f>P21*2</f>
-        <v>29.568000000000001</v>
-      </c>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
@@ -50155,10 +50537,6 @@
       </c>
       <c r="J27">
         <v>0.86</v>
-      </c>
-      <c r="Q27">
-        <f>1/1000</f>
-        <v>1E-3</v>
       </c>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.25">

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF5CD9A-EE4B-4D88-94B7-C1B42B027C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A5D497-9CD3-447C-90D9-01588DED5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -15078,10 +15078,10 @@
   <dimension ref="A1:BI202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="U191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC202" sqref="AC202"/>
+      <selection pane="bottomRight" activeCell="A196" sqref="A196:XFD196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47283,7 +47283,7 @@
         <v>8000</v>
       </c>
       <c r="T201" s="3">
-        <f t="shared" ref="T201:T202" si="17">M201</f>
+        <f t="shared" ref="T201" si="17">M201</f>
         <v>52</v>
       </c>
       <c r="U201" s="3">
@@ -47456,10 +47456,10 @@
         <v>1334</v>
       </c>
       <c r="O202" s="3">
-        <v>33.363050000000001</v>
+        <v>33.359256500000001</v>
       </c>
       <c r="P202" s="3">
-        <v>-113.2902</v>
+        <v>-113.3095055</v>
       </c>
       <c r="Q202" s="3">
         <v>26200</v>
@@ -47503,10 +47503,10 @@
         <v>3</v>
       </c>
       <c r="AD202" s="5">
-        <v>1.4450000000003627E-2</v>
+        <v>1.380749999999864E-2</v>
       </c>
       <c r="AE202" s="5">
-        <v>3.4300000000001801E-2</v>
+        <v>2.3628500000000899E-2</v>
       </c>
       <c r="AF202" s="5">
         <v>2000</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A5D497-9CD3-447C-90D9-01588DED5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2974E45-F128-4805-BA16-85F017A30079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="4185" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Database!$A$1:$H$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sources!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Time Zones'!$A$1:$L$1</definedName>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="2045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="2054">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6294,6 +6294,33 @@
   </si>
   <si>
     <t>Tonopah</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>kps</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>near end</t>
+  </si>
+  <si>
+    <t>Weert</t>
+  </si>
+  <si>
+    <t>Limburg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Hunsel</t>
   </si>
 </sst>
 </file>
@@ -6531,7 +6558,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6674,6 +6701,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15075,13 +15117,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI202"/>
+  <dimension ref="A1:BI204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A196" sqref="A196:XFD196"/>
+      <selection pane="bottomRight" activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16017,7 +16059,7 @@
         <v>-5</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H19" si="0">F6+G6/24</f>
+        <f>F6+G6/24</f>
         <v>43116.83924768518</v>
       </c>
       <c r="I6" s="9">
@@ -16027,7 +16069,7 @@
         <v>15830</v>
       </c>
       <c r="K6" s="26">
-        <f t="shared" ref="K6:K31" si="1">I6*J6^2/2/4.184/10^12</f>
+        <f>I6*J6^2/2/4.184/10^12</f>
         <v>3.4737467017208409E-3</v>
       </c>
       <c r="L6" s="9">
@@ -16173,7 +16215,7 @@
         <v>-4</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="0"/>
+        <f>F7+G7/24</f>
         <v>43596.029861111114</v>
       </c>
       <c r="I7" s="9">
@@ -16183,7 +16225,7 @@
         <v>21500</v>
       </c>
       <c r="K7" s="26">
-        <f t="shared" si="1"/>
+        <f>I7*J7^2/2/4.184/10^12</f>
         <v>1.1048040152963671E-3</v>
       </c>
       <c r="L7" s="9">
@@ -16328,7 +16370,7 @@
         <v>-6</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="0"/>
+        <f>F8+G8/24</f>
         <v>37706.993361111112</v>
       </c>
       <c r="I8" s="3">
@@ -16338,7 +16380,7 @@
         <v>19500</v>
       </c>
       <c r="K8" s="26">
-        <f t="shared" si="1"/>
+        <f>I8*J8^2/2/4.184/10^12</f>
         <v>0.41001383245697892</v>
       </c>
       <c r="L8" s="3">
@@ -16516,7 +16558,7 @@
         <v>-4</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f>F9+G9/24</f>
         <v>40763.056944444448</v>
       </c>
       <c r="I9" s="3">
@@ -16526,7 +16568,7 @@
         <v>25000</v>
       </c>
       <c r="K9" s="26">
-        <f t="shared" si="1"/>
+        <f>I9*J9^2/2/4.184/10^12</f>
         <v>3.7344646271510515E-4</v>
       </c>
       <c r="L9" s="3">
@@ -16671,7 +16713,7 @@
         <v>-4</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
+        <f>F10+G10/24</f>
         <v>43605.94063657408</v>
       </c>
       <c r="I10" s="3">
@@ -16681,7 +16723,7 @@
         <v>13600</v>
       </c>
       <c r="K10" s="26">
-        <f t="shared" si="1"/>
+        <f>I10*J10^2/2/4.184/10^12</f>
         <v>2.210325047801147E-4</v>
       </c>
       <c r="L10" s="3">
@@ -16826,7 +16868,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="0"/>
+        <f>F11+G11/24</f>
         <v>41648.128865740735</v>
       </c>
       <c r="I11" s="3">
@@ -16836,7 +16878,7 @@
         <v>44832</v>
       </c>
       <c r="K11" s="26">
-        <f t="shared" si="1"/>
+        <f>I11*J11^2/2/4.184/10^12</f>
         <v>0.11000692717399617</v>
       </c>
       <c r="L11" s="3">
@@ -16982,7 +17024,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="0"/>
+        <f>F12+G12/24</f>
         <v>42189.402905092596</v>
       </c>
       <c r="I12" s="3">
@@ -16992,7 +17034,7 @@
         <v>49000</v>
       </c>
       <c r="K12" s="26">
-        <f t="shared" si="1"/>
+        <f>I12*J12^2/2/4.184/10^12</f>
         <v>0.17990284416826005</v>
       </c>
       <c r="L12" s="3">
@@ -17139,7 +17181,7 @@
         <v>-7</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
+        <f>F13+G13/24</f>
         <v>39630.444664351853</v>
       </c>
       <c r="I13" s="3">
@@ -17149,7 +17191,7 @@
         <v>9800</v>
       </c>
       <c r="K13" s="26">
-        <f t="shared" si="1"/>
+        <f>I13*J13^2/2/4.184/10^12</f>
         <v>0.11999261472275334</v>
       </c>
       <c r="L13" s="3">
@@ -17294,7 +17336,7 @@
         <v>-3</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="0"/>
+        <f>F14+G14/24</f>
         <v>43622.936111111114</v>
       </c>
       <c r="I14" s="3">
@@ -17304,7 +17346,7 @@
         <v>14800</v>
       </c>
       <c r="K14" s="26">
-        <f t="shared" si="1"/>
+        <f>I14*J14^2/2/4.184/10^12</f>
         <v>8.504552581261951E-2</v>
       </c>
       <c r="L14" s="3">
@@ -17449,7 +17491,7 @@
         <v>-4</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
+        <f>F15+G15/24</f>
         <v>40000.044965277782</v>
       </c>
       <c r="I15" s="3">
@@ -17459,7 +17501,7 @@
         <v>11000</v>
       </c>
       <c r="K15" s="26">
-        <f t="shared" si="1"/>
+        <f>I15*J15^2/2/4.184/10^12</f>
         <v>5.3501434034416828E-3</v>
       </c>
       <c r="L15" s="3">
@@ -17604,7 +17646,7 @@
         <v>9.5</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="0"/>
+        <f>F16+G16/24</f>
         <v>43605.011840277781</v>
       </c>
       <c r="I16" s="3">
@@ -17614,7 +17656,7 @@
         <v>15200</v>
       </c>
       <c r="K16" s="26">
-        <f t="shared" si="1"/>
+        <f>I16*J16^2/2/4.184/10^12</f>
         <v>0.10999801147227532</v>
       </c>
       <c r="L16" s="3">
@@ -17759,7 +17801,7 @@
         <v>-4</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="0"/>
+        <f>F17+G17/24</f>
         <v>43670.113657407412</v>
       </c>
       <c r="I17" s="3">
@@ -17769,7 +17811,7 @@
         <v>20200</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" si="1"/>
+        <f>I17*J17^2/2/4.184/10^12</f>
         <v>2.4380975143403439E-3</v>
       </c>
       <c r="L17" s="3">
@@ -17914,7 +17956,7 @@
         <v>-7</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="0"/>
+        <f>F18+G18/24</f>
         <v>41021.327222222222</v>
       </c>
       <c r="I18" s="3">
@@ -17924,7 +17966,7 @@
         <v>28600</v>
       </c>
       <c r="K18" s="26">
-        <f t="shared" si="1"/>
+        <f>I18*J18^2/2/4.184/10^12</f>
         <v>3.9099426386233267</v>
       </c>
       <c r="L18" s="3">
@@ -18101,7 +18143,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="0"/>
+        <f>F19+G19/24</f>
         <v>41320.347462962964</v>
       </c>
       <c r="I19" s="3">
@@ -18111,7 +18153,7 @@
         <v>19160</v>
       </c>
       <c r="K19" s="26">
-        <f t="shared" si="1"/>
+        <f>I19*J19^2/2/4.184/10^12</f>
         <v>466.89343921548755</v>
       </c>
       <c r="L19" s="3">
@@ -18298,7 +18340,7 @@
         <v>18614.2</v>
       </c>
       <c r="K20" s="26">
-        <f t="shared" si="1"/>
+        <f>I20*J20^2/2/4.184/10^12</f>
         <v>439.98400822976106</v>
       </c>
       <c r="L20" s="3">
@@ -18443,7 +18485,7 @@
         <v>-4</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ref="H21:H31" si="2">F21+G21/24</f>
+        <f>F21+G21/24</f>
         <v>43670.960416666669</v>
       </c>
       <c r="I21" s="3">
@@ -18453,7 +18495,7 @@
         <v>30400</v>
       </c>
       <c r="K21" s="26">
-        <f t="shared" si="1"/>
+        <f>I21*J21^2/2/4.184/10^12</f>
         <v>1.104397705544933E-3</v>
       </c>
       <c r="L21" s="3">
@@ -18598,7 +18640,7 @@
         <v>-6</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="2"/>
+        <f>F22+G22/24</f>
         <v>43708.933217592596</v>
       </c>
       <c r="I22" s="3">
@@ -18608,7 +18650,7 @@
         <v>7827</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" si="1"/>
+        <f>I22*J22^2/2/4.184/10^12</f>
         <v>3.6604881094646271E-4</v>
       </c>
       <c r="L22" s="3">
@@ -18753,7 +18795,7 @@
         <v>-4</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
+        <f>F23+G23/24</f>
         <v>43743.800115740742</v>
       </c>
       <c r="I23" s="3">
@@ -18763,7 +18805,7 @@
         <v>14000</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="1"/>
+        <f>I23*J23^2/2/4.184/10^12</f>
         <v>2.3422562141491394E-3</v>
       </c>
       <c r="L23" s="3">
@@ -18908,7 +18950,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f>F24+G24/24</f>
         <v>43720.61791666667</v>
       </c>
       <c r="I24" s="3">
@@ -18918,7 +18960,7 @@
         <v>19998</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="1"/>
+        <f>I24*J24^2/2/4.184/10^12</f>
         <v>0.48000000000000004</v>
       </c>
       <c r="L24" s="3">
@@ -19062,7 +19104,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f>F25+G25/24</f>
         <v>43735.81248842593</v>
       </c>
       <c r="I25" s="3">
@@ -19072,7 +19114,7 @@
         <v>17965</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="1"/>
+        <f>I25*J25^2/2/4.184/10^12</f>
         <v>1.928425101577438E-3</v>
       </c>
       <c r="L25" s="3">
@@ -19120,28 +19162,28 @@
       <c r="Z25" s="3">
         <v>85000</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA25" s="58">
         <v>500</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AB25" s="58">
         <v>0.5</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AC25" s="58">
         <v>0.5</v>
       </c>
-      <c r="AD25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="5">
+      <c r="AD25" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="58">
         <v>50</v>
       </c>
-      <c r="AG25" s="5">
+      <c r="AG25" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH25" s="5">
+      <c r="AH25" s="58">
         <v>1.5</v>
       </c>
       <c r="AI25" s="44" t="s">
@@ -19216,7 +19258,7 @@
         <v>-4</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="2"/>
+        <f>F26+G26/24</f>
         <v>43739.041655092595</v>
       </c>
       <c r="I26" s="3">
@@ -19226,7 +19268,7 @@
         <v>59700</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="1"/>
+        <f>I26*J26^2/2/4.184/10^12</f>
         <v>4.2591897705544932E-2</v>
       </c>
       <c r="L26" s="3">
@@ -19371,7 +19413,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="2"/>
+        <f>F27+G27/24</f>
         <v>43749.01152777778</v>
       </c>
       <c r="I27" s="3">
@@ -19381,7 +19423,7 @@
         <v>14065</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="1"/>
+        <f>I27*J27^2/2/4.184/10^12</f>
         <v>0.56999759667483263</v>
       </c>
       <c r="L27" s="3">
@@ -19526,7 +19568,7 @@
         <v>-6</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="2"/>
+        <f>F28+G28/24</f>
         <v>43780.869270833333</v>
       </c>
       <c r="I28" s="3">
@@ -19536,7 +19578,7 @@
         <v>15300</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="1"/>
+        <f>I28*J28^2/2/4.184/10^12</f>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L28" s="3">
@@ -19711,7 +19753,7 @@
         <v>-6</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="2"/>
+        <f>F29+G29/24</f>
         <v>43780.869270833333</v>
       </c>
       <c r="I29" s="3">
@@ -19721,7 +19763,7 @@
         <v>15300</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
+        <f>I29*J29^2/2/4.184/10^12</f>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L29" s="3">
@@ -19866,7 +19908,7 @@
         <v>-5</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="2"/>
+        <f>F30+G30/24</f>
         <v>43802.803101851852</v>
       </c>
       <c r="I30" s="3">
@@ -19876,7 +19918,7 @@
         <v>20000</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="1"/>
+        <f>I30*J30^2/2/4.184/10^12</f>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L30" s="3">
@@ -20021,7 +20063,7 @@
         <v>-8</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="2"/>
+        <f>F31+G31/24</f>
         <v>36543.363692129627</v>
       </c>
       <c r="I31" s="3">
@@ -20031,7 +20073,7 @@
         <v>15800</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="1"/>
+        <f>I31*J31^2/2/4.184/10^12</f>
         <v>1.7452127151051624</v>
       </c>
       <c r="L31" s="3">
@@ -22850,7 +22892,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" ref="H62:H71" si="3">F62+G62/24</f>
+        <f>F62+G62/24</f>
         <v>39060.355000000003</v>
       </c>
       <c r="I62" s="3">
@@ -22860,7 +22902,7 @@
         <v>15861</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" ref="K62:K72" si="4">I62*J62^2/2/4.184/10^12</f>
+        <f>I62*J62^2/2/4.184/10^12</f>
         <v>13.99999812793989</v>
       </c>
       <c r="L62" s="3">
@@ -23034,7 +23076,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="3"/>
+        <f>F63+G63/24</f>
         <v>42249.923922685186</v>
       </c>
       <c r="I63" s="37">
@@ -23044,7 +23086,7 @@
         <v>17100</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="4"/>
+        <f>I63*J63^2/2/4.184/10^12</f>
         <v>6.5659463432122367E-2</v>
       </c>
       <c r="L63" s="3">
@@ -23188,7 +23230,7 @@
         <v>-6</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="3"/>
+        <f>F64+G64/24</f>
         <v>43578.879861111112</v>
       </c>
       <c r="I64" s="3">
@@ -23198,7 +23240,7 @@
         <v>14000</v>
       </c>
       <c r="K64" s="36">
-        <f t="shared" si="4"/>
+        <f>I64*J64^2/2/4.184/10^12</f>
         <v>1.1711281070745696E-2</v>
       </c>
       <c r="L64" s="3">
@@ -23358,7 +23400,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="3"/>
+        <f>F65+G65/24</f>
         <v>43835.169652777775</v>
       </c>
       <c r="I65" s="3">
@@ -23368,7 +23410,7 @@
         <v>18000</v>
       </c>
       <c r="K65" s="36">
-        <f t="shared" si="4"/>
+        <f>I65*J65^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L65" s="3">
@@ -23513,7 +23555,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="3"/>
+        <f>F66+G66/24</f>
         <v>43835.169652777775</v>
       </c>
       <c r="I66" s="3">
@@ -23523,7 +23565,7 @@
         <v>18000</v>
       </c>
       <c r="K66" s="36">
-        <f t="shared" si="4"/>
+        <f>I66*J66^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L66" s="3">
@@ -23668,7 +23710,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="3"/>
+        <f>F67+G67/24</f>
         <v>43857.277256944442</v>
       </c>
       <c r="I67" s="3">
@@ -23678,7 +23720,7 @@
         <v>20860</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="4"/>
+        <f>I67*J67^2/2/4.184/10^12</f>
         <v>0.15001000000000006</v>
       </c>
       <c r="L67" s="3">
@@ -23853,7 +23895,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="3"/>
+        <f>F68+G68/24</f>
         <v>43859.005555555552</v>
       </c>
       <c r="I68" s="3">
@@ -23863,7 +23905,7 @@
         <v>16944</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="4"/>
+        <f>I68*J68^2/2/4.184/10^12</f>
         <v>1.0292751051625238E-2</v>
       </c>
       <c r="L68" s="3">
@@ -24034,7 +24076,7 @@
         <v>5.5</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="3"/>
+        <f>F69+G69/24</f>
         <v>43872.221030092587</v>
       </c>
       <c r="I69" s="3">
@@ -24044,7 +24086,7 @@
         <v>31690</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="4"/>
+        <f>I69*J69^2/2/4.184/10^12</f>
         <v>9.4929084022466539E-2</v>
       </c>
       <c r="L69" s="3">
@@ -24218,7 +24260,7 @@
         <v>-5</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="3"/>
+        <f>F70+G70/24</f>
         <v>43868.778518518513</v>
       </c>
       <c r="I70" s="3">
@@ -24228,7 +24270,7 @@
         <v>19080</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="4"/>
+        <f>I70*J70^2/2/4.184/10^12</f>
         <v>6.5256883365200757E-3</v>
       </c>
       <c r="L70" s="3">
@@ -24372,7 +24414,7 @@
         <v>-7</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="3"/>
+        <f>F71+G71/24</f>
         <v>43877.303761574076</v>
       </c>
       <c r="I71" s="3">
@@ -24382,7 +24424,7 @@
         <v>23000</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="4"/>
+        <f>I71*J71^2/2/4.184/10^12</f>
         <v>9.48255258126195E-3</v>
       </c>
       <c r="L71" s="3">
@@ -24501,77 +24543,77 @@
       </c>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="54">
         <v>68</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="54" t="s">
         <v>1229</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="54" t="s">
         <v>1226</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="54" t="s">
         <v>1227</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="17">
         <v>43877.59542824074</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="55">
         <v>-7</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="56">
         <v>43877.303761574076</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="57">
         <v>0.1</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="57">
         <v>50</v>
       </c>
-      <c r="K72" s="3">
-        <f t="shared" si="4"/>
+      <c r="K72" s="57">
+        <f>I72*J72^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="57">
         <v>282.5</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
+      <c r="M72" s="57">
+        <v>0</v>
+      </c>
+      <c r="N72" s="57" t="s">
         <v>1334</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="57">
         <v>34.772824</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="57">
         <v>-112.717595</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="57">
         <v>11527</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="57">
         <v>11527</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="57">
         <v>80</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="57">
         <v>2</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="57">
         <v>11527</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="V72" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="W72" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="57">
         <v>0</v>
       </c>
       <c r="Y72" s="3">
@@ -24580,28 +24622,28 @@
       <c r="Z72" s="3">
         <v>11527</v>
       </c>
-      <c r="AA72" s="5">
+      <c r="AA72" s="58">
         <v>30</v>
       </c>
-      <c r="AB72" s="5">
+      <c r="AB72" s="58">
         <v>3</v>
       </c>
-      <c r="AC72" s="5">
+      <c r="AC72" s="58">
         <v>1</v>
       </c>
-      <c r="AD72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="5">
+      <c r="AD72" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="58">
         <v>1150</v>
       </c>
-      <c r="AG72" s="5">
+      <c r="AG72" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH72" s="5">
+      <c r="AH72" s="58">
         <v>1.5</v>
       </c>
       <c r="AI72" s="44" t="s">
@@ -24651,7 +24693,7 @@
       </c>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="54">
         <v>68</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -24669,10 +24711,10 @@
       <c r="F73" s="17">
         <v>43877.59542824074</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="55">
         <v>-7</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="56">
         <v>43877.303761574076</v>
       </c>
       <c r="I73" s="3">
@@ -24681,7 +24723,7 @@
       <c r="J73" s="3">
         <v>50</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="57">
         <v>4.5889101338432122E-9</v>
       </c>
       <c r="L73" s="3">
@@ -24717,7 +24759,7 @@
       <c r="V73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W73" s="3" t="s">
+      <c r="W73" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X73" s="3">
@@ -24747,10 +24789,10 @@
       <c r="AF73" s="5">
         <v>1150</v>
       </c>
-      <c r="AG73" s="5">
+      <c r="AG73" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH73" s="5">
+      <c r="AH73" s="58">
         <v>1.5</v>
       </c>
       <c r="AI73" s="44" t="s">
@@ -25478,7 +25520,7 @@
       <c r="V78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W78" s="3" t="s">
+      <c r="W78" s="57" t="s">
         <v>242</v>
       </c>
       <c r="X78" s="3">
@@ -25953,7 +25995,7 @@
         <v>-3</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" ref="H81:H112" si="5">F81+G81/24</f>
+        <f>F81+G81/24</f>
         <v>43959.142534722225</v>
       </c>
       <c r="I81" s="3">
@@ -26140,7 +26182,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="5"/>
+        <f>F82+G82/24</f>
         <v>43978.854328703703</v>
       </c>
       <c r="I82" s="3">
@@ -26326,7 +26368,7 @@
         <v>9</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="5"/>
+        <f>F83+G83/24</f>
         <v>44014.105590277781</v>
       </c>
       <c r="I83" s="3">
@@ -26336,7 +26378,7 @@
         <v>14646</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" ref="K83:K130" si="6">I83*J83^2/2/4.184/10^12</f>
+        <f>I83*J83^2/2/4.184/10^12</f>
         <v>0.16405760305927342</v>
       </c>
       <c r="L83" s="3">
@@ -26514,7 +26556,7 @@
         <v>-3</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="5"/>
+        <f>F84+G84/24</f>
         <v>44027.790972222225</v>
       </c>
       <c r="I84" s="3">
@@ -26524,7 +26566,7 @@
         <v>12500</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="6"/>
+        <f>I84*J84^2/2/4.184/10^12</f>
         <v>3.7344646271510514E-3</v>
       </c>
       <c r="L84" s="3">
@@ -26702,7 +26744,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="5"/>
+        <f>F85+G85/24</f>
         <v>44043.100694444445</v>
       </c>
       <c r="I85" s="3">
@@ -26712,7 +26754,7 @@
         <v>18000</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="6"/>
+        <f>I85*J85^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L85" s="3">
@@ -26889,7 +26931,7 @@
         <v>-3</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="5"/>
+        <f>F86+G86/24</f>
         <v>44062.429560185185</v>
       </c>
       <c r="I86" s="3">
@@ -26899,7 +26941,7 @@
         <v>17970</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="6"/>
+        <f>I86*J86^2/2/4.184/10^12</f>
         <v>3.8589973709369028E-2</v>
       </c>
       <c r="L86" s="3">
@@ -27076,7 +27118,7 @@
         <v>-3</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="5"/>
+        <f>F87+G87/24</f>
         <v>44105.048020833332</v>
       </c>
       <c r="I87" s="3">
@@ -27086,7 +27128,7 @@
         <v>16550</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="6"/>
+        <f>I87*J87^2/2/4.184/10^12</f>
         <v>6.546426864244741E-3</v>
       </c>
       <c r="L87" s="3">
@@ -27263,7 +27305,7 @@
         <v>-6</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="5"/>
+        <f>F88+G88/24</f>
         <v>44136.745266203703</v>
       </c>
       <c r="I88" s="3">
@@ -27273,7 +27315,7 @@
         <v>20100</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="6"/>
+        <f>I88*J88^2/2/4.184/10^12</f>
         <v>4.8280353728489482E-4</v>
       </c>
       <c r="L88" s="3">
@@ -27450,7 +27492,7 @@
         <v>-4</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="5"/>
+        <f>F89+G89/24</f>
         <v>44143.84652777778</v>
       </c>
       <c r="I89" s="3">
@@ -27460,7 +27502,7 @@
         <v>18000</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="6"/>
+        <f>I89*J89^2/2/4.184/10^12</f>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L89" s="3">
@@ -27637,7 +27679,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="5"/>
+        <f>F90+G90/24</f>
         <v>44142.93546296296</v>
       </c>
       <c r="I90" s="3">
@@ -27647,7 +27689,7 @@
         <v>17400</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="6"/>
+        <f>I90*J90^2/2/4.184/10^12</f>
         <v>0.33467136711281065</v>
       </c>
       <c r="L90" s="3">
@@ -27824,7 +27866,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="5"/>
+        <f>F91+G91/24</f>
         <v>44142.93546296296</v>
       </c>
       <c r="I91" s="3">
@@ -27834,7 +27876,7 @@
         <v>17055</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="6"/>
+        <f>I91*J91^2/2/4.184/10^12</f>
         <v>0.3371735590941683</v>
       </c>
       <c r="L91" s="3">
@@ -28011,7 +28053,7 @@
         <v>-5</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="5"/>
+        <f>F92+G92/24</f>
         <v>44167.504861111105</v>
       </c>
       <c r="I92" s="3">
@@ -28021,7 +28063,7 @@
         <v>25000</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="6"/>
+        <f>I92*J92^2/2/4.184/10^12</f>
         <v>6.7220363288718929E-2</v>
       </c>
       <c r="L92" s="3">
@@ -28194,11 +28236,11 @@
       <c r="F93" s="17">
         <v>44176.018318287039</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="55">
         <v>-5</v>
       </c>
-      <c r="H93" s="4">
-        <f t="shared" si="5"/>
+      <c r="H93" s="56">
+        <f>F93+G93/24</f>
         <v>44175.809984953703</v>
       </c>
       <c r="I93" s="3">
@@ -28207,8 +28249,8 @@
       <c r="J93" s="3">
         <v>28072.8632</v>
       </c>
-      <c r="K93" s="3">
-        <f t="shared" si="6"/>
+      <c r="K93" s="57">
+        <f>I93*J93^2/2/4.184/10^12</f>
         <v>1.8835699049854547E-4</v>
       </c>
       <c r="L93" s="3">
@@ -28244,7 +28286,7 @@
       <c r="V93" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W93" s="3" t="s">
+      <c r="W93" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X93" s="3">
@@ -28274,10 +28316,10 @@
       <c r="AF93" s="5">
         <v>50</v>
       </c>
-      <c r="AG93" s="5">
+      <c r="AG93" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH93" s="5">
+      <c r="AH93" s="58">
         <v>1.5</v>
       </c>
       <c r="AI93" s="45">
@@ -28385,7 +28427,7 @@
         <v>-6</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="5"/>
+        <f>F94+G94/24</f>
         <v>44181.284918981481</v>
       </c>
       <c r="I94" s="3">
@@ -28395,7 +28437,7 @@
         <v>12000</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="6"/>
+        <f>I94*J94^2/2/4.184/10^12</f>
         <v>8.6042065009560222E-4</v>
       </c>
       <c r="L94" s="3">
@@ -28572,7 +28614,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="5"/>
+        <f>F95+G95/24</f>
         <v>44188.308020833334</v>
       </c>
       <c r="I95" s="3">
@@ -28582,7 +28624,7 @@
         <v>13710</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="6"/>
+        <f>I95*J95^2/2/4.184/10^12</f>
         <v>9.4986112532265761</v>
       </c>
       <c r="L95" s="3">
@@ -28759,7 +28801,7 @@
         <v>-6</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="5"/>
+        <f>F96+G96/24</f>
         <v>44251.845289351855</v>
       </c>
       <c r="I96" s="3">
@@ -28769,7 +28811,7 @@
         <v>26300</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="6"/>
+        <f>I96*J96^2/2/4.184/10^12</f>
         <v>4.1329469407265776E-3</v>
       </c>
       <c r="L96" s="3">
@@ -28946,7 +28988,7 @@
         <v>-5</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="5"/>
+        <f>F97+G97/24</f>
         <v>44253.921574074069</v>
       </c>
       <c r="I97" s="3">
@@ -28956,7 +28998,7 @@
         <v>29400</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="6"/>
+        <f>I97*J97^2/2/4.184/10^12</f>
         <v>1.0329349904397705E-3</v>
       </c>
       <c r="L97" s="3">
@@ -29111,78 +29153,78 @@
       </c>
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="54">
         <v>95</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="54" t="s">
         <v>1366</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="54" t="s">
         <v>1364</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="17">
         <v>44254.129907407405</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="55">
         <v>-5</v>
       </c>
-      <c r="H98" s="4">
-        <f t="shared" si="5"/>
+      <c r="H98" s="56">
+        <f>F98+G98/24</f>
         <v>44253.921574074069</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="57">
         <v>0.1</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="57">
         <v>50</v>
       </c>
-      <c r="K98" s="3">
-        <f t="shared" si="6"/>
+      <c r="K98" s="57">
+        <f>I98*J98^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98" s="57">
         <v>310.58999999999997</v>
       </c>
-      <c r="M98" s="3">
-        <v>0</v>
-      </c>
-      <c r="N98" s="3" t="s">
+      <c r="M98" s="57">
+        <v>0</v>
+      </c>
+      <c r="N98" s="57" t="s">
         <v>1334</v>
       </c>
-      <c r="O98" s="3">
+      <c r="O98" s="57">
         <v>42.817433000000001</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98" s="57">
         <v>-82.645071000000002</v>
       </c>
-      <c r="Q98" s="3">
+      <c r="Q98" s="57">
         <v>1350</v>
       </c>
-      <c r="R98" s="3">
+      <c r="R98" s="57">
         <v>1350</v>
       </c>
-      <c r="S98" s="3">
+      <c r="S98" s="57">
         <v>50</v>
       </c>
-      <c r="T98" s="3">
-        <v>0</v>
-      </c>
-      <c r="U98" s="3">
+      <c r="T98" s="57">
+        <v>0</v>
+      </c>
+      <c r="U98" s="57">
         <v>1100</v>
       </c>
-      <c r="V98" s="3" t="s">
+      <c r="V98" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="W98" s="3" t="s">
+      <c r="W98" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="X98" s="3">
+      <c r="X98" s="57">
         <v>0</v>
       </c>
       <c r="Y98" s="3">
@@ -29191,28 +29233,28 @@
       <c r="Z98" s="3">
         <v>1600</v>
       </c>
-      <c r="AA98" s="5">
+      <c r="AA98" s="58">
         <v>30</v>
       </c>
-      <c r="AB98" s="5">
+      <c r="AB98" s="58">
         <v>2</v>
       </c>
-      <c r="AC98" s="5">
+      <c r="AC98" s="58">
         <v>1</v>
       </c>
-      <c r="AD98" s="5">
+      <c r="AD98" s="58">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AE98" s="5">
+      <c r="AE98" s="58">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="AF98" s="5">
+      <c r="AF98" s="58">
         <v>400</v>
       </c>
-      <c r="AG98" s="5">
+      <c r="AG98" s="58">
         <v>-1</v>
       </c>
-      <c r="AH98" s="5">
+      <c r="AH98" s="58">
         <v>1</v>
       </c>
       <c r="AI98" s="45">
@@ -29320,7 +29362,7 @@
         <v>-6</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="5"/>
+        <f>F99+G99/24</f>
         <v>44236.727418981478</v>
       </c>
       <c r="I99" s="3">
@@ -29330,7 +29372,7 @@
         <v>13150</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="6"/>
+        <f>I99*J99^2/2/4.184/10^12</f>
         <v>0.10005864543499043</v>
       </c>
       <c r="L99" s="3">
@@ -29485,7 +29527,7 @@
       </c>
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100" s="54">
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -29503,11 +29545,11 @@
       <c r="F100" s="17">
         <v>44255.91269675926</v>
       </c>
-      <c r="G100" s="21">
-        <v>0</v>
-      </c>
-      <c r="H100" s="4">
-        <f t="shared" si="5"/>
+      <c r="G100" s="55">
+        <v>0</v>
+      </c>
+      <c r="H100" s="56">
+        <f>F100+G100/24</f>
         <v>44255.91269675926</v>
       </c>
       <c r="I100" s="3">
@@ -29516,8 +29558,8 @@
       <c r="J100" s="3">
         <v>10600</v>
       </c>
-      <c r="K100" s="3">
-        <f t="shared" si="6"/>
+      <c r="K100" s="57">
+        <f>I100*J100^2/2/4.184/10^12</f>
         <v>6.7136711281070733E-5</v>
       </c>
       <c r="L100" s="3">
@@ -29583,10 +29625,10 @@
       <c r="AF100" s="5">
         <v>1500</v>
       </c>
-      <c r="AG100" s="5">
+      <c r="AG100" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH100" s="5">
+      <c r="AH100" s="58">
         <v>1.5</v>
       </c>
       <c r="AI100" s="45">
@@ -29694,7 +29736,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="5"/>
+        <f>F101+G101/24</f>
         <v>44261.118067129624</v>
       </c>
       <c r="I101" s="3">
@@ -29704,7 +29746,7 @@
         <v>23260</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="6"/>
+        <f>I101*J101^2/2/4.184/10^12</f>
         <v>0.12995524330783939</v>
       </c>
       <c r="L101" s="3">
@@ -29881,7 +29923,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="5"/>
+        <f>F102+G102/24</f>
         <v>44229.627326388894</v>
       </c>
       <c r="I102" s="3">
@@ -29891,7 +29933,7 @@
         <v>12760</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="6"/>
+        <f>I102*J102^2/2/4.184/10^12</f>
         <v>0.10995246864244741</v>
       </c>
       <c r="L102" s="3">
@@ -30068,7 +30110,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="5"/>
+        <f>F103+G103/24</f>
         <v>44271.798460648148</v>
       </c>
       <c r="I103" s="3">
@@ -30078,7 +30120,7 @@
         <v>12900</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="6"/>
+        <f>I103*J103^2/2/4.184/10^12</f>
         <v>9.9432361376673023E-4</v>
       </c>
       <c r="L103" s="3">
@@ -30256,7 +30298,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="5"/>
+        <f>F104+G104/24</f>
         <v>44270.372916666667</v>
       </c>
       <c r="I104" s="3">
@@ -30265,8 +30307,8 @@
       <c r="J104" s="3">
         <v>14000</v>
       </c>
-      <c r="K104" s="3">
-        <f t="shared" si="6"/>
+      <c r="K104" s="57">
+        <f>I104*J104^2/2/4.184/10^12</f>
         <v>2.3422562141491395E-4</v>
       </c>
       <c r="L104" s="3">
@@ -30443,7 +30485,7 @@
         <v>-4</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="5"/>
+        <f>F105+G105/24</f>
         <v>40245.251469907409</v>
       </c>
       <c r="I105" s="3">
@@ -30453,7 +30495,7 @@
         <v>24501</v>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="6"/>
+        <f>I105*J105^2/2/4.184/10^12</f>
         <v>0.85001707252019587</v>
       </c>
       <c r="L105" s="3">
@@ -30630,7 +30672,7 @@
         <v>-5</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="5"/>
+        <f>F106+G106/24</f>
         <v>42965.996932870366</v>
       </c>
       <c r="I106" s="3">
@@ -30640,7 +30682,7 @@
         <v>15000</v>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="6"/>
+        <f>I106*J106^2/2/4.184/10^12</f>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L106" s="3">
@@ -30706,10 +30748,10 @@
       <c r="AF106" s="5">
         <v>1000</v>
       </c>
-      <c r="AG106" s="5">
+      <c r="AG106" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH106" s="5">
+      <c r="AH106" s="58">
         <v>1.5</v>
       </c>
       <c r="AI106" s="45">
@@ -30817,7 +30859,7 @@
         <v>9.5</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="5"/>
+        <f>F107+G107/24</f>
         <v>44322.64197916667</v>
       </c>
       <c r="I107" s="3">
@@ -30827,7 +30869,7 @@
         <v>26620</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="6"/>
+        <f>I107*J107^2/2/4.184/10^12</f>
         <v>7.5960335420650088E-2</v>
       </c>
       <c r="L107" s="3">
@@ -31004,7 +31046,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="5"/>
+        <f>F108+G108/24</f>
         <v>43893.025694444441</v>
       </c>
       <c r="I108" s="3">
@@ -31014,7 +31056,7 @@
         <v>15000</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="6"/>
+        <f>I108*J108^2/2/4.184/10^12</f>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L108" s="3">
@@ -31080,10 +31122,10 @@
       <c r="AF108" s="5">
         <v>1000</v>
       </c>
-      <c r="AG108" s="5">
+      <c r="AG108" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH108" s="5">
+      <c r="AH108" s="58">
         <v>1.5</v>
       </c>
       <c r="AI108" s="45">
@@ -31191,7 +31233,7 @@
         <v>2</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="5"/>
+        <f>F109+G109/24</f>
         <v>44402.047789351855</v>
       </c>
       <c r="I109" s="3">
@@ -31201,7 +31243,7 @@
         <v>14500</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="6"/>
+        <f>I109*J109^2/2/4.184/10^12</f>
         <v>2.5125478011472271E-3</v>
       </c>
       <c r="L109" s="3">
@@ -31374,11 +31416,11 @@
       <c r="F110" s="17">
         <v>44403.081250000003</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="55">
         <v>-5</v>
       </c>
-      <c r="H110" s="4">
-        <f t="shared" si="5"/>
+      <c r="H110" s="56">
+        <f>F110+G110/24</f>
         <v>44402.872916666667</v>
       </c>
       <c r="I110" s="3">
@@ -31387,8 +31429,8 @@
       <c r="J110" s="3">
         <v>13000</v>
       </c>
-      <c r="K110" s="3">
-        <f t="shared" si="6"/>
+      <c r="K110" s="57">
+        <f>I110*J110^2/2/4.184/10^12</f>
         <v>2.0195984703632886E-4</v>
       </c>
       <c r="L110" s="3">
@@ -31424,7 +31466,7 @@
       <c r="V110" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W110" s="3" t="s">
+      <c r="W110" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X110" s="3">
@@ -31454,10 +31496,10 @@
       <c r="AF110" s="5">
         <v>2500</v>
       </c>
-      <c r="AG110" s="5">
+      <c r="AG110" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH110" s="5">
+      <c r="AH110" s="58">
         <v>1.5</v>
       </c>
       <c r="AI110" s="45">
@@ -31565,7 +31607,7 @@
         <v>8</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="5"/>
+        <f>F111+G111/24</f>
         <v>44406.888854166667</v>
       </c>
       <c r="I111" s="3">
@@ -31575,7 +31617,7 @@
         <v>14650</v>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="6"/>
+        <f>I111*J111^2/2/4.184/10^12</f>
         <v>0.12993278979445505</v>
       </c>
       <c r="L111" s="3">
@@ -31752,7 +31794,7 @@
         <v>-3</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="5"/>
+        <f>F112+G112/24</f>
         <v>44446.921956018516</v>
       </c>
       <c r="I112" s="3">
@@ -31762,7 +31804,7 @@
         <v>24020</v>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="6"/>
+        <f>I112*J112^2/2/4.184/10^12</f>
         <v>3.4474211281070744E-3</v>
       </c>
       <c r="L112" s="3">
@@ -31939,7 +31981,7 @@
         <v>-4</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" ref="H113:H130" si="7">F113+G113/24</f>
+        <f>F113+G113/24</f>
         <v>44492.879375000004</v>
       </c>
       <c r="I113" s="3">
@@ -31949,7 +31991,7 @@
         <v>18300</v>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="6"/>
+        <f>I113*J113^2/2/4.184/10^12</f>
         <v>4.0020315487571698E-4</v>
       </c>
       <c r="L113" s="3">
@@ -31985,7 +32027,7 @@
       <c r="V113" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W113" s="3" t="s">
+      <c r="W113" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X113" s="3">
@@ -32126,7 +32168,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="7"/>
+        <f>F114+G114/24</f>
         <v>44551.177719907413</v>
       </c>
       <c r="I114" s="3">
@@ -32136,7 +32178,7 @@
         <v>18190</v>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="6"/>
+        <f>I114*J114^2/2/4.184/10^12</f>
         <v>0.11004160926147227</v>
       </c>
       <c r="L114" s="3">
@@ -32313,7 +32355,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="7"/>
+        <f>F115+G115/24</f>
         <v>44574.754837962959</v>
       </c>
       <c r="I115" s="3">
@@ -32323,7 +32365,7 @@
         <v>16000</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="6"/>
+        <f>I115*J115^2/2/4.184/10^12</f>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L115" s="3">
@@ -32359,7 +32401,7 @@
       <c r="V115" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W115" s="3" t="s">
+      <c r="W115" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X115" s="3">
@@ -32500,7 +32542,7 @@
         <v>-3</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="7"/>
+        <f>F116+G116/24</f>
         <v>44575.370138888888</v>
       </c>
       <c r="I116" s="3">
@@ -32510,7 +32552,7 @@
         <v>12138</v>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="6"/>
+        <f>I116*J116^2/2/4.184/10^12</f>
         <v>1.7606482313575525E-3</v>
       </c>
       <c r="L116" s="3">
@@ -32687,7 +32729,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="7"/>
+        <f>F117+G117/24</f>
         <v>44575.935416666667</v>
       </c>
       <c r="I117" s="3">
@@ -32697,7 +32739,7 @@
         <v>13330</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="6"/>
+        <f>I117*J117^2/2/4.184/10^12</f>
         <v>1.592574988049713E-3</v>
       </c>
       <c r="L117" s="3">
@@ -32733,7 +32775,7 @@
       <c r="V117" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W117" s="3" t="s">
+      <c r="W117" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X117" s="3">
@@ -32874,7 +32916,7 @@
         <v>-6</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="7"/>
+        <f>F118+G118/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I118" s="3">
@@ -32884,7 +32926,7 @@
         <v>16000</v>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="6"/>
+        <f>I118*J118^2/2/4.184/10^12</f>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L118" s="3">
@@ -33057,11 +33099,11 @@
       <c r="F119" s="17">
         <v>44581.533333333333</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="55">
         <v>-6</v>
       </c>
-      <c r="H119" s="4">
-        <f t="shared" si="7"/>
+      <c r="H119" s="56">
+        <f>F119+G119/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I119" s="3">
@@ -33070,8 +33112,8 @@
       <c r="J119" s="3">
         <v>50</v>
       </c>
-      <c r="K119" s="3">
-        <f t="shared" si="6"/>
+      <c r="K119" s="57">
+        <f>I119*J119^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L119" s="3">
@@ -33104,13 +33146,13 @@
       <c r="U119" s="3">
         <v>800</v>
       </c>
-      <c r="V119" s="3" t="s">
+      <c r="V119" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="W119" s="3" t="s">
+      <c r="W119" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="X119" s="3">
+      <c r="X119" s="57">
         <v>0</v>
       </c>
       <c r="Y119" s="3">
@@ -33137,10 +33179,10 @@
       <c r="AF119" s="5">
         <v>300</v>
       </c>
-      <c r="AG119" s="5">
+      <c r="AG119" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH119" s="5">
+      <c r="AH119" s="58">
         <v>1.5</v>
       </c>
       <c r="AI119" s="45">
@@ -33226,7 +33268,7 @@
       </c>
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
+      <c r="A120" s="54">
         <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -33244,11 +33286,11 @@
       <c r="F120" s="17">
         <v>44581.533333333333</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="55">
         <v>-6</v>
       </c>
-      <c r="H120" s="4">
-        <f t="shared" si="7"/>
+      <c r="H120" s="56">
+        <f>F120+G120/24</f>
         <v>44581.283333333333</v>
       </c>
       <c r="I120" s="3">
@@ -33257,8 +33299,8 @@
       <c r="J120" s="3">
         <v>50</v>
       </c>
-      <c r="K120" s="3">
-        <f t="shared" si="6"/>
+      <c r="K120" s="57">
+        <f>I120*J120^2/2/4.184/10^12</f>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L120" s="3">
@@ -33291,13 +33333,13 @@
       <c r="U120" s="3">
         <v>800</v>
       </c>
-      <c r="V120" s="3" t="s">
+      <c r="V120" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="W120" s="3" t="s">
+      <c r="W120" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="X120" s="3">
+      <c r="X120" s="57">
         <v>0</v>
       </c>
       <c r="Y120" s="3">
@@ -33324,10 +33366,10 @@
       <c r="AF120" s="5">
         <v>1000</v>
       </c>
-      <c r="AG120" s="5">
+      <c r="AG120" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH120" s="5">
+      <c r="AH120" s="58">
         <v>1.5</v>
       </c>
       <c r="AI120" s="45">
@@ -33431,11 +33473,11 @@
       <c r="F121" s="17">
         <v>44588.086574074077</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="55">
         <v>-7</v>
       </c>
-      <c r="H121" s="4">
-        <f t="shared" si="7"/>
+      <c r="H121" s="56">
+        <f>F121+G121/24</f>
         <v>44587.794907407413</v>
       </c>
       <c r="I121" s="3">
@@ -33444,8 +33486,8 @@
       <c r="J121" s="3">
         <v>13100</v>
       </c>
-      <c r="K121" s="3">
-        <f t="shared" si="6"/>
+      <c r="K121" s="57">
+        <f>I121*J121^2/2/4.184/10^12</f>
         <v>4.9218929254302094E-8</v>
       </c>
       <c r="L121" s="3">
@@ -33511,10 +33553,10 @@
       <c r="AF121" s="5">
         <v>1000</v>
       </c>
-      <c r="AG121" s="5">
+      <c r="AG121" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH121" s="5">
+      <c r="AH121" s="58">
         <v>1.5</v>
       </c>
       <c r="AI121" s="45">
@@ -33622,7 +33664,7 @@
         <v>-7</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="7"/>
+        <f>F122+G122/24</f>
         <v>42523.164259259262</v>
       </c>
       <c r="I122" s="3">
@@ -33632,7 +33674,7 @@
         <v>18300</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="6"/>
+        <f>I122*J122^2/2/4.184/10^12</f>
         <v>0.48024378585086042</v>
       </c>
       <c r="L122" s="3">
@@ -33809,7 +33851,7 @@
         <v>-6</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="7"/>
+        <f>F123+G123/24</f>
         <v>44568.023611111108</v>
       </c>
       <c r="I123" s="3">
@@ -33819,7 +33861,7 @@
         <v>20000</v>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="6"/>
+        <f>I123*J123^2/2/4.184/10^12</f>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L123" s="3">
@@ -33996,7 +34038,7 @@
         <v>-7</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="7"/>
+        <f>F124+G124/24</f>
         <v>44287.167407407411</v>
       </c>
       <c r="I124" s="3">
@@ -34005,8 +34047,8 @@
       <c r="J124" s="3">
         <v>14010</v>
       </c>
-      <c r="K124" s="3">
-        <f t="shared" si="6"/>
+      <c r="K124" s="57">
+        <f>I124*J124^2/2/4.184/10^12</f>
         <v>2.3456034894837476E-4</v>
       </c>
       <c r="L124" s="3">
@@ -34183,7 +34225,7 @@
         <v>-4</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="7"/>
+        <f>F125+G125/24</f>
         <v>44668.984027777777</v>
       </c>
       <c r="I125" s="3">
@@ -34192,8 +34234,8 @@
       <c r="J125" s="3">
         <v>14360</v>
       </c>
-      <c r="K125" s="3">
-        <f t="shared" si="6"/>
+      <c r="K125" s="57">
+        <f>I125*J125^2/2/4.184/10^12</f>
         <v>2.464263862332696E-4</v>
       </c>
       <c r="L125" s="3">
@@ -34259,10 +34301,10 @@
       <c r="AF125" s="5">
         <v>50</v>
       </c>
-      <c r="AG125" s="5">
+      <c r="AG125" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH125" s="5">
+      <c r="AH125" s="58">
         <v>1.5</v>
       </c>
       <c r="AI125" s="45">
@@ -34348,7 +34390,7 @@
       </c>
     </row>
     <row r="126" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+      <c r="A126" s="54">
         <v>123</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -34366,11 +34408,11 @@
       <c r="F126" s="17">
         <v>44664.98982638889</v>
       </c>
-      <c r="G126" s="21">
-        <v>0</v>
-      </c>
-      <c r="H126" s="4">
-        <f t="shared" si="7"/>
+      <c r="G126" s="55">
+        <v>0</v>
+      </c>
+      <c r="H126" s="56">
+        <f>F126+G126/24</f>
         <v>44664.98982638889</v>
       </c>
       <c r="I126" s="3">
@@ -34379,8 +34421,8 @@
       <c r="J126" s="3">
         <v>12897.75</v>
       </c>
-      <c r="K126" s="3">
-        <f t="shared" si="6"/>
+      <c r="K126" s="57">
+        <f>I126*J126^2/2/4.184/10^12</f>
         <v>1.987953573882648E-4</v>
       </c>
       <c r="L126" s="3">
@@ -34446,10 +34488,10 @@
       <c r="AF126" s="5">
         <v>13.15</v>
       </c>
-      <c r="AG126" s="5">
+      <c r="AG126" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH126" s="5">
+      <c r="AH126" s="58">
         <v>1.5</v>
       </c>
       <c r="AI126" s="45">
@@ -34557,7 +34599,7 @@
         <v>-3</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="7"/>
+        <f>F127+G127/24</f>
         <v>44672.802407407406</v>
       </c>
       <c r="I127" s="3">
@@ -34567,7 +34609,7 @@
         <v>12750</v>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="6"/>
+        <f>I127*J127^2/2/4.184/10^12</f>
         <v>0.13010050938097514</v>
       </c>
       <c r="L127" s="3">
@@ -34744,7 +34786,7 @@
         <v>2</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="7"/>
+        <f>F128+G128/24</f>
         <v>44631.974143518521</v>
       </c>
       <c r="I128" s="3">
@@ -34754,7 +34796,7 @@
         <v>17240</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="6"/>
+        <f>I128*J128^2/2/4.184/10^12</f>
         <v>4.0000061755258125</v>
       </c>
       <c r="L128" s="3">
@@ -34931,7 +34973,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="7"/>
+        <f>F129+G129/24</f>
         <v>44596.243518518517</v>
       </c>
       <c r="I129" s="3">
@@ -34941,7 +34983,7 @@
         <v>22810</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="6"/>
+        <f>I129*J129^2/2/4.184/10^12</f>
         <v>0.43983922220363286</v>
       </c>
       <c r="L129" s="3">
@@ -35118,7 +35160,7 @@
         <v>-5</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="7"/>
+        <f>F130+G130/24</f>
         <v>44678.335416666661</v>
       </c>
       <c r="I130" s="3">
@@ -35128,7 +35170,7 @@
         <v>24000</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="6"/>
+        <f>I130*J130^2/2/4.184/10^12</f>
         <v>4.8183556405353729E-3</v>
       </c>
       <c r="L130" s="3">
@@ -35336,11 +35378,11 @@
       <c r="F132" s="17">
         <v>44697.864131944443</v>
       </c>
-      <c r="G132" s="21">
-        <v>0</v>
-      </c>
-      <c r="H132" s="4">
-        <f t="shared" ref="H132:H151" si="8">F132+G132/24</f>
+      <c r="G132" s="55">
+        <v>0</v>
+      </c>
+      <c r="H132" s="56">
+        <f>F132+G132/24</f>
         <v>44697.864131944443</v>
       </c>
       <c r="I132" s="3">
@@ -35349,8 +35391,8 @@
       <c r="J132" s="3">
         <v>21350</v>
       </c>
-      <c r="K132" s="3">
-        <f t="shared" ref="K132:K145" si="9">I132*J132^2/2/4.184/10^12</f>
+      <c r="K132" s="57">
+        <f>I132*J132^2/2/4.184/10^12</f>
         <v>2.7236048040152963E-5</v>
       </c>
       <c r="L132" s="3">
@@ -35416,10 +35458,10 @@
       <c r="AF132" s="5">
         <v>150</v>
       </c>
-      <c r="AG132" s="5">
+      <c r="AG132" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH132" s="5">
+      <c r="AH132" s="58">
         <v>1.5</v>
       </c>
       <c r="AI132" s="45">
@@ -35527,7 +35569,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="8"/>
+        <f>F133+G133/24</f>
         <v>44692.986111111109</v>
       </c>
       <c r="I133" s="3">
@@ -35537,7 +35579,7 @@
         <v>27900</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="9"/>
+        <f>I133*J133^2/2/4.184/10^12</f>
         <v>9.3022227533460795E-4</v>
       </c>
       <c r="L133" s="3">
@@ -35692,7 +35734,7 @@
       </c>
     </row>
     <row r="134" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
+      <c r="A134" s="54">
         <v>131</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -35710,11 +35752,11 @@
       <c r="F134" s="17">
         <v>44701.212685185186</v>
       </c>
-      <c r="G134" s="21">
+      <c r="G134" s="55">
         <v>-7</v>
       </c>
-      <c r="H134" s="4">
-        <f t="shared" si="8"/>
+      <c r="H134" s="56">
+        <f>F134+G134/24</f>
         <v>44700.921018518522</v>
       </c>
       <c r="I134" s="3">
@@ -35723,8 +35765,8 @@
       <c r="J134" s="3">
         <v>15160</v>
       </c>
-      <c r="K134" s="3">
-        <f t="shared" si="9"/>
+      <c r="K134" s="57">
+        <f>I134*J134^2/2/4.184/10^12</f>
         <v>2.7464818355640533E-5</v>
       </c>
       <c r="L134" s="3">
@@ -35760,7 +35802,7 @@
       <c r="V134" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W134" s="3" t="s">
+      <c r="W134" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X134" s="3">
@@ -35790,10 +35832,10 @@
       <c r="AF134" s="5">
         <v>250</v>
       </c>
-      <c r="AG134" s="5">
+      <c r="AG134" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH134" s="5">
+      <c r="AH134" s="58">
         <v>1.5</v>
       </c>
       <c r="AI134" s="45">
@@ -35892,7 +35934,7 @@
         <v>8</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="8"/>
+        <f>F135+G135/24</f>
         <v>42169.460486111115</v>
       </c>
       <c r="I135" s="3">
@@ -35902,7 +35944,7 @@
         <v>31858</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="9"/>
+        <f>I135*J135^2/2/4.184/10^12</f>
         <v>0.22001517035086041</v>
       </c>
       <c r="L135" s="3">
@@ -36073,7 +36115,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="8"/>
+        <f>F136+G136/24</f>
         <v>42644.891493055555</v>
       </c>
       <c r="I136" s="3">
@@ -36083,7 +36125,7 @@
         <v>14202</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="9"/>
+        <f>I136*J136^2/2/4.184/10^12</f>
         <v>0.11000767369216062</v>
       </c>
       <c r="L136" s="3">
@@ -36254,7 +36296,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" si="8"/>
+        <f>F137+G137/24</f>
         <v>40943.654166666667</v>
       </c>
       <c r="I137" s="3">
@@ -36264,7 +36306,7 @@
         <v>12248</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="9"/>
+        <f>I137*J137^2/2/4.184/10^12</f>
         <v>0.42999807683365199</v>
       </c>
       <c r="L137" s="3">
@@ -36441,7 +36483,7 @@
         <v>-4</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="8"/>
+        <f>F138+G138/24</f>
         <v>44764.0778587963</v>
       </c>
       <c r="I138" s="3">
@@ -36450,8 +36492,8 @@
       <c r="J138" s="3">
         <v>13640</v>
       </c>
-      <c r="K138" s="3">
-        <f t="shared" si="9"/>
+      <c r="K138" s="57">
+        <f>I138*J138^2/2/4.184/10^12</f>
         <v>2.2233460803059273E-4</v>
       </c>
       <c r="L138" s="3">
@@ -36517,10 +36559,10 @@
       <c r="AF138" s="5">
         <v>1010</v>
       </c>
-      <c r="AG138" s="5">
+      <c r="AG138" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH138" s="5">
+      <c r="AH138" s="58">
         <v>1.5</v>
       </c>
       <c r="AI138" s="45">
@@ -36628,7 +36670,7 @@
         <v>-5</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="8"/>
+        <f>F139+G139/24</f>
         <v>44766.932592592588</v>
       </c>
       <c r="I139" s="3">
@@ -36638,7 +36680,7 @@
         <v>16870</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="9"/>
+        <f>I139*J139^2/2/4.184/10^12</f>
         <v>3.4010145793499043E-4</v>
       </c>
       <c r="L139" s="3">
@@ -36674,7 +36716,7 @@
       <c r="V139" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W139" s="3" t="s">
+      <c r="W139" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X139" s="3">
@@ -36815,7 +36857,7 @@
         <v>-4</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="8"/>
+        <f>F140+G140/24</f>
         <v>44771.914583333339</v>
       </c>
       <c r="I140" s="3">
@@ -36825,7 +36867,7 @@
         <v>20500</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="9"/>
+        <f>I140*J140^2/2/4.184/10^12</f>
         <v>4.5550519837476103E-3</v>
       </c>
       <c r="L140" s="3">
@@ -37002,7 +37044,7 @@
         <v>-6</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="8"/>
+        <f>F141+G141/24</f>
         <v>44786.35434027778</v>
       </c>
       <c r="I141" s="3">
@@ -37012,7 +37054,7 @@
         <v>18000</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="9"/>
+        <f>I141*J141^2/2/4.184/10^12</f>
         <v>0.38718929254302098</v>
       </c>
       <c r="L141" s="3">
@@ -37189,7 +37231,7 @@
         <v>-6</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="8"/>
+        <f>F142+G142/24</f>
         <v>44786.35434027778</v>
       </c>
       <c r="I142" s="3">
@@ -37199,7 +37241,7 @@
         <v>8000</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="9"/>
+        <f>I142*J142^2/2/4.184/10^12</f>
         <v>1.5296367112810707E-3</v>
       </c>
       <c r="L142" s="3">
@@ -37235,7 +37277,7 @@
       <c r="V142" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W142" s="3" t="s">
+      <c r="W142" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X142" s="3">
@@ -37354,7 +37396,7 @@
       </c>
     </row>
     <row r="143" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A143" s="6">
+      <c r="A143" s="54">
         <v>140</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -37372,11 +37414,11 @@
       <c r="F143" s="17">
         <v>44830.170005659726</v>
       </c>
-      <c r="G143" s="21">
+      <c r="G143" s="55">
         <v>-4</v>
       </c>
-      <c r="H143" s="4">
-        <f t="shared" si="8"/>
+      <c r="H143" s="56">
+        <f>F143+G143/24</f>
         <v>44830.003338993061</v>
       </c>
       <c r="I143" s="3">
@@ -37385,8 +37427,8 @@
       <c r="J143" s="3">
         <v>11882</v>
       </c>
-      <c r="K143" s="3">
-        <f t="shared" si="9"/>
+      <c r="K143" s="57">
+        <f>I143*J143^2/2/4.184/10^12</f>
         <v>1.6871644837476097E-4</v>
       </c>
       <c r="L143" s="3">
@@ -37423,7 +37465,7 @@
       <c r="V143" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W143" s="3" t="s">
+      <c r="W143" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X143" s="3">
@@ -37453,10 +37495,10 @@
       <c r="AF143" s="5">
         <v>263</v>
       </c>
-      <c r="AG143" s="5">
+      <c r="AG143" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH143" s="5">
+      <c r="AH143" s="58">
         <v>1.5</v>
       </c>
       <c r="AI143" s="45">
@@ -37564,7 +37606,7 @@
         <v>2</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="8"/>
+        <f>F144+G144/24</f>
         <v>44845.874861111115</v>
       </c>
       <c r="I144" s="3">
@@ -37574,7 +37616,7 @@
         <v>23218</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="9"/>
+        <f>I144*J144^2/2/4.184/10^12</f>
         <v>6.4421071223709373E-4</v>
       </c>
       <c r="L144" s="3">
@@ -37751,7 +37793,7 @@
         <v>2</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="8"/>
+        <f>F145+G145/24</f>
         <v>44848.86377314815</v>
       </c>
       <c r="I145" s="3">
@@ -37761,7 +37803,7 @@
         <v>14680</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="9"/>
+        <f>I145*J145^2/2/4.184/10^12</f>
         <v>5.1506309751434026E-2</v>
       </c>
       <c r="L145" s="3">
@@ -37939,7 +37981,7 @@
         <v>-4</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="8"/>
+        <f>F146+G146/24</f>
         <v>44855.892754629633</v>
       </c>
       <c r="AR146" s="25">
@@ -37981,7 +38023,7 @@
         <v>-7</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" si="8"/>
+        <f>F147+G147/24</f>
         <v>44858.786898148152</v>
       </c>
       <c r="I147" s="3">
@@ -38169,7 +38211,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" si="8"/>
+        <f>F148+G148/24</f>
         <v>44846.284722222226</v>
       </c>
       <c r="I148" s="3">
@@ -38356,7 +38398,7 @@
         <v>7</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="8"/>
+        <f>F149+G149/24</f>
         <v>44851.010416666664</v>
       </c>
       <c r="I149" s="3">
@@ -38545,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="8"/>
+        <f>F150+G150/24</f>
         <v>44857.815283090276</v>
       </c>
       <c r="I150" s="3">
@@ -38554,7 +38596,7 @@
       <c r="J150" s="3">
         <v>13851.53</v>
       </c>
-      <c r="K150" s="3">
+      <c r="K150" s="57">
         <f>I150*J150^2/2/4.184/10^12</f>
         <v>2.2928403840929732E-4</v>
       </c>
@@ -38733,7 +38775,7 @@
         <v>-5</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="8"/>
+        <f>F151+G151/24</f>
         <v>44884.143564814811</v>
       </c>
       <c r="I151" s="3">
@@ -38779,7 +38821,7 @@
       <c r="V151" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W151" s="3" t="s">
+      <c r="W151" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X151" s="3">
@@ -38964,7 +39006,7 @@
       <c r="V152" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W152" s="3" t="s">
+      <c r="W152" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X152" s="3">
@@ -39105,7 +39147,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" ref="H153:H202" si="10">F153+G153/24</f>
+        <f>F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -39115,7 +39157,7 @@
         <v>16440</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" ref="K153:K161" si="11">I153*J153^2/2/4.184/10^12</f>
+        <f>I153*J153^2/2/4.184/10^12</f>
         <v>0.20008902390057362</v>
       </c>
       <c r="L153" s="3">
@@ -39292,7 +39334,7 @@
         <v>-6</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="10"/>
+        <f>F154+G154/24</f>
         <v>44936.782372685186</v>
       </c>
       <c r="I154" s="3">
@@ -39302,7 +39344,7 @@
         <v>12500</v>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="11"/>
+        <f>I154*J154^2/2/4.184/10^12</f>
         <v>9.3361615678776285E-4</v>
       </c>
       <c r="L154" s="3">
@@ -39338,7 +39380,7 @@
       <c r="V154" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W154" s="3" t="s">
+      <c r="W154" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X154" s="3">
@@ -39479,7 +39521,7 @@
         <v>-6</v>
       </c>
       <c r="H155" s="4">
-        <f t="shared" si="10"/>
+        <f>F155+G155/24</f>
         <v>44946.151967592596</v>
       </c>
       <c r="I155" s="3">
@@ -39489,7 +39531,7 @@
         <v>14000</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="11"/>
+        <f>I155*J155^2/2/4.184/10^12</f>
         <v>1.7566921606118546E-3</v>
       </c>
       <c r="L155" s="3">
@@ -39518,7 +39560,7 @@
         <v>5000</v>
       </c>
       <c r="T155" s="3">
-        <f t="shared" ref="T155:T161" si="12">M155</f>
+        <f>M155</f>
         <v>59</v>
       </c>
       <c r="U155" s="3">
@@ -39669,7 +39711,7 @@
         <v>1</v>
       </c>
       <c r="H156" s="4">
-        <f t="shared" si="10"/>
+        <f>F156+G156/24</f>
         <v>44951.183217592588</v>
       </c>
       <c r="I156" s="3">
@@ -39679,7 +39721,7 @@
         <v>26000</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="11"/>
+        <f>I156*J156^2/2/4.184/10^12</f>
         <v>8.8862332695984695E-4</v>
       </c>
       <c r="L156" s="3">
@@ -39707,7 +39749,7 @@
         <v>5000</v>
       </c>
       <c r="T156" s="3">
-        <f t="shared" si="12"/>
+        <f>M156</f>
         <v>56.5</v>
       </c>
       <c r="U156" s="3">
@@ -39717,7 +39759,7 @@
       <c r="V156" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W156" s="3" t="s">
+      <c r="W156" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X156" s="3">
@@ -39858,7 +39900,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="4">
-        <f t="shared" si="10"/>
+        <f>F157+G157/24</f>
         <v>44970.166168981479</v>
       </c>
       <c r="I157" s="3">
@@ -39868,7 +39910,7 @@
         <v>14060.9</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="11"/>
+        <f>I157*J157^2/2/4.184/10^12</f>
         <v>4.0803451901872602E-2</v>
       </c>
       <c r="L157" s="3">
@@ -39898,7 +39940,7 @@
         <v>5000</v>
       </c>
       <c r="T157" s="3">
-        <f t="shared" si="12"/>
+        <f>M157</f>
         <v>41.423400000000001</v>
       </c>
       <c r="U157" s="3">
@@ -40048,7 +40090,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="4">
-        <f t="shared" si="10"/>
+        <f>F158+G158/24</f>
         <v>44970.166168981479</v>
       </c>
       <c r="I158" s="3">
@@ -40058,7 +40100,7 @@
         <v>14016</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="11"/>
+        <f>I158*J158^2/2/4.184/10^12</f>
         <v>4.0543276543021034E-2</v>
       </c>
       <c r="L158" s="3">
@@ -40087,7 +40129,7 @@
         <v>5000</v>
       </c>
       <c r="T158" s="3">
-        <f t="shared" si="12"/>
+        <f>M158</f>
         <v>41.272100000000002</v>
       </c>
       <c r="U158" s="3">
@@ -40237,7 +40279,7 @@
         <v>-6</v>
       </c>
       <c r="H159" s="4">
-        <f t="shared" si="10"/>
+        <f>F159+G159/24</f>
         <v>44972.723611111112</v>
       </c>
       <c r="I159" s="3">
@@ -40247,7 +40289,7 @@
         <v>15000</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="11"/>
+        <f>I159*J159^2/2/4.184/10^12</f>
         <v>1.2180329827915868E-2</v>
       </c>
       <c r="L159" s="3">
@@ -40275,7 +40317,7 @@
         <v>5000</v>
       </c>
       <c r="T159" s="3">
-        <f t="shared" si="12"/>
+        <f>M159</f>
         <v>53.6</v>
       </c>
       <c r="U159" s="3">
@@ -40425,7 +40467,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="4">
-        <f t="shared" si="10"/>
+        <f>F160+G160/24</f>
         <v>44966.008333333331</v>
       </c>
       <c r="I160" s="3">
@@ -40435,7 +40477,7 @@
         <v>12500</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="11"/>
+        <f>I160*J160^2/2/4.184/10^12</f>
         <v>2.9875717017208408E-4</v>
       </c>
       <c r="L160" s="3">
@@ -40463,7 +40505,7 @@
         <v>5000</v>
       </c>
       <c r="T160" s="3">
-        <f t="shared" si="12"/>
+        <f>M160</f>
         <v>24.6</v>
       </c>
       <c r="U160" s="3">
@@ -40473,7 +40515,7 @@
       <c r="V160" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W160" s="3" t="s">
+      <c r="W160" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X160" s="3">
@@ -40503,10 +40545,10 @@
       <c r="AF160" s="5">
         <v>200</v>
       </c>
-      <c r="AG160" s="5">
+      <c r="AG160" s="58">
         <v>-1.5</v>
       </c>
-      <c r="AH160" s="5">
+      <c r="AH160" s="58">
         <v>1.5</v>
       </c>
       <c r="AI160" s="45">
@@ -40614,7 +40656,7 @@
         <v>-5</v>
       </c>
       <c r="H161" s="4">
-        <f t="shared" si="10"/>
+        <f>F161+G161/24</f>
         <v>44976.868518518517</v>
       </c>
       <c r="I161" s="3">
@@ -40624,7 +40666,7 @@
         <v>25000</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="11"/>
+        <f>I161*J161^2/2/4.184/10^12</f>
         <v>1.8672323135755257E-3</v>
       </c>
       <c r="L161" s="3">
@@ -40654,7 +40696,7 @@
         <v>5000</v>
       </c>
       <c r="T161" s="3">
-        <f t="shared" si="12"/>
+        <f>M161</f>
         <v>63.701499999999996</v>
       </c>
       <c r="U161" s="3">
@@ -40801,7 +40843,7 @@
         <v>10.5</v>
       </c>
       <c r="H162" s="4">
-        <f t="shared" si="10"/>
+        <f>F162+G162/24</f>
         <v>43618.310416666667</v>
       </c>
       <c r="O162" s="3">
@@ -40930,7 +40972,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="4">
-        <f t="shared" si="10"/>
+        <f>F163+G163/24</f>
         <v>43831.810347222221</v>
       </c>
       <c r="I163" s="3">
@@ -41059,7 +41101,7 @@
         <v>-7</v>
       </c>
       <c r="H164" s="4">
-        <f t="shared" si="10"/>
+        <f>F164+G164/24</f>
         <v>42300.94981481482</v>
       </c>
       <c r="I164" s="3">
@@ -41188,7 +41230,7 @@
         <v>8</v>
       </c>
       <c r="H165" s="4">
-        <f t="shared" si="10"/>
+        <f>F165+G165/24</f>
         <v>42674.835960648154</v>
       </c>
       <c r="I165" s="3">
@@ -41317,7 +41359,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="4">
-        <f t="shared" si="10"/>
+        <f>F166+G166/24</f>
         <v>44154.199247685181</v>
       </c>
       <c r="O166" s="3">
@@ -41443,7 +41485,7 @@
         <v>8</v>
       </c>
       <c r="H167" s="4">
-        <f t="shared" si="10"/>
+        <f>F167+G167/24</f>
         <v>44002.170219907413</v>
       </c>
       <c r="I167" s="3">
@@ -41563,7 +41605,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="4">
-        <f t="shared" si="10"/>
+        <f>F168+G168/24</f>
         <v>39830.839583333334</v>
       </c>
       <c r="I168" s="3">
@@ -41689,7 +41731,7 @@
         <v>2</v>
       </c>
       <c r="H169" s="4">
-        <f t="shared" si="10"/>
+        <f>F169+G169/24</f>
         <v>43253.78056712963</v>
       </c>
       <c r="I169" s="3">
@@ -41818,7 +41860,7 @@
         <v>9.5</v>
       </c>
       <c r="H170" s="4">
-        <f t="shared" si="10"/>
+        <f>F170+G170/24</f>
         <v>42335.842881944445</v>
       </c>
       <c r="O170" s="3">
@@ -41944,7 +41986,7 @@
         <v>-5</v>
       </c>
       <c r="H171" s="4">
-        <f t="shared" si="10"/>
+        <f>F171+G171/24</f>
         <v>42393.435416666667</v>
       </c>
       <c r="I171" s="3">
@@ -42073,7 +42115,7 @@
         <v>3</v>
       </c>
       <c r="H172" s="4">
-        <f t="shared" si="10"/>
+        <f>F172+G172/24</f>
         <v>43272.17800925926</v>
       </c>
       <c r="I172" s="3">
@@ -42199,7 +42241,7 @@
         <v>-2</v>
       </c>
       <c r="H173" s="4">
-        <f t="shared" si="10"/>
+        <f>F173+G173/24</f>
         <v>42013.649305555555</v>
       </c>
       <c r="I173" s="3">
@@ -42328,7 +42370,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="4">
-        <f t="shared" si="10"/>
+        <f>F174+G174/24</f>
         <v>42435.942256944443</v>
       </c>
       <c r="I174" s="3">
@@ -42457,7 +42499,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="4">
-        <f t="shared" si="10"/>
+        <f>F175+G175/24</f>
         <v>44214.054814814815</v>
       </c>
       <c r="I175" s="3">
@@ -42586,7 +42628,7 @@
         <v>-5</v>
       </c>
       <c r="H176" s="4">
-        <f t="shared" si="10"/>
+        <f>F176+G176/24</f>
         <v>43497.553587962961</v>
       </c>
       <c r="I176" s="3">
@@ -42715,7 +42757,7 @@
         <v>2</v>
       </c>
       <c r="H177" s="4">
-        <f t="shared" si="10"/>
+        <f>F177+G177/24</f>
         <v>45031.431956018518</v>
       </c>
       <c r="I177" s="3">
@@ -42725,7 +42767,7 @@
         <v>17210</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" ref="K177:K192" si="13">I177*J177^2/2/4.184/10^12</f>
+        <f>I177*J177^2/2/4.184/10^12</f>
         <v>6.3021945197657745</v>
       </c>
       <c r="L177" s="3">
@@ -42899,7 +42941,7 @@
         <v>2</v>
       </c>
       <c r="H178" s="4">
-        <f t="shared" si="10"/>
+        <f>F178+G178/24</f>
         <v>45018.895000000004</v>
       </c>
       <c r="I178" s="3">
@@ -42909,7 +42951,7 @@
         <v>13610</v>
       </c>
       <c r="K178" s="3">
-        <f t="shared" si="13"/>
+        <f>I178*J178^2/2/4.184/10^12</f>
         <v>1.10678836042065E-3</v>
       </c>
       <c r="L178" s="3">
@@ -42946,7 +42988,7 @@
       <c r="V178" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W178" s="3" t="s">
+      <c r="W178" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X178" s="3">
@@ -43087,7 +43129,7 @@
         <v>-4</v>
       </c>
       <c r="H179" s="4">
-        <f t="shared" si="10"/>
+        <f>F179+G179/24</f>
         <v>45024.494791666672</v>
       </c>
       <c r="I179" s="3">
@@ -43097,7 +43139,7 @@
         <v>17000</v>
       </c>
       <c r="K179" s="3">
-        <f t="shared" si="13"/>
+        <f>I179*J179^2/2/4.184/10^12</f>
         <v>1.381453154875717E-2</v>
       </c>
       <c r="L179" s="3">
@@ -43275,7 +43317,7 @@
         <v>2</v>
       </c>
       <c r="H180" s="4">
-        <f t="shared" si="10"/>
+        <f>F180+G180/24</f>
         <v>45041.59375</v>
       </c>
       <c r="I180" s="3">
@@ -43285,7 +43327,7 @@
         <v>20500</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" si="13"/>
+        <f>I180*J180^2/2/4.184/10^12</f>
         <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
@@ -43462,7 +43504,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="4">
-        <f t="shared" si="10"/>
+        <f>F181+G181/24</f>
         <v>45043.153351273148</v>
       </c>
       <c r="I181" s="3">
@@ -43472,7 +43514,7 @@
         <v>14321</v>
       </c>
       <c r="K181" s="3">
-        <f t="shared" si="13"/>
+        <f>I181*J181^2/2/4.184/10^12</f>
         <v>1.2254483807361376E-3</v>
       </c>
       <c r="L181" s="3">
@@ -43511,7 +43553,7 @@
       <c r="V181" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W181" s="3" t="s">
+      <c r="W181" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X181" s="3">
@@ -43652,7 +43694,7 @@
         <v>-4</v>
       </c>
       <c r="H182" s="4">
-        <f t="shared" si="10"/>
+        <f>F182+G182/24</f>
         <v>45054.515972222223</v>
       </c>
       <c r="I182" s="3">
@@ -43662,7 +43704,7 @@
         <v>17000</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="13"/>
+        <f>I182*J182^2/2/4.184/10^12</f>
         <v>8.634082217973231E-4</v>
       </c>
       <c r="L182" s="3">
@@ -43839,7 +43881,7 @@
         <v>2</v>
       </c>
       <c r="H183" s="4">
-        <f t="shared" si="10"/>
+        <f>F183+G183/24</f>
         <v>45066.978626747688</v>
       </c>
       <c r="I183" s="3">
@@ -43849,7 +43891,7 @@
         <v>15985.39</v>
       </c>
       <c r="K183" s="3">
-        <f t="shared" si="13"/>
+        <f>I183*J183^2/2/4.184/10^12</f>
         <v>7.6342224382200039E-4</v>
       </c>
       <c r="L183" s="3">
@@ -43888,7 +43930,7 @@
       <c r="V183" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W183" s="3" t="s">
+      <c r="W183" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X183" s="3">
@@ -44029,7 +44071,7 @@
         <v>10</v>
       </c>
       <c r="H184" s="4">
-        <f t="shared" si="10"/>
+        <f>F184+G184/24</f>
         <v>45066.890543981477</v>
       </c>
       <c r="I184" s="3">
@@ -44039,7 +44081,7 @@
         <v>27920</v>
       </c>
       <c r="K184" s="3">
-        <f t="shared" si="13"/>
+        <f>I184*J184^2/2/4.184/10^12</f>
         <v>7.2026078149139581</v>
       </c>
       <c r="L184" s="3">
@@ -44217,7 +44259,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" si="10"/>
+        <f>F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -44227,7 +44269,7 @@
         <v>20920</v>
       </c>
       <c r="K185" s="3">
-        <f t="shared" si="13"/>
+        <f>I185*J185^2/2/4.184/10^12</f>
         <v>1.0460000000000001E-2</v>
       </c>
       <c r="L185" s="3">
@@ -44406,7 +44448,7 @@
         <v>2</v>
       </c>
       <c r="H186" s="4">
-        <f t="shared" si="10"/>
+        <f>F186+G186/24</f>
         <v>45118.867905092593</v>
       </c>
       <c r="I186" s="3">
@@ -44416,7 +44458,7 @@
         <v>19000</v>
       </c>
       <c r="K186" s="3">
-        <f t="shared" si="13"/>
+        <f>I186*J186^2/2/4.184/10^12</f>
         <v>8.628107074569789E-3</v>
       </c>
       <c r="L186" s="3">
@@ -44595,7 +44637,7 @@
         <v>-7</v>
       </c>
       <c r="H187" s="4">
-        <f t="shared" si="10"/>
+        <f>F187+G187/24</f>
         <v>45132.862430555557</v>
       </c>
       <c r="I187" s="3">
@@ -44605,7 +44647,7 @@
         <v>15580</v>
       </c>
       <c r="K187" s="3">
-        <f t="shared" si="13"/>
+        <f>I187*J187^2/2/4.184/10^12</f>
         <v>0.44004674808795408</v>
       </c>
       <c r="L187" s="3">
@@ -44783,7 +44825,7 @@
         <v>-4</v>
       </c>
       <c r="H188" s="4">
-        <f t="shared" si="10"/>
+        <f>F188+G188/24</f>
         <v>45140.092546296299</v>
       </c>
       <c r="I188" s="3">
@@ -44793,7 +44835,7 @@
         <v>22770</v>
       </c>
       <c r="K188" s="3">
-        <f t="shared" si="13"/>
+        <f>I188*J188^2/2/4.184/10^12</f>
         <v>2.1685649498087954E-3</v>
       </c>
       <c r="L188" s="3">
@@ -44972,7 +45014,7 @@
         <v>2</v>
       </c>
       <c r="H189" s="4">
-        <f t="shared" si="10"/>
+        <f>F189+G189/24</f>
         <v>45179.009548611117</v>
       </c>
       <c r="I189" s="3">
@@ -44982,7 +45024,7 @@
         <v>17000</v>
       </c>
       <c r="K189" s="3">
-        <f t="shared" si="13"/>
+        <f>I189*J189^2/2/4.184/10^12</f>
         <v>3.4536328871892925E-4</v>
       </c>
       <c r="L189" s="3">
@@ -45004,14 +45046,14 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R199" si="14">Q189</f>
+        <f>Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
         <v>3500</v>
       </c>
       <c r="T189" s="3">
-        <f t="shared" ref="T189:T197" si="15">M189</f>
+        <f>M189</f>
         <v>53.131300000000003</v>
       </c>
       <c r="U189" s="3">
@@ -45162,7 +45204,7 @@
         <v>2</v>
       </c>
       <c r="H190" s="4">
-        <f t="shared" si="10"/>
+        <f>F190+G190/24</f>
         <v>45196.180824745374</v>
       </c>
       <c r="I190" s="3">
@@ -45172,7 +45214,7 @@
         <v>16956</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="13"/>
+        <f>I190*J190^2/2/4.184/10^12</f>
         <v>3.4357783938814533E-4</v>
       </c>
       <c r="L190" s="3">
@@ -45194,14 +45236,14 @@
         <v>28118.03</v>
       </c>
       <c r="R190" s="3">
-        <f t="shared" si="14"/>
+        <f>Q190</f>
         <v>28118.03</v>
       </c>
       <c r="S190" s="3">
         <v>2500</v>
       </c>
       <c r="T190" s="3">
-        <f t="shared" si="15"/>
+        <f>M190</f>
         <v>36.557000000000002</v>
       </c>
       <c r="U190" s="3">
@@ -45211,7 +45253,7 @@
       <c r="V190" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W190" s="3" t="s">
+      <c r="W190" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X190" s="3">
@@ -45348,11 +45390,11 @@
       <c r="F191" s="17">
         <v>45009.928900462961</v>
       </c>
-      <c r="G191" s="21">
+      <c r="G191" s="55">
         <v>2</v>
       </c>
-      <c r="H191" s="4">
-        <f t="shared" si="10"/>
+      <c r="H191" s="56">
+        <f>F191+G191/24</f>
         <v>45010.012233796297</v>
       </c>
       <c r="I191" s="3">
@@ -45361,8 +45403,8 @@
       <c r="J191" s="3">
         <v>13800</v>
       </c>
-      <c r="K191" s="3">
-        <f t="shared" si="13"/>
+      <c r="K191" s="57">
+        <f>I191*J191^2/2/4.184/10^12</f>
         <v>1.137906309751434E-4</v>
       </c>
       <c r="L191" s="3">
@@ -45384,14 +45426,14 @@
         <v>27500</v>
       </c>
       <c r="R191" s="3">
-        <f t="shared" si="14"/>
+        <f>Q191</f>
         <v>27500</v>
       </c>
       <c r="S191" s="3">
         <v>4100</v>
       </c>
       <c r="T191" s="3">
-        <f t="shared" si="15"/>
+        <f>M191</f>
         <v>64.163600000000002</v>
       </c>
       <c r="U191" s="3">
@@ -45401,7 +45443,7 @@
       <c r="V191" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W191" s="3" t="s">
+      <c r="W191" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X191" s="3">
@@ -45431,10 +45473,10 @@
       <c r="AF191" s="5">
         <v>10</v>
       </c>
-      <c r="AG191" s="5">
+      <c r="AG191" s="58">
         <v>-1</v>
       </c>
-      <c r="AH191" s="5">
+      <c r="AH191" s="58">
         <v>1</v>
       </c>
       <c r="AI191" s="45">
@@ -45542,7 +45584,7 @@
         <v>-6</v>
       </c>
       <c r="H192" s="4">
-        <f t="shared" si="10"/>
+        <f>F192+G192/24</f>
         <v>45205.908368055556</v>
       </c>
       <c r="I192" s="3">
@@ -45552,7 +45594,7 @@
         <v>12530</v>
       </c>
       <c r="K192" s="3">
-        <f t="shared" si="13"/>
+        <f>I192*J192^2/2/4.184/10^12</f>
         <v>9.381028919694072E-4</v>
       </c>
       <c r="L192" s="3">
@@ -45574,14 +45616,14 @@
         <v>30000</v>
       </c>
       <c r="R192" s="3">
-        <f t="shared" si="14"/>
+        <f>Q192</f>
         <v>30000</v>
       </c>
       <c r="S192" s="3">
         <v>4000</v>
       </c>
       <c r="T192" s="3">
-        <f t="shared" si="15"/>
+        <f>M192</f>
         <v>74.14</v>
       </c>
       <c r="U192" s="3">
@@ -45590,7 +45632,7 @@
       <c r="V192" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W192" s="3" t="s">
+      <c r="W192" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X192" s="3">
@@ -45731,7 +45773,7 @@
         <v>-6</v>
       </c>
       <c r="H193" s="4">
-        <f t="shared" si="10"/>
+        <f>F193+G193/24</f>
         <v>45205.908368055556</v>
       </c>
       <c r="I193" s="3">
@@ -45762,14 +45804,14 @@
         <v>40000</v>
       </c>
       <c r="R193" s="3">
-        <f t="shared" si="14"/>
+        <f>Q193</f>
         <v>40000</v>
       </c>
       <c r="S193" s="3">
         <v>4000</v>
       </c>
       <c r="T193" s="3">
-        <f t="shared" si="15"/>
+        <f>M193</f>
         <v>76.349999999999994</v>
       </c>
       <c r="U193" s="3">
@@ -45919,7 +45961,7 @@
         <v>-6</v>
       </c>
       <c r="H194" s="4">
-        <f t="shared" si="10"/>
+        <f>F194+G194/24</f>
         <v>45205.908368055556</v>
       </c>
       <c r="I194" s="3">
@@ -45950,14 +45992,14 @@
         <v>50000</v>
       </c>
       <c r="R194" s="3">
-        <f t="shared" si="14"/>
+        <f>Q194</f>
         <v>50000</v>
       </c>
       <c r="S194" s="3">
         <v>4000</v>
       </c>
       <c r="T194" s="3">
-        <f t="shared" si="15"/>
+        <f>M194</f>
         <v>78.78</v>
       </c>
       <c r="U194" s="3">
@@ -45966,7 +46008,7 @@
       <c r="V194" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W194" s="3" t="s">
+      <c r="W194" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X194" s="3">
@@ -46107,7 +46149,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="4">
-        <f t="shared" si="10"/>
+        <f>F195+G195/24</f>
         <v>45290.088495370372</v>
       </c>
       <c r="I195" s="3">
@@ -46117,7 +46159,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K202" si="16">I195*J195^2/2/4.184/10^12</f>
+        <f>I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -46139,14 +46181,14 @@
         <v>70000</v>
       </c>
       <c r="R195" s="3">
-        <f t="shared" si="14"/>
+        <f>Q195</f>
         <v>70000</v>
       </c>
       <c r="S195" s="3">
         <v>20000</v>
       </c>
       <c r="T195" s="3">
-        <f t="shared" si="15"/>
+        <f>M195</f>
         <v>60.255000000000003</v>
       </c>
       <c r="U195" s="3">
@@ -46155,7 +46197,7 @@
       <c r="V195" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W195" s="3" t="s">
+      <c r="W195" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X195" s="3">
@@ -46296,7 +46338,7 @@
         <v>-7</v>
       </c>
       <c r="H196" s="4">
-        <f t="shared" si="10"/>
+        <f>F196+G196/24</f>
         <v>45288.819826388892</v>
       </c>
       <c r="I196" s="3">
@@ -46306,7 +46348,7 @@
         <v>13530</v>
       </c>
       <c r="K196" s="3">
-        <f t="shared" si="16"/>
+        <f>I196*J196^2/2/4.184/10^12</f>
         <v>2.1876302581261948E-3</v>
       </c>
       <c r="L196" s="3">
@@ -46328,14 +46370,14 @@
         <v>26206</v>
       </c>
       <c r="R196" s="3">
-        <f t="shared" si="14"/>
+        <f>Q196</f>
         <v>26206</v>
       </c>
       <c r="S196" s="3">
         <v>4000</v>
       </c>
       <c r="T196" s="3">
-        <f t="shared" si="15"/>
+        <f>M196</f>
         <v>36.810099999999998</v>
       </c>
       <c r="U196" s="3">
@@ -46394,13 +46436,13 @@
         <v>0</v>
       </c>
       <c r="AM196" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN196" s="23">
-        <v>0</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="AO196" s="23">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AP196" s="23">
         <v>0</v>
@@ -46486,7 +46528,7 @@
         <v>1</v>
       </c>
       <c r="H197" s="4">
-        <f t="shared" si="10"/>
+        <f>F197+G197/24</f>
         <v>45312.064374999994</v>
       </c>
       <c r="I197" s="3">
@@ -46496,7 +46538,7 @@
         <v>15221</v>
       </c>
       <c r="K197" s="3">
-        <f t="shared" si="16"/>
+        <f>I197*J197^2/2/4.184/10^12</f>
         <v>4.7814215870817398E-2</v>
       </c>
       <c r="L197" s="3">
@@ -46518,14 +46560,14 @@
         <v>22000</v>
       </c>
       <c r="R197" s="3">
-        <f t="shared" si="14"/>
+        <f>Q197</f>
         <v>22000</v>
       </c>
       <c r="S197" s="3">
         <v>5000</v>
       </c>
       <c r="T197" s="3">
-        <f t="shared" si="15"/>
+        <f>M197</f>
         <v>14.5168</v>
       </c>
       <c r="U197" s="3">
@@ -46672,11 +46714,11 @@
       <c r="F198" s="17">
         <v>45323.238796296297</v>
       </c>
-      <c r="G198" s="21">
+      <c r="G198" s="55">
         <v>-5</v>
       </c>
-      <c r="H198" s="4">
-        <f t="shared" si="10"/>
+      <c r="H198" s="56">
+        <f>F198+G198/24</f>
         <v>45323.030462962961</v>
       </c>
       <c r="I198" s="3">
@@ -46685,8 +46727,8 @@
       <c r="J198" s="3">
         <v>17900</v>
       </c>
-      <c r="K198" s="3">
-        <f t="shared" si="16"/>
+      <c r="K198" s="57">
+        <f>I198*J198^2/2/4.184/10^12</f>
         <v>3.8289913957934988E-5</v>
       </c>
       <c r="L198" s="3">
@@ -46708,7 +46750,7 @@
         <v>31000</v>
       </c>
       <c r="R198" s="3">
-        <f t="shared" si="14"/>
+        <f>Q198</f>
         <v>31000</v>
       </c>
       <c r="S198" s="3">
@@ -46725,7 +46767,7 @@
       <c r="V198" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W198" s="3" t="s">
+      <c r="W198" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X198" s="3">
@@ -46755,10 +46797,10 @@
       <c r="AF198" s="5">
         <v>50</v>
       </c>
-      <c r="AG198" s="5">
+      <c r="AG198" s="58">
         <v>-1</v>
       </c>
-      <c r="AH198" s="5">
+      <c r="AH198" s="58">
         <v>1</v>
       </c>
       <c r="AI198" s="45">
@@ -46866,7 +46908,7 @@
         <v>3</v>
       </c>
       <c r="H199" s="4">
-        <f t="shared" si="10"/>
+        <f>F199+G199/24</f>
         <v>45299.1875</v>
       </c>
       <c r="I199" s="3">
@@ -46876,7 +46918,7 @@
         <v>12430</v>
       </c>
       <c r="K199" s="3">
-        <f t="shared" si="16"/>
+        <f>I199*J199^2/2/4.184/10^12</f>
         <v>1.8463778680688336E-3</v>
       </c>
       <c r="L199" s="3">
@@ -46898,7 +46940,7 @@
         <v>28200</v>
       </c>
       <c r="R199" s="3">
-        <f t="shared" si="14"/>
+        <f>Q199</f>
         <v>28200</v>
       </c>
       <c r="S199" s="3">
@@ -47055,7 +47097,7 @@
         <v>4</v>
       </c>
       <c r="H200" s="4">
-        <f t="shared" si="10"/>
+        <f>F200+G200/24</f>
         <v>45348.639594907407</v>
       </c>
       <c r="I200" s="3">
@@ -47065,7 +47107,7 @@
         <v>22998</v>
       </c>
       <c r="K200" s="3">
-        <f t="shared" si="16"/>
+        <f>I200*J200^2/2/4.184/10^12</f>
         <v>0.13001479018021034</v>
       </c>
       <c r="L200" s="3">
@@ -47244,7 +47286,7 @@
         <v>-4</v>
       </c>
       <c r="H201" s="4">
-        <f t="shared" si="10"/>
+        <f>F201+G201/24</f>
         <v>45392.155185185191</v>
       </c>
       <c r="I201" s="3">
@@ -47254,7 +47296,7 @@
         <v>28000</v>
       </c>
       <c r="K201" s="3">
-        <f t="shared" si="16"/>
+        <f>I201*J201^2/2/4.184/10^12</f>
         <v>9.3690248565965577E-3</v>
       </c>
       <c r="L201" s="3">
@@ -47283,7 +47325,7 @@
         <v>8000</v>
       </c>
       <c r="T201" s="3">
-        <f t="shared" ref="T201" si="17">M201</f>
+        <f>M201</f>
         <v>52</v>
       </c>
       <c r="U201" s="3">
@@ -47433,7 +47475,7 @@
         <v>-7</v>
       </c>
       <c r="H202" s="4">
-        <f t="shared" si="10"/>
+        <f>F202+G202/24</f>
         <v>45398.832974537043</v>
       </c>
       <c r="I202" s="3">
@@ -47443,7 +47485,7 @@
         <v>16400</v>
       </c>
       <c r="K202" s="3">
-        <f t="shared" si="16"/>
+        <f>I202*J202^2/2/4.184/10^12</f>
         <v>1.6070745697896751E-3</v>
       </c>
       <c r="L202" s="3">
@@ -47481,7 +47523,7 @@
       <c r="V202" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W202" s="3" t="s">
+      <c r="W202" s="57" t="s">
         <v>382</v>
       </c>
       <c r="X202" s="3">
@@ -47599,8 +47641,386 @@
         <v>0</v>
       </c>
     </row>
+    <row r="203" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>202</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="17">
+        <v>45411.358124999999</v>
+      </c>
+      <c r="G203" s="21">
+        <v>-6</v>
+      </c>
+      <c r="H203" s="4">
+        <f>F203+G203/24</f>
+        <v>45411.108124999999</v>
+      </c>
+      <c r="I203" s="3">
+        <v>200</v>
+      </c>
+      <c r="J203" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K203" s="3">
+        <f>I203*J203^2/2/4.184/10^12</f>
+        <v>3.7944550669216062E-3</v>
+      </c>
+      <c r="L203" s="3">
+        <v>326.69229999999999</v>
+      </c>
+      <c r="M203" s="3">
+        <v>55.74</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="O203" s="3">
+        <v>42.913874</v>
+      </c>
+      <c r="P203" s="3">
+        <v>-105.60923299999999</v>
+      </c>
+      <c r="Q203" s="3">
+        <v>25323</v>
+      </c>
+      <c r="R203" s="3">
+        <f>Q203</f>
+        <v>25323</v>
+      </c>
+      <c r="S203" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T203" s="3">
+        <f>M203</f>
+        <v>55.74</v>
+      </c>
+      <c r="U203" s="3">
+        <v>24000</v>
+      </c>
+      <c r="V203" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W203" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X203" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z203" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA203" s="5">
+        <v>800</v>
+      </c>
+      <c r="AB203" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="AC203" s="5">
+        <v>0.751</v>
+      </c>
+      <c r="AD203" s="5">
+        <v>1.7856999999999346E-2</v>
+      </c>
+      <c r="AE203" s="5">
+        <v>2.4131999999994502E-2</v>
+      </c>
+      <c r="AF203" s="5">
+        <v>134</v>
+      </c>
+      <c r="AG203" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH203" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI203" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ203" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK203" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL203" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM203" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN203" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO203" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP203" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ203" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR203" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS203" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT203" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU203" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV203" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW203" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX203" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY203" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ203" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA203" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB203" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC203" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD203" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE203" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF203" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG203" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH203" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI203" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A204" s="54">
+        <v>203</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F204" s="17">
+        <v>45419.867337962962</v>
+      </c>
+      <c r="G204" s="55">
+        <v>2</v>
+      </c>
+      <c r="H204" s="56">
+        <f>F204+G204/24</f>
+        <v>45419.950671296298</v>
+      </c>
+      <c r="I204" s="3">
+        <v>1</v>
+      </c>
+      <c r="J204" s="3">
+        <v>13210</v>
+      </c>
+      <c r="K204" s="57">
+        <f>I204*J204^2/2/4.184/10^12</f>
+        <v>2.0853740439770554E-5</v>
+      </c>
+      <c r="L204" s="3">
+        <v>90.794399999999996</v>
+      </c>
+      <c r="M204" s="3">
+        <v>61.140099999999997</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O204" s="3">
+        <v>51.214460000000003</v>
+      </c>
+      <c r="P204" s="3">
+        <v>5.57531</v>
+      </c>
+      <c r="Q204" s="3">
+        <v>35000</v>
+      </c>
+      <c r="R204" s="3">
+        <f>Q204</f>
+        <v>35000</v>
+      </c>
+      <c r="S204" s="3">
+        <v>5630</v>
+      </c>
+      <c r="T204" s="3">
+        <f>M204</f>
+        <v>61.140099999999997</v>
+      </c>
+      <c r="U204" s="3">
+        <v>35000</v>
+      </c>
+      <c r="V204" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W204" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X204" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z204" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA204" s="5">
+        <v>30</v>
+      </c>
+      <c r="AB204" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AC204" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AD204" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AE204" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AF204" s="5">
+        <v>50</v>
+      </c>
+      <c r="AG204" s="58">
+        <v>-1</v>
+      </c>
+      <c r="AH204" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI204" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ204" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK204" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL204" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM204" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN204" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO204" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP204" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ204" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR204" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS204" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT204" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU204" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV204" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW204" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX204" s="38">
+        <v>136</v>
+      </c>
+      <c r="AY204" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ204" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA204" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB204" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC204" s="38">
+        <v>136</v>
+      </c>
+      <c r="BD204" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE204" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF204" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG204" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH204" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI204" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:BI200" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
+  <autoFilter ref="A5:BI203" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -47612,7 +48032,7 @@
   <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47628,6 +48048,16 @@
         <v>14.3</v>
       </c>
     </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>12.04</v>
+      </c>
+    </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>19</v>
@@ -47640,11 +48070,8 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>16.391159999999999</v>
-      </c>
-      <c r="L7">
-        <v>20741</v>
+      <c r="L7" t="s">
+        <v>408</v>
       </c>
       <c r="Q7" t="s">
         <v>13</v>
@@ -47667,11 +48094,15 @@
       <c r="F8">
         <v>52.430398403547677</v>
       </c>
-      <c r="K8">
-        <v>16.7577</v>
-      </c>
-      <c r="L8">
-        <v>21210</v>
+      <c r="L8" t="s">
+        <v>2045</v>
+      </c>
+      <c r="M8" t="e">
+        <f>J13/M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2046</v>
       </c>
       <c r="P8" t="s">
         <v>13</v>
@@ -47724,11 +48155,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>30.68473379237286</v>
+        <v>56.151560022443022</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>59.31526620762714</v>
+        <v>33.848439977556978</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -47736,13 +48167,13 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>61.628747350566847</v>
+        <v>90.305536928806305</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -47764,13 +48195,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>53</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>59.31526620762714</v>
+        <v>33.848439977556978</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -47778,7 +48209,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>25</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -47800,14 +48231,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>31.45</v>
+        <v>75</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>9.30245243027424</v>
+        <v>14.362709650704781</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -60440,8 +60871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,117 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2974E45-F128-4805-BA16-85F017A30079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F204E-9E52-4CD5-8B58-5145C4FB9345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculator" sheetId="2" r:id="rId2"/>
-    <sheet name="Time Zones" sheetId="12" r:id="rId3"/>
-    <sheet name="Countries" sheetId="5" r:id="rId4"/>
-    <sheet name="Cameras" sheetId="8" r:id="rId5"/>
-    <sheet name="DataQuality" sheetId="6" r:id="rId6"/>
-    <sheet name="Database" sheetId="7" r:id="rId7"/>
-    <sheet name="Sources" sheetId="4" r:id="rId8"/>
-    <sheet name="Log" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="Calculator" sheetId="2" r:id="rId3"/>
+    <sheet name="Time Zones" sheetId="12" r:id="rId4"/>
+    <sheet name="Countries" sheetId="5" r:id="rId5"/>
+    <sheet name="Cameras" sheetId="8" r:id="rId6"/>
+    <sheet name="DataQuality" sheetId="6" r:id="rId7"/>
+    <sheet name="Database" sheetId="7" r:id="rId8"/>
+    <sheet name="Sources" sheetId="4" r:id="rId9"/>
+    <sheet name="Log" sheetId="3" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$203</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Database!$A$1:$H$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sources!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Time Zones'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Database!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sources!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Time Zones'!$A$1:$L$1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">AllEventData!$I$7</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Calculator!$F$18</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Cameras!$P$72</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Calculator!$F$18</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Cameras!$P$72</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">AllEventData!$K$7</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Calculator!$H$11</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Cameras!$O$77</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Calculator!$H$11</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Cameras!$O$77</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0.15001</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">43.8</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">43.8</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="2061">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6321,6 +6322,27 @@
   </si>
   <si>
     <t>Hunsel</t>
+  </si>
+  <si>
+    <t>Cresswell</t>
+  </si>
+  <si>
+    <t>Northumberland</t>
+  </si>
+  <si>
+    <t>Stoke-on-Trent</t>
+  </si>
+  <si>
+    <t>Mancelona</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Denis Vida, University of Western Ontario</t>
+  </si>
+  <si>
+    <t>Tamarindo</t>
   </si>
 </sst>
 </file>
@@ -6558,7 +6580,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6703,21 +6725,6 @@
     <xf numFmtId="169" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -6742,6 +6749,1019 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9770</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11060</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14370</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16740</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18740</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23920</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26490</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9770</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14360</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16720</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7640</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9770</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12540</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14350</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16730</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18730</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20750</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23930</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26570</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9770</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12540</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14350</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16720</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5920</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9780</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11060</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14370</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16750</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18760</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20750</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23960</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3168</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9770</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11050</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14350</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16730</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3187</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5930</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7660</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9790</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11060</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12560</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14370</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16750</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18770</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20730</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>23910</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26520</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3179</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5930</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7660</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9790</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11060</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12550</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14370</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16740</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>18760</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20760</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>23880</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26510</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3174</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5920</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9780</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11060</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>12560</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14370</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>16740</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18760</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20750</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>23930</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>26570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D84-4E92-9694-A42C4B123DC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714695856"/>
+        <c:axId val="714694416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714695856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714694416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714694416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714695856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7121,7 +8141,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7505,7 +8525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7855,7 +8875,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8252,7 +9272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8721,7 +9741,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11378,6 +12398,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14513,7 +15573,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EE2087-960E-4C58-BB62-62E4206C59EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14578,7 +16195,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15117,13 +16734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI204"/>
+  <dimension ref="A1:BI208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B204" sqref="B204"/>
+      <selection pane="bottomRight" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16059,7 +17676,7 @@
         <v>-5</v>
       </c>
       <c r="H6" s="8">
-        <f>F6+G6/24</f>
+        <f t="shared" ref="H6:H19" si="0">F6+G6/24</f>
         <v>43116.83924768518</v>
       </c>
       <c r="I6" s="9">
@@ -16069,7 +17686,7 @@
         <v>15830</v>
       </c>
       <c r="K6" s="26">
-        <f>I6*J6^2/2/4.184/10^12</f>
+        <f t="shared" ref="K6:K31" si="1">I6*J6^2/2/4.184/10^12</f>
         <v>3.4737467017208409E-3</v>
       </c>
       <c r="L6" s="9">
@@ -16215,7 +17832,7 @@
         <v>-4</v>
       </c>
       <c r="H7" s="8">
-        <f>F7+G7/24</f>
+        <f t="shared" si="0"/>
         <v>43596.029861111114</v>
       </c>
       <c r="I7" s="9">
@@ -16225,7 +17842,7 @@
         <v>21500</v>
       </c>
       <c r="K7" s="26">
-        <f>I7*J7^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>1.1048040152963671E-3</v>
       </c>
       <c r="L7" s="9">
@@ -16370,7 +17987,7 @@
         <v>-6</v>
       </c>
       <c r="H8" s="8">
-        <f>F8+G8/24</f>
+        <f t="shared" si="0"/>
         <v>37706.993361111112</v>
       </c>
       <c r="I8" s="3">
@@ -16380,7 +17997,7 @@
         <v>19500</v>
       </c>
       <c r="K8" s="26">
-        <f>I8*J8^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.41001383245697892</v>
       </c>
       <c r="L8" s="3">
@@ -16558,7 +18175,7 @@
         <v>-4</v>
       </c>
       <c r="H9" s="8">
-        <f>F9+G9/24</f>
+        <f t="shared" si="0"/>
         <v>40763.056944444448</v>
       </c>
       <c r="I9" s="3">
@@ -16568,7 +18185,7 @@
         <v>25000</v>
       </c>
       <c r="K9" s="26">
-        <f>I9*J9^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>3.7344646271510515E-4</v>
       </c>
       <c r="L9" s="3">
@@ -16713,7 +18330,7 @@
         <v>-4</v>
       </c>
       <c r="H10" s="8">
-        <f>F10+G10/24</f>
+        <f t="shared" si="0"/>
         <v>43605.94063657408</v>
       </c>
       <c r="I10" s="3">
@@ -16723,7 +18340,7 @@
         <v>13600</v>
       </c>
       <c r="K10" s="26">
-        <f>I10*J10^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.210325047801147E-4</v>
       </c>
       <c r="L10" s="3">
@@ -16868,7 +18485,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="8">
-        <f>F11+G11/24</f>
+        <f t="shared" si="0"/>
         <v>41648.128865740735</v>
       </c>
       <c r="I11" s="3">
@@ -16878,7 +18495,7 @@
         <v>44832</v>
       </c>
       <c r="K11" s="26">
-        <f>I11*J11^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.11000692717399617</v>
       </c>
       <c r="L11" s="3">
@@ -17024,7 +18641,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <f>F12+G12/24</f>
+        <f t="shared" si="0"/>
         <v>42189.402905092596</v>
       </c>
       <c r="I12" s="3">
@@ -17034,7 +18651,7 @@
         <v>49000</v>
       </c>
       <c r="K12" s="26">
-        <f>I12*J12^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.17990284416826005</v>
       </c>
       <c r="L12" s="3">
@@ -17181,7 +18798,7 @@
         <v>-7</v>
       </c>
       <c r="H13" s="8">
-        <f>F13+G13/24</f>
+        <f t="shared" si="0"/>
         <v>39630.444664351853</v>
       </c>
       <c r="I13" s="3">
@@ -17191,7 +18808,7 @@
         <v>9800</v>
       </c>
       <c r="K13" s="26">
-        <f>I13*J13^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.11999261472275334</v>
       </c>
       <c r="L13" s="3">
@@ -17336,7 +18953,7 @@
         <v>-3</v>
       </c>
       <c r="H14" s="8">
-        <f>F14+G14/24</f>
+        <f t="shared" si="0"/>
         <v>43622.936111111114</v>
       </c>
       <c r="I14" s="3">
@@ -17346,7 +18963,7 @@
         <v>14800</v>
       </c>
       <c r="K14" s="26">
-        <f>I14*J14^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>8.504552581261951E-2</v>
       </c>
       <c r="L14" s="3">
@@ -17491,7 +19108,7 @@
         <v>-4</v>
       </c>
       <c r="H15" s="8">
-        <f>F15+G15/24</f>
+        <f t="shared" si="0"/>
         <v>40000.044965277782</v>
       </c>
       <c r="I15" s="3">
@@ -17501,7 +19118,7 @@
         <v>11000</v>
       </c>
       <c r="K15" s="26">
-        <f>I15*J15^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>5.3501434034416828E-3</v>
       </c>
       <c r="L15" s="3">
@@ -17646,7 +19263,7 @@
         <v>9.5</v>
       </c>
       <c r="H16" s="8">
-        <f>F16+G16/24</f>
+        <f t="shared" si="0"/>
         <v>43605.011840277781</v>
       </c>
       <c r="I16" s="3">
@@ -17656,7 +19273,7 @@
         <v>15200</v>
       </c>
       <c r="K16" s="26">
-        <f>I16*J16^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.10999801147227532</v>
       </c>
       <c r="L16" s="3">
@@ -17801,7 +19418,7 @@
         <v>-4</v>
       </c>
       <c r="H17" s="8">
-        <f>F17+G17/24</f>
+        <f t="shared" si="0"/>
         <v>43670.113657407412</v>
       </c>
       <c r="I17" s="3">
@@ -17811,7 +19428,7 @@
         <v>20200</v>
       </c>
       <c r="K17" s="26">
-        <f>I17*J17^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.4380975143403439E-3</v>
       </c>
       <c r="L17" s="3">
@@ -17956,7 +19573,7 @@
         <v>-7</v>
       </c>
       <c r="H18" s="8">
-        <f>F18+G18/24</f>
+        <f t="shared" si="0"/>
         <v>41021.327222222222</v>
       </c>
       <c r="I18" s="3">
@@ -17966,7 +19583,7 @@
         <v>28600</v>
       </c>
       <c r="K18" s="26">
-        <f>I18*J18^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>3.9099426386233267</v>
       </c>
       <c r="L18" s="3">
@@ -18143,7 +19760,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="8">
-        <f>F19+G19/24</f>
+        <f t="shared" si="0"/>
         <v>41320.347462962964</v>
       </c>
       <c r="I19" s="3">
@@ -18153,7 +19770,7 @@
         <v>19160</v>
       </c>
       <c r="K19" s="26">
-        <f>I19*J19^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>466.89343921548755</v>
       </c>
       <c r="L19" s="3">
@@ -18340,7 +19957,7 @@
         <v>18614.2</v>
       </c>
       <c r="K20" s="26">
-        <f>I20*J20^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>439.98400822976106</v>
       </c>
       <c r="L20" s="3">
@@ -18485,7 +20102,7 @@
         <v>-4</v>
       </c>
       <c r="H21" s="8">
-        <f>F21+G21/24</f>
+        <f t="shared" ref="H21:H31" si="2">F21+G21/24</f>
         <v>43670.960416666669</v>
       </c>
       <c r="I21" s="3">
@@ -18495,7 +20112,7 @@
         <v>30400</v>
       </c>
       <c r="K21" s="26">
-        <f>I21*J21^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>1.104397705544933E-3</v>
       </c>
       <c r="L21" s="3">
@@ -18640,7 +20257,7 @@
         <v>-6</v>
       </c>
       <c r="H22" s="4">
-        <f>F22+G22/24</f>
+        <f t="shared" si="2"/>
         <v>43708.933217592596</v>
       </c>
       <c r="I22" s="3">
@@ -18650,7 +20267,7 @@
         <v>7827</v>
       </c>
       <c r="K22" s="26">
-        <f>I22*J22^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>3.6604881094646271E-4</v>
       </c>
       <c r="L22" s="3">
@@ -18795,7 +20412,7 @@
         <v>-4</v>
       </c>
       <c r="H23" s="4">
-        <f>F23+G23/24</f>
+        <f t="shared" si="2"/>
         <v>43743.800115740742</v>
       </c>
       <c r="I23" s="3">
@@ -18805,7 +20422,7 @@
         <v>14000</v>
       </c>
       <c r="K23" s="9">
-        <f>I23*J23^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.3422562141491394E-3</v>
       </c>
       <c r="L23" s="3">
@@ -18950,7 +20567,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="4">
-        <f>F24+G24/24</f>
+        <f t="shared" si="2"/>
         <v>43720.61791666667</v>
       </c>
       <c r="I24" s="3">
@@ -18960,7 +20577,7 @@
         <v>19998</v>
       </c>
       <c r="K24" s="9">
-        <f>I24*J24^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="L24" s="3">
@@ -19104,7 +20721,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <f>F25+G25/24</f>
+        <f t="shared" si="2"/>
         <v>43735.81248842593</v>
       </c>
       <c r="I25" s="3">
@@ -19114,7 +20731,7 @@
         <v>17965</v>
       </c>
       <c r="K25" s="9">
-        <f>I25*J25^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>1.928425101577438E-3</v>
       </c>
       <c r="L25" s="3">
@@ -19162,28 +20779,28 @@
       <c r="Z25" s="3">
         <v>85000</v>
       </c>
-      <c r="AA25" s="58">
+      <c r="AA25" s="5">
         <v>500</v>
       </c>
-      <c r="AB25" s="58">
+      <c r="AB25" s="5">
         <v>0.5</v>
       </c>
-      <c r="AC25" s="58">
+      <c r="AC25" s="5">
         <v>0.5</v>
       </c>
-      <c r="AD25" s="58">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="58">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="58">
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
         <v>50</v>
       </c>
-      <c r="AG25" s="58">
+      <c r="AG25" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH25" s="58">
+      <c r="AH25" s="5">
         <v>1.5</v>
       </c>
       <c r="AI25" s="44" t="s">
@@ -19258,7 +20875,7 @@
         <v>-4</v>
       </c>
       <c r="H26" s="4">
-        <f>F26+G26/24</f>
+        <f t="shared" si="2"/>
         <v>43739.041655092595</v>
       </c>
       <c r="I26" s="3">
@@ -19268,7 +20885,7 @@
         <v>59700</v>
       </c>
       <c r="K26" s="9">
-        <f>I26*J26^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>4.2591897705544932E-2</v>
       </c>
       <c r="L26" s="3">
@@ -19413,7 +21030,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="4">
-        <f>F27+G27/24</f>
+        <f t="shared" si="2"/>
         <v>43749.01152777778</v>
       </c>
       <c r="I27" s="3">
@@ -19423,7 +21040,7 @@
         <v>14065</v>
       </c>
       <c r="K27" s="9">
-        <f>I27*J27^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>0.56999759667483263</v>
       </c>
       <c r="L27" s="3">
@@ -19568,7 +21185,7 @@
         <v>-6</v>
       </c>
       <c r="H28" s="4">
-        <f>F28+G28/24</f>
+        <f t="shared" si="2"/>
         <v>43780.869270833333</v>
       </c>
       <c r="I28" s="3">
@@ -19578,7 +21195,7 @@
         <v>15300</v>
       </c>
       <c r="K28" s="3">
-        <f>I28*J28^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L28" s="3">
@@ -19753,7 +21370,7 @@
         <v>-6</v>
       </c>
       <c r="H29" s="4">
-        <f>F29+G29/24</f>
+        <f t="shared" si="2"/>
         <v>43780.869270833333</v>
       </c>
       <c r="I29" s="3">
@@ -19763,7 +21380,7 @@
         <v>15300</v>
       </c>
       <c r="K29" s="3">
-        <f>I29*J29^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.4058006692160611E-3</v>
       </c>
       <c r="L29" s="3">
@@ -19908,7 +21525,7 @@
         <v>-5</v>
       </c>
       <c r="H30" s="4">
-        <f>F30+G30/24</f>
+        <f t="shared" si="2"/>
         <v>43802.803101851852</v>
       </c>
       <c r="I30" s="3">
@@ -19918,7 +21535,7 @@
         <v>20000</v>
       </c>
       <c r="K30" s="3">
-        <f>I30*J30^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L30" s="3">
@@ -20063,7 +21680,7 @@
         <v>-8</v>
       </c>
       <c r="H31" s="4">
-        <f>F31+G31/24</f>
+        <f t="shared" si="2"/>
         <v>36543.363692129627</v>
       </c>
       <c r="I31" s="3">
@@ -20073,7 +21690,7 @@
         <v>15800</v>
       </c>
       <c r="K31" s="3">
-        <f>I31*J31^2/2/4.184/10^12</f>
+        <f t="shared" si="1"/>
         <v>1.7452127151051624</v>
       </c>
       <c r="L31" s="3">
@@ -22892,7 +24509,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="4">
-        <f>F62+G62/24</f>
+        <f t="shared" ref="H62:H71" si="3">F62+G62/24</f>
         <v>39060.355000000003</v>
       </c>
       <c r="I62" s="3">
@@ -22902,7 +24519,7 @@
         <v>15861</v>
       </c>
       <c r="K62" s="3">
-        <f>I62*J62^2/2/4.184/10^12</f>
+        <f t="shared" ref="K62:K72" si="4">I62*J62^2/2/4.184/10^12</f>
         <v>13.99999812793989</v>
       </c>
       <c r="L62" s="3">
@@ -23076,7 +24693,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="4">
-        <f>F63+G63/24</f>
+        <f t="shared" si="3"/>
         <v>42249.923922685186</v>
       </c>
       <c r="I63" s="37">
@@ -23086,7 +24703,7 @@
         <v>17100</v>
       </c>
       <c r="K63" s="3">
-        <f>I63*J63^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>6.5659463432122367E-2</v>
       </c>
       <c r="L63" s="3">
@@ -23230,7 +24847,7 @@
         <v>-6</v>
       </c>
       <c r="H64" s="4">
-        <f>F64+G64/24</f>
+        <f t="shared" si="3"/>
         <v>43578.879861111112</v>
       </c>
       <c r="I64" s="3">
@@ -23240,7 +24857,7 @@
         <v>14000</v>
       </c>
       <c r="K64" s="36">
-        <f>I64*J64^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>1.1711281070745696E-2</v>
       </c>
       <c r="L64" s="3">
@@ -23400,7 +25017,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <f>F65+G65/24</f>
+        <f t="shared" si="3"/>
         <v>43835.169652777775</v>
       </c>
       <c r="I65" s="3">
@@ -23410,7 +25027,7 @@
         <v>18000</v>
       </c>
       <c r="K65" s="36">
-        <f>I65*J65^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L65" s="3">
@@ -23555,7 +25172,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="4">
-        <f>F66+G66/24</f>
+        <f t="shared" si="3"/>
         <v>43835.169652777775</v>
       </c>
       <c r="I66" s="3">
@@ -23565,7 +25182,7 @@
         <v>18000</v>
       </c>
       <c r="K66" s="36">
-        <f>I66*J66^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L66" s="3">
@@ -23710,7 +25327,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="4">
-        <f>F67+G67/24</f>
+        <f t="shared" si="3"/>
         <v>43857.277256944442</v>
       </c>
       <c r="I67" s="3">
@@ -23720,7 +25337,7 @@
         <v>20860</v>
       </c>
       <c r="K67" s="3">
-        <f>I67*J67^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>0.15001000000000006</v>
       </c>
       <c r="L67" s="3">
@@ -23895,7 +25512,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="4">
-        <f>F68+G68/24</f>
+        <f t="shared" si="3"/>
         <v>43859.005555555552</v>
       </c>
       <c r="I68" s="3">
@@ -23905,7 +25522,7 @@
         <v>16944</v>
       </c>
       <c r="K68" s="3">
-        <f>I68*J68^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>1.0292751051625238E-2</v>
       </c>
       <c r="L68" s="3">
@@ -24076,7 +25693,7 @@
         <v>5.5</v>
       </c>
       <c r="H69" s="4">
-        <f>F69+G69/24</f>
+        <f t="shared" si="3"/>
         <v>43872.221030092587</v>
       </c>
       <c r="I69" s="3">
@@ -24086,7 +25703,7 @@
         <v>31690</v>
       </c>
       <c r="K69" s="3">
-        <f>I69*J69^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>9.4929084022466539E-2</v>
       </c>
       <c r="L69" s="3">
@@ -24260,7 +25877,7 @@
         <v>-5</v>
       </c>
       <c r="H70" s="4">
-        <f>F70+G70/24</f>
+        <f t="shared" si="3"/>
         <v>43868.778518518513</v>
       </c>
       <c r="I70" s="3">
@@ -24270,7 +25887,7 @@
         <v>19080</v>
       </c>
       <c r="K70" s="3">
-        <f>I70*J70^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>6.5256883365200757E-3</v>
       </c>
       <c r="L70" s="3">
@@ -24414,7 +26031,7 @@
         <v>-7</v>
       </c>
       <c r="H71" s="4">
-        <f>F71+G71/24</f>
+        <f t="shared" si="3"/>
         <v>43877.303761574076</v>
       </c>
       <c r="I71" s="3">
@@ -24424,7 +26041,7 @@
         <v>23000</v>
       </c>
       <c r="K71" s="3">
-        <f>I71*J71^2/2/4.184/10^12</f>
+        <f t="shared" si="4"/>
         <v>9.48255258126195E-3</v>
       </c>
       <c r="L71" s="3">
@@ -24543,77 +26160,77 @@
       </c>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A72" s="54">
+      <c r="A72" s="6">
         <v>68</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="6" t="s">
         <v>1229</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="D72" s="54" t="s">
+      <c r="D72" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="E72" s="54" t="s">
+      <c r="E72" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="17">
         <v>43877.59542824074</v>
       </c>
-      <c r="G72" s="55">
+      <c r="G72" s="21">
         <v>-7</v>
       </c>
-      <c r="H72" s="56">
+      <c r="H72" s="4">
         <v>43877.303761574076</v>
       </c>
-      <c r="I72" s="57">
+      <c r="I72" s="3">
         <v>0.1</v>
       </c>
-      <c r="J72" s="57">
+      <c r="J72" s="3">
         <v>50</v>
       </c>
-      <c r="K72" s="57">
-        <f>I72*J72^2/2/4.184/10^12</f>
+      <c r="K72" s="3">
+        <f t="shared" si="4"/>
         <v>2.9875717017208414E-11</v>
       </c>
-      <c r="L72" s="57">
+      <c r="L72" s="3">
         <v>282.5</v>
       </c>
-      <c r="M72" s="57">
-        <v>0</v>
-      </c>
-      <c r="N72" s="57" t="s">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="O72" s="57">
+      <c r="O72" s="3">
         <v>34.772824</v>
       </c>
-      <c r="P72" s="57">
+      <c r="P72" s="3">
         <v>-112.717595</v>
       </c>
-      <c r="Q72" s="57">
+      <c r="Q72" s="3">
         <v>11527</v>
       </c>
-      <c r="R72" s="57">
+      <c r="R72" s="3">
         <v>11527</v>
       </c>
-      <c r="S72" s="57">
+      <c r="S72" s="3">
         <v>80</v>
       </c>
-      <c r="T72" s="57">
+      <c r="T72" s="3">
         <v>2</v>
       </c>
-      <c r="U72" s="57">
+      <c r="U72" s="3">
         <v>11527</v>
       </c>
-      <c r="V72" s="57" t="s">
+      <c r="V72" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W72" s="57" t="s">
+      <c r="W72" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X72" s="57">
+      <c r="X72" s="3">
         <v>0</v>
       </c>
       <c r="Y72" s="3">
@@ -24622,28 +26239,28 @@
       <c r="Z72" s="3">
         <v>11527</v>
       </c>
-      <c r="AA72" s="58">
+      <c r="AA72" s="5">
         <v>30</v>
       </c>
-      <c r="AB72" s="58">
+      <c r="AB72" s="5">
         <v>3</v>
       </c>
-      <c r="AC72" s="58">
+      <c r="AC72" s="5">
         <v>1</v>
       </c>
-      <c r="AD72" s="58">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="58">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="58">
+      <c r="AD72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="5">
         <v>1150</v>
       </c>
-      <c r="AG72" s="58">
+      <c r="AG72" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH72" s="58">
+      <c r="AH72" s="5">
         <v>1.5</v>
       </c>
       <c r="AI72" s="44" t="s">
@@ -24693,7 +26310,7 @@
       </c>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A73" s="54">
+      <c r="A73" s="6">
         <v>68</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -24711,10 +26328,10 @@
       <c r="F73" s="17">
         <v>43877.59542824074</v>
       </c>
-      <c r="G73" s="55">
+      <c r="G73" s="21">
         <v>-7</v>
       </c>
-      <c r="H73" s="56">
+      <c r="H73" s="4">
         <v>43877.303761574076</v>
       </c>
       <c r="I73" s="3">
@@ -24723,7 +26340,7 @@
       <c r="J73" s="3">
         <v>50</v>
       </c>
-      <c r="K73" s="57">
+      <c r="K73" s="3">
         <v>4.5889101338432122E-9</v>
       </c>
       <c r="L73" s="3">
@@ -24759,7 +26376,7 @@
       <c r="V73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W73" s="57" t="s">
+      <c r="W73" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X73" s="3">
@@ -24789,10 +26406,10 @@
       <c r="AF73" s="5">
         <v>1150</v>
       </c>
-      <c r="AG73" s="58">
+      <c r="AG73" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH73" s="58">
+      <c r="AH73" s="5">
         <v>1.5</v>
       </c>
       <c r="AI73" s="44" t="s">
@@ -25520,7 +27137,7 @@
       <c r="V78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W78" s="57" t="s">
+      <c r="W78" s="3" t="s">
         <v>242</v>
       </c>
       <c r="X78" s="3">
@@ -25995,7 +27612,7 @@
         <v>-3</v>
       </c>
       <c r="H81" s="4">
-        <f>F81+G81/24</f>
+        <f t="shared" ref="H81:H112" si="5">F81+G81/24</f>
         <v>43959.142534722225</v>
       </c>
       <c r="I81" s="3">
@@ -26182,7 +27799,7 @@
         <v>3</v>
       </c>
       <c r="H82" s="4">
-        <f>F82+G82/24</f>
+        <f t="shared" si="5"/>
         <v>43978.854328703703</v>
       </c>
       <c r="I82" s="3">
@@ -26368,7 +27985,7 @@
         <v>9</v>
       </c>
       <c r="H83" s="4">
-        <f>F83+G83/24</f>
+        <f t="shared" si="5"/>
         <v>44014.105590277781</v>
       </c>
       <c r="I83" s="3">
@@ -26378,7 +27995,7 @@
         <v>14646</v>
       </c>
       <c r="K83" s="3">
-        <f>I83*J83^2/2/4.184/10^12</f>
+        <f t="shared" ref="K83:K130" si="6">I83*J83^2/2/4.184/10^12</f>
         <v>0.16405760305927342</v>
       </c>
       <c r="L83" s="3">
@@ -26556,7 +28173,7 @@
         <v>-3</v>
       </c>
       <c r="H84" s="4">
-        <f>F84+G84/24</f>
+        <f t="shared" si="5"/>
         <v>44027.790972222225</v>
       </c>
       <c r="I84" s="3">
@@ -26566,7 +28183,7 @@
         <v>12500</v>
       </c>
       <c r="K84" s="3">
-        <f>I84*J84^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.7344646271510514E-3</v>
       </c>
       <c r="L84" s="3">
@@ -26744,7 +28361,7 @@
         <v>2</v>
       </c>
       <c r="H85" s="4">
-        <f>F85+G85/24</f>
+        <f t="shared" si="5"/>
         <v>44043.100694444445</v>
       </c>
       <c r="I85" s="3">
@@ -26754,7 +28371,7 @@
         <v>18000</v>
       </c>
       <c r="K85" s="3">
-        <f>I85*J85^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L85" s="3">
@@ -26931,7 +28548,7 @@
         <v>-3</v>
       </c>
       <c r="H86" s="4">
-        <f>F86+G86/24</f>
+        <f t="shared" si="5"/>
         <v>44062.429560185185</v>
       </c>
       <c r="I86" s="3">
@@ -26941,7 +28558,7 @@
         <v>17970</v>
       </c>
       <c r="K86" s="3">
-        <f>I86*J86^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.8589973709369028E-2</v>
       </c>
       <c r="L86" s="3">
@@ -27118,7 +28735,7 @@
         <v>-3</v>
       </c>
       <c r="H87" s="4">
-        <f>F87+G87/24</f>
+        <f t="shared" si="5"/>
         <v>44105.048020833332</v>
       </c>
       <c r="I87" s="3">
@@ -27128,7 +28745,7 @@
         <v>16550</v>
       </c>
       <c r="K87" s="3">
-        <f>I87*J87^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>6.546426864244741E-3</v>
       </c>
       <c r="L87" s="3">
@@ -27305,7 +28922,7 @@
         <v>-6</v>
       </c>
       <c r="H88" s="4">
-        <f>F88+G88/24</f>
+        <f t="shared" si="5"/>
         <v>44136.745266203703</v>
       </c>
       <c r="I88" s="3">
@@ -27315,7 +28932,7 @@
         <v>20100</v>
       </c>
       <c r="K88" s="3">
-        <f>I88*J88^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.8280353728489482E-4</v>
       </c>
       <c r="L88" s="3">
@@ -27492,7 +29109,7 @@
         <v>-4</v>
       </c>
       <c r="H89" s="4">
-        <f>F89+G89/24</f>
+        <f t="shared" si="5"/>
         <v>44143.84652777778</v>
       </c>
       <c r="I89" s="3">
@@ -27502,7 +29119,7 @@
         <v>18000</v>
       </c>
       <c r="K89" s="3">
-        <f>I89*J89^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>5.8078393881453149E-3</v>
       </c>
       <c r="L89" s="3">
@@ -27679,7 +29296,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="4">
-        <f>F90+G90/24</f>
+        <f t="shared" si="5"/>
         <v>44142.93546296296</v>
       </c>
       <c r="I90" s="3">
@@ -27689,7 +29306,7 @@
         <v>17400</v>
       </c>
       <c r="K90" s="3">
-        <f>I90*J90^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.33467136711281065</v>
       </c>
       <c r="L90" s="3">
@@ -27866,7 +29483,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <f>F91+G91/24</f>
+        <f t="shared" si="5"/>
         <v>44142.93546296296</v>
       </c>
       <c r="I91" s="3">
@@ -27876,7 +29493,7 @@
         <v>17055</v>
       </c>
       <c r="K91" s="3">
-        <f>I91*J91^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.3371735590941683</v>
       </c>
       <c r="L91" s="3">
@@ -28053,7 +29670,7 @@
         <v>-5</v>
       </c>
       <c r="H92" s="4">
-        <f>F92+G92/24</f>
+        <f t="shared" si="5"/>
         <v>44167.504861111105</v>
       </c>
       <c r="I92" s="3">
@@ -28063,7 +29680,7 @@
         <v>25000</v>
       </c>
       <c r="K92" s="3">
-        <f>I92*J92^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>6.7220363288718929E-2</v>
       </c>
       <c r="L92" s="3">
@@ -28236,11 +29853,11 @@
       <c r="F93" s="17">
         <v>44176.018318287039</v>
       </c>
-      <c r="G93" s="55">
+      <c r="G93" s="21">
         <v>-5</v>
       </c>
-      <c r="H93" s="56">
-        <f>F93+G93/24</f>
+      <c r="H93" s="4">
+        <f t="shared" si="5"/>
         <v>44175.809984953703</v>
       </c>
       <c r="I93" s="3">
@@ -28249,8 +29866,8 @@
       <c r="J93" s="3">
         <v>28072.8632</v>
       </c>
-      <c r="K93" s="57">
-        <f>I93*J93^2/2/4.184/10^12</f>
+      <c r="K93" s="3">
+        <f t="shared" si="6"/>
         <v>1.8835699049854547E-4</v>
       </c>
       <c r="L93" s="3">
@@ -28286,7 +29903,7 @@
       <c r="V93" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W93" s="57" t="s">
+      <c r="W93" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X93" s="3">
@@ -28316,10 +29933,10 @@
       <c r="AF93" s="5">
         <v>50</v>
       </c>
-      <c r="AG93" s="58">
+      <c r="AG93" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH93" s="58">
+      <c r="AH93" s="5">
         <v>1.5</v>
       </c>
       <c r="AI93" s="45">
@@ -28427,7 +30044,7 @@
         <v>-6</v>
       </c>
       <c r="H94" s="4">
-        <f>F94+G94/24</f>
+        <f t="shared" si="5"/>
         <v>44181.284918981481</v>
       </c>
       <c r="I94" s="3">
@@ -28437,7 +30054,7 @@
         <v>12000</v>
       </c>
       <c r="K94" s="3">
-        <f>I94*J94^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>8.6042065009560222E-4</v>
       </c>
       <c r="L94" s="3">
@@ -28614,7 +30231,7 @@
         <v>8</v>
       </c>
       <c r="H95" s="4">
-        <f>F95+G95/24</f>
+        <f t="shared" si="5"/>
         <v>44188.308020833334</v>
       </c>
       <c r="I95" s="3">
@@ -28624,7 +30241,7 @@
         <v>13710</v>
       </c>
       <c r="K95" s="3">
-        <f>I95*J95^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>9.4986112532265761</v>
       </c>
       <c r="L95" s="3">
@@ -28801,7 +30418,7 @@
         <v>-6</v>
       </c>
       <c r="H96" s="4">
-        <f>F96+G96/24</f>
+        <f t="shared" si="5"/>
         <v>44251.845289351855</v>
       </c>
       <c r="I96" s="3">
@@ -28811,7 +30428,7 @@
         <v>26300</v>
       </c>
       <c r="K96" s="3">
-        <f>I96*J96^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.1329469407265776E-3</v>
       </c>
       <c r="L96" s="3">
@@ -28988,7 +30605,7 @@
         <v>-5</v>
       </c>
       <c r="H97" s="4">
-        <f>F97+G97/24</f>
+        <f t="shared" si="5"/>
         <v>44253.921574074069</v>
       </c>
       <c r="I97" s="3">
@@ -28998,7 +30615,7 @@
         <v>29400</v>
       </c>
       <c r="K97" s="3">
-        <f>I97*J97^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.0329349904397705E-3</v>
       </c>
       <c r="L97" s="3">
@@ -29153,78 +30770,78 @@
       </c>
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A98" s="54">
+      <c r="A98" s="6">
         <v>95</v>
       </c>
-      <c r="B98" s="54" t="s">
+      <c r="B98" s="6" t="s">
         <v>1366</v>
       </c>
-      <c r="C98" s="54" t="s">
+      <c r="C98" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="D98" s="54" t="s">
+      <c r="D98" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="54" t="s">
+      <c r="E98" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F98" s="17">
         <v>44254.129907407405</v>
       </c>
-      <c r="G98" s="55">
+      <c r="G98" s="21">
         <v>-5</v>
       </c>
-      <c r="H98" s="56">
-        <f>F98+G98/24</f>
+      <c r="H98" s="4">
+        <f t="shared" si="5"/>
         <v>44253.921574074069</v>
       </c>
-      <c r="I98" s="57">
+      <c r="I98" s="3">
         <v>0.1</v>
       </c>
-      <c r="J98" s="57">
+      <c r="J98" s="3">
         <v>50</v>
       </c>
-      <c r="K98" s="57">
-        <f>I98*J98^2/2/4.184/10^12</f>
+      <c r="K98" s="3">
+        <f t="shared" si="6"/>
         <v>2.9875717017208414E-11</v>
       </c>
-      <c r="L98" s="57">
+      <c r="L98" s="3">
         <v>310.58999999999997</v>
       </c>
-      <c r="M98" s="57">
-        <v>0</v>
-      </c>
-      <c r="N98" s="57" t="s">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="O98" s="57">
+      <c r="O98" s="3">
         <v>42.817433000000001</v>
       </c>
-      <c r="P98" s="57">
+      <c r="P98" s="3">
         <v>-82.645071000000002</v>
       </c>
-      <c r="Q98" s="57">
+      <c r="Q98" s="3">
         <v>1350</v>
       </c>
-      <c r="R98" s="57">
+      <c r="R98" s="3">
         <v>1350</v>
       </c>
-      <c r="S98" s="57">
+      <c r="S98" s="3">
         <v>50</v>
       </c>
-      <c r="T98" s="57">
-        <v>0</v>
-      </c>
-      <c r="U98" s="57">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
         <v>1100</v>
       </c>
-      <c r="V98" s="57" t="s">
+      <c r="V98" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W98" s="57" t="s">
+      <c r="W98" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X98" s="57">
+      <c r="X98" s="3">
         <v>0</v>
       </c>
       <c r="Y98" s="3">
@@ -29233,28 +30850,28 @@
       <c r="Z98" s="3">
         <v>1600</v>
       </c>
-      <c r="AA98" s="58">
+      <c r="AA98" s="5">
         <v>30</v>
       </c>
-      <c r="AB98" s="58">
+      <c r="AB98" s="5">
         <v>2</v>
       </c>
-      <c r="AC98" s="58">
+      <c r="AC98" s="5">
         <v>1</v>
       </c>
-      <c r="AD98" s="58">
+      <c r="AD98" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AE98" s="58">
+      <c r="AE98" s="5">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="AF98" s="58">
+      <c r="AF98" s="5">
         <v>400</v>
       </c>
-      <c r="AG98" s="58">
+      <c r="AG98" s="5">
         <v>-1</v>
       </c>
-      <c r="AH98" s="58">
+      <c r="AH98" s="5">
         <v>1</v>
       </c>
       <c r="AI98" s="45">
@@ -29362,7 +30979,7 @@
         <v>-6</v>
       </c>
       <c r="H99" s="4">
-        <f>F99+G99/24</f>
+        <f t="shared" si="5"/>
         <v>44236.727418981478</v>
       </c>
       <c r="I99" s="3">
@@ -29372,7 +30989,7 @@
         <v>13150</v>
       </c>
       <c r="K99" s="3">
-        <f>I99*J99^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.10005864543499043</v>
       </c>
       <c r="L99" s="3">
@@ -29527,7 +31144,7 @@
       </c>
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A100" s="54">
+      <c r="A100" s="6">
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -29545,11 +31162,11 @@
       <c r="F100" s="17">
         <v>44255.91269675926</v>
       </c>
-      <c r="G100" s="55">
-        <v>0</v>
-      </c>
-      <c r="H100" s="56">
-        <f>F100+G100/24</f>
+      <c r="G100" s="21">
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <f t="shared" si="5"/>
         <v>44255.91269675926</v>
       </c>
       <c r="I100" s="3">
@@ -29558,8 +31175,8 @@
       <c r="J100" s="3">
         <v>10600</v>
       </c>
-      <c r="K100" s="57">
-        <f>I100*J100^2/2/4.184/10^12</f>
+      <c r="K100" s="3">
+        <f t="shared" si="6"/>
         <v>6.7136711281070733E-5</v>
       </c>
       <c r="L100" s="3">
@@ -29625,10 +31242,10 @@
       <c r="AF100" s="5">
         <v>1500</v>
       </c>
-      <c r="AG100" s="58">
+      <c r="AG100" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH100" s="58">
+      <c r="AH100" s="5">
         <v>1.5</v>
       </c>
       <c r="AI100" s="45">
@@ -29736,7 +31353,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="4">
-        <f>F101+G101/24</f>
+        <f t="shared" si="5"/>
         <v>44261.118067129624</v>
       </c>
       <c r="I101" s="3">
@@ -29746,7 +31363,7 @@
         <v>23260</v>
       </c>
       <c r="K101" s="3">
-        <f>I101*J101^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.12995524330783939</v>
       </c>
       <c r="L101" s="3">
@@ -29923,7 +31540,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="4">
-        <f>F102+G102/24</f>
+        <f t="shared" si="5"/>
         <v>44229.627326388894</v>
       </c>
       <c r="I102" s="3">
@@ -29933,7 +31550,7 @@
         <v>12760</v>
       </c>
       <c r="K102" s="3">
-        <f>I102*J102^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.10995246864244741</v>
       </c>
       <c r="L102" s="3">
@@ -30110,7 +31727,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="4">
-        <f>F103+G103/24</f>
+        <f t="shared" si="5"/>
         <v>44271.798460648148</v>
       </c>
       <c r="I103" s="3">
@@ -30120,7 +31737,7 @@
         <v>12900</v>
       </c>
       <c r="K103" s="3">
-        <f>I103*J103^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>9.9432361376673023E-4</v>
       </c>
       <c r="L103" s="3">
@@ -30298,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="4">
-        <f>F104+G104/24</f>
+        <f t="shared" si="5"/>
         <v>44270.372916666667</v>
       </c>
       <c r="I104" s="3">
@@ -30307,8 +31924,8 @@
       <c r="J104" s="3">
         <v>14000</v>
       </c>
-      <c r="K104" s="57">
-        <f>I104*J104^2/2/4.184/10^12</f>
+      <c r="K104" s="3">
+        <f t="shared" si="6"/>
         <v>2.3422562141491395E-4</v>
       </c>
       <c r="L104" s="3">
@@ -30485,7 +32102,7 @@
         <v>-4</v>
       </c>
       <c r="H105" s="4">
-        <f>F105+G105/24</f>
+        <f t="shared" si="5"/>
         <v>40245.251469907409</v>
       </c>
       <c r="I105" s="3">
@@ -30495,7 +32112,7 @@
         <v>24501</v>
       </c>
       <c r="K105" s="3">
-        <f>I105*J105^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.85001707252019587</v>
       </c>
       <c r="L105" s="3">
@@ -30672,7 +32289,7 @@
         <v>-5</v>
       </c>
       <c r="H106" s="4">
-        <f>F106+G106/24</f>
+        <f t="shared" si="5"/>
         <v>42965.996932870366</v>
       </c>
       <c r="I106" s="3">
@@ -30682,7 +32299,7 @@
         <v>15000</v>
       </c>
       <c r="K106" s="3">
-        <f>I106*J106^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L106" s="3">
@@ -30748,10 +32365,10 @@
       <c r="AF106" s="5">
         <v>1000</v>
       </c>
-      <c r="AG106" s="58">
+      <c r="AG106" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH106" s="58">
+      <c r="AH106" s="5">
         <v>1.5</v>
       </c>
       <c r="AI106" s="45">
@@ -30859,7 +32476,7 @@
         <v>9.5</v>
       </c>
       <c r="H107" s="4">
-        <f>F107+G107/24</f>
+        <f t="shared" si="5"/>
         <v>44322.64197916667</v>
       </c>
       <c r="I107" s="3">
@@ -30869,7 +32486,7 @@
         <v>26620</v>
       </c>
       <c r="K107" s="3">
-        <f>I107*J107^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>7.5960335420650088E-2</v>
       </c>
       <c r="L107" s="3">
@@ -31046,7 +32663,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="4">
-        <f>F108+G108/24</f>
+        <f t="shared" si="5"/>
         <v>43893.025694444441</v>
       </c>
       <c r="I108" s="3">
@@ -31056,7 +32673,7 @@
         <v>15000</v>
       </c>
       <c r="K108" s="3">
-        <f>I108*J108^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.6888145315487571E-4</v>
       </c>
       <c r="L108" s="3">
@@ -31122,10 +32739,10 @@
       <c r="AF108" s="5">
         <v>1000</v>
       </c>
-      <c r="AG108" s="58">
+      <c r="AG108" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH108" s="58">
+      <c r="AH108" s="5">
         <v>1.5</v>
       </c>
       <c r="AI108" s="45">
@@ -31233,7 +32850,7 @@
         <v>2</v>
       </c>
       <c r="H109" s="4">
-        <f>F109+G109/24</f>
+        <f t="shared" si="5"/>
         <v>44402.047789351855</v>
       </c>
       <c r="I109" s="3">
@@ -31243,7 +32860,7 @@
         <v>14500</v>
       </c>
       <c r="K109" s="3">
-        <f>I109*J109^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.5125478011472271E-3</v>
       </c>
       <c r="L109" s="3">
@@ -31416,11 +33033,11 @@
       <c r="F110" s="17">
         <v>44403.081250000003</v>
       </c>
-      <c r="G110" s="55">
+      <c r="G110" s="21">
         <v>-5</v>
       </c>
-      <c r="H110" s="56">
-        <f>F110+G110/24</f>
+      <c r="H110" s="4">
+        <f t="shared" si="5"/>
         <v>44402.872916666667</v>
       </c>
       <c r="I110" s="3">
@@ -31429,8 +33046,8 @@
       <c r="J110" s="3">
         <v>13000</v>
       </c>
-      <c r="K110" s="57">
-        <f>I110*J110^2/2/4.184/10^12</f>
+      <c r="K110" s="3">
+        <f t="shared" si="6"/>
         <v>2.0195984703632886E-4</v>
       </c>
       <c r="L110" s="3">
@@ -31466,7 +33083,7 @@
       <c r="V110" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W110" s="57" t="s">
+      <c r="W110" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X110" s="3">
@@ -31496,10 +33113,10 @@
       <c r="AF110" s="5">
         <v>2500</v>
       </c>
-      <c r="AG110" s="58">
+      <c r="AG110" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH110" s="58">
+      <c r="AH110" s="5">
         <v>1.5</v>
       </c>
       <c r="AI110" s="45">
@@ -31607,7 +33224,7 @@
         <v>8</v>
       </c>
       <c r="H111" s="4">
-        <f>F111+G111/24</f>
+        <f t="shared" si="5"/>
         <v>44406.888854166667</v>
       </c>
       <c r="I111" s="3">
@@ -31617,7 +33234,7 @@
         <v>14650</v>
       </c>
       <c r="K111" s="3">
-        <f>I111*J111^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.12993278979445505</v>
       </c>
       <c r="L111" s="3">
@@ -31794,7 +33411,7 @@
         <v>-3</v>
       </c>
       <c r="H112" s="4">
-        <f>F112+G112/24</f>
+        <f t="shared" si="5"/>
         <v>44446.921956018516</v>
       </c>
       <c r="I112" s="3">
@@ -31804,7 +33421,7 @@
         <v>24020</v>
       </c>
       <c r="K112" s="3">
-        <f>I112*J112^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.4474211281070744E-3</v>
       </c>
       <c r="L112" s="3">
@@ -31981,7 +33598,7 @@
         <v>-4</v>
       </c>
       <c r="H113" s="4">
-        <f>F113+G113/24</f>
+        <f t="shared" ref="H113:H130" si="7">F113+G113/24</f>
         <v>44492.879375000004</v>
       </c>
       <c r="I113" s="3">
@@ -31991,7 +33608,7 @@
         <v>18300</v>
       </c>
       <c r="K113" s="3">
-        <f>I113*J113^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.0020315487571698E-4</v>
       </c>
       <c r="L113" s="3">
@@ -32027,7 +33644,7 @@
       <c r="V113" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W113" s="57" t="s">
+      <c r="W113" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X113" s="3">
@@ -32168,7 +33785,7 @@
         <v>5</v>
       </c>
       <c r="H114" s="4">
-        <f>F114+G114/24</f>
+        <f t="shared" si="7"/>
         <v>44551.177719907413</v>
       </c>
       <c r="I114" s="3">
@@ -32178,7 +33795,7 @@
         <v>18190</v>
       </c>
       <c r="K114" s="3">
-        <f>I114*J114^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.11004160926147227</v>
       </c>
       <c r="L114" s="3">
@@ -32355,7 +33972,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="4">
-        <f>F115+G115/24</f>
+        <f t="shared" si="7"/>
         <v>44574.754837962959</v>
       </c>
       <c r="I115" s="3">
@@ -32365,7 +33982,7 @@
         <v>16000</v>
       </c>
       <c r="K115" s="3">
-        <f>I115*J115^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L115" s="3">
@@ -32401,7 +34018,7 @@
       <c r="V115" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W115" s="57" t="s">
+      <c r="W115" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X115" s="3">
@@ -32542,7 +34159,7 @@
         <v>-3</v>
       </c>
       <c r="H116" s="4">
-        <f>F116+G116/24</f>
+        <f t="shared" si="7"/>
         <v>44575.370138888888</v>
       </c>
       <c r="I116" s="3">
@@ -32552,7 +34169,7 @@
         <v>12138</v>
       </c>
       <c r="K116" s="3">
-        <f>I116*J116^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.7606482313575525E-3</v>
       </c>
       <c r="L116" s="3">
@@ -32729,7 +34346,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="4">
-        <f>F117+G117/24</f>
+        <f t="shared" si="7"/>
         <v>44575.935416666667</v>
       </c>
       <c r="I117" s="3">
@@ -32739,7 +34356,7 @@
         <v>13330</v>
       </c>
       <c r="K117" s="3">
-        <f>I117*J117^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>1.592574988049713E-3</v>
       </c>
       <c r="L117" s="3">
@@ -32775,7 +34392,7 @@
       <c r="V117" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W117" s="57" t="s">
+      <c r="W117" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X117" s="3">
@@ -32916,7 +34533,7 @@
         <v>-6</v>
       </c>
       <c r="H118" s="4">
-        <f>F118+G118/24</f>
+        <f t="shared" si="7"/>
         <v>44581.283333333333</v>
       </c>
       <c r="I118" s="3">
@@ -32926,7 +34543,7 @@
         <v>16000</v>
       </c>
       <c r="K118" s="3">
-        <f>I118*J118^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>3.0592734225621415E-4</v>
       </c>
       <c r="L118" s="3">
@@ -33099,11 +34716,11 @@
       <c r="F119" s="17">
         <v>44581.533333333333</v>
       </c>
-      <c r="G119" s="55">
+      <c r="G119" s="21">
         <v>-6</v>
       </c>
-      <c r="H119" s="56">
-        <f>F119+G119/24</f>
+      <c r="H119" s="4">
+        <f t="shared" si="7"/>
         <v>44581.283333333333</v>
       </c>
       <c r="I119" s="3">
@@ -33112,8 +34729,8 @@
       <c r="J119" s="3">
         <v>50</v>
       </c>
-      <c r="K119" s="57">
-        <f>I119*J119^2/2/4.184/10^12</f>
+      <c r="K119" s="3">
+        <f t="shared" si="6"/>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L119" s="3">
@@ -33146,13 +34763,13 @@
       <c r="U119" s="3">
         <v>800</v>
       </c>
-      <c r="V119" s="57" t="s">
+      <c r="V119" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W119" s="57" t="s">
+      <c r="W119" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X119" s="57">
+      <c r="X119" s="3">
         <v>0</v>
       </c>
       <c r="Y119" s="3">
@@ -33179,10 +34796,10 @@
       <c r="AF119" s="5">
         <v>300</v>
       </c>
-      <c r="AG119" s="58">
+      <c r="AG119" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH119" s="58">
+      <c r="AH119" s="5">
         <v>1.5</v>
       </c>
       <c r="AI119" s="45">
@@ -33268,7 +34885,7 @@
       </c>
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A120" s="54">
+      <c r="A120" s="6">
         <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -33286,11 +34903,11 @@
       <c r="F120" s="17">
         <v>44581.533333333333</v>
       </c>
-      <c r="G120" s="55">
+      <c r="G120" s="21">
         <v>-6</v>
       </c>
-      <c r="H120" s="56">
-        <f>F120+G120/24</f>
+      <c r="H120" s="4">
+        <f t="shared" si="7"/>
         <v>44581.283333333333</v>
       </c>
       <c r="I120" s="3">
@@ -33299,8 +34916,8 @@
       <c r="J120" s="3">
         <v>50</v>
       </c>
-      <c r="K120" s="57">
-        <f>I120*J120^2/2/4.184/10^12</f>
+      <c r="K120" s="3">
+        <f t="shared" si="6"/>
         <v>2.9875717017208414E-11</v>
       </c>
       <c r="L120" s="3">
@@ -33333,13 +34950,13 @@
       <c r="U120" s="3">
         <v>800</v>
       </c>
-      <c r="V120" s="57" t="s">
+      <c r="V120" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W120" s="57" t="s">
+      <c r="W120" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="X120" s="57">
+      <c r="X120" s="3">
         <v>0</v>
       </c>
       <c r="Y120" s="3">
@@ -33366,10 +34983,10 @@
       <c r="AF120" s="5">
         <v>1000</v>
       </c>
-      <c r="AG120" s="58">
+      <c r="AG120" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH120" s="58">
+      <c r="AH120" s="5">
         <v>1.5</v>
       </c>
       <c r="AI120" s="45">
@@ -33473,11 +35090,11 @@
       <c r="F121" s="17">
         <v>44588.086574074077</v>
       </c>
-      <c r="G121" s="55">
+      <c r="G121" s="21">
         <v>-7</v>
       </c>
-      <c r="H121" s="56">
-        <f>F121+G121/24</f>
+      <c r="H121" s="4">
+        <f t="shared" si="7"/>
         <v>44587.794907407413</v>
       </c>
       <c r="I121" s="3">
@@ -33486,8 +35103,8 @@
       <c r="J121" s="3">
         <v>13100</v>
       </c>
-      <c r="K121" s="57">
-        <f>I121*J121^2/2/4.184/10^12</f>
+      <c r="K121" s="3">
+        <f t="shared" si="6"/>
         <v>4.9218929254302094E-8</v>
       </c>
       <c r="L121" s="3">
@@ -33553,10 +35170,10 @@
       <c r="AF121" s="5">
         <v>1000</v>
       </c>
-      <c r="AG121" s="58">
+      <c r="AG121" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH121" s="58">
+      <c r="AH121" s="5">
         <v>1.5</v>
       </c>
       <c r="AI121" s="45">
@@ -33664,7 +35281,7 @@
         <v>-7</v>
       </c>
       <c r="H122" s="4">
-        <f>F122+G122/24</f>
+        <f t="shared" si="7"/>
         <v>42523.164259259262</v>
       </c>
       <c r="I122" s="3">
@@ -33674,7 +35291,7 @@
         <v>18300</v>
       </c>
       <c r="K122" s="3">
-        <f>I122*J122^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.48024378585086042</v>
       </c>
       <c r="L122" s="3">
@@ -33851,7 +35468,7 @@
         <v>-6</v>
       </c>
       <c r="H123" s="4">
-        <f>F123+G123/24</f>
+        <f t="shared" si="7"/>
         <v>44568.023611111108</v>
       </c>
       <c r="I123" s="3">
@@ -33861,7 +35478,7 @@
         <v>20000</v>
       </c>
       <c r="K123" s="3">
-        <f>I123*J123^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>2.3900573613766726E-3</v>
       </c>
       <c r="L123" s="3">
@@ -34038,7 +35655,7 @@
         <v>-7</v>
       </c>
       <c r="H124" s="4">
-        <f>F124+G124/24</f>
+        <f t="shared" si="7"/>
         <v>44287.167407407411</v>
       </c>
       <c r="I124" s="3">
@@ -34047,8 +35664,8 @@
       <c r="J124" s="3">
         <v>14010</v>
       </c>
-      <c r="K124" s="57">
-        <f>I124*J124^2/2/4.184/10^12</f>
+      <c r="K124" s="3">
+        <f t="shared" si="6"/>
         <v>2.3456034894837476E-4</v>
       </c>
       <c r="L124" s="3">
@@ -34225,7 +35842,7 @@
         <v>-4</v>
       </c>
       <c r="H125" s="4">
-        <f>F125+G125/24</f>
+        <f t="shared" si="7"/>
         <v>44668.984027777777</v>
       </c>
       <c r="I125" s="3">
@@ -34234,8 +35851,8 @@
       <c r="J125" s="3">
         <v>14360</v>
       </c>
-      <c r="K125" s="57">
-        <f>I125*J125^2/2/4.184/10^12</f>
+      <c r="K125" s="3">
+        <f t="shared" si="6"/>
         <v>2.464263862332696E-4</v>
       </c>
       <c r="L125" s="3">
@@ -34301,10 +35918,10 @@
       <c r="AF125" s="5">
         <v>50</v>
       </c>
-      <c r="AG125" s="58">
+      <c r="AG125" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH125" s="58">
+      <c r="AH125" s="5">
         <v>1.5</v>
       </c>
       <c r="AI125" s="45">
@@ -34390,7 +36007,7 @@
       </c>
     </row>
     <row r="126" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A126" s="54">
+      <c r="A126" s="6">
         <v>123</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -34408,11 +36025,11 @@
       <c r="F126" s="17">
         <v>44664.98982638889</v>
       </c>
-      <c r="G126" s="55">
-        <v>0</v>
-      </c>
-      <c r="H126" s="56">
-        <f>F126+G126/24</f>
+      <c r="G126" s="21">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <f t="shared" si="7"/>
         <v>44664.98982638889</v>
       </c>
       <c r="I126" s="3">
@@ -34421,8 +36038,8 @@
       <c r="J126" s="3">
         <v>12897.75</v>
       </c>
-      <c r="K126" s="57">
-        <f>I126*J126^2/2/4.184/10^12</f>
+      <c r="K126" s="3">
+        <f t="shared" si="6"/>
         <v>1.987953573882648E-4</v>
       </c>
       <c r="L126" s="3">
@@ -34488,10 +36105,10 @@
       <c r="AF126" s="5">
         <v>13.15</v>
       </c>
-      <c r="AG126" s="58">
+      <c r="AG126" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH126" s="58">
+      <c r="AH126" s="5">
         <v>1.5</v>
       </c>
       <c r="AI126" s="45">
@@ -34599,7 +36216,7 @@
         <v>-3</v>
       </c>
       <c r="H127" s="4">
-        <f>F127+G127/24</f>
+        <f t="shared" si="7"/>
         <v>44672.802407407406</v>
       </c>
       <c r="I127" s="3">
@@ -34609,7 +36226,7 @@
         <v>12750</v>
       </c>
       <c r="K127" s="3">
-        <f>I127*J127^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.13010050938097514</v>
       </c>
       <c r="L127" s="3">
@@ -34786,7 +36403,7 @@
         <v>2</v>
       </c>
       <c r="H128" s="4">
-        <f>F128+G128/24</f>
+        <f t="shared" si="7"/>
         <v>44631.974143518521</v>
       </c>
       <c r="I128" s="3">
@@ -34796,7 +36413,7 @@
         <v>17240</v>
       </c>
       <c r="K128" s="3">
-        <f>I128*J128^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.0000061755258125</v>
       </c>
       <c r="L128" s="3">
@@ -34973,7 +36590,7 @@
         <v>10</v>
       </c>
       <c r="H129" s="4">
-        <f>F129+G129/24</f>
+        <f t="shared" si="7"/>
         <v>44596.243518518517</v>
       </c>
       <c r="I129" s="3">
@@ -34983,7 +36600,7 @@
         <v>22810</v>
       </c>
       <c r="K129" s="3">
-        <f>I129*J129^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>0.43983922220363286</v>
       </c>
       <c r="L129" s="3">
@@ -35160,7 +36777,7 @@
         <v>-5</v>
       </c>
       <c r="H130" s="4">
-        <f>F130+G130/24</f>
+        <f t="shared" si="7"/>
         <v>44678.335416666661</v>
       </c>
       <c r="I130" s="3">
@@ -35170,7 +36787,7 @@
         <v>24000</v>
       </c>
       <c r="K130" s="3">
-        <f>I130*J130^2/2/4.184/10^12</f>
+        <f t="shared" si="6"/>
         <v>4.8183556405353729E-3</v>
       </c>
       <c r="L130" s="3">
@@ -35378,11 +36995,11 @@
       <c r="F132" s="17">
         <v>44697.864131944443</v>
       </c>
-      <c r="G132" s="55">
-        <v>0</v>
-      </c>
-      <c r="H132" s="56">
-        <f>F132+G132/24</f>
+      <c r="G132" s="21">
+        <v>0</v>
+      </c>
+      <c r="H132" s="4">
+        <f t="shared" ref="H132:H151" si="8">F132+G132/24</f>
         <v>44697.864131944443</v>
       </c>
       <c r="I132" s="3">
@@ -35391,8 +37008,8 @@
       <c r="J132" s="3">
         <v>21350</v>
       </c>
-      <c r="K132" s="57">
-        <f>I132*J132^2/2/4.184/10^12</f>
+      <c r="K132" s="3">
+        <f t="shared" ref="K132:K145" si="9">I132*J132^2/2/4.184/10^12</f>
         <v>2.7236048040152963E-5</v>
       </c>
       <c r="L132" s="3">
@@ -35458,10 +37075,10 @@
       <c r="AF132" s="5">
         <v>150</v>
       </c>
-      <c r="AG132" s="58">
+      <c r="AG132" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH132" s="58">
+      <c r="AH132" s="5">
         <v>1.5</v>
       </c>
       <c r="AI132" s="45">
@@ -35569,7 +37186,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f>F133+G133/24</f>
+        <f t="shared" si="8"/>
         <v>44692.986111111109</v>
       </c>
       <c r="I133" s="3">
@@ -35579,7 +37196,7 @@
         <v>27900</v>
       </c>
       <c r="K133" s="3">
-        <f>I133*J133^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>9.3022227533460795E-4</v>
       </c>
       <c r="L133" s="3">
@@ -35734,7 +37351,7 @@
       </c>
     </row>
     <row r="134" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A134" s="54">
+      <c r="A134" s="6">
         <v>131</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -35752,11 +37369,11 @@
       <c r="F134" s="17">
         <v>44701.212685185186</v>
       </c>
-      <c r="G134" s="55">
+      <c r="G134" s="21">
         <v>-7</v>
       </c>
-      <c r="H134" s="56">
-        <f>F134+G134/24</f>
+      <c r="H134" s="4">
+        <f t="shared" si="8"/>
         <v>44700.921018518522</v>
       </c>
       <c r="I134" s="3">
@@ -35765,8 +37382,8 @@
       <c r="J134" s="3">
         <v>15160</v>
       </c>
-      <c r="K134" s="57">
-        <f>I134*J134^2/2/4.184/10^12</f>
+      <c r="K134" s="3">
+        <f t="shared" si="9"/>
         <v>2.7464818355640533E-5</v>
       </c>
       <c r="L134" s="3">
@@ -35802,7 +37419,7 @@
       <c r="V134" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W134" s="57" t="s">
+      <c r="W134" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X134" s="3">
@@ -35832,10 +37449,10 @@
       <c r="AF134" s="5">
         <v>250</v>
       </c>
-      <c r="AG134" s="58">
+      <c r="AG134" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH134" s="58">
+      <c r="AH134" s="5">
         <v>1.5</v>
       </c>
       <c r="AI134" s="45">
@@ -35934,7 +37551,7 @@
         <v>8</v>
       </c>
       <c r="H135" s="4">
-        <f>F135+G135/24</f>
+        <f t="shared" si="8"/>
         <v>42169.460486111115</v>
       </c>
       <c r="I135" s="3">
@@ -35944,7 +37561,7 @@
         <v>31858</v>
       </c>
       <c r="K135" s="3">
-        <f>I135*J135^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.22001517035086041</v>
       </c>
       <c r="L135" s="3">
@@ -36115,7 +37732,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="4">
-        <f>F136+G136/24</f>
+        <f t="shared" si="8"/>
         <v>42644.891493055555</v>
       </c>
       <c r="I136" s="3">
@@ -36125,7 +37742,7 @@
         <v>14202</v>
       </c>
       <c r="K136" s="3">
-        <f>I136*J136^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.11000767369216062</v>
       </c>
       <c r="L136" s="3">
@@ -36296,7 +37913,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="4">
-        <f>F137+G137/24</f>
+        <f t="shared" si="8"/>
         <v>40943.654166666667</v>
       </c>
       <c r="I137" s="3">
@@ -36306,7 +37923,7 @@
         <v>12248</v>
       </c>
       <c r="K137" s="3">
-        <f>I137*J137^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.42999807683365199</v>
       </c>
       <c r="L137" s="3">
@@ -36483,7 +38100,7 @@
         <v>-4</v>
       </c>
       <c r="H138" s="4">
-        <f>F138+G138/24</f>
+        <f t="shared" si="8"/>
         <v>44764.0778587963</v>
       </c>
       <c r="I138" s="3">
@@ -36492,8 +38109,8 @@
       <c r="J138" s="3">
         <v>13640</v>
       </c>
-      <c r="K138" s="57">
-        <f>I138*J138^2/2/4.184/10^12</f>
+      <c r="K138" s="3">
+        <f t="shared" si="9"/>
         <v>2.2233460803059273E-4</v>
       </c>
       <c r="L138" s="3">
@@ -36559,10 +38176,10 @@
       <c r="AF138" s="5">
         <v>1010</v>
       </c>
-      <c r="AG138" s="58">
+      <c r="AG138" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH138" s="58">
+      <c r="AH138" s="5">
         <v>1.5</v>
       </c>
       <c r="AI138" s="45">
@@ -36670,7 +38287,7 @@
         <v>-5</v>
       </c>
       <c r="H139" s="4">
-        <f>F139+G139/24</f>
+        <f t="shared" si="8"/>
         <v>44766.932592592588</v>
       </c>
       <c r="I139" s="3">
@@ -36680,7 +38297,7 @@
         <v>16870</v>
       </c>
       <c r="K139" s="3">
-        <f>I139*J139^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.4010145793499043E-4</v>
       </c>
       <c r="L139" s="3">
@@ -36716,7 +38333,7 @@
       <c r="V139" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W139" s="57" t="s">
+      <c r="W139" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X139" s="3">
@@ -36857,7 +38474,7 @@
         <v>-4</v>
       </c>
       <c r="H140" s="4">
-        <f>F140+G140/24</f>
+        <f t="shared" si="8"/>
         <v>44771.914583333339</v>
       </c>
       <c r="I140" s="3">
@@ -36867,7 +38484,7 @@
         <v>20500</v>
       </c>
       <c r="K140" s="3">
-        <f>I140*J140^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>4.5550519837476103E-3</v>
       </c>
       <c r="L140" s="3">
@@ -37044,7 +38661,7 @@
         <v>-6</v>
       </c>
       <c r="H141" s="4">
-        <f>F141+G141/24</f>
+        <f t="shared" si="8"/>
         <v>44786.35434027778</v>
       </c>
       <c r="I141" s="3">
@@ -37054,7 +38671,7 @@
         <v>18000</v>
       </c>
       <c r="K141" s="3">
-        <f>I141*J141^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.38718929254302098</v>
       </c>
       <c r="L141" s="3">
@@ -37231,7 +38848,7 @@
         <v>-6</v>
       </c>
       <c r="H142" s="4">
-        <f>F142+G142/24</f>
+        <f t="shared" si="8"/>
         <v>44786.35434027778</v>
       </c>
       <c r="I142" s="3">
@@ -37241,7 +38858,7 @@
         <v>8000</v>
       </c>
       <c r="K142" s="3">
-        <f>I142*J142^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>1.5296367112810707E-3</v>
       </c>
       <c r="L142" s="3">
@@ -37277,7 +38894,7 @@
       <c r="V142" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W142" s="57" t="s">
+      <c r="W142" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X142" s="3">
@@ -37396,7 +39013,7 @@
       </c>
     </row>
     <row r="143" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A143" s="54">
+      <c r="A143" s="6">
         <v>140</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -37414,11 +39031,11 @@
       <c r="F143" s="17">
         <v>44830.170005659726</v>
       </c>
-      <c r="G143" s="55">
+      <c r="G143" s="21">
         <v>-4</v>
       </c>
-      <c r="H143" s="56">
-        <f>F143+G143/24</f>
+      <c r="H143" s="4">
+        <f t="shared" si="8"/>
         <v>44830.003338993061</v>
       </c>
       <c r="I143" s="3">
@@ -37427,8 +39044,8 @@
       <c r="J143" s="3">
         <v>11882</v>
       </c>
-      <c r="K143" s="57">
-        <f>I143*J143^2/2/4.184/10^12</f>
+      <c r="K143" s="3">
+        <f t="shared" si="9"/>
         <v>1.6871644837476097E-4</v>
       </c>
       <c r="L143" s="3">
@@ -37465,7 +39082,7 @@
       <c r="V143" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W143" s="57" t="s">
+      <c r="W143" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X143" s="3">
@@ -37495,10 +39112,10 @@
       <c r="AF143" s="5">
         <v>263</v>
       </c>
-      <c r="AG143" s="58">
+      <c r="AG143" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH143" s="58">
+      <c r="AH143" s="5">
         <v>1.5</v>
       </c>
       <c r="AI143" s="45">
@@ -37606,7 +39223,7 @@
         <v>2</v>
       </c>
       <c r="H144" s="4">
-        <f>F144+G144/24</f>
+        <f t="shared" si="8"/>
         <v>44845.874861111115</v>
       </c>
       <c r="I144" s="3">
@@ -37616,7 +39233,7 @@
         <v>23218</v>
       </c>
       <c r="K144" s="3">
-        <f>I144*J144^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>6.4421071223709373E-4</v>
       </c>
       <c r="L144" s="3">
@@ -37793,7 +39410,7 @@
         <v>2</v>
       </c>
       <c r="H145" s="4">
-        <f>F145+G145/24</f>
+        <f t="shared" si="8"/>
         <v>44848.86377314815</v>
       </c>
       <c r="I145" s="3">
@@ -37803,7 +39420,7 @@
         <v>14680</v>
       </c>
       <c r="K145" s="3">
-        <f>I145*J145^2/2/4.184/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.1506309751434026E-2</v>
       </c>
       <c r="L145" s="3">
@@ -37981,7 +39598,7 @@
         <v>-4</v>
       </c>
       <c r="H146" s="4">
-        <f>F146+G146/24</f>
+        <f t="shared" si="8"/>
         <v>44855.892754629633</v>
       </c>
       <c r="AR146" s="25">
@@ -38023,7 +39640,7 @@
         <v>-7</v>
       </c>
       <c r="H147" s="4">
-        <f>F147+G147/24</f>
+        <f t="shared" si="8"/>
         <v>44858.786898148152</v>
       </c>
       <c r="I147" s="3">
@@ -38211,7 +39828,7 @@
         <v>2</v>
       </c>
       <c r="H148" s="4">
-        <f>F148+G148/24</f>
+        <f t="shared" si="8"/>
         <v>44846.284722222226</v>
       </c>
       <c r="I148" s="3">
@@ -38398,7 +40015,7 @@
         <v>7</v>
       </c>
       <c r="H149" s="4">
-        <f>F149+G149/24</f>
+        <f t="shared" si="8"/>
         <v>44851.010416666664</v>
       </c>
       <c r="I149" s="3">
@@ -38587,7 +40204,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f>F150+G150/24</f>
+        <f t="shared" si="8"/>
         <v>44857.815283090276</v>
       </c>
       <c r="I150" s="3">
@@ -38596,7 +40213,7 @@
       <c r="J150" s="3">
         <v>13851.53</v>
       </c>
-      <c r="K150" s="57">
+      <c r="K150" s="3">
         <f>I150*J150^2/2/4.184/10^12</f>
         <v>2.2928403840929732E-4</v>
       </c>
@@ -38775,7 +40392,7 @@
         <v>-5</v>
       </c>
       <c r="H151" s="4">
-        <f>F151+G151/24</f>
+        <f t="shared" si="8"/>
         <v>44884.143564814811</v>
       </c>
       <c r="I151" s="3">
@@ -38821,7 +40438,7 @@
       <c r="V151" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W151" s="57" t="s">
+      <c r="W151" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X151" s="3">
@@ -39006,7 +40623,7 @@
       <c r="V152" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W152" s="57" t="s">
+      <c r="W152" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X152" s="3">
@@ -39147,7 +40764,7 @@
         <v>8</v>
       </c>
       <c r="H153" s="4">
-        <f>F153+G153/24</f>
+        <f t="shared" ref="H153:H184" si="10">F153+G153/24</f>
         <v>44924.61954861111</v>
       </c>
       <c r="I153" s="3">
@@ -39157,7 +40774,7 @@
         <v>16440</v>
       </c>
       <c r="K153" s="3">
-        <f>I153*J153^2/2/4.184/10^12</f>
+        <f t="shared" ref="K153:K161" si="11">I153*J153^2/2/4.184/10^12</f>
         <v>0.20008902390057362</v>
       </c>
       <c r="L153" s="3">
@@ -39334,7 +40951,7 @@
         <v>-6</v>
       </c>
       <c r="H154" s="4">
-        <f>F154+G154/24</f>
+        <f t="shared" si="10"/>
         <v>44936.782372685186</v>
       </c>
       <c r="I154" s="3">
@@ -39344,7 +40961,7 @@
         <v>12500</v>
       </c>
       <c r="K154" s="3">
-        <f>I154*J154^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>9.3361615678776285E-4</v>
       </c>
       <c r="L154" s="3">
@@ -39380,7 +40997,7 @@
       <c r="V154" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W154" s="57" t="s">
+      <c r="W154" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X154" s="3">
@@ -39521,7 +41138,7 @@
         <v>-6</v>
       </c>
       <c r="H155" s="4">
-        <f>F155+G155/24</f>
+        <f t="shared" si="10"/>
         <v>44946.151967592596</v>
       </c>
       <c r="I155" s="3">
@@ -39531,7 +41148,7 @@
         <v>14000</v>
       </c>
       <c r="K155" s="3">
-        <f>I155*J155^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.7566921606118546E-3</v>
       </c>
       <c r="L155" s="3">
@@ -39560,7 +41177,7 @@
         <v>5000</v>
       </c>
       <c r="T155" s="3">
-        <f>M155</f>
+        <f t="shared" ref="T155:T161" si="12">M155</f>
         <v>59</v>
       </c>
       <c r="U155" s="3">
@@ -39711,7 +41328,7 @@
         <v>1</v>
       </c>
       <c r="H156" s="4">
-        <f>F156+G156/24</f>
+        <f t="shared" si="10"/>
         <v>44951.183217592588</v>
       </c>
       <c r="I156" s="3">
@@ -39721,7 +41338,7 @@
         <v>26000</v>
       </c>
       <c r="K156" s="3">
-        <f>I156*J156^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>8.8862332695984695E-4</v>
       </c>
       <c r="L156" s="3">
@@ -39749,7 +41366,7 @@
         <v>5000</v>
       </c>
       <c r="T156" s="3">
-        <f>M156</f>
+        <f t="shared" si="12"/>
         <v>56.5</v>
       </c>
       <c r="U156" s="3">
@@ -39759,7 +41376,7 @@
       <c r="V156" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W156" s="57" t="s">
+      <c r="W156" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X156" s="3">
@@ -39900,7 +41517,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="4">
-        <f>F157+G157/24</f>
+        <f t="shared" si="10"/>
         <v>44970.166168981479</v>
       </c>
       <c r="I157" s="3">
@@ -39910,7 +41527,7 @@
         <v>14060.9</v>
       </c>
       <c r="K157" s="3">
-        <f>I157*J157^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>4.0803451901872602E-2</v>
       </c>
       <c r="L157" s="3">
@@ -39940,7 +41557,7 @@
         <v>5000</v>
       </c>
       <c r="T157" s="3">
-        <f>M157</f>
+        <f t="shared" si="12"/>
         <v>41.423400000000001</v>
       </c>
       <c r="U157" s="3">
@@ -40090,7 +41707,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="4">
-        <f>F158+G158/24</f>
+        <f t="shared" si="10"/>
         <v>44970.166168981479</v>
       </c>
       <c r="I158" s="3">
@@ -40100,7 +41717,7 @@
         <v>14016</v>
       </c>
       <c r="K158" s="3">
-        <f>I158*J158^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>4.0543276543021034E-2</v>
       </c>
       <c r="L158" s="3">
@@ -40129,7 +41746,7 @@
         <v>5000</v>
       </c>
       <c r="T158" s="3">
-        <f>M158</f>
+        <f t="shared" si="12"/>
         <v>41.272100000000002</v>
       </c>
       <c r="U158" s="3">
@@ -40279,7 +41896,7 @@
         <v>-6</v>
       </c>
       <c r="H159" s="4">
-        <f>F159+G159/24</f>
+        <f t="shared" si="10"/>
         <v>44972.723611111112</v>
       </c>
       <c r="I159" s="3">
@@ -40289,7 +41906,7 @@
         <v>15000</v>
       </c>
       <c r="K159" s="3">
-        <f>I159*J159^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.2180329827915868E-2</v>
       </c>
       <c r="L159" s="3">
@@ -40317,7 +41934,7 @@
         <v>5000</v>
       </c>
       <c r="T159" s="3">
-        <f>M159</f>
+        <f t="shared" si="12"/>
         <v>53.6</v>
       </c>
       <c r="U159" s="3">
@@ -40467,7 +42084,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="4">
-        <f>F160+G160/24</f>
+        <f t="shared" si="10"/>
         <v>44966.008333333331</v>
       </c>
       <c r="I160" s="3">
@@ -40477,7 +42094,7 @@
         <v>12500</v>
       </c>
       <c r="K160" s="3">
-        <f>I160*J160^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.9875717017208408E-4</v>
       </c>
       <c r="L160" s="3">
@@ -40505,7 +42122,7 @@
         <v>5000</v>
       </c>
       <c r="T160" s="3">
-        <f>M160</f>
+        <f t="shared" si="12"/>
         <v>24.6</v>
       </c>
       <c r="U160" s="3">
@@ -40515,7 +42132,7 @@
       <c r="V160" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W160" s="57" t="s">
+      <c r="W160" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X160" s="3">
@@ -40545,10 +42162,10 @@
       <c r="AF160" s="5">
         <v>200</v>
       </c>
-      <c r="AG160" s="58">
+      <c r="AG160" s="5">
         <v>-1.5</v>
       </c>
-      <c r="AH160" s="58">
+      <c r="AH160" s="5">
         <v>1.5</v>
       </c>
       <c r="AI160" s="45">
@@ -40656,7 +42273,7 @@
         <v>-5</v>
       </c>
       <c r="H161" s="4">
-        <f>F161+G161/24</f>
+        <f t="shared" si="10"/>
         <v>44976.868518518517</v>
       </c>
       <c r="I161" s="3">
@@ -40666,7 +42283,7 @@
         <v>25000</v>
       </c>
       <c r="K161" s="3">
-        <f>I161*J161^2/2/4.184/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.8672323135755257E-3</v>
       </c>
       <c r="L161" s="3">
@@ -40696,7 +42313,7 @@
         <v>5000</v>
       </c>
       <c r="T161" s="3">
-        <f>M161</f>
+        <f t="shared" si="12"/>
         <v>63.701499999999996</v>
       </c>
       <c r="U161" s="3">
@@ -40843,7 +42460,7 @@
         <v>10.5</v>
       </c>
       <c r="H162" s="4">
-        <f>F162+G162/24</f>
+        <f t="shared" si="10"/>
         <v>43618.310416666667</v>
       </c>
       <c r="O162" s="3">
@@ -40972,7 +42589,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="4">
-        <f>F163+G163/24</f>
+        <f t="shared" si="10"/>
         <v>43831.810347222221</v>
       </c>
       <c r="I163" s="3">
@@ -41101,7 +42718,7 @@
         <v>-7</v>
       </c>
       <c r="H164" s="4">
-        <f>F164+G164/24</f>
+        <f t="shared" si="10"/>
         <v>42300.94981481482</v>
       </c>
       <c r="I164" s="3">
@@ -41230,7 +42847,7 @@
         <v>8</v>
       </c>
       <c r="H165" s="4">
-        <f>F165+G165/24</f>
+        <f t="shared" si="10"/>
         <v>42674.835960648154</v>
       </c>
       <c r="I165" s="3">
@@ -41359,7 +42976,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="4">
-        <f>F166+G166/24</f>
+        <f t="shared" si="10"/>
         <v>44154.199247685181</v>
       </c>
       <c r="O166" s="3">
@@ -41485,7 +43102,7 @@
         <v>8</v>
       </c>
       <c r="H167" s="4">
-        <f>F167+G167/24</f>
+        <f t="shared" si="10"/>
         <v>44002.170219907413</v>
       </c>
       <c r="I167" s="3">
@@ -41605,7 +43222,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="4">
-        <f>F168+G168/24</f>
+        <f t="shared" si="10"/>
         <v>39830.839583333334</v>
       </c>
       <c r="I168" s="3">
@@ -41731,7 +43348,7 @@
         <v>2</v>
       </c>
       <c r="H169" s="4">
-        <f>F169+G169/24</f>
+        <f t="shared" si="10"/>
         <v>43253.78056712963</v>
       </c>
       <c r="I169" s="3">
@@ -41860,7 +43477,7 @@
         <v>9.5</v>
       </c>
       <c r="H170" s="4">
-        <f>F170+G170/24</f>
+        <f t="shared" si="10"/>
         <v>42335.842881944445</v>
       </c>
       <c r="O170" s="3">
@@ -41986,7 +43603,7 @@
         <v>-5</v>
       </c>
       <c r="H171" s="4">
-        <f>F171+G171/24</f>
+        <f t="shared" si="10"/>
         <v>42393.435416666667</v>
       </c>
       <c r="I171" s="3">
@@ -42115,7 +43732,7 @@
         <v>3</v>
       </c>
       <c r="H172" s="4">
-        <f>F172+G172/24</f>
+        <f t="shared" si="10"/>
         <v>43272.17800925926</v>
       </c>
       <c r="I172" s="3">
@@ -42241,7 +43858,7 @@
         <v>-2</v>
       </c>
       <c r="H173" s="4">
-        <f>F173+G173/24</f>
+        <f t="shared" si="10"/>
         <v>42013.649305555555</v>
       </c>
       <c r="I173" s="3">
@@ -42370,7 +43987,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="4">
-        <f>F174+G174/24</f>
+        <f t="shared" si="10"/>
         <v>42435.942256944443</v>
       </c>
       <c r="I174" s="3">
@@ -42499,7 +44116,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="4">
-        <f>F175+G175/24</f>
+        <f t="shared" si="10"/>
         <v>44214.054814814815</v>
       </c>
       <c r="I175" s="3">
@@ -42628,7 +44245,7 @@
         <v>-5</v>
       </c>
       <c r="H176" s="4">
-        <f>F176+G176/24</f>
+        <f t="shared" si="10"/>
         <v>43497.553587962961</v>
       </c>
       <c r="I176" s="3">
@@ -42757,7 +44374,7 @@
         <v>2</v>
       </c>
       <c r="H177" s="4">
-        <f>F177+G177/24</f>
+        <f t="shared" si="10"/>
         <v>45031.431956018518</v>
       </c>
       <c r="I177" s="3">
@@ -42767,7 +44384,7 @@
         <v>17210</v>
       </c>
       <c r="K177" s="3">
-        <f>I177*J177^2/2/4.184/10^12</f>
+        <f t="shared" ref="K177:K192" si="13">I177*J177^2/2/4.184/10^12</f>
         <v>6.3021945197657745</v>
       </c>
       <c r="L177" s="3">
@@ -42941,7 +44558,7 @@
         <v>2</v>
       </c>
       <c r="H178" s="4">
-        <f>F178+G178/24</f>
+        <f t="shared" si="10"/>
         <v>45018.895000000004</v>
       </c>
       <c r="I178" s="3">
@@ -42951,7 +44568,7 @@
         <v>13610</v>
       </c>
       <c r="K178" s="3">
-        <f>I178*J178^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>1.10678836042065E-3</v>
       </c>
       <c r="L178" s="3">
@@ -42988,7 +44605,7 @@
       <c r="V178" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W178" s="57" t="s">
+      <c r="W178" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X178" s="3">
@@ -43129,7 +44746,7 @@
         <v>-4</v>
       </c>
       <c r="H179" s="4">
-        <f>F179+G179/24</f>
+        <f t="shared" si="10"/>
         <v>45024.494791666672</v>
       </c>
       <c r="I179" s="3">
@@ -43139,7 +44756,7 @@
         <v>17000</v>
       </c>
       <c r="K179" s="3">
-        <f>I179*J179^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>1.381453154875717E-2</v>
       </c>
       <c r="L179" s="3">
@@ -43317,7 +44934,7 @@
         <v>2</v>
       </c>
       <c r="H180" s="4">
-        <f>F180+G180/24</f>
+        <f t="shared" si="10"/>
         <v>45041.59375</v>
       </c>
       <c r="I180" s="3">
@@ -43327,7 +44944,7 @@
         <v>20500</v>
       </c>
       <c r="K180" s="3">
-        <f>I180*J180^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>2.511054015296367E-2</v>
       </c>
       <c r="L180" s="3">
@@ -43504,7 +45121,7 @@
         <v>2</v>
       </c>
       <c r="H181" s="4">
-        <f>F181+G181/24</f>
+        <f t="shared" si="10"/>
         <v>45043.153351273148</v>
       </c>
       <c r="I181" s="3">
@@ -43514,7 +45131,7 @@
         <v>14321</v>
       </c>
       <c r="K181" s="3">
-        <f>I181*J181^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>1.2254483807361376E-3</v>
       </c>
       <c r="L181" s="3">
@@ -43553,7 +45170,7 @@
       <c r="V181" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W181" s="57" t="s">
+      <c r="W181" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X181" s="3">
@@ -43694,7 +45311,7 @@
         <v>-4</v>
       </c>
       <c r="H182" s="4">
-        <f>F182+G182/24</f>
+        <f t="shared" si="10"/>
         <v>45054.515972222223</v>
       </c>
       <c r="I182" s="3">
@@ -43704,7 +45321,7 @@
         <v>17000</v>
       </c>
       <c r="K182" s="3">
-        <f>I182*J182^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>8.634082217973231E-4</v>
       </c>
       <c r="L182" s="3">
@@ -43881,7 +45498,7 @@
         <v>2</v>
       </c>
       <c r="H183" s="4">
-        <f>F183+G183/24</f>
+        <f t="shared" si="10"/>
         <v>45066.978626747688</v>
       </c>
       <c r="I183" s="3">
@@ -43891,7 +45508,7 @@
         <v>15985.39</v>
       </c>
       <c r="K183" s="3">
-        <f>I183*J183^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>7.6342224382200039E-4</v>
       </c>
       <c r="L183" s="3">
@@ -43930,7 +45547,7 @@
       <c r="V183" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W183" s="57" t="s">
+      <c r="W183" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X183" s="3">
@@ -44071,7 +45688,7 @@
         <v>10</v>
       </c>
       <c r="H184" s="4">
-        <f>F184+G184/24</f>
+        <f t="shared" si="10"/>
         <v>45066.890543981477</v>
       </c>
       <c r="I184" s="3">
@@ -44081,7 +45698,7 @@
         <v>27920</v>
       </c>
       <c r="K184" s="3">
-        <f>I184*J184^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>7.2026078149139581</v>
       </c>
       <c r="L184" s="3">
@@ -44259,7 +45876,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f>F185+G185/24</f>
+        <f t="shared" ref="H185:H208" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -44269,7 +45886,7 @@
         <v>20920</v>
       </c>
       <c r="K185" s="3">
-        <f>I185*J185^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>1.0460000000000001E-2</v>
       </c>
       <c r="L185" s="3">
@@ -44448,7 +46065,7 @@
         <v>2</v>
       </c>
       <c r="H186" s="4">
-        <f>F186+G186/24</f>
+        <f t="shared" si="14"/>
         <v>45118.867905092593</v>
       </c>
       <c r="I186" s="3">
@@ -44458,7 +46075,7 @@
         <v>19000</v>
       </c>
       <c r="K186" s="3">
-        <f>I186*J186^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>8.628107074569789E-3</v>
       </c>
       <c r="L186" s="3">
@@ -44637,7 +46254,7 @@
         <v>-7</v>
       </c>
       <c r="H187" s="4">
-        <f>F187+G187/24</f>
+        <f t="shared" si="14"/>
         <v>45132.862430555557</v>
       </c>
       <c r="I187" s="3">
@@ -44647,7 +46264,7 @@
         <v>15580</v>
       </c>
       <c r="K187" s="3">
-        <f>I187*J187^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>0.44004674808795408</v>
       </c>
       <c r="L187" s="3">
@@ -44825,7 +46442,7 @@
         <v>-4</v>
       </c>
       <c r="H188" s="4">
-        <f>F188+G188/24</f>
+        <f t="shared" si="14"/>
         <v>45140.092546296299</v>
       </c>
       <c r="I188" s="3">
@@ -44835,7 +46452,7 @@
         <v>22770</v>
       </c>
       <c r="K188" s="3">
-        <f>I188*J188^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>2.1685649498087954E-3</v>
       </c>
       <c r="L188" s="3">
@@ -45014,7 +46631,7 @@
         <v>2</v>
       </c>
       <c r="H189" s="4">
-        <f>F189+G189/24</f>
+        <f t="shared" si="14"/>
         <v>45179.009548611117</v>
       </c>
       <c r="I189" s="3">
@@ -45024,7 +46641,7 @@
         <v>17000</v>
       </c>
       <c r="K189" s="3">
-        <f>I189*J189^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>3.4536328871892925E-4</v>
       </c>
       <c r="L189" s="3">
@@ -45046,14 +46663,14 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f>Q189</f>
+        <f t="shared" ref="R189:R208" si="15">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
         <v>3500</v>
       </c>
       <c r="T189" s="3">
-        <f>M189</f>
+        <f t="shared" ref="T189:T201" si="16">M189</f>
         <v>53.131300000000003</v>
       </c>
       <c r="U189" s="3">
@@ -45204,7 +46821,7 @@
         <v>2</v>
       </c>
       <c r="H190" s="4">
-        <f>F190+G190/24</f>
+        <f t="shared" si="14"/>
         <v>45196.180824745374</v>
       </c>
       <c r="I190" s="3">
@@ -45214,7 +46831,7 @@
         <v>16956</v>
       </c>
       <c r="K190" s="3">
-        <f>I190*J190^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>3.4357783938814533E-4</v>
       </c>
       <c r="L190" s="3">
@@ -45236,14 +46853,14 @@
         <v>28118.03</v>
       </c>
       <c r="R190" s="3">
-        <f>Q190</f>
+        <f t="shared" si="15"/>
         <v>28118.03</v>
       </c>
       <c r="S190" s="3">
         <v>2500</v>
       </c>
       <c r="T190" s="3">
-        <f>M190</f>
+        <f t="shared" si="16"/>
         <v>36.557000000000002</v>
       </c>
       <c r="U190" s="3">
@@ -45253,7 +46870,7 @@
       <c r="V190" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="W190" s="57" t="s">
+      <c r="W190" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X190" s="3">
@@ -45390,11 +47007,11 @@
       <c r="F191" s="17">
         <v>45009.928900462961</v>
       </c>
-      <c r="G191" s="55">
+      <c r="G191" s="21">
         <v>2</v>
       </c>
-      <c r="H191" s="56">
-        <f>F191+G191/24</f>
+      <c r="H191" s="4">
+        <f t="shared" si="14"/>
         <v>45010.012233796297</v>
       </c>
       <c r="I191" s="3">
@@ -45403,8 +47020,8 @@
       <c r="J191" s="3">
         <v>13800</v>
       </c>
-      <c r="K191" s="57">
-        <f>I191*J191^2/2/4.184/10^12</f>
+      <c r="K191" s="3">
+        <f t="shared" si="13"/>
         <v>1.137906309751434E-4</v>
       </c>
       <c r="L191" s="3">
@@ -45426,14 +47043,14 @@
         <v>27500</v>
       </c>
       <c r="R191" s="3">
-        <f>Q191</f>
+        <f t="shared" si="15"/>
         <v>27500</v>
       </c>
       <c r="S191" s="3">
         <v>4100</v>
       </c>
       <c r="T191" s="3">
-        <f>M191</f>
+        <f t="shared" si="16"/>
         <v>64.163600000000002</v>
       </c>
       <c r="U191" s="3">
@@ -45443,7 +47060,7 @@
       <c r="V191" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W191" s="57" t="s">
+      <c r="W191" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X191" s="3">
@@ -45473,10 +47090,10 @@
       <c r="AF191" s="5">
         <v>10</v>
       </c>
-      <c r="AG191" s="58">
+      <c r="AG191" s="5">
         <v>-1</v>
       </c>
-      <c r="AH191" s="58">
+      <c r="AH191" s="5">
         <v>1</v>
       </c>
       <c r="AI191" s="45">
@@ -45584,7 +47201,7 @@
         <v>-6</v>
       </c>
       <c r="H192" s="4">
-        <f>F192+G192/24</f>
+        <f t="shared" si="14"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I192" s="3">
@@ -45594,7 +47211,7 @@
         <v>12530</v>
       </c>
       <c r="K192" s="3">
-        <f>I192*J192^2/2/4.184/10^12</f>
+        <f t="shared" si="13"/>
         <v>9.381028919694072E-4</v>
       </c>
       <c r="L192" s="3">
@@ -45616,14 +47233,14 @@
         <v>30000</v>
       </c>
       <c r="R192" s="3">
-        <f>Q192</f>
+        <f t="shared" si="15"/>
         <v>30000</v>
       </c>
       <c r="S192" s="3">
         <v>4000</v>
       </c>
       <c r="T192" s="3">
-        <f>M192</f>
+        <f t="shared" si="16"/>
         <v>74.14</v>
       </c>
       <c r="U192" s="3">
@@ -45632,7 +47249,7 @@
       <c r="V192" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W192" s="57" t="s">
+      <c r="W192" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X192" s="3">
@@ -45773,7 +47390,7 @@
         <v>-6</v>
       </c>
       <c r="H193" s="4">
-        <f>F193+G193/24</f>
+        <f t="shared" si="14"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I193" s="3">
@@ -45804,14 +47421,14 @@
         <v>40000</v>
       </c>
       <c r="R193" s="3">
-        <f>Q193</f>
+        <f t="shared" si="15"/>
         <v>40000</v>
       </c>
       <c r="S193" s="3">
         <v>4000</v>
       </c>
       <c r="T193" s="3">
-        <f>M193</f>
+        <f t="shared" si="16"/>
         <v>76.349999999999994</v>
       </c>
       <c r="U193" s="3">
@@ -45961,7 +47578,7 @@
         <v>-6</v>
       </c>
       <c r="H194" s="4">
-        <f>F194+G194/24</f>
+        <f t="shared" si="14"/>
         <v>45205.908368055556</v>
       </c>
       <c r="I194" s="3">
@@ -45992,14 +47609,14 @@
         <v>50000</v>
       </c>
       <c r="R194" s="3">
-        <f>Q194</f>
+        <f t="shared" si="15"/>
         <v>50000</v>
       </c>
       <c r="S194" s="3">
         <v>4000</v>
       </c>
       <c r="T194" s="3">
-        <f>M194</f>
+        <f t="shared" si="16"/>
         <v>78.78</v>
       </c>
       <c r="U194" s="3">
@@ -46008,7 +47625,7 @@
       <c r="V194" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W194" s="57" t="s">
+      <c r="W194" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X194" s="3">
@@ -46149,7 +47766,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="4">
-        <f>F195+G195/24</f>
+        <f t="shared" si="14"/>
         <v>45290.088495370372</v>
       </c>
       <c r="I195" s="3">
@@ -46159,7 +47776,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f>I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K208" si="17">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -46181,14 +47798,14 @@
         <v>70000</v>
       </c>
       <c r="R195" s="3">
-        <f>Q195</f>
+        <f t="shared" si="15"/>
         <v>70000</v>
       </c>
       <c r="S195" s="3">
         <v>20000</v>
       </c>
       <c r="T195" s="3">
-        <f>M195</f>
+        <f t="shared" si="16"/>
         <v>60.255000000000003</v>
       </c>
       <c r="U195" s="3">
@@ -46197,7 +47814,7 @@
       <c r="V195" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W195" s="57" t="s">
+      <c r="W195" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X195" s="3">
@@ -46338,7 +47955,7 @@
         <v>-7</v>
       </c>
       <c r="H196" s="4">
-        <f>F196+G196/24</f>
+        <f t="shared" si="14"/>
         <v>45288.819826388892</v>
       </c>
       <c r="I196" s="3">
@@ -46348,7 +47965,7 @@
         <v>13530</v>
       </c>
       <c r="K196" s="3">
-        <f>I196*J196^2/2/4.184/10^12</f>
+        <f t="shared" si="17"/>
         <v>2.1876302581261948E-3</v>
       </c>
       <c r="L196" s="3">
@@ -46370,14 +47987,14 @@
         <v>26206</v>
       </c>
       <c r="R196" s="3">
-        <f>Q196</f>
+        <f t="shared" si="15"/>
         <v>26206</v>
       </c>
       <c r="S196" s="3">
         <v>4000</v>
       </c>
       <c r="T196" s="3">
-        <f>M196</f>
+        <f t="shared" si="16"/>
         <v>36.810099999999998</v>
       </c>
       <c r="U196" s="3">
@@ -46528,7 +48145,7 @@
         <v>1</v>
       </c>
       <c r="H197" s="4">
-        <f>F197+G197/24</f>
+        <f t="shared" si="14"/>
         <v>45312.064374999994</v>
       </c>
       <c r="I197" s="3">
@@ -46538,7 +48155,7 @@
         <v>15221</v>
       </c>
       <c r="K197" s="3">
-        <f>I197*J197^2/2/4.184/10^12</f>
+        <f t="shared" si="17"/>
         <v>4.7814215870817398E-2</v>
       </c>
       <c r="L197" s="3">
@@ -46560,14 +48177,14 @@
         <v>22000</v>
       </c>
       <c r="R197" s="3">
-        <f>Q197</f>
+        <f t="shared" si="15"/>
         <v>22000</v>
       </c>
       <c r="S197" s="3">
         <v>5000</v>
       </c>
       <c r="T197" s="3">
-        <f>M197</f>
+        <f t="shared" si="16"/>
         <v>14.5168</v>
       </c>
       <c r="U197" s="3">
@@ -46714,11 +48331,11 @@
       <c r="F198" s="17">
         <v>45323.238796296297</v>
       </c>
-      <c r="G198" s="55">
+      <c r="G198" s="21">
         <v>-5</v>
       </c>
-      <c r="H198" s="56">
-        <f>F198+G198/24</f>
+      <c r="H198" s="4">
+        <f t="shared" si="14"/>
         <v>45323.030462962961</v>
       </c>
       <c r="I198" s="3">
@@ -46727,8 +48344,8 @@
       <c r="J198" s="3">
         <v>17900</v>
       </c>
-      <c r="K198" s="57">
-        <f>I198*J198^2/2/4.184/10^12</f>
+      <c r="K198" s="3">
+        <f t="shared" si="17"/>
         <v>3.8289913957934988E-5</v>
       </c>
       <c r="L198" s="3">
@@ -46750,14 +48367,14 @@
         <v>31000</v>
       </c>
       <c r="R198" s="3">
-        <f>Q198</f>
+        <f t="shared" si="15"/>
         <v>31000</v>
       </c>
       <c r="S198" s="3">
         <v>10000</v>
       </c>
       <c r="T198" s="3">
-        <f>M198</f>
+        <f t="shared" si="16"/>
         <v>35.474899999999998</v>
       </c>
       <c r="U198" s="3">
@@ -46767,7 +48384,7 @@
       <c r="V198" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W198" s="57" t="s">
+      <c r="W198" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X198" s="3">
@@ -46797,10 +48414,10 @@
       <c r="AF198" s="5">
         <v>50</v>
       </c>
-      <c r="AG198" s="58">
+      <c r="AG198" s="5">
         <v>-1</v>
       </c>
-      <c r="AH198" s="58">
+      <c r="AH198" s="5">
         <v>1</v>
       </c>
       <c r="AI198" s="45">
@@ -46908,7 +48525,7 @@
         <v>3</v>
       </c>
       <c r="H199" s="4">
-        <f>F199+G199/24</f>
+        <f t="shared" si="14"/>
         <v>45299.1875</v>
       </c>
       <c r="I199" s="3">
@@ -46918,7 +48535,7 @@
         <v>12430</v>
       </c>
       <c r="K199" s="3">
-        <f>I199*J199^2/2/4.184/10^12</f>
+        <f t="shared" si="17"/>
         <v>1.8463778680688336E-3</v>
       </c>
       <c r="L199" s="3">
@@ -46940,14 +48557,14 @@
         <v>28200</v>
       </c>
       <c r="R199" s="3">
-        <f>Q199</f>
+        <f t="shared" si="15"/>
         <v>28200</v>
       </c>
       <c r="S199" s="3">
         <v>5600</v>
       </c>
       <c r="T199" s="3">
-        <f>M199</f>
+        <f t="shared" si="16"/>
         <v>8.5</v>
       </c>
       <c r="U199" s="3">
@@ -47097,7 +48714,7 @@
         <v>4</v>
       </c>
       <c r="H200" s="4">
-        <f>F200+G200/24</f>
+        <f t="shared" si="14"/>
         <v>45348.639594907407</v>
       </c>
       <c r="I200" s="3">
@@ -47107,7 +48724,7 @@
         <v>22998</v>
       </c>
       <c r="K200" s="3">
-        <f>I200*J200^2/2/4.184/10^12</f>
+        <f t="shared" si="17"/>
         <v>0.13001479018021034</v>
       </c>
       <c r="L200" s="3">
@@ -47129,14 +48746,14 @@
         <v>35900</v>
       </c>
       <c r="R200" s="3">
-        <f>Q200</f>
+        <f t="shared" si="15"/>
         <v>35900</v>
       </c>
       <c r="S200" s="3">
         <v>5000</v>
       </c>
       <c r="T200" s="3">
-        <f>M200</f>
+        <f t="shared" si="16"/>
         <v>64.709000000000003</v>
       </c>
       <c r="U200" s="3">
@@ -47286,7 +48903,7 @@
         <v>-4</v>
       </c>
       <c r="H201" s="4">
-        <f>F201+G201/24</f>
+        <f t="shared" si="14"/>
         <v>45392.155185185191</v>
       </c>
       <c r="I201" s="3">
@@ -47296,7 +48913,7 @@
         <v>28000</v>
       </c>
       <c r="K201" s="3">
-        <f>I201*J201^2/2/4.184/10^12</f>
+        <f t="shared" si="17"/>
         <v>9.3690248565965577E-3</v>
       </c>
       <c r="L201" s="3">
@@ -47318,14 +48935,14 @@
         <v>41000</v>
       </c>
       <c r="R201" s="3">
-        <f>Q201</f>
+        <f t="shared" si="15"/>
         <v>41000</v>
       </c>
       <c r="S201" s="3">
         <v>8000</v>
       </c>
       <c r="T201" s="3">
-        <f>M201</f>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="U201" s="3">
@@ -47475,7 +49092,7 @@
         <v>-7</v>
       </c>
       <c r="H202" s="4">
-        <f>F202+G202/24</f>
+        <f t="shared" si="14"/>
         <v>45398.832974537043</v>
       </c>
       <c r="I202" s="3">
@@ -47485,7 +49102,7 @@
         <v>16400</v>
       </c>
       <c r="K202" s="3">
-        <f>I202*J202^2/2/4.184/10^12</f>
+        <f t="shared" si="17"/>
         <v>1.6070745697896751E-3</v>
       </c>
       <c r="L202" s="3">
@@ -47507,7 +49124,7 @@
         <v>26200</v>
       </c>
       <c r="R202" s="3">
-        <f>Q202</f>
+        <f t="shared" si="15"/>
         <v>26200</v>
       </c>
       <c r="S202" s="3">
@@ -47523,7 +49140,7 @@
       <c r="V202" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="W202" s="57" t="s">
+      <c r="W202" s="3" t="s">
         <v>382</v>
       </c>
       <c r="X202" s="3">
@@ -47664,7 +49281,7 @@
         <v>-6</v>
       </c>
       <c r="H203" s="4">
-        <f>F203+G203/24</f>
+        <f t="shared" si="14"/>
         <v>45411.108124999999</v>
       </c>
       <c r="I203" s="3">
@@ -47674,7 +49291,7 @@
         <v>12600</v>
       </c>
       <c r="K203" s="3">
-        <f>I203*J203^2/2/4.184/10^12</f>
+        <f t="shared" si="17"/>
         <v>3.7944550669216062E-3</v>
       </c>
       <c r="L203" s="3">
@@ -47696,7 +49313,7 @@
         <v>25323</v>
       </c>
       <c r="R203" s="3">
-        <f>Q203</f>
+        <f t="shared" si="15"/>
         <v>25323</v>
       </c>
       <c r="S203" s="3">
@@ -47831,7 +49448,7 @@
       </c>
     </row>
     <row r="204" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A204" s="54">
+      <c r="A204" s="6">
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -47849,11 +49466,11 @@
       <c r="F204" s="17">
         <v>45419.867337962962</v>
       </c>
-      <c r="G204" s="55">
+      <c r="G204" s="21">
         <v>2</v>
       </c>
-      <c r="H204" s="56">
-        <f>F204+G204/24</f>
+      <c r="H204" s="4">
+        <f t="shared" si="14"/>
         <v>45419.950671296298</v>
       </c>
       <c r="I204" s="3">
@@ -47862,8 +49479,8 @@
       <c r="J204" s="3">
         <v>13210</v>
       </c>
-      <c r="K204" s="57">
-        <f>I204*J204^2/2/4.184/10^12</f>
+      <c r="K204" s="3">
+        <f t="shared" si="17"/>
         <v>2.0853740439770554E-5</v>
       </c>
       <c r="L204" s="3">
@@ -47885,7 +49502,7 @@
         <v>35000</v>
       </c>
       <c r="R204" s="3">
-        <f>Q204</f>
+        <f t="shared" si="15"/>
         <v>35000</v>
       </c>
       <c r="S204" s="3">
@@ -47931,10 +49548,10 @@
       <c r="AF204" s="5">
         <v>50</v>
       </c>
-      <c r="AG204" s="58">
+      <c r="AG204" s="5">
         <v>-1</v>
       </c>
-      <c r="AH204" s="58">
+      <c r="AH204" s="5">
         <v>1</v>
       </c>
       <c r="AI204" s="45">
@@ -48019,15 +49636,1856 @@
         <v>0</v>
       </c>
     </row>
+    <row r="205" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>204</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F205" s="17">
+        <v>45418.125231481485</v>
+      </c>
+      <c r="G205" s="21">
+        <v>0</v>
+      </c>
+      <c r="H205" s="4">
+        <f t="shared" si="14"/>
+        <v>45418.125231481485</v>
+      </c>
+      <c r="I205" s="3">
+        <v>55</v>
+      </c>
+      <c r="J205" s="3">
+        <v>12923.76</v>
+      </c>
+      <c r="K205" s="3">
+        <f t="shared" si="17"/>
+        <v>1.0977887774340346E-3</v>
+      </c>
+      <c r="L205" s="3">
+        <v>210.79409999999999</v>
+      </c>
+      <c r="M205" s="3">
+        <v>21.6891</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O205" s="3">
+        <v>52.931533000000002</v>
+      </c>
+      <c r="P205" s="3">
+        <v>-2.0148269999999999</v>
+      </c>
+      <c r="Q205" s="3">
+        <v>22181.43</v>
+      </c>
+      <c r="R205" s="3">
+        <f t="shared" si="15"/>
+        <v>22181.43</v>
+      </c>
+      <c r="S205" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T205" s="3">
+        <v>21.6891</v>
+      </c>
+      <c r="U205" s="3">
+        <v>22181.43</v>
+      </c>
+      <c r="V205" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W205" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X205" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z205" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA205" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB205" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="AC205" s="5">
+        <v>0.127</v>
+      </c>
+      <c r="AD205" s="5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AE205" s="5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AF205" s="5">
+        <v>120</v>
+      </c>
+      <c r="AG205" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH205" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI205" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ205" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM205" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN205" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO205" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP205" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ205" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR205" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS205" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT205" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU205" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV205" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW205" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX205" s="38">
+        <v>135</v>
+      </c>
+      <c r="AY205" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ205" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA205" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB205" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC205" s="38">
+        <v>135</v>
+      </c>
+      <c r="BD205" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE205" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF205" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG205" s="40">
+        <v>4</v>
+      </c>
+      <c r="BH205" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI205" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>205</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F206" s="17">
+        <v>45434.09983796296</v>
+      </c>
+      <c r="G206" s="21">
+        <v>-6</v>
+      </c>
+      <c r="H206" s="4">
+        <f t="shared" si="14"/>
+        <v>45433.84983796296</v>
+      </c>
+      <c r="I206" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J206" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K206" s="3">
+        <f t="shared" si="17"/>
+        <v>4.780114722753346E-2</v>
+      </c>
+      <c r="L206" s="3">
+        <v>68</v>
+      </c>
+      <c r="M206" s="3">
+        <v>48</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="O206" s="3">
+        <v>10.29457</v>
+      </c>
+      <c r="P206" s="3">
+        <v>-85.956001000000001</v>
+      </c>
+      <c r="Q206" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R206" s="3">
+        <f t="shared" si="15"/>
+        <v>18000</v>
+      </c>
+      <c r="S206" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T206" s="3">
+        <f>M206</f>
+        <v>48</v>
+      </c>
+      <c r="U206" s="3">
+        <v>10000</v>
+      </c>
+      <c r="V206" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W206" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X206" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y206" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z206" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA206" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AB206" s="5">
+        <v>7</v>
+      </c>
+      <c r="AC206" s="5">
+        <v>7</v>
+      </c>
+      <c r="AD206" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE206" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AG206" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH206" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI206" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ206" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK206" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM206" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN206" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO206" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP206" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ206" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR206" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS206" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT206" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU206" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV206" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW206" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX206" s="38">
+        <v>135</v>
+      </c>
+      <c r="AY206" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ206" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA206" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB206" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC206" s="38">
+        <v>135</v>
+      </c>
+      <c r="BD206" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE206" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF206" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG206" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH206" s="40" t="s">
+        <v>2041</v>
+      </c>
+      <c r="BI206" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>206</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" s="17">
+        <v>45433.599178240744</v>
+      </c>
+      <c r="G207" s="21">
+        <v>-4</v>
+      </c>
+      <c r="H207" s="4">
+        <f t="shared" si="14"/>
+        <v>45433.432511574079</v>
+      </c>
+      <c r="I207" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J207" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K207" s="3">
+        <f t="shared" si="17"/>
+        <v>8.3577915869980882E-2</v>
+      </c>
+      <c r="L207" s="3">
+        <v>148</v>
+      </c>
+      <c r="M207" s="3">
+        <v>68</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O207" s="3">
+        <v>44.920771999999999</v>
+      </c>
+      <c r="P207" s="3">
+        <v>-84.899522000000005</v>
+      </c>
+      <c r="Q207" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R207" s="3">
+        <f t="shared" si="15"/>
+        <v>20000</v>
+      </c>
+      <c r="S207" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T207" s="3">
+        <f>M207</f>
+        <v>68</v>
+      </c>
+      <c r="U207" s="3">
+        <v>15000</v>
+      </c>
+      <c r="V207" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W207" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X207" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y207" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z207" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA207" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AB207" s="5">
+        <v>7</v>
+      </c>
+      <c r="AC207" s="5">
+        <v>7</v>
+      </c>
+      <c r="AD207" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE207" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AG207" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH207" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI207" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ207" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK207" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM207" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN207" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO207" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP207" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ207" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR207" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS207" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT207" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU207" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV207" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW207" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX207" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY207" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ207" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA207" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB207" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC207" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD207" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE207" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF207" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG207" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH207" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI207" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>207</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="F208" s="17">
+        <v>45430.951620370368</v>
+      </c>
+      <c r="G208" s="21">
+        <v>0</v>
+      </c>
+      <c r="H208" s="4">
+        <f t="shared" si="14"/>
+        <v>45430.951620370368</v>
+      </c>
+      <c r="I208" s="3">
+        <v>666</v>
+      </c>
+      <c r="J208" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K208" s="3">
+        <f t="shared" si="17"/>
+        <v>0.13054570984703634</v>
+      </c>
+      <c r="L208" s="3">
+        <v>318</v>
+      </c>
+      <c r="M208" s="3">
+        <v>79.69</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O208" s="3">
+        <v>41</v>
+      </c>
+      <c r="P208" s="3">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="Q208" s="3">
+        <v>74300</v>
+      </c>
+      <c r="R208" s="3">
+        <f t="shared" si="15"/>
+        <v>74300</v>
+      </c>
+      <c r="S208" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T208" s="3">
+        <f>M208</f>
+        <v>79.69</v>
+      </c>
+      <c r="U208" s="3">
+        <v>60000</v>
+      </c>
+      <c r="V208" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W208" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X208" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="3">
+        <v>130000</v>
+      </c>
+      <c r="Z208" s="3">
+        <v>130000</v>
+      </c>
+      <c r="AA208" s="5">
+        <v>100</v>
+      </c>
+      <c r="AB208" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AC208" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD208" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG208" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH208" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI208" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ208" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM208" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP208" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ208" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS208" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT208" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU208" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV208" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW208" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX208" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY208" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ208" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA208" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB208" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC208" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD208" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE208" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF208" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG208" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH208" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI208" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:BI203" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
+  <autoFilter ref="A5:BI206" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A1EA5-6E5D-46A3-AAE6-F062C7845542}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>43791</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>43796</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>43803</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>43805</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>43812</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>43817</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B95891-4447-49CE-A5F4-47242E2D1871}">
+  <dimension ref="D3:E123"/>
+  <sheetViews>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1519</v>
+      </c>
+      <c r="E3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3170</v>
+      </c>
+      <c r="E4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>5910</v>
+      </c>
+      <c r="E5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>7640</v>
+      </c>
+      <c r="E6">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>9770</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>11060</v>
+      </c>
+      <c r="E8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>12550</v>
+      </c>
+      <c r="E9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>14370</v>
+      </c>
+      <c r="E10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>16740</v>
+      </c>
+      <c r="E11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>18740</v>
+      </c>
+      <c r="E12">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>20700</v>
+      </c>
+      <c r="E13">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>23920</v>
+      </c>
+      <c r="E14">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>26490</v>
+      </c>
+      <c r="E15">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>775</v>
+      </c>
+      <c r="E17">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1513</v>
+      </c>
+      <c r="E18">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>3170</v>
+      </c>
+      <c r="E19">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5910</v>
+      </c>
+      <c r="E20">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>7650</v>
+      </c>
+      <c r="E21">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>9770</v>
+      </c>
+      <c r="E22">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>11050</v>
+      </c>
+      <c r="E23">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>12550</v>
+      </c>
+      <c r="E24">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>14360</v>
+      </c>
+      <c r="E25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>16720</v>
+      </c>
+      <c r="E26">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>784</v>
+      </c>
+      <c r="E28">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1519</v>
+      </c>
+      <c r="E29">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>3170</v>
+      </c>
+      <c r="E30">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>5900</v>
+      </c>
+      <c r="E31">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>7640</v>
+      </c>
+      <c r="E32">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>9770</v>
+      </c>
+      <c r="E33">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>11050</v>
+      </c>
+      <c r="E34">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>12540</v>
+      </c>
+      <c r="E35">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>14350</v>
+      </c>
+      <c r="E36">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16730</v>
+      </c>
+      <c r="E37">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>18730</v>
+      </c>
+      <c r="E38">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>20750</v>
+      </c>
+      <c r="E39">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>23930</v>
+      </c>
+      <c r="E40">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>26570</v>
+      </c>
+      <c r="E41">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>92</v>
+      </c>
+      <c r="E42">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>778</v>
+      </c>
+      <c r="E43">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1514</v>
+      </c>
+      <c r="E44">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>3166</v>
+      </c>
+      <c r="E45">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>5910</v>
+      </c>
+      <c r="E46">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>7650</v>
+      </c>
+      <c r="E47">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>9770</v>
+      </c>
+      <c r="E48">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>11050</v>
+      </c>
+      <c r="E49">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>12540</v>
+      </c>
+      <c r="E50">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>14350</v>
+      </c>
+      <c r="E51">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>16720</v>
+      </c>
+      <c r="E52">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>96</v>
+      </c>
+      <c r="E53">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>783</v>
+      </c>
+      <c r="E54">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>3165</v>
+      </c>
+      <c r="E55">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>5920</v>
+      </c>
+      <c r="E56">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>7650</v>
+      </c>
+      <c r="E57">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>9780</v>
+      </c>
+      <c r="E58">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>11060</v>
+      </c>
+      <c r="E59">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>12550</v>
+      </c>
+      <c r="E60">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>14370</v>
+      </c>
+      <c r="E61">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>16750</v>
+      </c>
+      <c r="E62">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>18760</v>
+      </c>
+      <c r="E63">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>20750</v>
+      </c>
+      <c r="E64">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>23960</v>
+      </c>
+      <c r="E65">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>26600</v>
+      </c>
+      <c r="E66">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>91</v>
+      </c>
+      <c r="E67">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>780</v>
+      </c>
+      <c r="E68">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1515</v>
+      </c>
+      <c r="E69">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>3168</v>
+      </c>
+      <c r="E70">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>5910</v>
+      </c>
+      <c r="E71">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>7650</v>
+      </c>
+      <c r="E72">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>9770</v>
+      </c>
+      <c r="E73">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>11050</v>
+      </c>
+      <c r="E74">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>12550</v>
+      </c>
+      <c r="E75">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>14350</v>
+      </c>
+      <c r="E76">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>16730</v>
+      </c>
+      <c r="E77">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>18750</v>
+      </c>
+      <c r="E78">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>109</v>
+      </c>
+      <c r="E79">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>797</v>
+      </c>
+      <c r="E80">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>1535</v>
+      </c>
+      <c r="E81">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>3187</v>
+      </c>
+      <c r="E82">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>5930</v>
+      </c>
+      <c r="E83">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>7660</v>
+      </c>
+      <c r="E84">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>9790</v>
+      </c>
+      <c r="E85">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>11060</v>
+      </c>
+      <c r="E86">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>12560</v>
+      </c>
+      <c r="E87">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>14370</v>
+      </c>
+      <c r="E88">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>16750</v>
+      </c>
+      <c r="E89">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>18770</v>
+      </c>
+      <c r="E90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>20730</v>
+      </c>
+      <c r="E91">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>23910</v>
+      </c>
+      <c r="E92">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>26520</v>
+      </c>
+      <c r="E93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>102</v>
+      </c>
+      <c r="E94">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>792</v>
+      </c>
+      <c r="E95">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>1526</v>
+      </c>
+      <c r="E96">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>3179</v>
+      </c>
+      <c r="E97">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>5930</v>
+      </c>
+      <c r="E98">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>7660</v>
+      </c>
+      <c r="E99">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>9790</v>
+      </c>
+      <c r="E100">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>11060</v>
+      </c>
+      <c r="E101">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>12550</v>
+      </c>
+      <c r="E102">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>14370</v>
+      </c>
+      <c r="E103">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>16740</v>
+      </c>
+      <c r="E104">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>18760</v>
+      </c>
+      <c r="E105">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>20760</v>
+      </c>
+      <c r="E106">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>23880</v>
+      </c>
+      <c r="E107">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>26510</v>
+      </c>
+      <c r="E108">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>101</v>
+      </c>
+      <c r="E109">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>789</v>
+      </c>
+      <c r="E110">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>1522</v>
+      </c>
+      <c r="E111">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>3174</v>
+      </c>
+      <c r="E112">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>5920</v>
+      </c>
+      <c r="E113">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>7650</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>9780</v>
+      </c>
+      <c r="E115">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>11060</v>
+      </c>
+      <c r="E116">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>12560</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>14370</v>
+      </c>
+      <c r="E118">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>16740</v>
+      </c>
+      <c r="E119">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>18760</v>
+      </c>
+      <c r="E120">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>20750</v>
+      </c>
+      <c r="E121">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>23930</v>
+      </c>
+      <c r="E122">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>26570</v>
+      </c>
+      <c r="E123">
+        <v>13.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF5B9B-0F72-45F1-9ED5-2AE8EF041BE8}">
   <dimension ref="A2:V59"/>
   <sheetViews>
@@ -48073,6 +51531,9 @@
       <c r="L7" t="s">
         <v>408</v>
       </c>
+      <c r="M7">
+        <v>3.63</v>
+      </c>
       <c r="Q7" t="s">
         <v>13</v>
       </c>
@@ -48097,9 +51558,9 @@
       <c r="L8" t="s">
         <v>2045</v>
       </c>
-      <c r="M8" t="e">
+      <c r="M8">
         <f>J13/M7</f>
-        <v>#DIV/0!</v>
+        <v>45.01751672906996</v>
       </c>
       <c r="N8" t="s">
         <v>2046</v>
@@ -48155,11 +51616,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>56.151560022443022</v>
+        <v>68.459024081461564</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>33.848439977556978</v>
+        <v>21.540975918538436</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -48167,13 +51628,13 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>90.305536928806305</v>
+        <v>163.41358572652396</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -48195,13 +51656,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>50.3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>33.848439977556978</v>
+        <v>21.540975918538436</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -48209,7 +51670,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>39.700000000000003</v>
+        <v>15</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -48231,14 +51692,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>14.362709650704781</v>
+        <v>21.788478096869863</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -48631,7 +52092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF4690B-ED60-431C-A6ED-A0B01298B5D9}">
   <dimension ref="A1:C207"/>
   <sheetViews>
@@ -50926,7 +54387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F006F-09CB-4518-A6A0-B4628B5EF033}">
   <dimension ref="A1:D250"/>
   <sheetViews>
@@ -54448,7 +57909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E00CB2-4C03-4E08-A2A2-C2F4859B5A17}">
   <dimension ref="F5:W525"/>
   <sheetViews>
@@ -59881,7 +63342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A5485-B526-4F4A-98E6-46596A9C7AC6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -59946,7 +63407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3642CC9A-E743-4191-A934-02A4E166F560}">
   <dimension ref="A1:I93"/>
   <sheetViews>
@@ -60867,12 +64328,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:XFD133"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62424,6 +65885,14 @@
         <v>1633</v>
       </c>
     </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="33">
+        <v>146</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>2059</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{55C4805C-87A8-4D18-978D-FAFC0E5CA908}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
@@ -62432,106 +65901,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A1EA5-6E5D-46A3-AAE6-F062C7845542}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="109.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>43791</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>43796</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>43803</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>43805</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>43812</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>43817</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F204E-9E52-4CD5-8B58-5145C4FB9345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A84E340-D83A-4550-8D28-A8604C9D07C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="6360" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,21 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -159,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="2061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="2063">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6343,6 +6354,12 @@
   </si>
   <si>
     <t>Tamarindo</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Mondovi</t>
   </si>
 </sst>
 </file>
@@ -16734,13 +16751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI208"/>
+  <dimension ref="A1:BI210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="N209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B208" sqref="B208"/>
+      <selection pane="bottomRight" activeCell="R213" sqref="R213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45876,7 +45893,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" ref="H185:H208" si="14">F185+G185/24</f>
+        <f t="shared" ref="H185:H210" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -46663,7 +46680,7 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R208" si="15">Q189</f>
+        <f t="shared" ref="R189:R210" si="15">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
@@ -47776,7 +47793,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K208" si="17">I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K210" si="17">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -50388,6 +50405,384 @@
         <v>2043</v>
       </c>
       <c r="BI208" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>208</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="17">
+        <v>45465.147777777776</v>
+      </c>
+      <c r="G209" s="21">
+        <v>-5</v>
+      </c>
+      <c r="H209" s="4">
+        <f t="shared" si="14"/>
+        <v>45464.939444444441</v>
+      </c>
+      <c r="I209" s="3">
+        <v>50</v>
+      </c>
+      <c r="J209" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K209" s="3">
+        <f t="shared" si="17"/>
+        <v>1.7268164435946462E-3</v>
+      </c>
+      <c r="L209" s="3">
+        <v>290</v>
+      </c>
+      <c r="M209" s="3">
+        <v>45</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O209" s="3">
+        <v>32.465299999999999</v>
+      </c>
+      <c r="P209" s="3">
+        <v>-96.596800000000002</v>
+      </c>
+      <c r="Q209" s="3">
+        <v>24000</v>
+      </c>
+      <c r="R209" s="3">
+        <f t="shared" si="15"/>
+        <v>24000</v>
+      </c>
+      <c r="S209" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T209" s="3">
+        <f>M209</f>
+        <v>45</v>
+      </c>
+      <c r="U209" s="3">
+        <v>18000</v>
+      </c>
+      <c r="V209" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W209" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X209" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z209" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA209" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB209" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC209" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD209" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE209" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="5">
+        <v>6000</v>
+      </c>
+      <c r="AG209" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH209" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI209" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ209" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL209" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM209" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN209" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO209" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP209" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ209" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR209" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS209" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT209" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU209" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV209" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW209" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX209" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY209" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ209" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA209" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB209" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC209" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD209" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE209" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF209" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG209" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH209" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI209" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>209</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" s="17">
+        <v>45485.168402777781</v>
+      </c>
+      <c r="G210" s="21">
+        <v>-5</v>
+      </c>
+      <c r="H210" s="4">
+        <f t="shared" si="14"/>
+        <v>45484.960069444445</v>
+      </c>
+      <c r="I210" s="3">
+        <v>50</v>
+      </c>
+      <c r="J210" s="3">
+        <v>17760</v>
+      </c>
+      <c r="K210" s="3">
+        <f t="shared" si="17"/>
+        <v>1.884665391969407E-3</v>
+      </c>
+      <c r="L210" s="3">
+        <v>332.51</v>
+      </c>
+      <c r="M210" s="3">
+        <v>60</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O210" s="3">
+        <v>44.504818499999999</v>
+      </c>
+      <c r="P210" s="3">
+        <v>-91.542290500000007</v>
+      </c>
+      <c r="Q210" s="3">
+        <v>28500</v>
+      </c>
+      <c r="R210" s="3">
+        <f t="shared" si="15"/>
+        <v>28500</v>
+      </c>
+      <c r="S210" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T210" s="3">
+        <f>M210</f>
+        <v>60</v>
+      </c>
+      <c r="U210" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V210" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W210" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X210" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z210" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA210" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB210" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC210" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD210" s="5">
+        <v>5.569500000000005E-3</v>
+      </c>
+      <c r="AE210" s="5">
+        <v>3.1935500000003003E-2</v>
+      </c>
+      <c r="AF210" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG210" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH210" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI210" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ210" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK210" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM210" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN210" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO210" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP210" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ210" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT210" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU210" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV210" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW210" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX210" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY210" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ210" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA210" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB210" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC210" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD210" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE210" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF210" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG210" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH210" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI210" s="40">
         <v>0</v>
       </c>
     </row>
@@ -50506,7 +50901,7 @@
   <dimension ref="D3:E123"/>
   <sheetViews>
     <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E123"/>
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51490,7 +51885,7 @@
   <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51532,7 +51927,7 @@
         <v>408</v>
       </c>
       <c r="M7">
-        <v>3.63</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="s">
         <v>13</v>
@@ -51560,7 +51955,7 @@
       </c>
       <c r="M8">
         <f>J13/M7</f>
-        <v>45.01751672906996</v>
+        <v>17.759195663437151</v>
       </c>
       <c r="N8" t="s">
         <v>2046</v>
@@ -51616,11 +52011,14 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>68.459024081461564</v>
+        <v>60.083617754998244</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>21.540975918538436</v>
+        <v>29.916382245001756</v>
+      </c>
+      <c r="N11">
+        <v>18980</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -51628,23 +52026,34 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>15540</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>163.41358572652396</v>
+        <v>124.31436964406005</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="O13">
+        <f>O12-N12</f>
+        <v>-15540</v>
+      </c>
       <c r="Q13" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f>N11-O12</f>
+        <v>18980</v>
+      </c>
       <c r="Q14" s="16">
         <f>Q8+(Q9+(Q10/60))/60</f>
         <v>84.364238888888892</v>
@@ -51656,13 +52065,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>21.540975918538436</v>
+        <v>29.916382245001756</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -51670,7 +52079,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -51692,14 +52101,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>152</v>
+        <v>107.75</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>21.788478096869863</v>
+        <v>16.040563825040003</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A84E340-D83A-4550-8D28-A8604C9D07C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCF170-3527-4A25-93DA-65EF2BA45E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -16754,7 +16754,7 @@
   <dimension ref="A1:BI210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="N209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="R213" sqref="R213"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCF170-3527-4A25-93DA-65EF2BA45E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B984C22-7C6C-4AC9-B6DB-C2A8406CD16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="7320" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -114,21 +114,10 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -170,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="2063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="2064">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6360,6 +6349,9 @@
   </si>
   <si>
     <t>Mondovi</t>
+  </si>
+  <si>
+    <t>H3-6</t>
   </si>
 </sst>
 </file>
@@ -16754,10 +16746,10 @@
   <dimension ref="A1:BI210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R213" sqref="R213"/>
+      <selection pane="bottomRight" activeCell="O210" sqref="O210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44995,10 +44987,10 @@
         <v>12000</v>
       </c>
       <c r="V180" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W180" s="3" t="s">
-        <v>382</v>
+        <v>2063</v>
       </c>
       <c r="X180" s="3">
         <v>3500</v>
@@ -45046,13 +45038,13 @@
         <v>0</v>
       </c>
       <c r="AM180" s="23">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AN180" s="23">
-        <v>6</v>
+        <v>4.28</v>
       </c>
       <c r="AO180" s="23">
-        <v>3600</v>
+        <v>3736</v>
       </c>
       <c r="AP180" s="23">
         <v>0</v>
@@ -50627,26 +50619,26 @@
         <v>50</v>
       </c>
       <c r="J210" s="3">
-        <v>17760</v>
+        <v>21760</v>
       </c>
       <c r="K210" s="3">
         <f t="shared" si="17"/>
-        <v>1.884665391969407E-3</v>
+        <v>2.829216061185468E-3</v>
       </c>
       <c r="L210" s="3">
-        <v>332.51</v>
+        <v>329.5</v>
       </c>
       <c r="M210" s="3">
-        <v>60</v>
+        <v>57.25</v>
       </c>
       <c r="N210" s="3" t="s">
         <v>1334</v>
       </c>
       <c r="O210" s="3">
-        <v>44.504818499999999</v>
+        <v>44.508629999999997</v>
       </c>
       <c r="P210" s="3">
-        <v>-91.542290500000007</v>
+        <v>-91.526264499999996</v>
       </c>
       <c r="Q210" s="3">
         <v>28500</v>
@@ -50660,7 +50652,7 @@
       </c>
       <c r="T210" s="3">
         <f>M210</f>
-        <v>60</v>
+        <v>57.25</v>
       </c>
       <c r="U210" s="3">
         <v>28000</v>
@@ -50681,19 +50673,19 @@
         <v>60000</v>
       </c>
       <c r="AA210" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="AB210" s="5">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="AC210" s="5">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="AD210" s="5">
-        <v>5.569500000000005E-3</v>
+        <v>5.6459999999987076E-3</v>
       </c>
       <c r="AE210" s="5">
-        <v>3.1935500000003003E-2</v>
+        <v>1.6369500000010362E-2</v>
       </c>
       <c r="AF210" s="5">
         <v>500</v>
@@ -51927,7 +51919,7 @@
         <v>408</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" t="s">
         <v>13</v>
@@ -51955,7 +51947,7 @@
       </c>
       <c r="M8">
         <f>J13/M7</f>
-        <v>17.759195663437151</v>
+        <v>21.764337585429619</v>
       </c>
       <c r="N8" t="s">
         <v>2046</v>
@@ -52011,11 +52003,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>60.083617754998244</v>
+        <v>57.264773727892404</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>29.916382245001756</v>
+        <v>32.735226272107596</v>
       </c>
       <c r="N11">
         <v>18980</v>
@@ -52026,7 +52018,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>15540</v>
@@ -52035,7 +52027,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>124.31436964406005</v>
+        <v>141.46819430529251</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -52065,13 +52057,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>62</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>29.916382245001756</v>
+        <v>32.735226272107596</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -52079,7 +52071,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -52101,14 +52093,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>107.75</v>
+        <v>119</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>16.040563825040003</v>
+        <v>14.794059535193991</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B984C22-7C6C-4AC9-B6DB-C2A8406CD16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC78A3C-9272-4C58-ABD2-9357671CCAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="7035" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,21 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -159,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="2069">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6352,6 +6363,21 @@
   </si>
   <si>
     <t>H3-6</t>
+  </si>
+  <si>
+    <t>Ait Saoun</t>
+  </si>
+  <si>
+    <t>Drâa-Tafilalet</t>
+  </si>
+  <si>
+    <t>eh chondrite</t>
+  </si>
+  <si>
+    <t>Spruce Pine</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
   </si>
 </sst>
 </file>
@@ -16743,13 +16769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI210"/>
+  <dimension ref="A1:BI212"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O210" sqref="O210"/>
+      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45885,7 +45911,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" ref="H185:H210" si="14">F185+G185/24</f>
+        <f t="shared" ref="H185:H212" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -46672,7 +46698,7 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R210" si="15">Q189</f>
+        <f t="shared" ref="R189:R212" si="15">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
@@ -47785,7 +47811,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K210" si="17">I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K212" si="17">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -49895,7 +49921,7 @@
         <v>6000</v>
       </c>
       <c r="T206" s="3">
-        <f>M206</f>
+        <f t="shared" ref="T206:T212" si="18">M206</f>
         <v>48</v>
       </c>
       <c r="U206" s="3">
@@ -50084,7 +50110,7 @@
         <v>5000</v>
       </c>
       <c r="T207" s="3">
-        <f>M207</f>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="U207" s="3">
@@ -50273,7 +50299,7 @@
         <v>5000</v>
       </c>
       <c r="T208" s="3">
-        <f>M208</f>
+        <f t="shared" si="18"/>
         <v>79.69</v>
       </c>
       <c r="U208" s="3">
@@ -50462,7 +50488,7 @@
         <v>8000</v>
       </c>
       <c r="T209" s="3">
-        <f>M209</f>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="U209" s="3">
@@ -50616,14 +50642,14 @@
         <v>45484.960069444445</v>
       </c>
       <c r="I210" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J210" s="3">
         <v>21760</v>
       </c>
       <c r="K210" s="3">
         <f t="shared" si="17"/>
-        <v>2.829216061185468E-3</v>
+        <v>8.4876481835564053E-4</v>
       </c>
       <c r="L210" s="3">
         <v>329.5</v>
@@ -50651,7 +50677,7 @@
         <v>10000</v>
       </c>
       <c r="T210" s="3">
-        <f>M210</f>
+        <f t="shared" si="18"/>
         <v>57.25</v>
       </c>
       <c r="U210" s="3">
@@ -50775,6 +50801,386 @@
         <v>2043</v>
       </c>
       <c r="BI210" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>210</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F211" s="17">
+        <v>45510.861759259256</v>
+      </c>
+      <c r="G211" s="21">
+        <v>1</v>
+      </c>
+      <c r="H211" s="4">
+        <f t="shared" si="14"/>
+        <v>45510.903425925921</v>
+      </c>
+      <c r="I211" s="3">
+        <v>300</v>
+      </c>
+      <c r="J211" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K211" s="3">
+        <f t="shared" si="17"/>
+        <v>5.6016969407265771E-3</v>
+      </c>
+      <c r="L211" s="3">
+        <v>95.68</v>
+      </c>
+      <c r="M211" s="3">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O211" s="3">
+        <v>30.730585000000001</v>
+      </c>
+      <c r="P211" s="3">
+        <v>-6.7273120000000004</v>
+      </c>
+      <c r="Q211" s="3">
+        <v>37800</v>
+      </c>
+      <c r="R211" s="3">
+        <f t="shared" si="15"/>
+        <v>37800</v>
+      </c>
+      <c r="S211" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T211" s="3">
+        <f t="shared" si="18"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="U211" s="3">
+        <f>Q211*0.9</f>
+        <v>34020</v>
+      </c>
+      <c r="V211" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="W211" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X211" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z211" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA211" s="5">
+        <v>2500</v>
+      </c>
+      <c r="AB211" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC211" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD211" s="5">
+        <v>3.8600000000000001E-3</v>
+      </c>
+      <c r="AE211" s="5">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="AF211" s="5">
+        <v>700</v>
+      </c>
+      <c r="AG211" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH211" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI211" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ211" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM211" s="23">
+        <v>5</v>
+      </c>
+      <c r="AN211" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO211" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP211" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ211" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR211" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS211" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT211" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU211" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV211" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW211" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX211" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY211" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ211" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA211" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB211" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC211" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD211" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE211" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF211" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG211" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH211" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI211" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>211</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F212" s="17">
+        <v>45534.218611111108</v>
+      </c>
+      <c r="G212" s="21">
+        <v>-4</v>
+      </c>
+      <c r="H212" s="4">
+        <f t="shared" si="14"/>
+        <v>45534.051944444444</v>
+      </c>
+      <c r="I212" s="3">
+        <v>50</v>
+      </c>
+      <c r="J212" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K212" s="3">
+        <f t="shared" si="17"/>
+        <v>1.0097992351816444E-3</v>
+      </c>
+      <c r="L212" s="3">
+        <v>152.47999999999999</v>
+      </c>
+      <c r="M212" s="3">
+        <v>56.07</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O212" s="3">
+        <v>35.954000000000001</v>
+      </c>
+      <c r="P212" s="3">
+        <v>-82.054500000000004</v>
+      </c>
+      <c r="Q212" s="3">
+        <v>25000</v>
+      </c>
+      <c r="R212" s="3">
+        <f t="shared" si="15"/>
+        <v>25000</v>
+      </c>
+      <c r="S212" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T212" s="3">
+        <f t="shared" si="18"/>
+        <v>56.07</v>
+      </c>
+      <c r="U212" s="3">
+        <f>Q212</f>
+        <v>25000</v>
+      </c>
+      <c r="V212" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W212" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X212" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z212" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA212" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AB212" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="AC212" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AD212" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE212" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF212" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AG212" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH212" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI212" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ212" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK212" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL212" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM212" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN212" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO212" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP212" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ212" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR212" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS212" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT212" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU212" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV212" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW212" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX212" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY212" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ212" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA212" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB212" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC212" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD212" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE212" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF212" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG212" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH212" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI212" s="40">
         <v>0</v>
       </c>
     </row>
@@ -50890,10 +51296,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B95891-4447-49CE-A5F4-47242E2D1871}">
-  <dimension ref="D3:E123"/>
+  <dimension ref="D3:I127"/>
   <sheetViews>
     <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="P125" sqref="P125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51778,7 +52184,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>5920</v>
       </c>
@@ -51786,7 +52192,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>7650</v>
       </c>
@@ -51794,7 +52200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>9780</v>
       </c>
@@ -51802,7 +52208,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>11060</v>
       </c>
@@ -51810,7 +52216,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>12560</v>
       </c>
@@ -51818,7 +52224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>14370</v>
       </c>
@@ -51826,7 +52232,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>16740</v>
       </c>
@@ -51834,7 +52240,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>18760</v>
       </c>
@@ -51842,7 +52248,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>20750</v>
       </c>
@@ -51850,7 +52256,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>23930</v>
       </c>
@@ -51858,12 +52264,20 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>26570</v>
       </c>
       <c r="E123">
         <v>13.9</v>
+      </c>
+    </row>
+    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>13</v>
+      </c>
+      <c r="I127">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -51877,7 +52291,7 @@
   <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M13" sqref="M10:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51919,7 +52333,7 @@
         <v>408</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="s">
         <v>13</v>
@@ -51947,7 +52361,7 @@
       </c>
       <c r="M8">
         <f>J13/M7</f>
-        <v>21.764337585429619</v>
+        <v>14.285591517329621</v>
       </c>
       <c r="N8" t="s">
         <v>2046</v>
@@ -52003,11 +52417,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>57.264773727892404</v>
+        <v>55.33655414649931</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>32.735226272107596</v>
+        <v>34.66344585350069</v>
       </c>
       <c r="N11">
         <v>18980</v>
@@ -52018,7 +52432,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N12">
         <v>15540</v>
@@ -52027,7 +52441,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>141.46819430529251</v>
+        <v>114.28473213863697</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -52057,13 +52471,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>76.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>32.735226272107596</v>
+        <v>34.66344585350069</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -52071,7 +52485,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>28.5</v>
+        <v>25</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -52093,14 +52507,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>14.794059535193991</v>
+        <v>14.065813186293781</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>
@@ -54792,8 +55206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F006F-09CB-4518-A6A0-B4628B5EF033}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC78A3C-9272-4C58-ABD2-9357671CCAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B220A978-9DB4-49DE-9D3B-1E8637012299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="12570" yWindow="870" windowWidth="16200" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3546" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="2072">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6378,6 +6378,15 @@
   </si>
   <si>
     <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Luzon</t>
+  </si>
+  <si>
+    <t>Tuguegarao</t>
+  </si>
+  <si>
+    <t>Cagayan</t>
   </si>
 </sst>
 </file>
@@ -16769,13 +16778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI212"/>
+  <dimension ref="A1:BI213"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AB207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
+      <selection pane="bottomRight" activeCell="AD213" sqref="AD213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45911,7 +45920,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" ref="H185:H212" si="14">F185+G185/24</f>
+        <f t="shared" ref="H185:H213" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -46698,7 +46707,7 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R212" si="15">Q189</f>
+        <f t="shared" ref="R189:R213" si="15">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
@@ -47811,7 +47820,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K212" si="17">I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K213" si="17">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -49921,7 +49930,7 @@
         <v>6000</v>
       </c>
       <c r="T206" s="3">
-        <f t="shared" ref="T206:T212" si="18">M206</f>
+        <f t="shared" ref="T206:T213" si="18">M206</f>
         <v>48</v>
       </c>
       <c r="U206" s="3">
@@ -51181,6 +51190,196 @@
         <v>2043</v>
       </c>
       <c r="BI212" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <v>212</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F213" s="17">
+        <v>45539.694039351853</v>
+      </c>
+      <c r="G213" s="21">
+        <v>8</v>
+      </c>
+      <c r="H213" s="4">
+        <f t="shared" si="14"/>
+        <v>45540.027372685188</v>
+      </c>
+      <c r="I213" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J213" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K213" s="3">
+        <f t="shared" si="17"/>
+        <v>5.9227533460803054E-2</v>
+      </c>
+      <c r="L213" s="3">
+        <v>44.4375</v>
+      </c>
+      <c r="M213" s="3">
+        <v>39.955300000000001</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O213" s="3">
+        <v>17.968</v>
+      </c>
+      <c r="P213" s="3">
+        <v>122.92700000000001</v>
+      </c>
+      <c r="Q213" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R213" s="3">
+        <f>Q213</f>
+        <v>20000</v>
+      </c>
+      <c r="S213" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T213" s="3">
+        <f t="shared" si="18"/>
+        <v>39.955300000000001</v>
+      </c>
+      <c r="U213" s="3">
+        <f>Q213</f>
+        <v>20000</v>
+      </c>
+      <c r="V213" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W213" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X213" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z213" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA213" s="5">
+        <v>500</v>
+      </c>
+      <c r="AB213" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC213" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD213" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE213" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF213" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG213" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH213" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI213" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ213" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK213" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL213" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM213" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN213" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO213" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP213" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ213" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR213" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS213" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT213" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU213" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV213" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW213" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX213" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY213" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ213" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA213" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB213" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC213" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD213" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE213" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF213" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG213" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH213" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI213" s="40">
         <v>0</v>
       </c>
     </row>
@@ -51296,10 +51495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B95891-4447-49CE-A5F4-47242E2D1871}">
-  <dimension ref="D3:I127"/>
+  <dimension ref="B3:I127"/>
   <sheetViews>
     <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="P125" sqref="P125"/>
+      <selection activeCell="C110" sqref="C110:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52056,7 +52255,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>3179</v>
       </c>
@@ -52064,7 +52263,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>5930</v>
       </c>
@@ -52072,7 +52271,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>7660</v>
       </c>
@@ -52080,7 +52279,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>9790</v>
       </c>
@@ -52088,7 +52287,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>11060</v>
       </c>
@@ -52096,7 +52295,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>12550</v>
       </c>
@@ -52104,7 +52303,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>14370</v>
       </c>
@@ -52112,7 +52311,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>16740</v>
       </c>
@@ -52120,7 +52319,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>18760</v>
       </c>
@@ -52128,7 +52327,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>20760</v>
       </c>
@@ -52136,7 +52335,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>23880</v>
       </c>
@@ -52144,7 +52343,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>26510</v>
       </c>
@@ -52152,7 +52351,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>101</v>
       </c>
@@ -52160,7 +52359,14 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>1727875</v>
+      </c>
+      <c r="C110">
+        <f>B110/1000</f>
+        <v>1727.875</v>
+      </c>
       <c r="D110">
         <v>789</v>
       </c>
@@ -52168,7 +52374,14 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>1536762</v>
+      </c>
+      <c r="C111">
+        <f>B111/1000</f>
+        <v>1536.7619999999999</v>
+      </c>
       <c r="D111">
         <v>1522</v>
       </c>
@@ -52176,7 +52389,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>3174</v>
       </c>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B220A978-9DB4-49DE-9D3B-1E8637012299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE34220-AC34-418F-ABB6-BBA3F76FF8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="870" windowWidth="16200" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -16781,10 +16781,10 @@
   <dimension ref="A1:BI213"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AB207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD213" sqref="AD213"/>
+      <selection pane="bottomRight" activeCell="J214" sqref="J214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51220,14 +51220,14 @@
         <v>45540.027372685188</v>
       </c>
       <c r="I213" s="3">
-        <v>1600</v>
+        <v>4327</v>
       </c>
       <c r="J213" s="3">
-        <v>17600</v>
+        <v>19670</v>
       </c>
       <c r="K213" s="3">
         <f t="shared" si="17"/>
-        <v>5.9227533460803054E-2</v>
+        <v>0.20006630142208415</v>
       </c>
       <c r="L213" s="3">
         <v>44.4375</v>
@@ -51278,7 +51278,7 @@
         <v>60000</v>
       </c>
       <c r="AA213" s="5">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="AB213" s="5">
         <v>2</v>
@@ -52504,7 +52504,7 @@
   <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M10:M13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52574,7 +52574,7 @@
       </c>
       <c r="M8">
         <f>J13/M7</f>
-        <v>14.285591517329621</v>
+        <v>18.75</v>
       </c>
       <c r="N8" t="s">
         <v>2046</v>
@@ -52630,11 +52630,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>55.33655414649931</v>
+        <v>53.13010235415598</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>34.66344585350069</v>
+        <v>36.86989764584402</v>
       </c>
       <c r="N11">
         <v>18980</v>
@@ -52654,7 +52654,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>114.28473213863697</v>
+        <v>150</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -52684,13 +52684,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>34.66344585350069</v>
+        <v>36.86989764584402</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
@@ -52698,7 +52698,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>43</v>
@@ -52720,14 +52720,14 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>52</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>14.065813186293781</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="U20">
         <f>U18/U19</f>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE34220-AC34-418F-ABB6-BBA3F76FF8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0FC08-7D4A-457C-A6E9-A7904D0AC7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="11400" yWindow="195" windowWidth="16200" windowHeight="11385" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -114,21 +114,10 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -170,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="2072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="2073">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6387,6 +6376,9 @@
   </si>
   <si>
     <t>Cagayan</t>
+  </si>
+  <si>
+    <t>Coatesville</t>
   </si>
 </sst>
 </file>
@@ -16778,13 +16770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI213"/>
+  <dimension ref="A1:BI214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="S210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J214" sqref="J214"/>
+      <selection pane="bottomRight" activeCell="V215" sqref="V215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45920,7 +45912,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" ref="H185:H213" si="14">F185+G185/24</f>
+        <f t="shared" ref="H185:H214" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -46707,7 +46699,7 @@
         <v>22060.02</v>
       </c>
       <c r="R189" s="3">
-        <f t="shared" ref="R189:R213" si="15">Q189</f>
+        <f t="shared" ref="R189:R212" si="15">Q189</f>
         <v>22060.02</v>
       </c>
       <c r="S189" s="3">
@@ -47820,7 +47812,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K213" si="17">I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K214" si="17">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -51380,6 +51372,195 @@
         <v>2043</v>
       </c>
       <c r="BI213" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>213</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" s="17">
+        <v>45636.37777777778</v>
+      </c>
+      <c r="G214" s="21">
+        <v>-5</v>
+      </c>
+      <c r="H214" s="4">
+        <f t="shared" si="14"/>
+        <v>45636.169444444444</v>
+      </c>
+      <c r="I214" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J214" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K214" s="3">
+        <f t="shared" si="17"/>
+        <v>2.6888145315487572E-2</v>
+      </c>
+      <c r="L214" s="3">
+        <v>160</v>
+      </c>
+      <c r="M214" s="3">
+        <v>10</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="O214" s="3">
+        <v>39.648752999999999</v>
+      </c>
+      <c r="P214" s="3">
+        <v>-86.701441000000003</v>
+      </c>
+      <c r="Q214" s="3">
+        <v>30000</v>
+      </c>
+      <c r="R214" s="3">
+        <f>Q214</f>
+        <v>30000</v>
+      </c>
+      <c r="S214" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T214" s="3">
+        <f>M214</f>
+        <v>10</v>
+      </c>
+      <c r="U214" s="3">
+        <v>30000</v>
+      </c>
+      <c r="V214" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W214" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X214" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z214" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA214" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AB214" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC214" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD214" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE214" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF214" s="5">
+        <v>500</v>
+      </c>
+      <c r="AG214" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH214" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI214" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ214" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK214" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL214" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM214" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN214" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO214" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP214" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ214" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR214" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS214" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT214" s="51">
+        <v>0</v>
+      </c>
+      <c r="AU214" s="51">
+        <v>0</v>
+      </c>
+      <c r="AV214" s="51">
+        <v>0</v>
+      </c>
+      <c r="AW214" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX214" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY214" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ214" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA214" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB214" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC214" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD214" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE214" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF214" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG214" s="40">
+        <v>3</v>
+      </c>
+      <c r="BH214" s="40" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BI214" s="40">
         <v>0</v>
       </c>
     </row>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E49C884-C538-4DA1-A19B-AF6B0D51CEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEB63A1-0B24-46C1-A7DC-B42CF8A5DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="2074">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6390,6 +6390,9 @@
   </si>
   <si>
     <t>Pat Branch</t>
+  </si>
+  <si>
+    <t>Westfield Center</t>
   </si>
 </sst>
 </file>
@@ -16766,13 +16769,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI216"/>
+  <dimension ref="A1:BI217"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H196" sqref="H196"/>
+      <selection pane="bottomRight" activeCell="BG217" sqref="BG217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45908,7 +45911,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" ref="H185:H216" si="14">F185+G185/24</f>
+        <f t="shared" ref="H185:H217" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -47808,7 +47811,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K216" si="17">I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K217" si="17">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -51938,6 +51941,196 @@
         <v>2072</v>
       </c>
       <c r="BI216" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <v>216</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="17">
+        <v>45686.231319444443</v>
+      </c>
+      <c r="G217" s="21">
+        <v>-5</v>
+      </c>
+      <c r="H217" s="4">
+        <f t="shared" si="14"/>
+        <v>45686.022986111107</v>
+      </c>
+      <c r="I217" s="3">
+        <v>100</v>
+      </c>
+      <c r="J217" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K217" s="3">
+        <f t="shared" si="17"/>
+        <v>1.7208413001912044E-3</v>
+      </c>
+      <c r="L217" s="3">
+        <v>59.5</v>
+      </c>
+      <c r="M217" s="3">
+        <v>50</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O217" s="3">
+        <v>40.98</v>
+      </c>
+      <c r="P217" s="3">
+        <v>-82.02</v>
+      </c>
+      <c r="Q217" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R217" s="3">
+        <f>Q217</f>
+        <v>15000</v>
+      </c>
+      <c r="S217" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T217" s="3">
+        <f>M217</f>
+        <v>50</v>
+      </c>
+      <c r="U217" s="3">
+        <f>R217</f>
+        <v>15000</v>
+      </c>
+      <c r="V217" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W217" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X217" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y217" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z217" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB217" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC217" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD217" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE217" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AG217" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH217" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI217" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ217" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK217" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL217" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM217" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN217" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO217" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP217" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ217" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR217" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS217" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT217" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU217" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV217" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW217" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX217" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY217" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ217" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA217" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB217" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC217" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD217" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE217" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF217" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG217" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH217" s="40" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BI217" s="40">
         <v>0</v>
       </c>
     </row>
@@ -53062,7 +53255,7 @@
   <dimension ref="A2:V59"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53104,7 +53297,7 @@
         <v>408</v>
       </c>
       <c r="M7">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q7" t="s">
         <v>13</v>
@@ -53132,7 +53325,7 @@
       </c>
       <c r="M8">
         <f>J13/M7</f>
-        <v>15.176487908758869</v>
+        <v>11.624011659441138</v>
       </c>
       <c r="N8" t="s">
         <v>2041</v>
@@ -53188,11 +53381,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>15.917364699875016</v>
+        <v>52.60819167278752</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>74.082635300124991</v>
+        <v>37.39180832721248</v>
       </c>
       <c r="N11">
         <v>18980</v>
@@ -53203,7 +53396,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>15540</v>
@@ -53212,7 +53405,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>56.153005262407817</v>
+        <v>98.804099105249676</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -53242,13 +53435,13 @@
       </c>
       <c r="F15" s="16">
         <f>F12-F18</f>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>74.082635300124991</v>
+        <v>37.39180832721248</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -53256,7 +53449,7 @@
         <v>88</v>
       </c>
       <c r="F18" s="15">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
@@ -53264,11 +53457,11 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>15.4</v>
+        <v>78.5</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>8.3189637425789371</v>
+        <v>13.173879880699957</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEB63A1-0B24-46C1-A7DC-B42CF8A5DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEED379-D019-4E78-9D8F-1634618DA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
@@ -16,103 +16,105 @@
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
     <sheet name="Calculator" sheetId="2" r:id="rId3"/>
-    <sheet name="Time Zones" sheetId="12" r:id="rId4"/>
-    <sheet name="Countries" sheetId="5" r:id="rId5"/>
-    <sheet name="Cameras" sheetId="8" r:id="rId6"/>
-    <sheet name="DataQuality" sheetId="6" r:id="rId7"/>
-    <sheet name="Database" sheetId="7" r:id="rId8"/>
-    <sheet name="Sources" sheetId="4" r:id="rId9"/>
-    <sheet name="Log" sheetId="3" r:id="rId10"/>
+    <sheet name="Radar" sheetId="14" r:id="rId4"/>
+    <sheet name="Time Zones" sheetId="12" r:id="rId5"/>
+    <sheet name="Countries" sheetId="5" r:id="rId6"/>
+    <sheet name="Cameras" sheetId="8" r:id="rId7"/>
+    <sheet name="DataQuality" sheetId="6" r:id="rId8"/>
+    <sheet name="Database" sheetId="7" r:id="rId9"/>
+    <sheet name="Sources" sheetId="4" r:id="rId10"/>
+    <sheet name="Log" sheetId="3" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllEventData!$A$5:$BI$216</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Database!$A$1:$H$39</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sources!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Time Zones'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Database!$A$1:$H$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Radar!$D$6:$M$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sources!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Time Zones'!$A$1:$L$1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">AllEventData!$I$7</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Calculator!$F$18</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">Cameras!$P$72</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">Cameras!$P$72</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">AllEventData!$K$7</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Calculator!$H$11</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">Cameras!$O$77</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">Cameras!$O$77</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0.15001</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">43.8</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="2093">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6393,6 +6395,63 @@
   </si>
   <si>
     <t>Westfield Center</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>vcp</t>
+  </si>
+  <si>
+    <t>precip</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Precip</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>pulse</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>opmode</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>St. Croix</t>
+  </si>
+  <si>
+    <t>Weston</t>
   </si>
 </sst>
 </file>
@@ -6617,7 +6676,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6761,6 +6820,7 @@
     <xf numFmtId="169" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -16769,13 +16829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI217"/>
+  <dimension ref="A1:BI218"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BG217" sqref="BG217"/>
+      <selection pane="bottomRight" activeCell="AD219" sqref="AD219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45911,7 +45971,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" ref="H185:H217" si="14">F185+G185/24</f>
+        <f t="shared" ref="H185:H218" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -47811,7 +47871,7 @@
         <v>71000</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K217" si="17">I195*J195^2/2/4.184/10^12</f>
+        <f t="shared" ref="K195:K218" si="17">I195*J195^2/2/4.184/10^12</f>
         <v>1.2048279158699809E-3</v>
       </c>
       <c r="L195" s="3">
@@ -52131,6 +52191,196 @@
         <v>2072</v>
       </c>
       <c r="BI217" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>217</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="17">
+        <v>45709.045335648145</v>
+      </c>
+      <c r="G218" s="21">
+        <v>-5</v>
+      </c>
+      <c r="H218" s="4">
+        <f t="shared" si="14"/>
+        <v>45708.837002314809</v>
+      </c>
+      <c r="I218" s="3">
+        <v>100</v>
+      </c>
+      <c r="J218" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K218" s="3">
+        <f t="shared" si="17"/>
+        <v>4.7801147227533453E-3</v>
+      </c>
+      <c r="L218" s="3">
+        <v>289.2</v>
+      </c>
+      <c r="M218" s="3">
+        <v>43</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O218" s="3">
+        <v>45.768917000000002</v>
+      </c>
+      <c r="P218" s="3">
+        <v>-67.926389999999998</v>
+      </c>
+      <c r="Q218" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R218" s="3">
+        <f>Q218</f>
+        <v>20000</v>
+      </c>
+      <c r="S218" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T218" s="3">
+        <f>M218</f>
+        <v>43</v>
+      </c>
+      <c r="U218" s="3">
+        <f>R218</f>
+        <v>20000</v>
+      </c>
+      <c r="V218" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W218" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X218" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y218" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z218" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA218" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB218" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC218" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD218" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE218" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AG218" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH218" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI218" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ218" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK218" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL218" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM218" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN218" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO218" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP218" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ218" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR218" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS218" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT218" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU218" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV218" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW218" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX218" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY218" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ218" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA218" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB218" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC218" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD218" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE218" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF218" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG218" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH218" s="40" t="s">
+        <v>1411</v>
+      </c>
+      <c r="BI218" s="40">
         <v>0</v>
       </c>
     </row>
@@ -52143,6 +52393,1581 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
+  <dimension ref="A1:D143"/>
+  <sheetViews>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="191.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="31">
+        <v>43812</v>
+      </c>
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>32</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>34</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>35</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>36</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>37</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <v>39</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>40</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>41</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>42</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>43</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>44</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
+        <v>45</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>46</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
+        <v>47</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
+        <v>48</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
+        <v>51</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
+        <v>52</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="33">
+        <v>53</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
+        <v>54</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
+        <v>55</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="33">
+        <v>56</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="33">
+        <v>57</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <v>58</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C55" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
+        <v>59</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
+        <v>60</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="33">
+        <v>61</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
+        <v>62</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C59" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
+        <v>63</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="33">
+        <v>64</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C61" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
+        <v>65</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
+        <v>66</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="33">
+        <v>67</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <v>68</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="33">
+        <v>69</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="33">
+        <v>70</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="33">
+        <v>71</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
+        <v>72</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="33">
+        <v>73</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="33">
+        <v>74</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="33">
+        <v>75</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
+        <v>76</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="33">
+        <v>77</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="33">
+        <v>78</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="33">
+        <v>79</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C76" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
+        <v>80</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="33">
+        <v>81</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="33">
+        <v>82</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" s="33">
+        <v>83</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="33">
+        <v>84</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="33">
+        <v>85</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="33">
+        <v>86</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="33">
+        <v>87</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
+        <v>88</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="33">
+        <v>89</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="33">
+        <v>90</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="33">
+        <v>91</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="33">
+        <v>92</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="33">
+        <v>93</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="33">
+        <v>94</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="33">
+        <v>95</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C92" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="33">
+        <v>96</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="33">
+        <v>97</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="33">
+        <v>98</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="33">
+        <v>99</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="33">
+        <v>100</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="33">
+        <v>101</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="33">
+        <v>102</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="33">
+        <v>103</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="33">
+        <v>104</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="33">
+        <v>105</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="33">
+        <v>106</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="33">
+        <v>107</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="33">
+        <v>108</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="33">
+        <v>109</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="33">
+        <v>110</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="33">
+        <v>111</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="33">
+        <v>112</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="33">
+        <v>113</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="33">
+        <v>114</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="33">
+        <v>115</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C112" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="33">
+        <v>116</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C113" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="33">
+        <v>117</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="33">
+        <v>118</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="33">
+        <v>119</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="33">
+        <v>120</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="33">
+        <v>121</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="33">
+        <v>122</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="33">
+        <v>123</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="33">
+        <v>124</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="33">
+        <v>125</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C122" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="33">
+        <v>126</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="33">
+        <v>127</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C124" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="33">
+        <v>128</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" s="31">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="33">
+        <v>129</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C126" s="31">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="33">
+        <v>130</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C127" s="31">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="33">
+        <v>131</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C128" s="31">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="33">
+        <v>132</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C129" s="31">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="33">
+        <v>133</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C130" s="31">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="33">
+        <v>134</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="33">
+        <v>135</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="33">
+        <v>136</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="33">
+        <v>137</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="33">
+        <v>138</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="33">
+        <v>139</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="33">
+        <v>140</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C137" s="31">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="33">
+        <v>141</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C138" s="31">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="33">
+        <v>142</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="33">
+        <v>143</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C140" s="31">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="33">
+        <v>144</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="33">
+        <v>145</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="33">
+        <v>146</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{55C4805C-87A8-4D18-978D-FAFC0E5CA908}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A1EA5-6E5D-46A3-AAE6-F062C7845542}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -53254,8 +55079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF5B9B-0F72-45F1-9ED5-2AE8EF041BE8}">
   <dimension ref="A2:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53325,7 +55150,7 @@
       </c>
       <c r="M8">
         <f>J13/M7</f>
-        <v>11.624011659441138</v>
+        <v>9.736315922917921</v>
       </c>
       <c r="N8" t="s">
         <v>2041</v>
@@ -53381,11 +55206,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>52.60819167278752</v>
+        <v>43.531199285614179</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>37.39180832721248</v>
+        <v>46.468800714385821</v>
       </c>
       <c r="N11">
         <v>18980</v>
@@ -53405,7 +55230,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>98.804099105249676</v>
+        <v>82.758685344802331</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -53441,7 +55266,7 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>37.39180832721248</v>
+        <v>46.468800714385821</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -53457,11 +55282,11 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>78.5</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>13.173879880699957</v>
+        <v>11.034491379306978</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
@@ -53723,6 +55548,401 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BAD52C-2606-4AE3-8999-EF60C3E86497}">
+  <dimension ref="C2:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2082</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2084</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2090</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f>I8*60</f>
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>301</v>
+      </c>
+      <c r="L8">
+        <f>J8-K8</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I9">
+        <v>4.2</v>
+      </c>
+      <c r="J9">
+        <f>I9*60</f>
+        <v>252</v>
+      </c>
+      <c r="K9">
+        <v>249</v>
+      </c>
+      <c r="L9">
+        <f>J9-K9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f>I10*60</f>
+        <v>360</v>
+      </c>
+      <c r="K10">
+        <v>359</v>
+      </c>
+      <c r="L10">
+        <f>J10-K10</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2079</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f>I12*60</f>
+        <v>600</v>
+      </c>
+      <c r="K12">
+        <v>597</v>
+      </c>
+      <c r="L12">
+        <f>J12-K12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I15">
+        <v>5.6</v>
+      </c>
+      <c r="J15">
+        <f>I15*60</f>
+        <v>336</v>
+      </c>
+      <c r="K15">
+        <v>312</v>
+      </c>
+      <c r="L15">
+        <f>J15-K15</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D16">
+        <v>121</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I16">
+        <v>5.75</v>
+      </c>
+      <c r="J16">
+        <f>I16*60</f>
+        <v>345</v>
+      </c>
+      <c r="K16">
+        <v>352</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L20" si="0">J16-K16</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <f>I17*60</f>
+        <v>300</v>
+      </c>
+      <c r="K17">
+        <v>301</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>212</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I18">
+        <v>4.75</v>
+      </c>
+      <c r="J18">
+        <f>I18*60</f>
+        <v>285</v>
+      </c>
+      <c r="K18">
+        <v>295</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <f>I19*60</f>
+        <v>360</v>
+      </c>
+      <c r="K19">
+        <v>416</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D20" s="53">
+        <v>221</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <f>I20*60</f>
+        <v>360</v>
+      </c>
+      <c r="K20">
+        <v>358</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D6:M20" xr:uid="{65BAD52C-2606-4AE3-8999-EF60C3E86497}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:M20">
+      <sortCondition ref="D6:D20"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF4690B-ED60-431C-A6ED-A0B01298B5D9}">
   <dimension ref="A1:C207"/>
   <sheetViews>
@@ -56017,7 +58237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F006F-09CB-4518-A6A0-B4628B5EF033}">
   <dimension ref="A1:D250"/>
   <sheetViews>
@@ -59539,7 +61759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E00CB2-4C03-4E08-A2A2-C2F4859B5A17}">
   <dimension ref="F5:W525"/>
   <sheetViews>
@@ -64972,7 +67192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A5485-B526-4F4A-98E6-46596A9C7AC6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -65037,7 +67257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3642CC9A-E743-4191-A934-02A4E166F560}">
   <dimension ref="A1:I93"/>
   <sheetViews>
@@ -65956,1579 +68176,4 @@
   <autoFilter ref="A1:H39" xr:uid="{F141679E-852A-4834-84BB-BC1A666E0D12}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF0D29-302D-4894-9471-C390103E7AFC}">
-  <dimension ref="A1:D143"/>
-  <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="191.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="31">
-        <v>43812</v>
-      </c>
-      <c r="D6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="C9" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="C12" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <v>12</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>14</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
-        <v>15</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>16</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
-        <v>18</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C19" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
-        <v>19</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <v>21</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>22</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
-        <v>23</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="C24" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
-        <v>24</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <v>25</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
-        <v>26</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C27" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
-        <v>27</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
-        <v>28</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="C29" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
-        <v>29</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
-        <v>30</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="C31" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
-        <v>32</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C32" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>33</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="C33" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
-        <v>34</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="C34" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
-        <v>35</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C35" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
-        <v>36</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
-        <v>37</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C37" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
-        <v>39</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
-        <v>40</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
-        <v>41</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="C40" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
-        <v>42</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="C41" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
-        <v>43</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="C42" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
-        <v>44</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C43" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
-        <v>45</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="C44" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="33">
-        <v>46</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C45" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="33">
-        <v>47</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="C46" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
-        <v>48</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="C47" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
-        <v>51</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="33">
-        <v>52</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="C49" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="33">
-        <v>53</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="C50" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
-        <v>54</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="33">
-        <v>55</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="33">
-        <v>56</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
-        <v>57</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="C54" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="33">
-        <v>58</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C55" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
-        <v>59</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="C56" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
-        <v>60</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C57" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
-        <v>61</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
-        <v>62</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="C59" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
-        <v>63</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="33">
-        <v>64</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="C61" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="33">
-        <v>65</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C62" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
-        <v>66</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="C63" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="33">
-        <v>67</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="C64" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
-        <v>68</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
-        <v>69</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
-        <v>70</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="C67" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
-        <v>71</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C68" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="33">
-        <v>72</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C69" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="33">
-        <v>73</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C70" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
-        <v>74</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="C71" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="33">
-        <v>75</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C72" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="33">
-        <v>76</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C73" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
-        <v>77</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="33">
-        <v>78</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="C75" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="33">
-        <v>79</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="C76" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="33">
-        <v>80</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="33">
-        <v>81</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="C78" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="33">
-        <v>82</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C79" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="33">
-        <v>83</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C80" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="33">
-        <v>84</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="C81" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
-        <v>85</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="33">
-        <v>86</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="33">
-        <v>87</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C84" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="33">
-        <v>88</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C85" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="33">
-        <v>89</v>
-      </c>
-      <c r="B86" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C86" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="33">
-        <v>90</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="33">
-        <v>91</v>
-      </c>
-      <c r="B88" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="33">
-        <v>92</v>
-      </c>
-      <c r="B89" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="C89" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="33">
-        <v>93</v>
-      </c>
-      <c r="B90" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C90" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="33">
-        <v>94</v>
-      </c>
-      <c r="B91" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="C91" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="33">
-        <v>95</v>
-      </c>
-      <c r="B92" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="C92" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="33">
-        <v>96</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="33">
-        <v>97</v>
-      </c>
-      <c r="B94" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C94" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="33">
-        <v>98</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="C95" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="33">
-        <v>99</v>
-      </c>
-      <c r="B96" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C96" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="33">
-        <v>100</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="C97" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="33">
-        <v>101</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="C98" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="33">
-        <v>102</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="33">
-        <v>103</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="33">
-        <v>104</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="33">
-        <v>105</v>
-      </c>
-      <c r="B102" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C102" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="33">
-        <v>106</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="C103" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="33">
-        <v>107</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="C104" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="33">
-        <v>108</v>
-      </c>
-      <c r="B105" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C105" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="33">
-        <v>109</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="C106" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="33">
-        <v>110</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="33">
-        <v>111</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="C108" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="33">
-        <v>112</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="C109" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="33">
-        <v>113</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C110" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="33">
-        <v>114</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="C111" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="33">
-        <v>115</v>
-      </c>
-      <c r="B112" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C112" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="33">
-        <v>116</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="C113" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="33">
-        <v>117</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="C114" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="33">
-        <v>118</v>
-      </c>
-      <c r="B115" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="C115" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="33">
-        <v>119</v>
-      </c>
-      <c r="B116" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="33">
-        <v>120</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="C117" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="33">
-        <v>121</v>
-      </c>
-      <c r="B118" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="C118" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="33">
-        <v>122</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="C119" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="33">
-        <v>123</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="C120" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="33">
-        <v>124</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="C121" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="33">
-        <v>125</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="C122" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="33">
-        <v>126</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="C123" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="33">
-        <v>127</v>
-      </c>
-      <c r="B124" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="C124" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="33">
-        <v>128</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C125" s="31">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="33">
-        <v>129</v>
-      </c>
-      <c r="B126" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="C126" s="31">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="33">
-        <v>130</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C127" s="31">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="33">
-        <v>131</v>
-      </c>
-      <c r="B128" s="32" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C128" s="31">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="33">
-        <v>132</v>
-      </c>
-      <c r="B129" s="32" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C129" s="31">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="33">
-        <v>133</v>
-      </c>
-      <c r="B130" s="32" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C130" s="31">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="33">
-        <v>134</v>
-      </c>
-      <c r="B131" s="32" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="33">
-        <v>135</v>
-      </c>
-      <c r="B132" s="32" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="33">
-        <v>136</v>
-      </c>
-      <c r="B133" s="32" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="33">
-        <v>137</v>
-      </c>
-      <c r="B134" s="32" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="33">
-        <v>138</v>
-      </c>
-      <c r="B135" s="32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="33">
-        <v>139</v>
-      </c>
-      <c r="B136" s="32" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="33">
-        <v>140</v>
-      </c>
-      <c r="B137" s="32" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C137" s="31">
-        <v>45039</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="33">
-        <v>141</v>
-      </c>
-      <c r="B138" s="32" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C138" s="31">
-        <v>45126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="33">
-        <v>142</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="33">
-        <v>143</v>
-      </c>
-      <c r="B140" s="32" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C140" s="31">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="33">
-        <v>144</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="33">
-        <v>145</v>
-      </c>
-      <c r="B142" s="32" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="33">
-        <v>146</v>
-      </c>
-      <c r="B143" s="32" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{55C4805C-87A8-4D18-978D-FAFC0E5CA908}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FE33C4-FC5A-491C-A7B2-3458883CF2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA4AF57-F08D-4B4E-9C6D-DAC2FFECA278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -16668,11 +16668,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
   <dimension ref="A1:BI219"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AU211" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="L211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BB221" sqref="BB221"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55016,8 +55016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B95891-4447-49CE-A5F4-47242E2D1871}">
   <dimension ref="A1:BI18"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BH3" sqref="BH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55254,14 +55254,14 @@
         <v>4</v>
       </c>
       <c r="F2" s="17">
-        <v>45731.023611111108</v>
+        <v>45734.086180555554</v>
       </c>
       <c r="G2" s="21">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H2" s="54">
         <f t="shared" ref="H2" si="0">F2+G2/24</f>
-        <v>45730.856944444444</v>
+        <v>45733.877847222218</v>
       </c>
       <c r="I2" s="3">
         <v>100</v>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA4AF57-F08D-4B4E-9C6D-DAC2FFECA278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D11FD2E-D76F-41A6-87E1-D0046EAAEBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="2110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="2115">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6540,6 +6540,21 @@
   </si>
   <si>
     <t>Quick Entry</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Estimate End from Incidence</t>
+  </si>
+  <si>
+    <t>Estimated End Height</t>
+  </si>
+  <si>
+    <t>Optional Tools:</t>
   </si>
 </sst>
 </file>
@@ -6554,7 +6569,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6640,8 +6655,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6675,8 +6712,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -6755,16 +6797,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6932,20 +7057,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Heading 4" xfId="7" builtinId="19"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Title" xfId="6" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16666,13 +16805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI219"/>
+  <dimension ref="A1:BI220"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="L211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="M222" sqref="M222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52406,6 +52545,191 @@
         <v>0</v>
       </c>
     </row>
+    <row r="220" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>219</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" s="17">
+        <v>45734.086180555554</v>
+      </c>
+      <c r="G220" s="21">
+        <v>-5</v>
+      </c>
+      <c r="H220" s="4">
+        <v>45733.877847222218</v>
+      </c>
+      <c r="I220" s="3">
+        <v>100</v>
+      </c>
+      <c r="J220" s="3">
+        <v>13198.002849754146</v>
+      </c>
+      <c r="K220" s="3">
+        <v>2.0815879448149925E-3</v>
+      </c>
+      <c r="L220" s="3">
+        <v>7.3369126376107445</v>
+      </c>
+      <c r="M220" s="3">
+        <v>46.472077741720511</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O220" s="3">
+        <v>41.344289000000003</v>
+      </c>
+      <c r="P220" s="3">
+        <v>-95.067105999999995</v>
+      </c>
+      <c r="Q220" s="3">
+        <v>23585</v>
+      </c>
+      <c r="R220" s="3">
+        <v>23585</v>
+      </c>
+      <c r="S220" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T220" s="3">
+        <v>46.472077741720511</v>
+      </c>
+      <c r="U220" s="3">
+        <v>23585</v>
+      </c>
+      <c r="V220" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W220" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X220" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y220" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z220" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA220" s="5">
+        <v>1839.8445963028164</v>
+      </c>
+      <c r="AB220" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC220" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD220" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AE220" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF220" s="5">
+        <v>4600</v>
+      </c>
+      <c r="AG220" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH220" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI220" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ220" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK220" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL220" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM220" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN220" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO220" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP220" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ220" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR220" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS220" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW220" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX220" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY220" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ220" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA220" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB220" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC220" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD220" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE220" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF220" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG220" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH220" s="40" t="s">
+        <v>2109</v>
+      </c>
+      <c r="BI220" s="40">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A5:BI216" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55016,8 +55340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B95891-4447-49CE-A5F4-47242E2D1871}">
   <dimension ref="A1:BI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55238,17 +55562,17 @@
     <row r="2" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53">
         <f>MAX(AllEventData!A:A)+1</f>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="C2" s="53" t="str">
         <f>B2</f>
-        <v>College Hill</v>
+        <v>Atlantic</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
@@ -55268,30 +55592,30 @@
       </c>
       <c r="J2" s="55">
         <f>E18*1000</f>
-        <v>13357.343371912368</v>
+        <v>13198.002849754146</v>
       </c>
       <c r="K2" s="55">
         <f t="shared" ref="K2" si="1">I2*J2^2/2/4.184/10^12</f>
-        <v>2.1321537040531937E-3</v>
+        <v>2.0815879448149925E-3</v>
       </c>
       <c r="L2" s="58">
         <f>E15</f>
-        <v>332.15424537912793</v>
+        <v>7.3369126376107445</v>
       </c>
       <c r="M2" s="55">
         <f>E13</f>
-        <v>45</v>
+        <v>46.472077741720511</v>
       </c>
       <c r="N2" s="55" t="s">
         <v>1329</v>
       </c>
       <c r="O2" s="55">
         <f>F7</f>
-        <v>37.776657999999998</v>
+        <v>41.344289000000003</v>
       </c>
       <c r="P2" s="55">
         <f>F8</f>
-        <v>-84.097002000000003</v>
+        <v>-95.067105999999995</v>
       </c>
       <c r="Q2" s="55">
         <f>F9*1000</f>
@@ -55306,7 +55630,7 @@
       </c>
       <c r="T2" s="55">
         <f>M2</f>
-        <v>45</v>
+        <v>46.472077741720511</v>
       </c>
       <c r="U2" s="55">
         <f>R2</f>
@@ -55329,7 +55653,7 @@
       </c>
       <c r="AA2" s="55">
         <f>F18*1000</f>
-        <v>1668.5880916366725</v>
+        <v>1839.8445963028164</v>
       </c>
       <c r="AB2" s="55">
         <v>5</v>
@@ -55433,6 +55757,13 @@
       <c r="BI2" s="16">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" spans="1:61" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H5" s="62" t="s">
+        <v>2114</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E6" s="59" t="s">
@@ -55441,28 +55772,43 @@
       <c r="F6" s="59" t="s">
         <v>155</v>
       </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>2095</v>
       </c>
       <c r="E7" s="60">
-        <v>37.492558000000002</v>
+        <v>41.178705000000001</v>
       </c>
       <c r="F7" s="60">
-        <v>37.776657999999998</v>
-      </c>
+        <v>41.344289000000003</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>2096</v>
       </c>
       <c r="E8" s="60">
-        <v>-83.907025000000004</v>
+        <v>-95.095505000000003</v>
       </c>
       <c r="F8" s="60">
-        <v>-84.097002000000003</v>
-      </c>
+        <v>-95.067105999999995</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I8" s="71">
+        <v>45</v>
+      </c>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -55471,18 +55817,31 @@
       <c r="E9" s="60">
         <v>80</v>
       </c>
-      <c r="F9" s="61">
-        <f>0.094*E13 + 19.355</f>
+      <c r="F9" s="60">
         <v>23.585000000000001</v>
       </c>
+      <c r="H9" s="70" t="s">
+        <v>2113</v>
+      </c>
+      <c r="I9" s="72">
+        <f>0.094*I8 + 19.355</f>
+        <v>23.585000000000001</v>
+      </c>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E12" s="33" t="s">
@@ -55491,71 +55850,93 @@
       <c r="F12" s="33" t="s">
         <v>2104</v>
       </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>2100</v>
       </c>
-      <c r="E13" s="60">
-        <v>45</v>
+      <c r="E13" s="61">
+        <f>DEGREES(ATAN(E17/(E9-F9)))</f>
+        <v>46.472077741720511</v>
       </c>
       <c r="F13" s="33"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>2093</v>
       </c>
       <c r="E14" s="60">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F14" s="3">
         <v>0.5</v>
       </c>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>2101</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="61">
         <f>MOD(DEGREES(ATAN2(COS(RADIANS(E7))*SIN(RADIANS(F7))-SIN(RADIANS(E7))*COS(RADIANS(F7))*COS(RADIANS(F8-E8)),SIN(RADIANS(F8-E8))*COS(RADIANS(F7)))),360)</f>
-        <v>332.15424537912793</v>
+        <v>7.3369126376107445</v>
       </c>
       <c r="F15" s="59"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>2097</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="61">
         <f>ACOS(COS(RADIANS(90-E7)) * COS(RADIANS(90-F7)) + SIN(RADIANS(90-E7)) * SIN(RADIANS(90-F7)) * COS(RADIANS(E8-F8))) * 6371</f>
-        <v>35.746514849412677</v>
+        <v>18.56448704510581</v>
       </c>
       <c r="F16" s="59"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>2099</v>
       </c>
       <c r="E17" s="58">
         <f>SQRT((E9-F9)^2+E16^2)</f>
-        <v>66.786716859561835</v>
+        <v>59.391012823893661</v>
       </c>
       <c r="F17" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>2105</v>
       </c>
       <c r="E18" s="58">
         <f>E17/E14</f>
-        <v>13.357343371912368</v>
+        <v>13.198002849754147</v>
       </c>
       <c r="F18" s="55">
         <f>SQRT(F17^2 + (E17*F14/E14)^2)/E14</f>
-        <v>1.6685880916366724</v>
-      </c>
+        <v>1.8398445963028165</v>
+      </c>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55619,51 +56000,51 @@
         <v>2102</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B6:B71)</f>
+        <f t="shared" ref="B2:M2" si="0">AVERAGE(B6:B71)</f>
         <v>134.68181818181819</v>
       </c>
       <c r="C2" s="12">
-        <f>AVERAGE(C6:C71)</f>
+        <f t="shared" si="0"/>
         <v>16860.871363636365</v>
       </c>
       <c r="D2" s="12">
-        <f>AVERAGE(D6:D71)</f>
+        <f t="shared" si="0"/>
         <v>5.802043358067153E-3</v>
       </c>
       <c r="E2" s="12">
-        <f>AVERAGE(E6:E71)</f>
+        <f t="shared" si="0"/>
         <v>171.52052575757577</v>
       </c>
       <c r="F2" s="12">
-        <f>AVERAGE(F6:F71)</f>
+        <f t="shared" si="0"/>
         <v>44.527920834353687</v>
       </c>
       <c r="G2" s="12">
-        <f>AVERAGE(G6:G71)</f>
+        <f t="shared" si="0"/>
         <v>37.646327893939386</v>
       </c>
       <c r="H2" s="12">
-        <f>AVERAGE(H6:H71)</f>
+        <f t="shared" si="0"/>
         <v>-54.155052378787857</v>
       </c>
       <c r="I2" s="12">
-        <f>AVERAGE(I6:I71)</f>
+        <f t="shared" si="0"/>
         <v>23628.104336247296</v>
       </c>
       <c r="J2" s="12">
-        <f>AVERAGE(J6:J71)</f>
+        <f t="shared" si="0"/>
         <v>23732.178333333333</v>
       </c>
       <c r="K2" s="12">
-        <f>AVERAGE(K6:K71)</f>
+        <f t="shared" si="0"/>
         <v>10644.388787878786</v>
       </c>
       <c r="L2" s="12">
-        <f>AVERAGE(L6:L71)</f>
+        <f t="shared" si="0"/>
         <v>45.5072117434446</v>
       </c>
       <c r="M2" s="12">
-        <f>AVERAGE(M6:M71)</f>
+        <f t="shared" si="0"/>
         <v>22298.041969696969</v>
       </c>
     </row>
@@ -55672,51 +56053,51 @@
         <v>2103</v>
       </c>
       <c r="B3" s="12">
-        <f>STDEV(B6:B71)</f>
+        <f t="shared" ref="B3:M3" si="1">STDEV(B6:B71)</f>
         <v>179.69839339129493</v>
       </c>
       <c r="C3" s="12">
-        <f>STDEV(C6:C71)</f>
+        <f t="shared" si="1"/>
         <v>4640.7808465783974</v>
       </c>
       <c r="D3" s="12">
-        <f>STDEV(D6:D71)</f>
+        <f t="shared" si="1"/>
         <v>1.2482181817863064E-2</v>
       </c>
       <c r="E3" s="12">
-        <f>STDEV(E6:E71)</f>
+        <f t="shared" si="1"/>
         <v>107.24144112185417</v>
       </c>
       <c r="F3" s="12">
-        <f>STDEV(F6:F71)</f>
+        <f t="shared" si="1"/>
         <v>19.125792244189856</v>
       </c>
       <c r="G3" s="12">
-        <f>STDEV(G6:G71)</f>
+        <f t="shared" si="1"/>
         <v>16.886990695735136</v>
       </c>
       <c r="H3" s="12">
-        <f>STDEV(H6:H71)</f>
+        <f t="shared" si="1"/>
         <v>47.991434994368703</v>
       </c>
       <c r="I3" s="12">
-        <f>STDEV(I6:I71)</f>
+        <f t="shared" si="1"/>
         <v>4672.3557261265687</v>
       </c>
       <c r="J3" s="12">
-        <f>STDEV(J6:J71)</f>
+        <f t="shared" si="1"/>
         <v>4703.0748434439693</v>
       </c>
       <c r="K3" s="12">
-        <f>STDEV(K6:K71)</f>
+        <f t="shared" si="1"/>
         <v>7228.4854543240199</v>
       </c>
       <c r="L3" s="12">
-        <f>STDEV(L6:L71)</f>
+        <f t="shared" si="1"/>
         <v>19.679134493408139</v>
       </c>
       <c r="M3" s="12">
-        <f>STDEV(M6:M71)</f>
+        <f t="shared" si="1"/>
         <v>4870.6014116723991</v>
       </c>
     </row>
@@ -55852,7 +56233,7 @@
         <v>28000</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N51" si="0">I7/1000</f>
+        <f t="shared" ref="N7:N51" si="2">I7/1000</f>
         <v>28.58</v>
       </c>
     </row>
@@ -55894,7 +56275,7 @@
         <v>20000</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.091116192321383</v>
       </c>
     </row>
@@ -55936,7 +56317,7 @@
         <v>25000</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.9</v>
       </c>
     </row>
@@ -55978,7 +56359,7 @@
         <v>26300</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.37</v>
       </c>
     </row>
@@ -56020,7 +56401,7 @@
         <v>20000</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.08</v>
       </c>
     </row>
@@ -56062,7 +56443,7 @@
         <v>16400</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -56104,7 +56485,7 @@
         <v>16400</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.695</v>
       </c>
     </row>
@@ -56146,7 +56527,7 @@
         <v>18000</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -56188,7 +56569,7 @@
         <v>24600</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.71</v>
       </c>
     </row>
@@ -56230,7 +56611,7 @@
         <v>15000</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -56272,7 +56653,7 @@
         <v>22000</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.434999999999999</v>
       </c>
     </row>
@@ -56314,7 +56695,7 @@
         <v>22000</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.434999999999999</v>
       </c>
     </row>
@@ -56356,7 +56737,7 @@
         <v>18000</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -56398,7 +56779,7 @@
         <v>19000</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.9</v>
       </c>
     </row>
@@ -56440,7 +56821,7 @@
         <v>15000</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
     </row>
@@ -56482,7 +56863,7 @@
         <v>25000</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -56524,7 +56905,7 @@
         <v>17000</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.260000000000002</v>
       </c>
     </row>
@@ -56566,7 +56947,7 @@
         <v>18000</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -56608,7 +56989,7 @@
         <v>29000</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
     </row>
@@ -56650,7 +57031,7 @@
         <v>29000</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29.9</v>
       </c>
     </row>
@@ -56692,7 +57073,7 @@
         <v>19500</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
     </row>
@@ -56734,7 +57115,7 @@
         <v>25000</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -56776,7 +57157,7 @@
         <v>23500</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
     </row>
@@ -56818,7 +57199,7 @@
         <v>25000</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
     </row>
@@ -56860,7 +57241,7 @@
         <v>26200</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.2</v>
       </c>
     </row>
@@ -56902,7 +57283,7 @@
         <v>23600</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.6</v>
       </c>
     </row>
@@ -56944,7 +57325,7 @@
         <v>18300</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18.3</v>
       </c>
     </row>
@@ -56986,7 +57367,7 @@
         <v>23000</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -57028,7 +57409,7 @@
         <v>30000</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -57070,7 +57451,7 @@
         <v>16401</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.401</v>
       </c>
     </row>
@@ -57112,7 +57493,7 @@
         <v>28642</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.641999999999999</v>
       </c>
     </row>
@@ -57154,7 +57535,7 @@
         <v>23256.99</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.256990000000002</v>
       </c>
     </row>
@@ -57196,7 +57577,7 @@
         <v>27000</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28.1</v>
       </c>
     </row>
@@ -57238,7 +57619,7 @@
         <v>25000</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -57280,7 +57661,7 @@
         <v>14200</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.97</v>
       </c>
     </row>
@@ -57322,7 +57703,7 @@
         <v>26917</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.917000000000002</v>
       </c>
     </row>
@@ -57364,7 +57745,7 @@
         <v>26750</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.75</v>
       </c>
     </row>
@@ -57406,7 +57787,7 @@
         <v>20000</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24.73</v>
       </c>
     </row>
@@ -57448,7 +57829,7 @@
         <v>17789.5</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.7895</v>
       </c>
     </row>
@@ -57490,7 +57871,7 @@
         <v>25700</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.7</v>
       </c>
     </row>
@@ -57532,7 +57913,7 @@
         <v>25000</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -57574,7 +57955,7 @@
         <v>26000</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
@@ -57616,7 +57997,7 @@
         <v>24000</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -57658,7 +58039,7 @@
         <v>12000</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -57700,7 +58081,7 @@
         <v>12000</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -57742,7 +58123,7 @@
         <v>28151</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:N71" si="1">I52/1000</f>
+        <f t="shared" ref="N52:N71" si="3">I52/1000</f>
         <v>28.151</v>
       </c>
     </row>
@@ -57784,7 +58165,7 @@
         <v>25000</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -57826,7 +58207,7 @@
         <v>27292.799999999999</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.2928</v>
       </c>
     </row>
@@ -57868,7 +58249,7 @@
         <v>26975</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.975000000000001</v>
       </c>
     </row>
@@ -57910,7 +58291,7 @@
         <v>22060.02</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.060020000000002</v>
       </c>
     </row>
@@ -57952,7 +58333,7 @@
         <v>28118.03</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28.118029999999997</v>
       </c>
     </row>
@@ -57994,7 +58375,7 @@
         <v>27500</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
     </row>
@@ -58036,7 +58417,7 @@
         <v>28000</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -58078,7 +58459,7 @@
         <v>26206</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.206</v>
       </c>
     </row>
@@ -58120,7 +58501,7 @@
         <v>26200</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26.2</v>
       </c>
     </row>
@@ -58162,7 +58543,7 @@
         <v>24000</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.323</v>
       </c>
     </row>
@@ -58204,7 +58585,7 @@
         <v>22181.43</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.181429999999999</v>
       </c>
     </row>
@@ -58246,7 +58627,7 @@
         <v>18000</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
@@ -58288,7 +58669,7 @@
         <v>28000</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
     </row>
@@ -58330,7 +58711,7 @@
         <v>25000</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -58372,7 +58753,7 @@
         <v>12800</v>
       </c>
       <c r="N67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.305</v>
       </c>
     </row>
@@ -58414,7 +58795,7 @@
         <v>15000</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -58456,7 +58837,7 @@
         <v>18000</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -58498,7 +58879,7 @@
         <v>15000</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -58540,7 +58921,7 @@
         <v>20000</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>

--- a/AllEventData.xlsx
+++ b/AllEventData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\strewnlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D11FD2E-D76F-41A6-87E1-D0046EAAEBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F060F69-143D-4DF2-A78E-99C29F0B4C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
+    <workbookView xWindow="645" yWindow="1800" windowWidth="23070" windowHeight="12825" xr2:uid="{C46C341C-A654-450D-9491-A8F495B2F4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="AllEventData" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="2115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="2121">
   <si>
     <t>UTC Date and Time</t>
   </si>
@@ -6555,6 +6555,24 @@
   </si>
   <si>
     <t>Optional Tools:</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Atwood</t>
+  </si>
+  <si>
+    <t>Douar El Ma</t>
+  </si>
+  <si>
+    <t>El Oued</t>
+  </si>
+  <si>
+    <t>Choaib Bdirina</t>
+  </si>
+  <si>
+    <t>Rede</t>
   </si>
 </sst>
 </file>
@@ -6889,7 +6907,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7064,13 +7082,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -16805,13 +16820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332638A7-5364-4539-88F3-B010BD503402}">
-  <dimension ref="A1:BI220"/>
+  <dimension ref="A1:BI224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="L211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AW220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M222" sqref="M222"/>
+      <selection pane="bottomRight" activeCell="BG225" sqref="BG225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45947,7 +45962,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="4">
-        <f t="shared" ref="H185:H218" si="14">F185+G185/24</f>
+        <f t="shared" ref="H185:H220" si="14">F185+G185/24</f>
         <v>45103.948043981487</v>
       </c>
       <c r="I185" s="3">
@@ -52383,6 +52398,7 @@
         <v>-4</v>
       </c>
       <c r="H219" s="4">
+        <f t="shared" si="14"/>
         <v>45730.856944444444</v>
       </c>
       <c r="I219" s="3">
@@ -52568,6 +52584,7 @@
         <v>-5</v>
       </c>
       <c r="H220" s="4">
+        <f t="shared" si="14"/>
         <v>45733.877847222218</v>
       </c>
       <c r="I220" s="3">
@@ -52727,6 +52744,760 @@
         <v>2109</v>
       </c>
       <c r="BI220" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>220</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" s="17">
+        <v>45798.365381944444</v>
+      </c>
+      <c r="G221" s="21">
+        <v>-6</v>
+      </c>
+      <c r="H221" s="4">
+        <f t="shared" ref="H221:H224" si="20">F221+G221/24</f>
+        <v>45798.115381944444</v>
+      </c>
+      <c r="I221" s="3">
+        <v>100</v>
+      </c>
+      <c r="J221" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K221" s="3">
+        <v>2.0815879448149925E-3</v>
+      </c>
+      <c r="L221" s="3">
+        <v>235.12</v>
+      </c>
+      <c r="M221" s="3">
+        <v>69.236000000000004</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O221" s="3">
+        <v>36.542999999999999</v>
+      </c>
+      <c r="P221" s="3">
+        <v>-100.197</v>
+      </c>
+      <c r="Q221" s="3">
+        <v>25000</v>
+      </c>
+      <c r="R221" s="3">
+        <f>Q221</f>
+        <v>25000</v>
+      </c>
+      <c r="S221" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T221" s="3">
+        <f>M221</f>
+        <v>69.236000000000004</v>
+      </c>
+      <c r="U221" s="3">
+        <f>R221</f>
+        <v>25000</v>
+      </c>
+      <c r="V221" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W221" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X221" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z221" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA221" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AB221" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC221" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD221" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AE221" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF221" s="5">
+        <v>4600</v>
+      </c>
+      <c r="AG221" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH221" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI221" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ221" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK221" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL221" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM221" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN221" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO221" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP221" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ221" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR221" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS221" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW221" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX221" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY221" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ221" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA221" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB221" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC221" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD221" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE221" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF221" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG221" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH221" s="40" t="s">
+        <v>2109</v>
+      </c>
+      <c r="BI221" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>221</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" s="17">
+        <v>45800.267361111109</v>
+      </c>
+      <c r="G222" s="21">
+        <v>-6</v>
+      </c>
+      <c r="H222" s="4">
+        <f t="shared" si="20"/>
+        <v>45800.017361111109</v>
+      </c>
+      <c r="I222" s="3">
+        <v>50</v>
+      </c>
+      <c r="J222" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K222" s="3">
+        <v>2.0815879448149925E-3</v>
+      </c>
+      <c r="L222" s="3">
+        <v>21.524999999999999</v>
+      </c>
+      <c r="M222" s="3">
+        <v>62.933999999999997</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O222" s="3">
+        <v>44.9</v>
+      </c>
+      <c r="P222" s="3">
+        <v>-90.5</v>
+      </c>
+      <c r="Q222" s="3">
+        <v>25000</v>
+      </c>
+      <c r="R222" s="3">
+        <f>Q222</f>
+        <v>25000</v>
+      </c>
+      <c r="S222" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T222" s="3">
+        <f>M222</f>
+        <v>62.933999999999997</v>
+      </c>
+      <c r="U222" s="3">
+        <f>R222</f>
+        <v>25000</v>
+      </c>
+      <c r="V222" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W222" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X222" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z222" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA222" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AB222" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC222" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD222" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AE222" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF222" s="5">
+        <v>4600</v>
+      </c>
+      <c r="AG222" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH222" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI222" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ222" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK222" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL222" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM222" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN222" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO222" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP222" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ222" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR222" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS222" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT222" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU222" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV222" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW222" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX222" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY222" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ222" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA222" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB222" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC222" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD222" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE222" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF222" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG222" s="40">
+        <v>1</v>
+      </c>
+      <c r="BH222" s="40" t="s">
+        <v>2109</v>
+      </c>
+      <c r="BI222" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>222</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F223" s="17">
+        <v>45797.791666666664</v>
+      </c>
+      <c r="G223" s="21">
+        <v>1</v>
+      </c>
+      <c r="H223" s="4">
+        <f t="shared" si="20"/>
+        <v>45797.833333333328</v>
+      </c>
+      <c r="I223" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J223" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K223" s="3">
+        <v>2.0815879448149925E-3</v>
+      </c>
+      <c r="L223" s="3">
+        <v>355</v>
+      </c>
+      <c r="M223" s="3">
+        <v>55</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O223" s="3">
+        <v>32.302559000000002</v>
+      </c>
+      <c r="P223" s="3">
+        <v>8.4259310000000003</v>
+      </c>
+      <c r="Q223" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R223" s="3">
+        <v>20000</v>
+      </c>
+      <c r="S223" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T223" s="3">
+        <f>M223</f>
+        <v>55</v>
+      </c>
+      <c r="U223" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V223" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W223" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X223" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y223" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z223" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA223" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AB223" s="5">
+        <v>15</v>
+      </c>
+      <c r="AC223" s="5">
+        <v>15</v>
+      </c>
+      <c r="AD223" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AE223" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AF223" s="5">
+        <v>4600</v>
+      </c>
+      <c r="AG223" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH223" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI223" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ223" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK223" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL223" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM223" s="23">
+        <v>4</v>
+      </c>
+      <c r="AN223" s="23">
+        <v>800</v>
+      </c>
+      <c r="AO223" s="23">
+        <v>700</v>
+      </c>
+      <c r="AP223" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ223" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR223" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS223" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT223" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU223" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV223" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW223" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX223" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY223" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ223" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA223" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB223" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC223" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD223" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE223" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF223" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG223" s="40">
+        <v>2</v>
+      </c>
+      <c r="BH223" s="40" t="s">
+        <v>2119</v>
+      </c>
+      <c r="BI223" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>223</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F224" s="17">
+        <v>45770.068368055552</v>
+      </c>
+      <c r="G224" s="21">
+        <v>0</v>
+      </c>
+      <c r="H224" s="4">
+        <f t="shared" si="20"/>
+        <v>45770.068368055552</v>
+      </c>
+      <c r="I224" s="3">
+        <v>1</v>
+      </c>
+      <c r="J224" s="3">
+        <v>11719</v>
+      </c>
+      <c r="K224" s="3">
+        <v>2.0815879448149925E-3</v>
+      </c>
+      <c r="L224" s="3">
+        <v>322.75729999999999</v>
+      </c>
+      <c r="M224" s="3">
+        <v>67.229100000000003</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O224" s="3">
+        <v>52.165709999999997</v>
+      </c>
+      <c r="P224" s="3">
+        <v>0.63426800000000005</v>
+      </c>
+      <c r="Q224" s="3">
+        <v>27410.59</v>
+      </c>
+      <c r="R224" s="3">
+        <f>Q224</f>
+        <v>27410.59</v>
+      </c>
+      <c r="S224" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T224" s="3">
+        <f>M224</f>
+        <v>67.229100000000003</v>
+      </c>
+      <c r="U224" s="3">
+        <f>Q224</f>
+        <v>27410.59</v>
+      </c>
+      <c r="V224" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W224" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X224" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Z224" s="3">
+        <v>60000</v>
+      </c>
+      <c r="AA224" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="AB224" s="5">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="AC224" s="5">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="AD224" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AE224" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AF224" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG224" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AH224" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI224" s="45">
+        <v>0</v>
+      </c>
+      <c r="AJ224" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK224" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL224" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM224" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN224" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO224" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP224" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ224" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR224" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS224" s="52">
+        <v>0</v>
+      </c>
+      <c r="AT224" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU224" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV224" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW224" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX224" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY224" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ224" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA224" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB224" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC224" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD224" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE224" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF224" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG224" s="40">
+        <v>4</v>
+      </c>
+      <c r="BH224" s="40" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BI224" s="40">
         <v>0</v>
       </c>
     </row>
@@ -55562,7 +56333,7 @@
     <row r="2" spans="1:61" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53">
         <f>MAX(AllEventData!A:A)+1</f>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2110</v>
@@ -55773,8 +56544,7 @@
         <v>155</v>
       </c>
       <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -55786,11 +56556,11 @@
       <c r="F7" s="60">
         <v>41.344289000000003</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="67" t="s">
         <v>2112</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -55802,13 +56572,13 @@
       <c r="F8" s="60">
         <v>-95.067105999999995</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="69" t="s">
         <v>2100</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="15">
         <v>45</v>
       </c>
-      <c r="J8" s="67"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -55820,28 +56590,26 @@
       <c r="F9" s="60">
         <v>23.585000000000001</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="69" t="s">
         <v>2113</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="16">
         <f>0.094*I8 + 19.355</f>
         <v>23.585000000000001</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E12" s="33" t="s">
@@ -55851,8 +56619,7 @@
         <v>2104</v>
       </c>
       <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -55864,8 +56631,7 @@
       </c>
       <c r="F13" s="33"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -55878,8 +56644,7 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -55891,8 +56656,7 @@
       </c>
       <c r="F15" s="59"/>
       <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -55904,8 +56668,7 @@
       </c>
       <c r="F16" s="59"/>
       <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
@@ -55919,8 +56682,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
@@ -55934,9 +56696,9 @@
         <f>SQRT(F17^2 + (E17*F14/E14)^2)/E14</f>
         <v>1.8398445963028165</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58936,8 +59698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF5B9B-0F72-45F1-9ED5-2AE8EF041BE8}">
   <dimension ref="A2:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59007,7 +59769,7 @@
       </c>
       <c r="M8">
         <f>J13/M7</f>
-        <v>9.736315922917921</v>
+        <v>9.9826839696924363</v>
       </c>
       <c r="N8" t="s">
         <v>2041</v>
@@ -59063,11 +59825,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H11" s="16">
         <f>DEGREES(ATAN(J20/F15))</f>
-        <v>43.531199285614179</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <f>90-H11</f>
-        <v>46.468800714385821</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>18980</v>
@@ -59087,7 +59849,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="16">
         <f>SQRT(F15^2+J20^2)</f>
-        <v>82.758685344802331</v>
+        <v>84.852813742385706</v>
       </c>
       <c r="L13" t="e">
         <f>J13/L12</f>
@@ -59123,7 +59885,7 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M16">
         <f>90-H11</f>
-        <v>46.468800714385821</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -59139,11 +59901,11 @@
         <v>85</v>
       </c>
       <c r="J20" s="15">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <f>8/COS(RADIANS(H11))</f>
-        <v>11.034491379306978</v>
+        <v>11.313708498984759</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
